--- a/songs.xlsx
+++ b/songs.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="169">
   <si>
     <t>Title</t>
   </si>
@@ -38,16 +38,226 @@
     <t/>
   </si>
   <si>
+    <t>Bad Liar (cover)</t>
+  </si>
+  <si>
+    <t>https://youtu.be/5jfz3q9Z0RY?si=OHvyb7AMtM_wtAXc</t>
+  </si>
+  <si>
+    <t>Shawn Mendes - It'll Be Okay</t>
+  </si>
+  <si>
+    <t>https://youtu.be/KrgJp7Z1Hv8?si=MOyY5rZzP-7kcfhM</t>
+  </si>
+  <si>
+    <t>Today is a Good Day</t>
+  </si>
+  <si>
+    <t>https://youtu.be/9L4EjJqrz0c?si=x97RAvAA9IELRZPW</t>
+  </si>
+  <si>
     <t>Heroes Tonight</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=074rfF4RJZc</t>
   </si>
   <si>
-    <t>Today is a Good Day</t>
-  </si>
-  <si>
-    <t>https://youtu.be/9L4EjJqrz0c?si=x97RAvAA9IELRZPW</t>
+    <t>Shakira - Hips Dont Lie</t>
+  </si>
+  <si>
+    <t>https://youtu.be/p3pEe6aAJ4k?si=bzrAEs7c-zSwqBUo</t>
+  </si>
+  <si>
+    <t>Shakira - La La La World Cup 2014</t>
+  </si>
+  <si>
+    <t>https://youtu.be/2igups6VdcA?si=N5uu5genirJuWXWC</t>
+  </si>
+  <si>
+    <t>Shakira - Chantaje (letra)</t>
+  </si>
+  <si>
+    <t>https://youtu.be/J76eQJP3UIQ?si=juYKqG_UCEta8y19</t>
+  </si>
+  <si>
+    <t>Zara Larsson – Dont Worry Bout Me</t>
+  </si>
+  <si>
+    <t>https://youtu.be/u_tzZd9kIWg?si=y-s2yCVh4U2JLsJJ</t>
+  </si>
+  <si>
+    <t>Selena Gomez - Buscando Amor</t>
+  </si>
+  <si>
+    <t>https://youtu.be/2P6EExu3H5s?si=f2hv9y52VqxnVOmL</t>
+  </si>
+  <si>
+    <t>Shawn Mendes - In My Blood</t>
+  </si>
+  <si>
+    <t>https://youtu.be/36tggrpRoTI?si=CiCfVdO8Oepjt4Rs</t>
+  </si>
+  <si>
+    <t>Charlie Puth - We Dont Talk Anymore</t>
+  </si>
+  <si>
+    <t>https://youtu.be/bpFVJJBgtXY?si=L2NuwOWGhmdKacwg</t>
+  </si>
+  <si>
+    <t>Selena Gomez - Adiós</t>
+  </si>
+  <si>
+    <t>https://youtu.be/9H_368c2Hzw?si=UOBGyTGbUe_fISFW</t>
+  </si>
+  <si>
+    <t>Charlie Puth - Attention</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Oz5JDtkf1as</t>
+  </si>
+  <si>
+    <t>Something Just Like This</t>
+  </si>
+  <si>
+    <t>https://youtu.be/FM7MFYoylVs?si=TrbAGj-JAUeEJ4bd</t>
+  </si>
+  <si>
+    <t>Bruno Mars - Grenade</t>
+  </si>
+  <si>
+    <t>https://youtu.be/4YrzJ9RZ9qY</t>
+  </si>
+  <si>
+    <t>Let Me Love You</t>
+  </si>
+  <si>
+    <t>https://youtu.be/SMs0GnYze34?si=T-UORWGqJCoitcOM</t>
+  </si>
+  <si>
+    <t>Sweet But Psycho</t>
+  </si>
+  <si>
+    <t>https://youtu.be/2KBFD0aoZy8</t>
+  </si>
+  <si>
+    <t>Whos laughing now</t>
+  </si>
+  <si>
+    <t>https://youtu.be/4JYSgIiSZSA?si=3v9kDuzvYJvWaOsO</t>
+  </si>
+  <si>
+    <t>Girls Like You</t>
+  </si>
+  <si>
+    <t>https://youtu.be/aJOTlE1K90k</t>
+  </si>
+  <si>
+    <t>Camila Cabello - Havana</t>
+  </si>
+  <si>
+    <t>https://youtu.be/HCjNJDNzw8Y?si=QjZAi7GPIc4ParOQ</t>
+  </si>
+  <si>
+    <t>Maroon 5 - Memories</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=SlPhMPnQ58k&amp;pp=ygUPbWFyb29uIG1lbW9yaWVz</t>
+  </si>
+  <si>
+    <t>post malone - rockstar (feat. 21 savage)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9lQP9-F8kIQ</t>
+  </si>
+  <si>
+    <t>Drake - Gods plan</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ScfgOVJiu_I</t>
+  </si>
+  <si>
+    <t>Dua Lipa - Levitating</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=j2c3tR_qfiQ</t>
+  </si>
+  <si>
+    <t>Justin Bieber - Baby</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=khOFw2f4bQY</t>
+  </si>
+  <si>
+    <t>State of Grace</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gr4cqcqnAN0</t>
+  </si>
+  <si>
+    <t>Taylor Swift - Back To December</t>
+  </si>
+  <si>
+    <t>https://youtu.be/QUwxKWT6m7U?si=LNPBWKl0DqXIfOP2</t>
+  </si>
+  <si>
+    <t>As it was</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Qfm6nfz1QNQ?si=3mMjYFpALij7GELl</t>
+  </si>
+  <si>
+    <t>Taylor Swift - Begin Again</t>
+  </si>
+  <si>
+    <t>https://youtu.be/cMPEd8m79Hw?si=9zE5-51p0xGyEgSO</t>
+  </si>
+  <si>
+    <t>Sofia</t>
+  </si>
+  <si>
+    <t>https://youtu.be/ftI_Lp7LAuU?si=aOFT5Ral2-A_2PxG</t>
+  </si>
+  <si>
+    <t>Numb (lyrics|rock)</t>
+  </si>
+  <si>
+    <t>https://youtu.be/8P0vKLHbtMg?si=HhXMHjE8vD2yeC_B</t>
+  </si>
+  <si>
+    <t>For The Rest Of My Life</t>
+  </si>
+  <si>
+    <t>https://youtu.be/PHbZ9SXHJwA?si=_7a2Gaka2oPEWrCQ</t>
+  </si>
+  <si>
+    <t>Insha Allah</t>
+  </si>
+  <si>
+    <t>https://youtu.be/8xXJyFNfiy8?si=XkqgGm4hEyZoqJe1</t>
+  </si>
+  <si>
+    <t>Hunger Games | Atlas</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Lh3TokLzzmw?si=I5CcdBNIEuwDZvVT</t>
+  </si>
+  <si>
+    <t>Hard To Say Im Sorry</t>
+  </si>
+  <si>
+    <t>https://youtu.be/XCmOdVia9DE?si=60M6i15UUakuL7DH</t>
+  </si>
+  <si>
+    <t>Sasha Sloan - Lie</t>
+  </si>
+  <si>
+    <t>https://youtu.be/AzjTJpzfB8U?si=PHYxAGETm1P1opd0</t>
+  </si>
+  <si>
+    <t>Solo Para Ti</t>
+  </si>
+  <si>
+    <t>https://youtu.be/5D_A4IBWSv4?si=pgNinSqUyLBks6po</t>
   </si>
   <si>
     <t>Zara Larsson - This Ones For You</t>
@@ -56,460 +266,262 @@
     <t>https://youtu.be/MoHnffhBwqs?si=_FGX4ucMtOTcD2to</t>
   </si>
   <si>
+    <t>La Cintura</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Eg4LUvUjUWI?si=YqeuNfTh_iTuj-dP</t>
+  </si>
+  <si>
+    <t>Diamond Heart</t>
+  </si>
+  <si>
+    <t>https://youtu.be/bcHoBDw4G10?si=auASu-G_c9NkS48Z</t>
+  </si>
+  <si>
+    <t>Halsey - Sorry</t>
+  </si>
+  <si>
+    <t>https://youtu.be/CPAoMCo7tNw?si=2rEiXXCn6UcySUVZ</t>
+  </si>
+  <si>
+    <t>Relax, Take it Easy</t>
+  </si>
+  <si>
+    <t>https://youtu.be/EVDYmBrl02Q?si=ODB07HFZCtTtg4F4</t>
+  </si>
+  <si>
+    <t>Thank you Allah</t>
+  </si>
+  <si>
+    <t>https://youtu.be/RBrdl0v_anc?si=cu3qNsVyUIIzZGvv</t>
+  </si>
+  <si>
+    <t>Let me down slowly</t>
+  </si>
+  <si>
+    <t>https://youtu.be/50VNCymT-Cs?si=sEwBTlJCeuqL9LTD</t>
+  </si>
+  <si>
+    <t>Lonely (acoustic)</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Cu5hhxP_prE?si=VRZVlVcLWqk8Dasg</t>
+  </si>
+  <si>
+    <t>Selfish love</t>
+  </si>
+  <si>
+    <t>https://youtu.be/9gqAq6kq5Ek?si=Gro32XWDuPLWzyIv</t>
+  </si>
+  <si>
+    <t>twenty one pilots: Heathens</t>
+  </si>
+  <si>
+    <t>https://youtu.be/UprcpdwuwCg?si=O6_fwxx8TOkfjIXi</t>
+  </si>
+  <si>
+    <t>Dont Let Me Down</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Io0fBr1XBUA?si=SUp9MdCXlOU_Vf5s</t>
+  </si>
+  <si>
+    <t>Someone you loved</t>
+  </si>
+  <si>
+    <t>https://youtu.be/zABLecsR5UE?si=k3rryaA0P3O8JBhY</t>
+  </si>
+  <si>
+    <t>Lucid Dreams</t>
+  </si>
+  <si>
+    <t>https://youtu.be/IfBLD0ATrQA?si=YS-eU-zZX-5dbISw</t>
+  </si>
+  <si>
+    <t>Fed up with us</t>
+  </si>
+  <si>
+    <t>https://youtu.be/n1NTv6Y4pxs?si=76WA3JI0TGILBHm7</t>
+  </si>
+  <si>
+    <t>Skyfall</t>
+  </si>
+  <si>
+    <t>https://youtu.be/DeumyOzKqgI?si=Cok0dR7byK6pN682</t>
+  </si>
+  <si>
+    <t>Story of my life</t>
+  </si>
+  <si>
+    <t>https://youtu.be/W-TE_Ys4iwM?si=RViOxRuaXxdz3pmm</t>
+  </si>
+  <si>
+    <t>Reamonn - Tonight</t>
+  </si>
+  <si>
+    <t>https://youtu.be/jtoncUzV6nA?si=yULSO1-MxnAVV13i</t>
+  </si>
+  <si>
+    <t>Hymn For The Weekend</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YykjpeuMNEk</t>
+  </si>
+  <si>
+    <t>Hell Or High Water</t>
+  </si>
+  <si>
+    <t>https://youtu.be/zgDbp5C74sU?si=R8Q5HZq2vzhGL57g</t>
+  </si>
+  <si>
+    <t>Lonely</t>
+  </si>
+  <si>
+    <t>https://youtu.be/M4hvSgnsnog?si=TtDhe_NUHM1NZaY9</t>
+  </si>
+  <si>
+    <t>Everything I Need</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9bCp7j3nC30</t>
+  </si>
+  <si>
+    <t>Love the way you lie</t>
+  </si>
+  <si>
+    <t>https://youtu.be/h_-JFUci0BM?si=SHiuHs1NdIjpN0WP</t>
+  </si>
+  <si>
+    <t>Moving Mountains</t>
+  </si>
+  <si>
+    <t>https://youtu.be/S_0r3hYg78o?si=Be6GShy7mgRcl9Ha</t>
+  </si>
+  <si>
+    <t>Numb (cover)</t>
+  </si>
+  <si>
+    <t>https://youtu.be/gHp-OjLOG5A?si=0abUDswbKz6rhQeX</t>
+  </si>
+  <si>
+    <t>Until I found you</t>
+  </si>
+  <si>
+    <t>https://youtu.be/oIKuyj2GQtY</t>
+  </si>
+  <si>
+    <t>Heart is on fire</t>
+  </si>
+  <si>
+    <t>https://youtu.be/kBqqlW6-99M?si=kXaaJTqhA4PaY6Gd</t>
+  </si>
+  <si>
+    <t>Holes</t>
+  </si>
+  <si>
+    <t>https://youtu.be/DeFWClW7skQ?si=hkIGl-CTTw-FbnLz</t>
+  </si>
+  <si>
+    <t>Survivors</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vN0gaXS8dQE</t>
+  </si>
+  <si>
+    <t>Irakliy - Ya s toboy(cover)</t>
+  </si>
+  <si>
+    <t>https://youtu.be/3WmdZOF5bKk?si=LcXY8Gohxxx4cZSA</t>
+  </si>
+  <si>
+    <t>Vetrom stat (cover)</t>
+  </si>
+  <si>
+    <t>https://youtu.be/kkzEs0gdvZI?si=Z456wgKuJd0aE_PA</t>
+  </si>
+  <si>
+    <t>Reamonn - Supergirl</t>
+  </si>
+  <si>
+    <t>https://youtu.be/ctmS5XX67Ek?si=NGZGPw0bcpfZciyi</t>
+  </si>
+  <si>
+    <t>Another Love</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Jkj36B1YuDU?si=Yku5tRPe7avRNr2R</t>
+  </si>
+  <si>
+    <t>All the little lights</t>
+  </si>
+  <si>
+    <t>https://youtu.be/OkxVxox--Io?si=AE4wj_c_uqTWGrbB</t>
+  </si>
+  <si>
+    <t>Arcade</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Qau6mObfSGM?si=RsrcZ0VUCOHaEwE4</t>
+  </si>
+  <si>
+    <t>Burito - Po volnam</t>
+  </si>
+  <si>
+    <t>https://youtu.be/jqyJ4xW2gb0?si=VgrA4JKMWkeWDIA5</t>
+  </si>
+  <si>
+    <t>To Be Free</t>
+  </si>
+  <si>
+    <t>https://youtu.be/hNd5pILkpSw?si=qiwZxiuS0yeiuOPs</t>
+  </si>
+  <si>
+    <t>Castle of Glass</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PPkJeWPP2nM</t>
+  </si>
+  <si>
+    <t>Ava Max - Alone</t>
+  </si>
+  <si>
+    <t>https://youtu.be/omvW1cI-3xg?si=zHiFadZaUUpddcgu</t>
+  </si>
+  <si>
+    <t>Let Her Go (ft Ed Sheeran)</t>
+  </si>
+  <si>
+    <t>https://youtu.be/HTcL9WkB_wg?si=ILXw9EaPM4GJyx29</t>
+  </si>
+  <si>
+    <t>In the end (rmx)</t>
+  </si>
+  <si>
+    <t>https://youtu.be/WNeLUngb-Xg?si=V95nGOt0sMvhQG7c</t>
+  </si>
+  <si>
+    <t>No Time To Die</t>
+  </si>
+  <si>
+    <t>https://youtu.be/GB_S2qFh5lU?si=XDH6CdXhqJq-g321</t>
+  </si>
+  <si>
+    <t>Tired Of Being Sorry</t>
+  </si>
+  <si>
+    <t>https://youtu.be/gzFmctgW0s8?si=JfvG_0Sj-IdPWoBY</t>
+  </si>
+  <si>
     <t>The Cup Of Life - Ricky Martin</t>
   </si>
   <si>
     <t>https://youtu.be/CBfSeqfeggI?si=A2RRcM0PSvAsvpHF</t>
   </si>
   <si>
-    <t>Shakira - Hips Dont Lie</t>
-  </si>
-  <si>
-    <t>https://youtu.be/p3pEe6aAJ4k?si=bzrAEs7c-zSwqBUo</t>
-  </si>
-  <si>
-    <t>Shakira - La La La World Cup 2014</t>
-  </si>
-  <si>
-    <t>https://youtu.be/2igups6VdcA?si=N5uu5genirJuWXWC</t>
-  </si>
-  <si>
-    <t>Shakira - Chantaje (letra)</t>
-  </si>
-  <si>
-    <t>https://youtu.be/J76eQJP3UIQ?si=juYKqG_UCEta8y19</t>
-  </si>
-  <si>
-    <t>Zara Larsson – Dont Worry Bout Me</t>
-  </si>
-  <si>
-    <t>https://youtu.be/u_tzZd9kIWg?si=y-s2yCVh4U2JLsJJ</t>
-  </si>
-  <si>
-    <t>Selena Gomez - Buscando Amor</t>
-  </si>
-  <si>
-    <t>https://youtu.be/2P6EExu3H5s?si=f2hv9y52VqxnVOmL</t>
-  </si>
-  <si>
-    <t>Shawn Mendes - In My Blood</t>
-  </si>
-  <si>
-    <t>https://youtu.be/36tggrpRoTI?si=CiCfVdO8Oepjt4Rs</t>
-  </si>
-  <si>
-    <t>Charlie Puth - We Dont Talk Anymore</t>
-  </si>
-  <si>
-    <t>https://youtu.be/bpFVJJBgtXY?si=L2NuwOWGhmdKacwg</t>
-  </si>
-  <si>
-    <t>Selena Gomez - Adiós</t>
-  </si>
-  <si>
-    <t>https://youtu.be/9H_368c2Hzw?si=UOBGyTGbUe_fISFW</t>
-  </si>
-  <si>
-    <t>Charlie Puth - Attention</t>
-  </si>
-  <si>
-    <t>https://youtu.be/Oz5JDtkf1as</t>
-  </si>
-  <si>
-    <t>Something Just Like This</t>
-  </si>
-  <si>
-    <t>https://youtu.be/FM7MFYoylVs?si=TrbAGj-JAUeEJ4bd</t>
-  </si>
-  <si>
-    <t>Bruno Mars - Grenade</t>
-  </si>
-  <si>
-    <t>https://youtu.be/4YrzJ9RZ9qY</t>
-  </si>
-  <si>
-    <t>Let Me Love You</t>
-  </si>
-  <si>
-    <t>https://youtu.be/SMs0GnYze34?si=T-UORWGqJCoitcOM</t>
-  </si>
-  <si>
-    <t>Sweet But Psycho</t>
-  </si>
-  <si>
-    <t>https://youtu.be/2KBFD0aoZy8</t>
-  </si>
-  <si>
-    <t>Whos laughing now</t>
-  </si>
-  <si>
-    <t>https://youtu.be/4JYSgIiSZSA?si=3v9kDuzvYJvWaOsO</t>
-  </si>
-  <si>
-    <t>Girls Like You</t>
-  </si>
-  <si>
-    <t>https://youtu.be/aJOTlE1K90k</t>
-  </si>
-  <si>
-    <t>Camila Cabello - Havana</t>
-  </si>
-  <si>
-    <t>https://youtu.be/HCjNJDNzw8Y?si=QjZAi7GPIc4ParOQ</t>
-  </si>
-  <si>
-    <t>Maroon 5 - Memories</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=SlPhMPnQ58k&amp;pp=ygUPbWFyb29uIG1lbW9yaWVz</t>
-  </si>
-  <si>
-    <t>post malone - rockstar (feat. 21 savage)</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9lQP9-F8kIQ</t>
-  </si>
-  <si>
-    <t>Drake - Gods plan</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ScfgOVJiu_I</t>
-  </si>
-  <si>
-    <t>Dua Lipa - Levitating</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=j2c3tR_qfiQ</t>
-  </si>
-  <si>
-    <t>Justin Bieber - Baby</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=khOFw2f4bQY</t>
-  </si>
-  <si>
-    <t>State of Grace</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=gr4cqcqnAN0</t>
-  </si>
-  <si>
-    <t>Taylor Swift - Back To December</t>
-  </si>
-  <si>
-    <t>https://youtu.be/QUwxKWT6m7U?si=LNPBWKl0DqXIfOP2</t>
-  </si>
-  <si>
-    <t>As it was</t>
-  </si>
-  <si>
-    <t>https://youtu.be/Qfm6nfz1QNQ?si=3mMjYFpALij7GELl</t>
-  </si>
-  <si>
-    <t>Taylor Swift - Begin Again</t>
-  </si>
-  <si>
-    <t>https://youtu.be/cMPEd8m79Hw?si=9zE5-51p0xGyEgSO</t>
-  </si>
-  <si>
-    <t>Sofia</t>
-  </si>
-  <si>
-    <t>https://youtu.be/ftI_Lp7LAuU?si=aOFT5Ral2-A_2PxG</t>
-  </si>
-  <si>
-    <t>Numb (lyrics|rock)</t>
-  </si>
-  <si>
-    <t>https://youtu.be/8P0vKLHbtMg?si=HhXMHjE8vD2yeC_B</t>
-  </si>
-  <si>
-    <t>For The Rest Of My Life</t>
-  </si>
-  <si>
-    <t>https://youtu.be/PHbZ9SXHJwA?si=_7a2Gaka2oPEWrCQ</t>
-  </si>
-  <si>
-    <t>Insha Allah</t>
-  </si>
-  <si>
-    <t>https://youtu.be/8xXJyFNfiy8?si=XkqgGm4hEyZoqJe1</t>
-  </si>
-  <si>
-    <t>Hunger Games | Atlas</t>
-  </si>
-  <si>
-    <t>https://youtu.be/Lh3TokLzzmw?si=I5CcdBNIEuwDZvVT</t>
-  </si>
-  <si>
-    <t>Hard To Say Im Sorry</t>
-  </si>
-  <si>
-    <t>https://youtu.be/XCmOdVia9DE?si=60M6i15UUakuL7DH</t>
-  </si>
-  <si>
-    <t>Sasha Sloan - Lie</t>
-  </si>
-  <si>
-    <t>https://youtu.be/AzjTJpzfB8U?si=PHYxAGETm1P1opd0</t>
-  </si>
-  <si>
-    <t>Solo Para Ti</t>
-  </si>
-  <si>
-    <t>https://youtu.be/5D_A4IBWSv4?si=pgNinSqUyLBks6po</t>
-  </si>
-  <si>
     <t>Баста - Выпускной</t>
   </si>
   <si>
     <t>https://youtu.be/t1-yL-xvklc?si=YZ1rS5hZtleOFOy1</t>
-  </si>
-  <si>
-    <t>La Cintura</t>
-  </si>
-  <si>
-    <t>https://youtu.be/Eg4LUvUjUWI?si=YqeuNfTh_iTuj-dP</t>
-  </si>
-  <si>
-    <t>Diamond Heart</t>
-  </si>
-  <si>
-    <t>https://youtu.be/bcHoBDw4G10?si=auASu-G_c9NkS48Z</t>
-  </si>
-  <si>
-    <t>Halsey - Sorry</t>
-  </si>
-  <si>
-    <t>https://youtu.be/CPAoMCo7tNw?si=2rEiXXCn6UcySUVZ</t>
-  </si>
-  <si>
-    <t>Relax, Take it Easy</t>
-  </si>
-  <si>
-    <t>https://youtu.be/EVDYmBrl02Q?si=ODB07HFZCtTtg4F4</t>
-  </si>
-  <si>
-    <t>Thank you Allah</t>
-  </si>
-  <si>
-    <t>https://youtu.be/RBrdl0v_anc?si=cu3qNsVyUIIzZGvv</t>
-  </si>
-  <si>
-    <t>Let me down slowly</t>
-  </si>
-  <si>
-    <t>https://youtu.be/50VNCymT-Cs?si=sEwBTlJCeuqL9LTD</t>
-  </si>
-  <si>
-    <t>Lonely (acoustic)</t>
-  </si>
-  <si>
-    <t>https://youtu.be/Cu5hhxP_prE?si=VRZVlVcLWqk8Dasg</t>
-  </si>
-  <si>
-    <t>Selfish love</t>
-  </si>
-  <si>
-    <t>https://youtu.be/9gqAq6kq5Ek?si=Gro32XWDuPLWzyIv</t>
-  </si>
-  <si>
-    <t>twenty one pilots: Heathens</t>
-  </si>
-  <si>
-    <t>https://youtu.be/UprcpdwuwCg?si=O6_fwxx8TOkfjIXi</t>
-  </si>
-  <si>
-    <t>Dont Let Me Down</t>
-  </si>
-  <si>
-    <t>https://youtu.be/Io0fBr1XBUA?si=SUp9MdCXlOU_Vf5s</t>
-  </si>
-  <si>
-    <t>Someone you loved</t>
-  </si>
-  <si>
-    <t>https://youtu.be/zABLecsR5UE?si=k3rryaA0P3O8JBhY</t>
-  </si>
-  <si>
-    <t>Lucid Dreams</t>
-  </si>
-  <si>
-    <t>https://youtu.be/IfBLD0ATrQA?si=YS-eU-zZX-5dbISw</t>
-  </si>
-  <si>
-    <t>Fed up with us</t>
-  </si>
-  <si>
-    <t>https://youtu.be/n1NTv6Y4pxs?si=76WA3JI0TGILBHm7</t>
-  </si>
-  <si>
-    <t>Skyfall</t>
-  </si>
-  <si>
-    <t>https://youtu.be/DeumyOzKqgI?si=Cok0dR7byK6pN682</t>
-  </si>
-  <si>
-    <t>Story of my life</t>
-  </si>
-  <si>
-    <t>https://youtu.be/W-TE_Ys4iwM?si=RViOxRuaXxdz3pmm</t>
-  </si>
-  <si>
-    <t>Reamonn - Tonight</t>
-  </si>
-  <si>
-    <t>https://youtu.be/jtoncUzV6nA?si=yULSO1-MxnAVV13i</t>
-  </si>
-  <si>
-    <t>Hymn For The Weekend</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=YykjpeuMNEk</t>
-  </si>
-  <si>
-    <t>Hell Or High Water</t>
-  </si>
-  <si>
-    <t>https://youtu.be/zgDbp5C74sU?si=R8Q5HZq2vzhGL57g</t>
-  </si>
-  <si>
-    <t>Lonely</t>
-  </si>
-  <si>
-    <t>https://youtu.be/M4hvSgnsnog?si=TtDhe_NUHM1NZaY9</t>
-  </si>
-  <si>
-    <t>Everything I Need</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9bCp7j3nC30</t>
-  </si>
-  <si>
-    <t>Love the way you lie</t>
-  </si>
-  <si>
-    <t>https://youtu.be/h_-JFUci0BM?si=SHiuHs1NdIjpN0WP</t>
-  </si>
-  <si>
-    <t>Moving Mountains</t>
-  </si>
-  <si>
-    <t>https://youtu.be/S_0r3hYg78o?si=Be6GShy7mgRcl9Ha</t>
-  </si>
-  <si>
-    <t>Numb (cover)</t>
-  </si>
-  <si>
-    <t>https://youtu.be/gHp-OjLOG5A?si=0abUDswbKz6rhQeX</t>
-  </si>
-  <si>
-    <t>Until I found you</t>
-  </si>
-  <si>
-    <t>https://youtu.be/oIKuyj2GQtY</t>
-  </si>
-  <si>
-    <t>Heart is on fire</t>
-  </si>
-  <si>
-    <t>https://youtu.be/kBqqlW6-99M?si=kXaaJTqhA4PaY6Gd</t>
-  </si>
-  <si>
-    <t>Holes</t>
-  </si>
-  <si>
-    <t>https://youtu.be/DeFWClW7skQ?si=hkIGl-CTTw-FbnLz</t>
-  </si>
-  <si>
-    <t>Survivors</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vN0gaXS8dQE</t>
-  </si>
-  <si>
-    <t>Irakliy - Ya s toboy(cover)</t>
-  </si>
-  <si>
-    <t>https://youtu.be/3WmdZOF5bKk?si=LcXY8Gohxxx4cZSA</t>
-  </si>
-  <si>
-    <t>Vetrom stat (cover)</t>
-  </si>
-  <si>
-    <t>https://youtu.be/kkzEs0gdvZI?si=Z456wgKuJd0aE_PA</t>
-  </si>
-  <si>
-    <t>Reamonn - Supergirl</t>
-  </si>
-  <si>
-    <t>https://youtu.be/ctmS5XX67Ek?si=NGZGPw0bcpfZciyi</t>
-  </si>
-  <si>
-    <t>Another Love</t>
-  </si>
-  <si>
-    <t>https://youtu.be/Jkj36B1YuDU?si=Yku5tRPe7avRNr2R</t>
-  </si>
-  <si>
-    <t>All the little lights</t>
-  </si>
-  <si>
-    <t>https://youtu.be/OkxVxox--Io?si=AE4wj_c_uqTWGrbB</t>
-  </si>
-  <si>
-    <t>Arcade</t>
-  </si>
-  <si>
-    <t>https://youtu.be/Qau6mObfSGM?si=RsrcZ0VUCOHaEwE4</t>
-  </si>
-  <si>
-    <t>Burito - Po volnam</t>
-  </si>
-  <si>
-    <t>https://youtu.be/jqyJ4xW2gb0?si=VgrA4JKMWkeWDIA5</t>
-  </si>
-  <si>
-    <t>To Be Free</t>
-  </si>
-  <si>
-    <t>https://youtu.be/hNd5pILkpSw?si=qiwZxiuS0yeiuOPs</t>
-  </si>
-  <si>
-    <t>Castle of Glass</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=PPkJeWPP2nM</t>
-  </si>
-  <si>
-    <t>Ava Max - Alone</t>
-  </si>
-  <si>
-    <t>https://youtu.be/omvW1cI-3xg?si=zHiFadZaUUpddcgu</t>
-  </si>
-  <si>
-    <t>Let Her Go (ft Ed Sheeran)</t>
-  </si>
-  <si>
-    <t>https://youtu.be/HTcL9WkB_wg?si=ILXw9EaPM4GJyx29</t>
-  </si>
-  <si>
-    <t>In the end (rmx)</t>
-  </si>
-  <si>
-    <t>https://youtu.be/WNeLUngb-Xg?si=V95nGOt0sMvhQG7c</t>
-  </si>
-  <si>
-    <t>No Time To Die</t>
-  </si>
-  <si>
-    <t>https://youtu.be/GB_S2qFh5lU?si=XDH6CdXhqJq-g321</t>
-  </si>
-  <si>
-    <t>Tired Of Being Sorry</t>
-  </si>
-  <si>
-    <t>https://youtu.be/gzFmctgW0s8?si=JfvG_0Sj-IdPWoBY</t>
   </si>
   <si>
     <t>Wonderful Life</t>
@@ -1514,7 +1526,7 @@
   <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83:C83"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1566,12 +1578,6 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
       <c r="F3" t="s">
         <v>2</v>
       </c>
@@ -3156,14 +3162,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="84" spans="1:1">
+      <c r="B83" t="s">
+        <v>165</v>
+      </c>
+      <c r="C83" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>2</v>
+      </c>
+      <c r="B84" t="s">
+        <v>167</v>
+      </c>
+      <c r="C84" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/songs.xlsx
+++ b/songs.xlsx
@@ -27,21 +27,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
   <si>
     <t>Title</t>
   </si>
   <si>
-    <t>Youtube Link</t>
-  </si>
-  <si>
-    <t/>
+    <t>YouTube Link</t>
+  </si>
+  <si>
+    <t>Duncan Laurence feat. FLETCHER – Arcade</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=308v08mFWWc</t>
   </si>
   <si>
     <t>Bad Liar (cover)</t>
   </si>
   <si>
     <t>https://youtu.be/5jfz3q9Z0RY?si=OHvyb7AMtM_wtAXc</t>
+  </si>
+  <si>
+    <t>Linkin Park - In The End (Remix)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WNeLUngb-Xg</t>
   </si>
   <si>
     <t>Shawn Mendes - It'll Be Okay</t>
@@ -1171,7 +1180,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1523,17 +1532,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="34.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="46.7777777777778" customWidth="1"/>
-    <col min="4" max="4" width="30.4444444444444" customWidth="1"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="44.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="78.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="9.66666666666667" customWidth="1"/>
+    <col min="5" max="16384" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1548,1640 +1559,684 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+    <row r="2" spans="2:3">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="D7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="D8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="D9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="D10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>21</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" t="s">
         <v>22</v>
       </c>
-      <c r="D11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="D13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>27</v>
       </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" t="s">
         <v>28</v>
       </c>
-      <c r="D14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>29</v>
       </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" t="s">
         <v>30</v>
       </c>
-      <c r="D15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>31</v>
       </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" t="s">
         <v>32</v>
       </c>
-      <c r="D16" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>33</v>
       </c>
-      <c r="C17" t="s">
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" t="s">
         <v>34</v>
       </c>
-      <c r="D17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>35</v>
       </c>
-      <c r="C18" t="s">
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" t="s">
         <v>36</v>
       </c>
-      <c r="D18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>37</v>
       </c>
-      <c r="C19" t="s">
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" t="s">
         <v>38</v>
       </c>
-      <c r="D19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" t="s">
-        <v>2</v>
-      </c>
-      <c r="F19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>39</v>
       </c>
-      <c r="C20" t="s">
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" t="s">
         <v>40</v>
       </c>
-      <c r="D20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>41</v>
       </c>
-      <c r="C21" t="s">
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" t="s">
         <v>42</v>
       </c>
-      <c r="D21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>43</v>
       </c>
-      <c r="C22" t="s">
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" t="s">
         <v>44</v>
       </c>
-      <c r="D22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" t="s">
-        <v>2</v>
-      </c>
-      <c r="F22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>45</v>
       </c>
-      <c r="C23" t="s">
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" t="s">
         <v>46</v>
       </c>
-      <c r="D23" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>47</v>
       </c>
-      <c r="C24" t="s">
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" t="s">
         <v>48</v>
       </c>
-      <c r="D24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" t="s">
-        <v>2</v>
-      </c>
-      <c r="F24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>49</v>
       </c>
-      <c r="C25" t="s">
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" t="s">
         <v>50</v>
       </c>
-      <c r="D25" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" t="s">
-        <v>2</v>
-      </c>
-      <c r="F25" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>51</v>
       </c>
-      <c r="C26" t="s">
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" t="s">
         <v>52</v>
       </c>
-      <c r="D26" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" t="s">
-        <v>2</v>
-      </c>
-      <c r="F26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>53</v>
       </c>
-      <c r="C27" t="s">
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" t="s">
         <v>54</v>
       </c>
-      <c r="D27" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" t="s">
-        <v>2</v>
-      </c>
-      <c r="F27" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>55</v>
       </c>
-      <c r="C28" t="s">
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" t="s">
         <v>56</v>
       </c>
-      <c r="D28" t="s">
-        <v>2</v>
-      </c>
-      <c r="E28" t="s">
-        <v>2</v>
-      </c>
-      <c r="F28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>57</v>
       </c>
-      <c r="C29" t="s">
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" t="s">
         <v>58</v>
       </c>
-      <c r="D29" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29" t="s">
-        <v>2</v>
-      </c>
-      <c r="F29" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>59</v>
       </c>
-      <c r="C30" t="s">
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" t="s">
         <v>60</v>
       </c>
-      <c r="D30" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" t="s">
-        <v>2</v>
-      </c>
-      <c r="F30" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>61</v>
       </c>
-      <c r="C31" t="s">
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" t="s">
         <v>62</v>
       </c>
-      <c r="D31" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" t="s">
-        <v>2</v>
-      </c>
-      <c r="F31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
-        <v>2</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>63</v>
       </c>
-      <c r="C32" t="s">
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" t="s">
         <v>64</v>
       </c>
-      <c r="D32" t="s">
-        <v>2</v>
-      </c>
-      <c r="E32" t="s">
-        <v>2</v>
-      </c>
-      <c r="F32" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>65</v>
       </c>
-      <c r="C33" t="s">
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" t="s">
         <v>66</v>
       </c>
-      <c r="D33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E33" t="s">
-        <v>2</v>
-      </c>
-      <c r="F33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" t="s">
-        <v>2</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>67</v>
       </c>
-      <c r="C34" t="s">
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" t="s">
         <v>68</v>
       </c>
-      <c r="D34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E34" t="s">
-        <v>2</v>
-      </c>
-      <c r="F34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>69</v>
       </c>
-      <c r="C35" t="s">
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" t="s">
         <v>70</v>
       </c>
-      <c r="D35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E35" t="s">
-        <v>2</v>
-      </c>
-      <c r="F35" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>71</v>
       </c>
-      <c r="C36" t="s">
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" t="s">
         <v>72</v>
       </c>
-      <c r="D36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E36" t="s">
-        <v>2</v>
-      </c>
-      <c r="F36" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
-        <v>2</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>73</v>
       </c>
-      <c r="C37" t="s">
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" t="s">
         <v>74</v>
       </c>
-      <c r="D37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E37" t="s">
-        <v>2</v>
-      </c>
-      <c r="F37" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>75</v>
       </c>
-      <c r="C38" t="s">
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" t="s">
         <v>76</v>
       </c>
-      <c r="D38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E38" t="s">
-        <v>2</v>
-      </c>
-      <c r="F38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
-        <v>2</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>77</v>
       </c>
-      <c r="C39" t="s">
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" t="s">
         <v>78</v>
       </c>
-      <c r="D39" t="s">
-        <v>2</v>
-      </c>
-      <c r="E39" t="s">
-        <v>2</v>
-      </c>
-      <c r="F39" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" t="s">
-        <v>2</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>79</v>
       </c>
-      <c r="C40" t="s">
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41" t="s">
         <v>80</v>
       </c>
-      <c r="D40" t="s">
-        <v>2</v>
-      </c>
-      <c r="E40" t="s">
-        <v>2</v>
-      </c>
-      <c r="F40" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" t="s">
-        <v>2</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>81</v>
       </c>
-      <c r="C41" t="s">
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42" t="s">
         <v>82</v>
       </c>
-      <c r="D41" t="s">
-        <v>2</v>
-      </c>
-      <c r="E41" t="s">
-        <v>2</v>
-      </c>
-      <c r="F41" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" t="s">
-        <v>2</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>83</v>
       </c>
-      <c r="C42" t="s">
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43" t="s">
         <v>84</v>
       </c>
-      <c r="D42" t="s">
-        <v>2</v>
-      </c>
-      <c r="E42" t="s">
-        <v>2</v>
-      </c>
-      <c r="F42" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" t="s">
-        <v>2</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>85</v>
       </c>
-      <c r="C43" t="s">
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44" t="s">
         <v>86</v>
       </c>
-      <c r="D43" t="s">
-        <v>2</v>
-      </c>
-      <c r="E43" t="s">
-        <v>2</v>
-      </c>
-      <c r="F43" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" t="s">
-        <v>2</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>87</v>
       </c>
-      <c r="C44" t="s">
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45" t="s">
         <v>88</v>
       </c>
-      <c r="D44" t="s">
-        <v>2</v>
-      </c>
-      <c r="E44" t="s">
-        <v>2</v>
-      </c>
-      <c r="F44" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" t="s">
-        <v>2</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>89</v>
       </c>
-      <c r="C45" t="s">
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46" t="s">
         <v>90</v>
       </c>
-      <c r="D45" t="s">
-        <v>2</v>
-      </c>
-      <c r="E45" t="s">
-        <v>2</v>
-      </c>
-      <c r="F45" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" t="s">
-        <v>2</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>91</v>
       </c>
-      <c r="C46" t="s">
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47" t="s">
         <v>92</v>
       </c>
-      <c r="D46" t="s">
-        <v>2</v>
-      </c>
-      <c r="E46" t="s">
-        <v>2</v>
-      </c>
-      <c r="F46" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" t="s">
-        <v>2</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>93</v>
       </c>
-      <c r="C47" t="s">
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48" t="s">
         <v>94</v>
       </c>
-      <c r="D47" t="s">
-        <v>2</v>
-      </c>
-      <c r="E47" t="s">
-        <v>2</v>
-      </c>
-      <c r="F47" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" t="s">
-        <v>2</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>95</v>
       </c>
-      <c r="C48" t="s">
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49" t="s">
         <v>96</v>
       </c>
-      <c r="D48" t="s">
-        <v>2</v>
-      </c>
-      <c r="E48" t="s">
-        <v>2</v>
-      </c>
-      <c r="F48" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" t="s">
-        <v>2</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>97</v>
       </c>
-      <c r="C49" t="s">
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" t="s">
         <v>98</v>
       </c>
-      <c r="D49" t="s">
-        <v>2</v>
-      </c>
-      <c r="E49" t="s">
-        <v>2</v>
-      </c>
-      <c r="F49" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" t="s">
-        <v>2</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>99</v>
       </c>
-      <c r="C50" t="s">
+    </row>
+    <row r="51" spans="2:3">
+      <c r="B51" t="s">
         <v>100</v>
       </c>
-      <c r="D50" t="s">
-        <v>2</v>
-      </c>
-      <c r="E50" t="s">
-        <v>2</v>
-      </c>
-      <c r="F50" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" t="s">
-        <v>2</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>101</v>
       </c>
-      <c r="C51" t="s">
+    </row>
+    <row r="52" spans="2:3">
+      <c r="B52" t="s">
         <v>102</v>
       </c>
-      <c r="D51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E51" t="s">
-        <v>2</v>
-      </c>
-      <c r="F51" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" t="s">
-        <v>2</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>103</v>
       </c>
-      <c r="C52" t="s">
+    </row>
+    <row r="53" spans="2:3">
+      <c r="B53" t="s">
         <v>104</v>
       </c>
-      <c r="D52" t="s">
-        <v>2</v>
-      </c>
-      <c r="E52" t="s">
-        <v>2</v>
-      </c>
-      <c r="F52" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" t="s">
-        <v>2</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>105</v>
       </c>
-      <c r="C53" t="s">
+    </row>
+    <row r="54" spans="2:3">
+      <c r="B54" t="s">
         <v>106</v>
       </c>
-      <c r="D53" t="s">
-        <v>2</v>
-      </c>
-      <c r="E53" t="s">
-        <v>2</v>
-      </c>
-      <c r="F53" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" t="s">
-        <v>2</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>107</v>
       </c>
-      <c r="C54" t="s">
+    </row>
+    <row r="55" spans="2:3">
+      <c r="B55" t="s">
         <v>108</v>
       </c>
-      <c r="D54" t="s">
-        <v>2</v>
-      </c>
-      <c r="E54" t="s">
-        <v>2</v>
-      </c>
-      <c r="F54" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" t="s">
-        <v>2</v>
-      </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>109</v>
       </c>
-      <c r="C55" t="s">
+    </row>
+    <row r="56" spans="2:3">
+      <c r="B56" t="s">
         <v>110</v>
       </c>
-      <c r="D55" t="s">
-        <v>2</v>
-      </c>
-      <c r="E55" t="s">
-        <v>2</v>
-      </c>
-      <c r="F55" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" t="s">
-        <v>2</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>111</v>
       </c>
-      <c r="C56" t="s">
+    </row>
+    <row r="57" spans="2:3">
+      <c r="B57" t="s">
         <v>112</v>
       </c>
-      <c r="D56" t="s">
-        <v>2</v>
-      </c>
-      <c r="E56" t="s">
-        <v>2</v>
-      </c>
-      <c r="F56" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" t="s">
-        <v>2</v>
-      </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>113</v>
       </c>
-      <c r="C57" t="s">
+    </row>
+    <row r="58" spans="2:3">
+      <c r="B58" t="s">
         <v>114</v>
       </c>
-      <c r="D57" t="s">
-        <v>2</v>
-      </c>
-      <c r="E57" t="s">
-        <v>2</v>
-      </c>
-      <c r="F57" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" t="s">
-        <v>2</v>
-      </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>115</v>
       </c>
-      <c r="C58" t="s">
+    </row>
+    <row r="59" spans="2:3">
+      <c r="B59" t="s">
         <v>116</v>
       </c>
-      <c r="D58" t="s">
-        <v>2</v>
-      </c>
-      <c r="E58" t="s">
-        <v>2</v>
-      </c>
-      <c r="F58" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" t="s">
-        <v>2</v>
-      </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>117</v>
       </c>
-      <c r="C59" t="s">
+    </row>
+    <row r="60" spans="2:3">
+      <c r="B60" t="s">
         <v>118</v>
       </c>
-      <c r="D59" t="s">
-        <v>2</v>
-      </c>
-      <c r="E59" t="s">
-        <v>2</v>
-      </c>
-      <c r="F59" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" t="s">
-        <v>2</v>
-      </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>119</v>
       </c>
-      <c r="C60" t="s">
+    </row>
+    <row r="61" spans="2:3">
+      <c r="B61" t="s">
         <v>120</v>
       </c>
-      <c r="D60" t="s">
-        <v>2</v>
-      </c>
-      <c r="E60" t="s">
-        <v>2</v>
-      </c>
-      <c r="F60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" t="s">
-        <v>2</v>
-      </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>121</v>
       </c>
-      <c r="C61" t="s">
+    </row>
+    <row r="62" spans="2:3">
+      <c r="B62" t="s">
         <v>122</v>
       </c>
-      <c r="D61" t="s">
-        <v>2</v>
-      </c>
-      <c r="E61" t="s">
-        <v>2</v>
-      </c>
-      <c r="F61" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" t="s">
-        <v>2</v>
-      </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>123</v>
       </c>
-      <c r="C62" t="s">
+    </row>
+    <row r="63" spans="2:3">
+      <c r="B63" t="s">
         <v>124</v>
       </c>
-      <c r="D62" t="s">
-        <v>2</v>
-      </c>
-      <c r="E62" t="s">
-        <v>2</v>
-      </c>
-      <c r="F62" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" t="s">
-        <v>2</v>
-      </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>125</v>
       </c>
-      <c r="C63" t="s">
+    </row>
+    <row r="64" spans="2:3">
+      <c r="B64" t="s">
         <v>126</v>
       </c>
-      <c r="D63" t="s">
-        <v>2</v>
-      </c>
-      <c r="E63" t="s">
-        <v>2</v>
-      </c>
-      <c r="F63" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" t="s">
-        <v>2</v>
-      </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>127</v>
       </c>
-      <c r="C64" t="s">
+    </row>
+    <row r="65" spans="2:3">
+      <c r="B65" t="s">
         <v>128</v>
       </c>
-      <c r="D64" t="s">
-        <v>2</v>
-      </c>
-      <c r="E64" t="s">
-        <v>2</v>
-      </c>
-      <c r="F64" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" t="s">
-        <v>2</v>
-      </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>129</v>
       </c>
-      <c r="C65" t="s">
+    </row>
+    <row r="66" spans="2:3">
+      <c r="B66" t="s">
         <v>130</v>
       </c>
-      <c r="D65" t="s">
-        <v>2</v>
-      </c>
-      <c r="E65" t="s">
-        <v>2</v>
-      </c>
-      <c r="F65" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" t="s">
-        <v>2</v>
-      </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>131</v>
       </c>
-      <c r="C66" t="s">
+    </row>
+    <row r="67" spans="2:3">
+      <c r="B67" t="s">
         <v>132</v>
       </c>
-      <c r="D66" t="s">
-        <v>2</v>
-      </c>
-      <c r="E66" t="s">
-        <v>2</v>
-      </c>
-      <c r="F66" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" t="s">
-        <v>2</v>
-      </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>133</v>
       </c>
-      <c r="C67" t="s">
+    </row>
+    <row r="68" spans="2:3">
+      <c r="B68" t="s">
         <v>134</v>
       </c>
-      <c r="D67" t="s">
-        <v>2</v>
-      </c>
-      <c r="E67" t="s">
-        <v>2</v>
-      </c>
-      <c r="F67" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" t="s">
-        <v>2</v>
-      </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>135</v>
       </c>
-      <c r="C68" t="s">
+    </row>
+    <row r="69" spans="2:3">
+      <c r="B69" t="s">
         <v>136</v>
       </c>
-      <c r="D68" t="s">
-        <v>2</v>
-      </c>
-      <c r="E68" t="s">
-        <v>2</v>
-      </c>
-      <c r="F68" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" t="s">
-        <v>2</v>
-      </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>137</v>
       </c>
-      <c r="C69" t="s">
+    </row>
+    <row r="70" spans="2:3">
+      <c r="B70" t="s">
         <v>138</v>
       </c>
-      <c r="D69" t="s">
-        <v>2</v>
-      </c>
-      <c r="E69" t="s">
-        <v>2</v>
-      </c>
-      <c r="F69" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" t="s">
-        <v>2</v>
-      </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>139</v>
       </c>
-      <c r="C70" t="s">
+    </row>
+    <row r="71" spans="2:3">
+      <c r="B71" t="s">
         <v>140</v>
       </c>
-      <c r="D70" t="s">
-        <v>2</v>
-      </c>
-      <c r="E70" t="s">
-        <v>2</v>
-      </c>
-      <c r="F70" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" t="s">
-        <v>2</v>
-      </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>141</v>
       </c>
-      <c r="C71" t="s">
+    </row>
+    <row r="72" spans="2:3">
+      <c r="B72" t="s">
         <v>142</v>
       </c>
-      <c r="D71" t="s">
-        <v>2</v>
-      </c>
-      <c r="E71" t="s">
-        <v>2</v>
-      </c>
-      <c r="F71" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" t="s">
-        <v>2</v>
-      </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>143</v>
       </c>
-      <c r="C72" t="s">
+    </row>
+    <row r="73" spans="2:3">
+      <c r="B73" t="s">
         <v>144</v>
       </c>
-      <c r="D72" t="s">
-        <v>2</v>
-      </c>
-      <c r="E72" t="s">
-        <v>2</v>
-      </c>
-      <c r="F72" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" t="s">
-        <v>2</v>
-      </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>145</v>
       </c>
-      <c r="C73" t="s">
+    </row>
+    <row r="74" spans="2:3">
+      <c r="B74" t="s">
         <v>146</v>
       </c>
-      <c r="D73" t="s">
-        <v>2</v>
-      </c>
-      <c r="E73" t="s">
-        <v>2</v>
-      </c>
-      <c r="F73" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" t="s">
-        <v>2</v>
-      </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>147</v>
       </c>
-      <c r="C74" t="s">
+    </row>
+    <row r="75" spans="2:3">
+      <c r="B75" t="s">
         <v>148</v>
       </c>
-      <c r="D74" t="s">
-        <v>2</v>
-      </c>
-      <c r="E74" t="s">
-        <v>2</v>
-      </c>
-      <c r="F74" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" t="s">
-        <v>2</v>
-      </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>149</v>
       </c>
-      <c r="C75" t="s">
+    </row>
+    <row r="76" spans="2:3">
+      <c r="B76" t="s">
         <v>150</v>
       </c>
-      <c r="D75" t="s">
-        <v>2</v>
-      </c>
-      <c r="E75" t="s">
-        <v>2</v>
-      </c>
-      <c r="F75" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" t="s">
-        <v>2</v>
-      </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>151</v>
       </c>
-      <c r="C76" t="s">
+    </row>
+    <row r="77" spans="2:3">
+      <c r="B77" t="s">
         <v>152</v>
       </c>
-      <c r="D76" t="s">
-        <v>2</v>
-      </c>
-      <c r="E76" t="s">
-        <v>2</v>
-      </c>
-      <c r="F76" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" t="s">
-        <v>2</v>
-      </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>153</v>
       </c>
-      <c r="C77" t="s">
+    </row>
+    <row r="78" spans="2:3">
+      <c r="B78" t="s">
         <v>154</v>
       </c>
-      <c r="D77" t="s">
-        <v>2</v>
-      </c>
-      <c r="E77" t="s">
-        <v>2</v>
-      </c>
-      <c r="F77" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" t="s">
-        <v>2</v>
-      </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>155</v>
       </c>
-      <c r="C78" t="s">
+    </row>
+    <row r="79" spans="2:3">
+      <c r="B79" t="s">
         <v>156</v>
       </c>
-      <c r="D78" t="s">
-        <v>2</v>
-      </c>
-      <c r="E78" t="s">
-        <v>2</v>
-      </c>
-      <c r="F78" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" t="s">
-        <v>2</v>
-      </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>157</v>
       </c>
-      <c r="C79" t="s">
+    </row>
+    <row r="80" spans="2:3">
+      <c r="B80" t="s">
         <v>158</v>
       </c>
-      <c r="D79" t="s">
-        <v>2</v>
-      </c>
-      <c r="E79" t="s">
-        <v>2</v>
-      </c>
-      <c r="F79" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" t="s">
-        <v>2</v>
-      </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>159</v>
       </c>
-      <c r="C80" t="s">
+    </row>
+    <row r="81" spans="2:3">
+      <c r="B81" t="s">
         <v>160</v>
       </c>
-      <c r="D80" t="s">
-        <v>2</v>
-      </c>
-      <c r="E80" t="s">
-        <v>2</v>
-      </c>
-      <c r="F80" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" t="s">
-        <v>2</v>
-      </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>161</v>
       </c>
-      <c r="C81" t="s">
+    </row>
+    <row r="82" spans="2:3">
+      <c r="B82" t="s">
         <v>162</v>
       </c>
-      <c r="D81" t="s">
-        <v>2</v>
-      </c>
-      <c r="E81" t="s">
-        <v>2</v>
-      </c>
-      <c r="F81" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" t="s">
-        <v>2</v>
-      </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>163</v>
       </c>
-      <c r="C82" t="s">
+    </row>
+    <row r="83" spans="2:3">
+      <c r="B83" t="s">
         <v>164</v>
       </c>
-      <c r="D82" t="s">
-        <v>2</v>
-      </c>
-      <c r="E82" t="s">
-        <v>2</v>
-      </c>
-      <c r="F82" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
-        <v>2</v>
-      </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>165</v>
       </c>
-      <c r="C83" t="s">
+    </row>
+    <row r="84" spans="2:3">
+      <c r="B84" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
-        <v>2</v>
-      </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>167</v>
       </c>
-      <c r="C84" t="s">
+    </row>
+    <row r="85" spans="2:3">
+      <c r="B85" t="s">
         <v>168</v>
+      </c>
+      <c r="C85" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3">
+      <c r="B86" t="s">
+        <v>170</v>
+      </c>
+      <c r="C86" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/songs.xlsx
+++ b/songs.xlsx
@@ -1062,7 +1062,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
@@ -1096,1054 +1096,1078 @@
     <row r="2">
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lana Del Rey - Summertime Sadness (Official Music Video)</t>
+          <t>Edward Maya, Vika Jigulina - Stereo love (Radio Edit) (Lyrics)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=TdrL3QxjyVw</t>
+          <t>https://www.youtube.com/watch?v=y9Kqb2z9Lzs</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>Enya - Only Time (Official 4K Music Video)</t>
+          <t>Gym Class Heroes: Stereo Hearts ft. Adam Levine [OFFICIAL VIDEO]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=7wfYIMyS_dI</t>
+          <t>https://www.youtube.com/watch?v=T3E9Wjbq44E</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>somewhere only we know (Gustixa &amp;amp; Rhianne)</t>
+          <t>Lana Del Rey - Summertime Sadness (Official Music Video)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=92izkAK5OA0</t>
+          <t>https://www.youtube.com/watch?v=TdrL3QxjyVw</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Duncan Laurence feat. FLETCHER – Arcade</t>
+          <t>Enya - Only Time (Official 4K Music Video)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=308v08mFWWc</t>
+          <t>https://www.youtube.com/watch?v=7wfYIMyS_dI</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bad Liar (cover)</t>
+          <t>somewhere only we know (Gustixa &amp;amp; Rhianne)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://youtu.be/5jfz3q9Z0RY?si=OHvyb7AMtM_wtAXc</t>
+          <t>https://www.youtube.com/watch?v=92izkAK5OA0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Linkin Park - In The End (Remix)</t>
+          <t>Duncan Laurence feat. FLETCHER – Arcade</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=WNeLUngb-Xg</t>
+          <t>https://www.youtube.com/watch?v=308v08mFWWc</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Shawn Mendes - It'll Be Okay</t>
+          <t>Bad Liar (cover)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://youtu.be/KrgJp7Z1Hv8?si=MOyY5rZzP-7kcfhM</t>
+          <t>https://youtu.be/5jfz3q9Z0RY?si=OHvyb7AMtM_wtAXc</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Today is a Good Day</t>
+          <t>Linkin Park - In The End (Remix)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://youtu.be/9L4EjJqrz0c?si=x97RAvAA9IELRZPW</t>
+          <t>https://www.youtube.com/watch?v=WNeLUngb-Xg</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>Heroes Tonight</t>
+          <t>Shawn Mendes - It'll Be Okay</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=074rfF4RJZc</t>
+          <t>https://youtu.be/KrgJp7Z1Hv8?si=MOyY5rZzP-7kcfhM</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>Shakira - Hips Dont Lie</t>
+          <t>Today is a Good Day</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://youtu.be/p3pEe6aAJ4k?si=bzrAEs7c-zSwqBUo</t>
+          <t>https://youtu.be/9L4EjJqrz0c?si=x97RAvAA9IELRZPW</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>Shakira - La La La World Cup 2014</t>
+          <t>Heroes Tonight</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://youtu.be/2igups6VdcA?si=N5uu5genirJuWXWC</t>
+          <t>https://www.youtube.com/watch?v=074rfF4RJZc</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>Shakira - Chantaje (letra)</t>
+          <t>Shakira - Hips Dont Lie</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://youtu.be/J76eQJP3UIQ?si=juYKqG_UCEta8y19</t>
+          <t>https://youtu.be/p3pEe6aAJ4k?si=bzrAEs7c-zSwqBUo</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>Zara Larsson – Dont Worry Bout Me</t>
+          <t>Shakira - La La La World Cup 2014</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://youtu.be/u_tzZd9kIWg?si=y-s2yCVh4U2JLsJJ</t>
+          <t>https://youtu.be/2igups6VdcA?si=N5uu5genirJuWXWC</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>Selena Gomez - Buscando Amor</t>
+          <t>Shakira - Chantaje (letra)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://youtu.be/2P6EExu3H5s?si=f2hv9y52VqxnVOmL</t>
+          <t>https://youtu.be/J76eQJP3UIQ?si=juYKqG_UCEta8y19</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>Shawn Mendes - In My Blood</t>
+          <t>Zara Larsson – Dont Worry Bout Me</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://youtu.be/36tggrpRoTI?si=CiCfVdO8Oepjt4Rs</t>
+          <t>https://youtu.be/u_tzZd9kIWg?si=y-s2yCVh4U2JLsJJ</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>Charlie Puth - We Dont Talk Anymore</t>
+          <t>Selena Gomez - Buscando Amor</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://youtu.be/bpFVJJBgtXY?si=L2NuwOWGhmdKacwg</t>
+          <t>https://youtu.be/2P6EExu3H5s?si=f2hv9y52VqxnVOmL</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>Selena Gomez - Adiós</t>
+          <t>Shawn Mendes - In My Blood</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://youtu.be/9H_368c2Hzw?si=UOBGyTGbUe_fISFW</t>
+          <t>https://youtu.be/36tggrpRoTI?si=CiCfVdO8Oepjt4Rs</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>Charlie Puth - Attention</t>
+          <t>Charlie Puth - We Dont Talk Anymore</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://youtu.be/Oz5JDtkf1as</t>
+          <t>https://youtu.be/bpFVJJBgtXY?si=L2NuwOWGhmdKacwg</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>Something Just Like This</t>
+          <t>Selena Gomez - Adiós</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://youtu.be/FM7MFYoylVs?si=TrbAGj-JAUeEJ4bd</t>
+          <t>https://youtu.be/9H_368c2Hzw?si=UOBGyTGbUe_fISFW</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>Bruno Mars - Grenade</t>
+          <t>Charlie Puth - Attention</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://youtu.be/4YrzJ9RZ9qY</t>
+          <t>https://youtu.be/Oz5JDtkf1as</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>Let Me Love You</t>
+          <t>Something Just Like This</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://youtu.be/SMs0GnYze34?si=T-UORWGqJCoitcOM</t>
+          <t>https://youtu.be/FM7MFYoylVs?si=TrbAGj-JAUeEJ4bd</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>Sweet But Psycho</t>
+          <t>Bruno Mars - Grenade</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://youtu.be/2KBFD0aoZy8</t>
+          <t>https://youtu.be/4YrzJ9RZ9qY</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>Whos laughing now</t>
+          <t>Let Me Love You</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://youtu.be/4JYSgIiSZSA?si=3v9kDuzvYJvWaOsO</t>
+          <t>https://youtu.be/SMs0GnYze34?si=T-UORWGqJCoitcOM</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>Girls Like You</t>
+          <t>Sweet But Psycho</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://youtu.be/aJOTlE1K90k</t>
+          <t>https://youtu.be/2KBFD0aoZy8</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>Camila Cabello - Havana</t>
+          <t>Whos laughing now</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://youtu.be/HCjNJDNzw8Y?si=QjZAi7GPIc4ParOQ</t>
+          <t>https://youtu.be/4JYSgIiSZSA?si=3v9kDuzvYJvWaOsO</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>Maroon 5 - Memories</t>
+          <t>Girls Like You</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=SlPhMPnQ58k&amp;pp=ygUPbWFyb29uIG1lbW9yaWVz</t>
+          <t>https://youtu.be/aJOTlE1K90k</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>post malone - rockstar (feat. 21 savage)</t>
+          <t>Camila Cabello - Havana</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=9lQP9-F8kIQ</t>
+          <t>https://youtu.be/HCjNJDNzw8Y?si=QjZAi7GPIc4ParOQ</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>Drake - Gods plan</t>
+          <t>Maroon 5 - Memories</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=ScfgOVJiu_I</t>
+          <t>https://www.youtube.com/watch?v=SlPhMPnQ58k&amp;pp=ygUPbWFyb29uIG1lbW9yaWVz</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>Dua Lipa - Levitating</t>
+          <t>post malone - rockstar (feat. 21 savage)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=j2c3tR_qfiQ</t>
+          <t>https://www.youtube.com/watch?v=9lQP9-F8kIQ</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Justin Bieber - Baby</t>
+          <t>Drake - Gods plan</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=khOFw2f4bQY</t>
+          <t>https://www.youtube.com/watch?v=ScfgOVJiu_I</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>State of Grace</t>
+          <t>Dua Lipa - Levitating</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=gr4cqcqnAN0</t>
+          <t>https://www.youtube.com/watch?v=j2c3tR_qfiQ</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>Taylor Swift - Back To December</t>
+          <t>Justin Bieber - Baby</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://youtu.be/QUwxKWT6m7U?si=LNPBWKl0DqXIfOP2</t>
+          <t>https://www.youtube.com/watch?v=khOFw2f4bQY</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>As it was</t>
+          <t>State of Grace</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://youtu.be/Qfm6nfz1QNQ?si=3mMjYFpALij7GELl</t>
+          <t>https://www.youtube.com/watch?v=gr4cqcqnAN0</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>Taylor Swift - Begin Again</t>
+          <t>Taylor Swift - Back To December</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://youtu.be/cMPEd8m79Hw?si=9zE5-51p0xGyEgSO</t>
+          <t>https://youtu.be/QUwxKWT6m7U?si=LNPBWKl0DqXIfOP2</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>Sofia</t>
+          <t>As it was</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://youtu.be/ftI_Lp7LAuU?si=aOFT5Ral2-A_2PxG</t>
+          <t>https://youtu.be/Qfm6nfz1QNQ?si=3mMjYFpALij7GELl</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>Numb (lyrics|rock)</t>
+          <t>Taylor Swift - Begin Again</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://youtu.be/8P0vKLHbtMg?si=HhXMHjE8vD2yeC_B</t>
+          <t>https://youtu.be/cMPEd8m79Hw?si=9zE5-51p0xGyEgSO</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>For The Rest Of My Life</t>
+          <t>Sofia</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://youtu.be/PHbZ9SXHJwA?si=_7a2Gaka2oPEWrCQ</t>
+          <t>https://youtu.be/ftI_Lp7LAuU?si=aOFT5Ral2-A_2PxG</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>Insha Allah</t>
+          <t>Numb (lyrics|rock)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://youtu.be/8xXJyFNfiy8?si=XkqgGm4hEyZoqJe1</t>
+          <t>https://youtu.be/8P0vKLHbtMg?si=HhXMHjE8vD2yeC_B</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>Hunger Games | Atlas</t>
+          <t>For The Rest Of My Life</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://youtu.be/Lh3TokLzzmw?si=I5CcdBNIEuwDZvVT</t>
+          <t>https://youtu.be/PHbZ9SXHJwA?si=_7a2Gaka2oPEWrCQ</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>Hard To Say Im Sorry</t>
+          <t>Insha Allah</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://youtu.be/XCmOdVia9DE?si=60M6i15UUakuL7DH</t>
+          <t>https://youtu.be/8xXJyFNfiy8?si=XkqgGm4hEyZoqJe1</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Sasha Sloan - Lie</t>
+          <t>Hunger Games | Atlas</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://youtu.be/AzjTJpzfB8U?si=PHYxAGETm1P1opd0</t>
+          <t>https://youtu.be/Lh3TokLzzmw?si=I5CcdBNIEuwDZvVT</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>Solo Para Ti</t>
+          <t>Hard To Say Im Sorry</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://youtu.be/5D_A4IBWSv4?si=pgNinSqUyLBks6po</t>
+          <t>https://youtu.be/XCmOdVia9DE?si=60M6i15UUakuL7DH</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>Zara Larsson - This Ones For You</t>
+          <t>Sasha Sloan - Lie</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://youtu.be/MoHnffhBwqs?si=_FGX4ucMtOTcD2to</t>
+          <t>https://youtu.be/AzjTJpzfB8U?si=PHYxAGETm1P1opd0</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>La Cintura</t>
+          <t>Solo Para Ti</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://youtu.be/Eg4LUvUjUWI?si=YqeuNfTh_iTuj-dP</t>
+          <t>https://youtu.be/5D_A4IBWSv4?si=pgNinSqUyLBks6po</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Diamond Heart</t>
+          <t>Zara Larsson - This Ones For You</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://youtu.be/bcHoBDw4G10?si=auASu-G_c9NkS48Z</t>
+          <t>https://youtu.be/MoHnffhBwqs?si=_FGX4ucMtOTcD2to</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>Halsey - Sorry</t>
+          <t>La Cintura</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://youtu.be/CPAoMCo7tNw?si=2rEiXXCn6UcySUVZ</t>
+          <t>https://youtu.be/Eg4LUvUjUWI?si=YqeuNfTh_iTuj-dP</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>Relax, Take it Easy</t>
+          <t>Diamond Heart</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://youtu.be/EVDYmBrl02Q?si=ODB07HFZCtTtg4F4</t>
+          <t>https://youtu.be/bcHoBDw4G10?si=auASu-G_c9NkS48Z</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>Thank you Allah</t>
+          <t>Halsey - Sorry</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://youtu.be/RBrdl0v_anc?si=cu3qNsVyUIIzZGvv</t>
+          <t>https://youtu.be/CPAoMCo7tNw?si=2rEiXXCn6UcySUVZ</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>Let me down slowly</t>
+          <t>Relax, Take it Easy</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://youtu.be/50VNCymT-Cs?si=sEwBTlJCeuqL9LTD</t>
+          <t>https://youtu.be/EVDYmBrl02Q?si=ODB07HFZCtTtg4F4</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>Lonely (acoustic)</t>
+          <t>Thank you Allah</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://youtu.be/Cu5hhxP_prE?si=VRZVlVcLWqk8Dasg</t>
+          <t>https://youtu.be/RBrdl0v_anc?si=cu3qNsVyUIIzZGvv</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>Selfish love</t>
+          <t>Let me down slowly</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://youtu.be/9gqAq6kq5Ek?si=Gro32XWDuPLWzyIv</t>
+          <t>https://youtu.be/50VNCymT-Cs?si=sEwBTlJCeuqL9LTD</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>twenty one pilots: Heathens</t>
+          <t>Lonely (acoustic)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://youtu.be/UprcpdwuwCg?si=O6_fwxx8TOkfjIXi</t>
+          <t>https://youtu.be/Cu5hhxP_prE?si=VRZVlVcLWqk8Dasg</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>Dont Let Me Down</t>
+          <t>Selfish love</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://youtu.be/Io0fBr1XBUA?si=SUp9MdCXlOU_Vf5s</t>
+          <t>https://youtu.be/9gqAq6kq5Ek?si=Gro32XWDuPLWzyIv</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>Someone you loved</t>
+          <t>twenty one pilots: Heathens</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://youtu.be/zABLecsR5UE?si=k3rryaA0P3O8JBhY</t>
+          <t>https://youtu.be/UprcpdwuwCg?si=O6_fwxx8TOkfjIXi</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>Lucid Dreams</t>
+          <t>Dont Let Me Down</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://youtu.be/IfBLD0ATrQA?si=YS-eU-zZX-5dbISw</t>
+          <t>https://youtu.be/Io0fBr1XBUA?si=SUp9MdCXlOU_Vf5s</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>Fed up with us</t>
+          <t>Someone you loved</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://youtu.be/n1NTv6Y4pxs?si=76WA3JI0TGILBHm7</t>
+          <t>https://youtu.be/zABLecsR5UE?si=k3rryaA0P3O8JBhY</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>Skyfall</t>
+          <t>Lucid Dreams</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://youtu.be/DeumyOzKqgI?si=Cok0dR7byK6pN682</t>
+          <t>https://youtu.be/IfBLD0ATrQA?si=YS-eU-zZX-5dbISw</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>Story of my life</t>
+          <t>Fed up with us</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://youtu.be/W-TE_Ys4iwM?si=RViOxRuaXxdz3pmm</t>
+          <t>https://youtu.be/n1NTv6Y4pxs?si=76WA3JI0TGILBHm7</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>Reamonn - Tonight</t>
+          <t>Skyfall</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://youtu.be/jtoncUzV6nA?si=yULSO1-MxnAVV13i</t>
+          <t>https://youtu.be/DeumyOzKqgI?si=Cok0dR7byK6pN682</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>Hymn For The Weekend</t>
+          <t>Story of my life</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=YykjpeuMNEk</t>
+          <t>https://youtu.be/W-TE_Ys4iwM?si=RViOxRuaXxdz3pmm</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>Hell Or High Water</t>
+          <t>Reamonn - Tonight</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://youtu.be/zgDbp5C74sU?si=R8Q5HZq2vzhGL57g</t>
+          <t>https://youtu.be/jtoncUzV6nA?si=yULSO1-MxnAVV13i</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>Lonely</t>
+          <t>Hymn For The Weekend</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://youtu.be/M4hvSgnsnog?si=TtDhe_NUHM1NZaY9</t>
+          <t>https://www.youtube.com/watch?v=YykjpeuMNEk</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>Everything I Need</t>
+          <t>Hell Or High Water</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=9bCp7j3nC30</t>
+          <t>https://youtu.be/zgDbp5C74sU?si=R8Q5HZq2vzhGL57g</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>Love the way you lie</t>
+          <t>Lonely</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://youtu.be/h_-JFUci0BM?si=SHiuHs1NdIjpN0WP</t>
+          <t>https://youtu.be/M4hvSgnsnog?si=TtDhe_NUHM1NZaY9</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>Moving Mountains</t>
+          <t>Everything I Need</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://youtu.be/S_0r3hYg78o?si=Be6GShy7mgRcl9Ha</t>
+          <t>https://www.youtube.com/watch?v=9bCp7j3nC30</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>Numb (cover)</t>
+          <t>Love the way you lie</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://youtu.be/gHp-OjLOG5A?si=0abUDswbKz6rhQeX</t>
+          <t>https://youtu.be/h_-JFUci0BM?si=SHiuHs1NdIjpN0WP</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>Until I found you</t>
+          <t>Moving Mountains</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://youtu.be/oIKuyj2GQtY</t>
+          <t>https://youtu.be/S_0r3hYg78o?si=Be6GShy7mgRcl9Ha</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>Heart is on fire</t>
+          <t>Numb (cover)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://youtu.be/kBqqlW6-99M?si=kXaaJTqhA4PaY6Gd</t>
+          <t>https://youtu.be/gHp-OjLOG5A?si=0abUDswbKz6rhQeX</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>Holes</t>
+          <t>Until I found you</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://youtu.be/DeFWClW7skQ?si=hkIGl-CTTw-FbnLz</t>
+          <t>https://youtu.be/oIKuyj2GQtY</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>Survivors</t>
+          <t>Heart is on fire</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=vN0gaXS8dQE</t>
+          <t>https://youtu.be/kBqqlW6-99M?si=kXaaJTqhA4PaY6Gd</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>Irakliy - Ya s toboy(cover)</t>
+          <t>Holes</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://youtu.be/3WmdZOF5bKk?si=LcXY8Gohxxx4cZSA</t>
+          <t>https://youtu.be/DeFWClW7skQ?si=hkIGl-CTTw-FbnLz</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>Vetrom stat (cover)</t>
+          <t>Survivors</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://youtu.be/kkzEs0gdvZI?si=Z456wgKuJd0aE_PA</t>
+          <t>https://www.youtube.com/watch?v=vN0gaXS8dQE</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>Reamonn - Supergirl</t>
+          <t>Irakliy - Ya s toboy(cover)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://youtu.be/ctmS5XX67Ek?si=NGZGPw0bcpfZciyi</t>
+          <t>https://youtu.be/3WmdZOF5bKk?si=LcXY8Gohxxx4cZSA</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>Another Love</t>
+          <t>Vetrom stat (cover)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://youtu.be/Jkj36B1YuDU?si=Yku5tRPe7avRNr2R</t>
+          <t>https://youtu.be/kkzEs0gdvZI?si=Z456wgKuJd0aE_PA</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>All the little lights</t>
+          <t>Reamonn - Supergirl</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://youtu.be/OkxVxox--Io?si=AE4wj_c_uqTWGrbB</t>
+          <t>https://youtu.be/ctmS5XX67Ek?si=NGZGPw0bcpfZciyi</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>Arcade</t>
+          <t>Another Love</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://youtu.be/Qau6mObfSGM?si=RsrcZ0VUCOHaEwE4</t>
+          <t>https://youtu.be/Jkj36B1YuDU?si=Yku5tRPe7avRNr2R</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>Burito - Po volnam</t>
+          <t>All the little lights</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://youtu.be/jqyJ4xW2gb0?si=VgrA4JKMWkeWDIA5</t>
+          <t>https://youtu.be/OkxVxox--Io?si=AE4wj_c_uqTWGrbB</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>To Be Free</t>
+          <t>Arcade</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://youtu.be/hNd5pILkpSw?si=qiwZxiuS0yeiuOPs</t>
+          <t>https://youtu.be/Qau6mObfSGM?si=RsrcZ0VUCOHaEwE4</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>Castle of Glass</t>
+          <t>Burito - Po volnam</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=PPkJeWPP2nM</t>
+          <t>https://youtu.be/jqyJ4xW2gb0?si=VgrA4JKMWkeWDIA5</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>Ava Max - Alone</t>
+          <t>To Be Free</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://youtu.be/omvW1cI-3xg?si=zHiFadZaUUpddcgu</t>
+          <t>https://youtu.be/hNd5pILkpSw?si=qiwZxiuS0yeiuOPs</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>Let Her Go (ft Ed Sheeran)</t>
+          <t>Castle of Glass</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://youtu.be/HTcL9WkB_wg?si=ILXw9EaPM4GJyx29</t>
+          <t>https://www.youtube.com/watch?v=PPkJeWPP2nM</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>In the end (rmx)</t>
+          <t>Ava Max - Alone</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://youtu.be/WNeLUngb-Xg?si=V95nGOt0sMvhQG7c</t>
+          <t>https://youtu.be/omvW1cI-3xg?si=zHiFadZaUUpddcgu</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>No Time To Die</t>
+          <t>Let Her Go (ft Ed Sheeran)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://youtu.be/GB_S2qFh5lU?si=XDH6CdXhqJq-g321</t>
+          <t>https://youtu.be/HTcL9WkB_wg?si=ILXw9EaPM4GJyx29</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>Tired Of Being Sorry</t>
+          <t>In the end (rmx)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://youtu.be/gzFmctgW0s8?si=JfvG_0Sj-IdPWoBY</t>
+          <t>https://youtu.be/WNeLUngb-Xg?si=V95nGOt0sMvhQG7c</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>The Cup Of Life - Ricky Martin</t>
+          <t>No Time To Die</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://youtu.be/CBfSeqfeggI?si=A2RRcM0PSvAsvpHF</t>
+          <t>https://youtu.be/GB_S2qFh5lU?si=XDH6CdXhqJq-g321</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>Баста - Выпускной</t>
+          <t>Tired Of Being Sorry</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://youtu.be/t1-yL-xvklc?si=YZ1rS5hZtleOFOy1</t>
+          <t>https://youtu.be/gzFmctgW0s8?si=JfvG_0Sj-IdPWoBY</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>Wonderful Life</t>
+          <t>The Cup Of Life - Ricky Martin</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://youtu.be/qzn_6bXdgeE?si=BgnimyD5Frnn_-o-</t>
+          <t>https://youtu.be/CBfSeqfeggI?si=A2RRcM0PSvAsvpHF</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
+          <t>Баста - Выпускной</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>https://youtu.be/t1-yL-xvklc?si=YZ1rS5hZtleOFOy1</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Wonderful Life</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>https://youtu.be/qzn_6bXdgeE?si=BgnimyD5Frnn_-o-</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" t="inlineStr">
+        <is>
           <t>Shape of My Heart</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t>https://youtu.be/pm3rDbXbZRI?si=7TxDuViBxhHGeZoU</t>
         </is>

--- a/songs.xlsx
+++ b/songs.xlsx
@@ -1062,7 +1062,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:F901"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
@@ -1108,72 +1108,72 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gym Class Heroes: Stereo Hearts ft. Adam Levine [OFFICIAL VIDEO]</t>
+          <t>somewhere only we know (Gustixa &amp;amp; Rhianne)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=T3E9Wjbq44E</t>
+          <t>https://www.youtube.com/watch?v=92izkAK5OA0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lana Del Rey - Summertime Sadness (Official Music Video)</t>
+          <t>Gym Class Heroes: Stereo Hearts ft. Adam Levine [OFFICIAL VIDEO]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=TdrL3QxjyVw</t>
+          <t>https://www.youtube.com/watch?v=T3E9Wjbq44E</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Enya - Only Time (Official 4K Music Video)</t>
+          <t>Duncan Laurence feat. FLETCHER – Arcade</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=7wfYIMyS_dI</t>
+          <t>https://www.youtube.com/watch?v=308v08mFWWc</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>somewhere only we know (Gustixa &amp;amp; Rhianne)</t>
+          <t>Lana Del Rey - Summertime Sadness (Official Music Video)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=92izkAK5OA0</t>
+          <t>https://www.youtube.com/watch?v=TdrL3QxjyVw</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Duncan Laurence feat. FLETCHER – Arcade</t>
+          <t>Bad Liar (cover)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=308v08mFWWc</t>
+          <t>https://youtu.be/5jfz3q9Z0RY?si=OHvyb7AMtM_wtAXc</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Bad Liar (cover)</t>
+          <t>Enya - Only Time (Official 4K Music Video)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://youtu.be/5jfz3q9Z0RY?si=OHvyb7AMtM_wtAXc</t>
+          <t>https://www.youtube.com/watch?v=7wfYIMyS_dI</t>
         </is>
       </c>
     </row>
@@ -2168,6 +2168,9726 @@
         </is>
       </c>
       <c r="C91" t="inlineStr">
+        <is>
+          <t>https://youtu.be/pm3rDbXbZRI?si=7TxDuViBxhHGeZoU</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Edward Maya, Vika Jigulina - Stereo love (Radio Edit) (Lyrics)</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=y9Kqb2z9Lzs</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Gym Class Heroes: Stereo Hearts ft. Adam Levine [OFFICIAL VIDEO]</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=T3E9Wjbq44E</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>somewhere only we know (Gustixa &amp;amp; Rhianne)</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=92izkAK5OA0</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Lana Del Rey - Summertime Sadness (Official Music Video)</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=TdrL3QxjyVw</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Enya - Only Time (Official 4K Music Video)</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=7wfYIMyS_dI</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Duncan Laurence feat. FLETCHER – Arcade</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=308v08mFWWc</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Bad Liar (cover)</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>https://youtu.be/5jfz3q9Z0RY?si=OHvyb7AMtM_wtAXc</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Linkin Park - In The End (Remix)</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=WNeLUngb-Xg</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Shawn Mendes - It'll Be Okay</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>https://youtu.be/KrgJp7Z1Hv8?si=MOyY5rZzP-7kcfhM</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Today is a Good Day</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>https://youtu.be/9L4EjJqrz0c?si=x97RAvAA9IELRZPW</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Heroes Tonight</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=074rfF4RJZc</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Shakira - Hips Dont Lie</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>https://youtu.be/p3pEe6aAJ4k?si=bzrAEs7c-zSwqBUo</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Shakira - La La La World Cup 2014</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>https://youtu.be/2igups6VdcA?si=N5uu5genirJuWXWC</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Shakira - Chantaje (letra)</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>https://youtu.be/J76eQJP3UIQ?si=juYKqG_UCEta8y19</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Zara Larsson – Dont Worry Bout Me</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>https://youtu.be/u_tzZd9kIWg?si=y-s2yCVh4U2JLsJJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Selena Gomez - Buscando Amor</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>https://youtu.be/2P6EExu3H5s?si=f2hv9y52VqxnVOmL</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Shawn Mendes - In My Blood</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>https://youtu.be/36tggrpRoTI?si=CiCfVdO8Oepjt4Rs</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Charlie Puth - We Dont Talk Anymore</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>https://youtu.be/bpFVJJBgtXY?si=L2NuwOWGhmdKacwg</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Selena Gomez - Adiós</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>https://youtu.be/9H_368c2Hzw?si=UOBGyTGbUe_fISFW</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Charlie Puth - Attention</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Oz5JDtkf1as</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Something Just Like This</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>https://youtu.be/FM7MFYoylVs?si=TrbAGj-JAUeEJ4bd</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Bruno Mars - Grenade</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>https://youtu.be/4YrzJ9RZ9qY</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Let Me Love You</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>https://youtu.be/SMs0GnYze34?si=T-UORWGqJCoitcOM</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Sweet But Psycho</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>https://youtu.be/2KBFD0aoZy8</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Whos laughing now</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>https://youtu.be/4JYSgIiSZSA?si=3v9kDuzvYJvWaOsO</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Girls Like You</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>https://youtu.be/aJOTlE1K90k</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Camila Cabello - Havana</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>https://youtu.be/HCjNJDNzw8Y?si=QjZAi7GPIc4ParOQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Maroon 5 - Memories</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=SlPhMPnQ58k&amp;pp=ygUPbWFyb29uIG1lbW9yaWVz</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>post malone - rockstar (feat. 21 savage)</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=9lQP9-F8kIQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Drake - Gods plan</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=ScfgOVJiu_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Dua Lipa - Levitating</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=j2c3tR_qfiQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Justin Bieber - Baby</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=khOFw2f4bQY</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>State of Grace</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=gr4cqcqnAN0</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Taylor Swift - Back To December</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>https://youtu.be/QUwxKWT6m7U?si=LNPBWKl0DqXIfOP2</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>As it was</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Qfm6nfz1QNQ?si=3mMjYFpALij7GELl</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Taylor Swift - Begin Again</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>https://youtu.be/cMPEd8m79Hw?si=9zE5-51p0xGyEgSO</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Sofia</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>https://youtu.be/ftI_Lp7LAuU?si=aOFT5Ral2-A_2PxG</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Numb (lyrics|rock)</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>https://youtu.be/8P0vKLHbtMg?si=HhXMHjE8vD2yeC_B</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>For The Rest Of My Life</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>https://youtu.be/PHbZ9SXHJwA?si=_7a2Gaka2oPEWrCQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Insha Allah</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>https://youtu.be/8xXJyFNfiy8?si=XkqgGm4hEyZoqJe1</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Hunger Games | Atlas</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Lh3TokLzzmw?si=I5CcdBNIEuwDZvVT</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Hard To Say Im Sorry</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>https://youtu.be/XCmOdVia9DE?si=60M6i15UUakuL7DH</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Sasha Sloan - Lie</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>https://youtu.be/AzjTJpzfB8U?si=PHYxAGETm1P1opd0</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Solo Para Ti</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>https://youtu.be/5D_A4IBWSv4?si=pgNinSqUyLBks6po</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Zara Larsson - This Ones For You</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>https://youtu.be/MoHnffhBwqs?si=_FGX4ucMtOTcD2to</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>La Cintura</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Eg4LUvUjUWI?si=YqeuNfTh_iTuj-dP</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Diamond Heart</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>https://youtu.be/bcHoBDw4G10?si=auASu-G_c9NkS48Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Halsey - Sorry</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>https://youtu.be/CPAoMCo7tNw?si=2rEiXXCn6UcySUVZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Relax, Take it Easy</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>https://youtu.be/EVDYmBrl02Q?si=ODB07HFZCtTtg4F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Thank you Allah</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>https://youtu.be/RBrdl0v_anc?si=cu3qNsVyUIIzZGvv</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Let me down slowly</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>https://youtu.be/50VNCymT-Cs?si=sEwBTlJCeuqL9LTD</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Lonely (acoustic)</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Cu5hhxP_prE?si=VRZVlVcLWqk8Dasg</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Selfish love</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>https://youtu.be/9gqAq6kq5Ek?si=Gro32XWDuPLWzyIv</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>twenty one pilots: Heathens</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>https://youtu.be/UprcpdwuwCg?si=O6_fwxx8TOkfjIXi</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Dont Let Me Down</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Io0fBr1XBUA?si=SUp9MdCXlOU_Vf5s</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Someone you loved</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>https://youtu.be/zABLecsR5UE?si=k3rryaA0P3O8JBhY</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Lucid Dreams</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>https://youtu.be/IfBLD0ATrQA?si=YS-eU-zZX-5dbISw</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Fed up with us</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>https://youtu.be/n1NTv6Y4pxs?si=76WA3JI0TGILBHm7</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Skyfall</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>https://youtu.be/DeumyOzKqgI?si=Cok0dR7byK6pN682</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Story of my life</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>https://youtu.be/W-TE_Ys4iwM?si=RViOxRuaXxdz3pmm</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Reamonn - Tonight</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>https://youtu.be/jtoncUzV6nA?si=yULSO1-MxnAVV13i</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Hymn For The Weekend</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=YykjpeuMNEk</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Hell Or High Water</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>https://youtu.be/zgDbp5C74sU?si=R8Q5HZq2vzhGL57g</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Lonely</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>https://youtu.be/M4hvSgnsnog?si=TtDhe_NUHM1NZaY9</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Everything I Need</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=9bCp7j3nC30</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Love the way you lie</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>https://youtu.be/h_-JFUci0BM?si=SHiuHs1NdIjpN0WP</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Moving Mountains</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>https://youtu.be/S_0r3hYg78o?si=Be6GShy7mgRcl9Ha</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Numb (cover)</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>https://youtu.be/gHp-OjLOG5A?si=0abUDswbKz6rhQeX</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Until I found you</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>https://youtu.be/oIKuyj2GQtY</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Heart is on fire</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>https://youtu.be/kBqqlW6-99M?si=kXaaJTqhA4PaY6Gd</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Holes</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>https://youtu.be/DeFWClW7skQ?si=hkIGl-CTTw-FbnLz</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Survivors</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=vN0gaXS8dQE</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Irakliy - Ya s toboy(cover)</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>https://youtu.be/3WmdZOF5bKk?si=LcXY8Gohxxx4cZSA</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Vetrom stat (cover)</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>https://youtu.be/kkzEs0gdvZI?si=Z456wgKuJd0aE_PA</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Reamonn - Supergirl</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>https://youtu.be/ctmS5XX67Ek?si=NGZGPw0bcpfZciyi</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Another Love</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Jkj36B1YuDU?si=Yku5tRPe7avRNr2R</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>All the little lights</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>https://youtu.be/OkxVxox--Io?si=AE4wj_c_uqTWGrbB</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Arcade</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Qau6mObfSGM?si=RsrcZ0VUCOHaEwE4</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Burito - Po volnam</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>https://youtu.be/jqyJ4xW2gb0?si=VgrA4JKMWkeWDIA5</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>To Be Free</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>https://youtu.be/hNd5pILkpSw?si=qiwZxiuS0yeiuOPs</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Castle of Glass</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=PPkJeWPP2nM</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Ava Max - Alone</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>https://youtu.be/omvW1cI-3xg?si=zHiFadZaUUpddcgu</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Let Her Go (ft Ed Sheeran)</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>https://youtu.be/HTcL9WkB_wg?si=ILXw9EaPM4GJyx29</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>In the end (rmx)</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>https://youtu.be/WNeLUngb-Xg?si=V95nGOt0sMvhQG7c</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>No Time To Die</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>https://youtu.be/GB_S2qFh5lU?si=XDH6CdXhqJq-g321</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Tired Of Being Sorry</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>https://youtu.be/gzFmctgW0s8?si=JfvG_0Sj-IdPWoBY</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>The Cup Of Life - Ricky Martin</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>https://youtu.be/CBfSeqfeggI?si=A2RRcM0PSvAsvpHF</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Баста - Выпускной</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>https://youtu.be/t1-yL-xvklc?si=YZ1rS5hZtleOFOy1</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Wonderful Life</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>https://youtu.be/qzn_6bXdgeE?si=BgnimyD5Frnn_-o-</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Shape of My Heart</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>https://youtu.be/pm3rDbXbZRI?si=7TxDuViBxhHGeZoU</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Edward Maya, Vika Jigulina - Stereo love (Radio Edit) (Lyrics)</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=y9Kqb2z9Lzs</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Gym Class Heroes: Stereo Hearts ft. Adam Levine [OFFICIAL VIDEO]</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=T3E9Wjbq44E</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Lana Del Rey - Summertime Sadness (Official Music Video)</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=TdrL3QxjyVw</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Enya - Only Time (Official 4K Music Video)</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=7wfYIMyS_dI</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>somewhere only we know (Gustixa &amp;amp; Rhianne)</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=92izkAK5OA0</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Duncan Laurence feat. FLETCHER – Arcade</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=308v08mFWWc</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Bad Liar (cover)</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>https://youtu.be/5jfz3q9Z0RY?si=OHvyb7AMtM_wtAXc</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Linkin Park - In The End (Remix)</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=WNeLUngb-Xg</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Shawn Mendes - It'll Be Okay</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>https://youtu.be/KrgJp7Z1Hv8?si=MOyY5rZzP-7kcfhM</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Today is a Good Day</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>https://youtu.be/9L4EjJqrz0c?si=x97RAvAA9IELRZPW</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Heroes Tonight</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=074rfF4RJZc</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Shakira - Hips Dont Lie</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>https://youtu.be/p3pEe6aAJ4k?si=bzrAEs7c-zSwqBUo</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Shakira - La La La World Cup 2014</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>https://youtu.be/2igups6VdcA?si=N5uu5genirJuWXWC</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Shakira - Chantaje (letra)</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>https://youtu.be/J76eQJP3UIQ?si=juYKqG_UCEta8y19</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Zara Larsson – Dont Worry Bout Me</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>https://youtu.be/u_tzZd9kIWg?si=y-s2yCVh4U2JLsJJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Selena Gomez - Buscando Amor</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>https://youtu.be/2P6EExu3H5s?si=f2hv9y52VqxnVOmL</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Shawn Mendes - In My Blood</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>https://youtu.be/36tggrpRoTI?si=CiCfVdO8Oepjt4Rs</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Charlie Puth - We Dont Talk Anymore</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>https://youtu.be/bpFVJJBgtXY?si=L2NuwOWGhmdKacwg</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Selena Gomez - Adiós</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>https://youtu.be/9H_368c2Hzw?si=UOBGyTGbUe_fISFW</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Charlie Puth - Attention</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Oz5JDtkf1as</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Something Just Like This</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>https://youtu.be/FM7MFYoylVs?si=TrbAGj-JAUeEJ4bd</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Bruno Mars - Grenade</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>https://youtu.be/4YrzJ9RZ9qY</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Let Me Love You</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>https://youtu.be/SMs0GnYze34?si=T-UORWGqJCoitcOM</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Sweet But Psycho</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>https://youtu.be/2KBFD0aoZy8</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Whos laughing now</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>https://youtu.be/4JYSgIiSZSA?si=3v9kDuzvYJvWaOsO</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Girls Like You</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>https://youtu.be/aJOTlE1K90k</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Camila Cabello - Havana</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>https://youtu.be/HCjNJDNzw8Y?si=QjZAi7GPIc4ParOQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Maroon 5 - Memories</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=SlPhMPnQ58k&amp;pp=ygUPbWFyb29uIG1lbW9yaWVz</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>post malone - rockstar (feat. 21 savage)</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=9lQP9-F8kIQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Drake - Gods plan</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=ScfgOVJiu_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Dua Lipa - Levitating</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=j2c3tR_qfiQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Justin Bieber - Baby</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=khOFw2f4bQY</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>State of Grace</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=gr4cqcqnAN0</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Taylor Swift - Back To December</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>https://youtu.be/QUwxKWT6m7U?si=LNPBWKl0DqXIfOP2</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>As it was</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Qfm6nfz1QNQ?si=3mMjYFpALij7GELl</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Taylor Swift - Begin Again</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>https://youtu.be/cMPEd8m79Hw?si=9zE5-51p0xGyEgSO</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Sofia</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>https://youtu.be/ftI_Lp7LAuU?si=aOFT5Ral2-A_2PxG</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Numb (lyrics|rock)</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>https://youtu.be/8P0vKLHbtMg?si=HhXMHjE8vD2yeC_B</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>For The Rest Of My Life</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>https://youtu.be/PHbZ9SXHJwA?si=_7a2Gaka2oPEWrCQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Insha Allah</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>https://youtu.be/8xXJyFNfiy8?si=XkqgGm4hEyZoqJe1</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Hunger Games | Atlas</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Lh3TokLzzmw?si=I5CcdBNIEuwDZvVT</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Hard To Say Im Sorry</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>https://youtu.be/XCmOdVia9DE?si=60M6i15UUakuL7DH</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Sasha Sloan - Lie</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>https://youtu.be/AzjTJpzfB8U?si=PHYxAGETm1P1opd0</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Solo Para Ti</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>https://youtu.be/5D_A4IBWSv4?si=pgNinSqUyLBks6po</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Zara Larsson - This Ones For You</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>https://youtu.be/MoHnffhBwqs?si=_FGX4ucMtOTcD2to</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>La Cintura</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Eg4LUvUjUWI?si=YqeuNfTh_iTuj-dP</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Diamond Heart</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>https://youtu.be/bcHoBDw4G10?si=auASu-G_c9NkS48Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Halsey - Sorry</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>https://youtu.be/CPAoMCo7tNw?si=2rEiXXCn6UcySUVZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Relax, Take it Easy</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>https://youtu.be/EVDYmBrl02Q?si=ODB07HFZCtTtg4F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Thank you Allah</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>https://youtu.be/RBrdl0v_anc?si=cu3qNsVyUIIzZGvv</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Let me down slowly</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>https://youtu.be/50VNCymT-Cs?si=sEwBTlJCeuqL9LTD</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Lonely (acoustic)</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Cu5hhxP_prE?si=VRZVlVcLWqk8Dasg</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Selfish love</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>https://youtu.be/9gqAq6kq5Ek?si=Gro32XWDuPLWzyIv</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>twenty one pilots: Heathens</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>https://youtu.be/UprcpdwuwCg?si=O6_fwxx8TOkfjIXi</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Dont Let Me Down</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Io0fBr1XBUA?si=SUp9MdCXlOU_Vf5s</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Someone you loved</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>https://youtu.be/zABLecsR5UE?si=k3rryaA0P3O8JBhY</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Lucid Dreams</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>https://youtu.be/IfBLD0ATrQA?si=YS-eU-zZX-5dbISw</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Fed up with us</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>https://youtu.be/n1NTv6Y4pxs?si=76WA3JI0TGILBHm7</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Skyfall</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>https://youtu.be/DeumyOzKqgI?si=Cok0dR7byK6pN682</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Story of my life</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>https://youtu.be/W-TE_Ys4iwM?si=RViOxRuaXxdz3pmm</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Reamonn - Tonight</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>https://youtu.be/jtoncUzV6nA?si=yULSO1-MxnAVV13i</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Hymn For The Weekend</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=YykjpeuMNEk</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Hell Or High Water</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>https://youtu.be/zgDbp5C74sU?si=R8Q5HZq2vzhGL57g</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Lonely</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>https://youtu.be/M4hvSgnsnog?si=TtDhe_NUHM1NZaY9</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Everything I Need</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=9bCp7j3nC30</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Love the way you lie</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>https://youtu.be/h_-JFUci0BM?si=SHiuHs1NdIjpN0WP</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Moving Mountains</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>https://youtu.be/S_0r3hYg78o?si=Be6GShy7mgRcl9Ha</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Numb (cover)</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>https://youtu.be/gHp-OjLOG5A?si=0abUDswbKz6rhQeX</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Until I found you</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>https://youtu.be/oIKuyj2GQtY</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Heart is on fire</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>https://youtu.be/kBqqlW6-99M?si=kXaaJTqhA4PaY6Gd</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Holes</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>https://youtu.be/DeFWClW7skQ?si=hkIGl-CTTw-FbnLz</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Survivors</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=vN0gaXS8dQE</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Irakliy - Ya s toboy(cover)</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>https://youtu.be/3WmdZOF5bKk?si=LcXY8Gohxxx4cZSA</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Vetrom stat (cover)</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>https://youtu.be/kkzEs0gdvZI?si=Z456wgKuJd0aE_PA</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Reamonn - Supergirl</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>https://youtu.be/ctmS5XX67Ek?si=NGZGPw0bcpfZciyi</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Another Love</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Jkj36B1YuDU?si=Yku5tRPe7avRNr2R</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>All the little lights</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>https://youtu.be/OkxVxox--Io?si=AE4wj_c_uqTWGrbB</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Arcade</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Qau6mObfSGM?si=RsrcZ0VUCOHaEwE4</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Burito - Po volnam</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>https://youtu.be/jqyJ4xW2gb0?si=VgrA4JKMWkeWDIA5</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>To Be Free</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>https://youtu.be/hNd5pILkpSw?si=qiwZxiuS0yeiuOPs</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Castle of Glass</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=PPkJeWPP2nM</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Ava Max - Alone</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>https://youtu.be/omvW1cI-3xg?si=zHiFadZaUUpddcgu</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Let Her Go (ft Ed Sheeran)</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>https://youtu.be/HTcL9WkB_wg?si=ILXw9EaPM4GJyx29</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>In the end (rmx)</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>https://youtu.be/WNeLUngb-Xg?si=V95nGOt0sMvhQG7c</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>No Time To Die</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>https://youtu.be/GB_S2qFh5lU?si=XDH6CdXhqJq-g321</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Tired Of Being Sorry</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>https://youtu.be/gzFmctgW0s8?si=JfvG_0Sj-IdPWoBY</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>The Cup Of Life - Ricky Martin</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>https://youtu.be/CBfSeqfeggI?si=A2RRcM0PSvAsvpHF</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Баста - Выпускной</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>https://youtu.be/t1-yL-xvklc?si=YZ1rS5hZtleOFOy1</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Wonderful Life</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>https://youtu.be/qzn_6bXdgeE?si=BgnimyD5Frnn_-o-</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Shape of My Heart</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>https://youtu.be/pm3rDbXbZRI?si=7TxDuViBxhHGeZoU</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Gym Class Heroes: Stereo Hearts ft. Adam Levine [OFFICIAL VIDEO]</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=T3E9Wjbq44E</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Edward Maya, Vika Jigulina - Stereo love (Radio Edit) (Lyrics)</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=y9Kqb2z9Lzs</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Lana Del Rey - Summertime Sadness (Official Music Video)</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=TdrL3QxjyVw</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Enya - Only Time (Official 4K Music Video)</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=7wfYIMyS_dI</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>somewhere only we know (Gustixa &amp;amp; Rhianne)</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=92izkAK5OA0</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Duncan Laurence feat. FLETCHER – Arcade</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=308v08mFWWc</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Bad Liar (cover)</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>https://youtu.be/5jfz3q9Z0RY?si=OHvyb7AMtM_wtAXc</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Linkin Park - In The End (Remix)</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=WNeLUngb-Xg</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Shawn Mendes - It'll Be Okay</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>https://youtu.be/KrgJp7Z1Hv8?si=MOyY5rZzP-7kcfhM</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Today is a Good Day</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>https://youtu.be/9L4EjJqrz0c?si=x97RAvAA9IELRZPW</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Heroes Tonight</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=074rfF4RJZc</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Shakira - Hips Dont Lie</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>https://youtu.be/p3pEe6aAJ4k?si=bzrAEs7c-zSwqBUo</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Shakira - La La La World Cup 2014</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>https://youtu.be/2igups6VdcA?si=N5uu5genirJuWXWC</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Shakira - Chantaje (letra)</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>https://youtu.be/J76eQJP3UIQ?si=juYKqG_UCEta8y19</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Zara Larsson – Dont Worry Bout Me</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>https://youtu.be/u_tzZd9kIWg?si=y-s2yCVh4U2JLsJJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Selena Gomez - Buscando Amor</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>https://youtu.be/2P6EExu3H5s?si=f2hv9y52VqxnVOmL</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Shawn Mendes - In My Blood</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>https://youtu.be/36tggrpRoTI?si=CiCfVdO8Oepjt4Rs</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Charlie Puth - We Dont Talk Anymore</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>https://youtu.be/bpFVJJBgtXY?si=L2NuwOWGhmdKacwg</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Selena Gomez - Adiós</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>https://youtu.be/9H_368c2Hzw?si=UOBGyTGbUe_fISFW</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Charlie Puth - Attention</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Oz5JDtkf1as</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Something Just Like This</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>https://youtu.be/FM7MFYoylVs?si=TrbAGj-JAUeEJ4bd</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Bruno Mars - Grenade</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>https://youtu.be/4YrzJ9RZ9qY</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Let Me Love You</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>https://youtu.be/SMs0GnYze34?si=T-UORWGqJCoitcOM</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Sweet But Psycho</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>https://youtu.be/2KBFD0aoZy8</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Whos laughing now</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>https://youtu.be/4JYSgIiSZSA?si=3v9kDuzvYJvWaOsO</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Girls Like You</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>https://youtu.be/aJOTlE1K90k</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Camila Cabello - Havana</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>https://youtu.be/HCjNJDNzw8Y?si=QjZAi7GPIc4ParOQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Maroon 5 - Memories</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=SlPhMPnQ58k&amp;pp=ygUPbWFyb29uIG1lbW9yaWVz</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>post malone - rockstar (feat. 21 savage)</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=9lQP9-F8kIQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Drake - Gods plan</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=ScfgOVJiu_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Dua Lipa - Levitating</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=j2c3tR_qfiQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Justin Bieber - Baby</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=khOFw2f4bQY</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>State of Grace</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=gr4cqcqnAN0</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Taylor Swift - Back To December</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>https://youtu.be/QUwxKWT6m7U?si=LNPBWKl0DqXIfOP2</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>As it was</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Qfm6nfz1QNQ?si=3mMjYFpALij7GELl</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Taylor Swift - Begin Again</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>https://youtu.be/cMPEd8m79Hw?si=9zE5-51p0xGyEgSO</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Sofia</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>https://youtu.be/ftI_Lp7LAuU?si=aOFT5Ral2-A_2PxG</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Numb (lyrics|rock)</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>https://youtu.be/8P0vKLHbtMg?si=HhXMHjE8vD2yeC_B</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>For The Rest Of My Life</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>https://youtu.be/PHbZ9SXHJwA?si=_7a2Gaka2oPEWrCQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Insha Allah</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>https://youtu.be/8xXJyFNfiy8?si=XkqgGm4hEyZoqJe1</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Hunger Games | Atlas</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Lh3TokLzzmw?si=I5CcdBNIEuwDZvVT</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Hard To Say Im Sorry</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>https://youtu.be/XCmOdVia9DE?si=60M6i15UUakuL7DH</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Sasha Sloan - Lie</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>https://youtu.be/AzjTJpzfB8U?si=PHYxAGETm1P1opd0</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Solo Para Ti</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>https://youtu.be/5D_A4IBWSv4?si=pgNinSqUyLBks6po</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Zara Larsson - This Ones For You</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>https://youtu.be/MoHnffhBwqs?si=_FGX4ucMtOTcD2to</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>La Cintura</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Eg4LUvUjUWI?si=YqeuNfTh_iTuj-dP</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Diamond Heart</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>https://youtu.be/bcHoBDw4G10?si=auASu-G_c9NkS48Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Halsey - Sorry</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>https://youtu.be/CPAoMCo7tNw?si=2rEiXXCn6UcySUVZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Relax, Take it Easy</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>https://youtu.be/EVDYmBrl02Q?si=ODB07HFZCtTtg4F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Thank you Allah</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>https://youtu.be/RBrdl0v_anc?si=cu3qNsVyUIIzZGvv</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Let me down slowly</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>https://youtu.be/50VNCymT-Cs?si=sEwBTlJCeuqL9LTD</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Lonely (acoustic)</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Cu5hhxP_prE?si=VRZVlVcLWqk8Dasg</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Selfish love</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>https://youtu.be/9gqAq6kq5Ek?si=Gro32XWDuPLWzyIv</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>twenty one pilots: Heathens</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>https://youtu.be/UprcpdwuwCg?si=O6_fwxx8TOkfjIXi</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Dont Let Me Down</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Io0fBr1XBUA?si=SUp9MdCXlOU_Vf5s</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Someone you loved</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>https://youtu.be/zABLecsR5UE?si=k3rryaA0P3O8JBhY</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Lucid Dreams</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>https://youtu.be/IfBLD0ATrQA?si=YS-eU-zZX-5dbISw</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Fed up with us</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>https://youtu.be/n1NTv6Y4pxs?si=76WA3JI0TGILBHm7</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Skyfall</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>https://youtu.be/DeumyOzKqgI?si=Cok0dR7byK6pN682</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Story of my life</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>https://youtu.be/W-TE_Ys4iwM?si=RViOxRuaXxdz3pmm</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Reamonn - Tonight</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>https://youtu.be/jtoncUzV6nA?si=yULSO1-MxnAVV13i</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>Hymn For The Weekend</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=YykjpeuMNEk</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Hell Or High Water</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>https://youtu.be/zgDbp5C74sU?si=R8Q5HZq2vzhGL57g</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Lonely</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>https://youtu.be/M4hvSgnsnog?si=TtDhe_NUHM1NZaY9</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Everything I Need</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=9bCp7j3nC30</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>Love the way you lie</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>https://youtu.be/h_-JFUci0BM?si=SHiuHs1NdIjpN0WP</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Moving Mountains</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>https://youtu.be/S_0r3hYg78o?si=Be6GShy7mgRcl9Ha</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Numb (cover)</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>https://youtu.be/gHp-OjLOG5A?si=0abUDswbKz6rhQeX</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Until I found you</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>https://youtu.be/oIKuyj2GQtY</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>Heart is on fire</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>https://youtu.be/kBqqlW6-99M?si=kXaaJTqhA4PaY6Gd</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Holes</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>https://youtu.be/DeFWClW7skQ?si=hkIGl-CTTw-FbnLz</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Survivors</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=vN0gaXS8dQE</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>Irakliy - Ya s toboy(cover)</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>https://youtu.be/3WmdZOF5bKk?si=LcXY8Gohxxx4cZSA</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Vetrom stat (cover)</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>https://youtu.be/kkzEs0gdvZI?si=Z456wgKuJd0aE_PA</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>Reamonn - Supergirl</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>https://youtu.be/ctmS5XX67Ek?si=NGZGPw0bcpfZciyi</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Another Love</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Jkj36B1YuDU?si=Yku5tRPe7avRNr2R</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>All the little lights</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>https://youtu.be/OkxVxox--Io?si=AE4wj_c_uqTWGrbB</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>Arcade</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Qau6mObfSGM?si=RsrcZ0VUCOHaEwE4</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Burito - Po volnam</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>https://youtu.be/jqyJ4xW2gb0?si=VgrA4JKMWkeWDIA5</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>To Be Free</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>https://youtu.be/hNd5pILkpSw?si=qiwZxiuS0yeiuOPs</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>Castle of Glass</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=PPkJeWPP2nM</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>Ava Max - Alone</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>https://youtu.be/omvW1cI-3xg?si=zHiFadZaUUpddcgu</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Let Her Go (ft Ed Sheeran)</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>https://youtu.be/HTcL9WkB_wg?si=ILXw9EaPM4GJyx29</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>In the end (rmx)</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>https://youtu.be/WNeLUngb-Xg?si=V95nGOt0sMvhQG7c</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>No Time To Die</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>https://youtu.be/GB_S2qFh5lU?si=XDH6CdXhqJq-g321</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>Tired Of Being Sorry</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>https://youtu.be/gzFmctgW0s8?si=JfvG_0Sj-IdPWoBY</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>The Cup Of Life - Ricky Martin</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>https://youtu.be/CBfSeqfeggI?si=A2RRcM0PSvAsvpHF</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>Баста - Выпускной</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>https://youtu.be/t1-yL-xvklc?si=YZ1rS5hZtleOFOy1</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>Wonderful Life</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>https://youtu.be/qzn_6bXdgeE?si=BgnimyD5Frnn_-o-</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>Shape of My Heart</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>https://youtu.be/pm3rDbXbZRI?si=7TxDuViBxhHGeZoU</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>Edward Maya, Vika Jigulina - Stereo love (Radio Edit) (Lyrics)</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=y9Kqb2z9Lzs</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>Gym Class Heroes: Stereo Hearts ft. Adam Levine [OFFICIAL VIDEO]</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=T3E9Wjbq44E</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>Lana Del Rey - Summertime Sadness (Official Music Video)</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=TdrL3QxjyVw</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>Enya - Only Time (Official 4K Music Video)</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=7wfYIMyS_dI</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>somewhere only we know (Gustixa &amp;amp; Rhianne)</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=92izkAK5OA0</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>Duncan Laurence feat. FLETCHER – Arcade</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=308v08mFWWc</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>Bad Liar (cover)</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>https://youtu.be/5jfz3q9Z0RY?si=OHvyb7AMtM_wtAXc</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>Linkin Park - In The End (Remix)</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=WNeLUngb-Xg</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>Shawn Mendes - It'll Be Okay</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>https://youtu.be/KrgJp7Z1Hv8?si=MOyY5rZzP-7kcfhM</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>Today is a Good Day</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>https://youtu.be/9L4EjJqrz0c?si=x97RAvAA9IELRZPW</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>Heroes Tonight</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=074rfF4RJZc</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>Shakira - Hips Dont Lie</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>https://youtu.be/p3pEe6aAJ4k?si=bzrAEs7c-zSwqBUo</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>Shakira - La La La World Cup 2014</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>https://youtu.be/2igups6VdcA?si=N5uu5genirJuWXWC</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>Shakira - Chantaje (letra)</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>https://youtu.be/J76eQJP3UIQ?si=juYKqG_UCEta8y19</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>Zara Larsson – Dont Worry Bout Me</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>https://youtu.be/u_tzZd9kIWg?si=y-s2yCVh4U2JLsJJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>Selena Gomez - Buscando Amor</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>https://youtu.be/2P6EExu3H5s?si=f2hv9y52VqxnVOmL</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>Shawn Mendes - In My Blood</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>https://youtu.be/36tggrpRoTI?si=CiCfVdO8Oepjt4Rs</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>Charlie Puth - We Dont Talk Anymore</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>https://youtu.be/bpFVJJBgtXY?si=L2NuwOWGhmdKacwg</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>Selena Gomez - Adiós</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>https://youtu.be/9H_368c2Hzw?si=UOBGyTGbUe_fISFW</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>Charlie Puth - Attention</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Oz5JDtkf1as</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>Something Just Like This</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>https://youtu.be/FM7MFYoylVs?si=TrbAGj-JAUeEJ4bd</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>Bruno Mars - Grenade</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>https://youtu.be/4YrzJ9RZ9qY</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>Let Me Love You</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>https://youtu.be/SMs0GnYze34?si=T-UORWGqJCoitcOM</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>Sweet But Psycho</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>https://youtu.be/2KBFD0aoZy8</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>Whos laughing now</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>https://youtu.be/4JYSgIiSZSA?si=3v9kDuzvYJvWaOsO</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>Girls Like You</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>https://youtu.be/aJOTlE1K90k</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>Camila Cabello - Havana</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>https://youtu.be/HCjNJDNzw8Y?si=QjZAi7GPIc4ParOQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>Maroon 5 - Memories</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=SlPhMPnQ58k&amp;pp=ygUPbWFyb29uIG1lbW9yaWVz</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>post malone - rockstar (feat. 21 savage)</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=9lQP9-F8kIQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>Drake - Gods plan</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=ScfgOVJiu_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>Dua Lipa - Levitating</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=j2c3tR_qfiQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>Justin Bieber - Baby</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=khOFw2f4bQY</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>State of Grace</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=gr4cqcqnAN0</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>Taylor Swift - Back To December</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>https://youtu.be/QUwxKWT6m7U?si=LNPBWKl0DqXIfOP2</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>As it was</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Qfm6nfz1QNQ?si=3mMjYFpALij7GELl</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>Taylor Swift - Begin Again</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>https://youtu.be/cMPEd8m79Hw?si=9zE5-51p0xGyEgSO</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>Sofia</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>https://youtu.be/ftI_Lp7LAuU?si=aOFT5Ral2-A_2PxG</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>Numb (lyrics|rock)</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>https://youtu.be/8P0vKLHbtMg?si=HhXMHjE8vD2yeC_B</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>For The Rest Of My Life</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>https://youtu.be/PHbZ9SXHJwA?si=_7a2Gaka2oPEWrCQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>Insha Allah</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>https://youtu.be/8xXJyFNfiy8?si=XkqgGm4hEyZoqJe1</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>Hunger Games | Atlas</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Lh3TokLzzmw?si=I5CcdBNIEuwDZvVT</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>Hard To Say Im Sorry</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>https://youtu.be/XCmOdVia9DE?si=60M6i15UUakuL7DH</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>Sasha Sloan - Lie</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>https://youtu.be/AzjTJpzfB8U?si=PHYxAGETm1P1opd0</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>Solo Para Ti</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>https://youtu.be/5D_A4IBWSv4?si=pgNinSqUyLBks6po</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>Zara Larsson - This Ones For You</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>https://youtu.be/MoHnffhBwqs?si=_FGX4ucMtOTcD2to</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>La Cintura</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Eg4LUvUjUWI?si=YqeuNfTh_iTuj-dP</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>Diamond Heart</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>https://youtu.be/bcHoBDw4G10?si=auASu-G_c9NkS48Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>Halsey - Sorry</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>https://youtu.be/CPAoMCo7tNw?si=2rEiXXCn6UcySUVZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>Relax, Take it Easy</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>https://youtu.be/EVDYmBrl02Q?si=ODB07HFZCtTtg4F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>Thank you Allah</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>https://youtu.be/RBrdl0v_anc?si=cu3qNsVyUIIzZGvv</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>Let me down slowly</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>https://youtu.be/50VNCymT-Cs?si=sEwBTlJCeuqL9LTD</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>Lonely (acoustic)</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Cu5hhxP_prE?si=VRZVlVcLWqk8Dasg</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>Selfish love</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>https://youtu.be/9gqAq6kq5Ek?si=Gro32XWDuPLWzyIv</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>twenty one pilots: Heathens</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>https://youtu.be/UprcpdwuwCg?si=O6_fwxx8TOkfjIXi</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>Dont Let Me Down</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Io0fBr1XBUA?si=SUp9MdCXlOU_Vf5s</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>Someone you loved</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>https://youtu.be/zABLecsR5UE?si=k3rryaA0P3O8JBhY</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>Lucid Dreams</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>https://youtu.be/IfBLD0ATrQA?si=YS-eU-zZX-5dbISw</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>Fed up with us</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>https://youtu.be/n1NTv6Y4pxs?si=76WA3JI0TGILBHm7</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>Skyfall</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>https://youtu.be/DeumyOzKqgI?si=Cok0dR7byK6pN682</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>Story of my life</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>https://youtu.be/W-TE_Ys4iwM?si=RViOxRuaXxdz3pmm</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>Reamonn - Tonight</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>https://youtu.be/jtoncUzV6nA?si=yULSO1-MxnAVV13i</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>Hymn For The Weekend</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=YykjpeuMNEk</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>Hell Or High Water</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>https://youtu.be/zgDbp5C74sU?si=R8Q5HZq2vzhGL57g</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>Lonely</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>https://youtu.be/M4hvSgnsnog?si=TtDhe_NUHM1NZaY9</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>Everything I Need</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=9bCp7j3nC30</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>Love the way you lie</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>https://youtu.be/h_-JFUci0BM?si=SHiuHs1NdIjpN0WP</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>Moving Mountains</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>https://youtu.be/S_0r3hYg78o?si=Be6GShy7mgRcl9Ha</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>Numb (cover)</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>https://youtu.be/gHp-OjLOG5A?si=0abUDswbKz6rhQeX</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>Until I found you</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>https://youtu.be/oIKuyj2GQtY</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>Heart is on fire</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>https://youtu.be/kBqqlW6-99M?si=kXaaJTqhA4PaY6Gd</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>Holes</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>https://youtu.be/DeFWClW7skQ?si=hkIGl-CTTw-FbnLz</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>Survivors</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=vN0gaXS8dQE</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>Irakliy - Ya s toboy(cover)</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>https://youtu.be/3WmdZOF5bKk?si=LcXY8Gohxxx4cZSA</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>Vetrom stat (cover)</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>https://youtu.be/kkzEs0gdvZI?si=Z456wgKuJd0aE_PA</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>Reamonn - Supergirl</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>https://youtu.be/ctmS5XX67Ek?si=NGZGPw0bcpfZciyi</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>Another Love</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Jkj36B1YuDU?si=Yku5tRPe7avRNr2R</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>All the little lights</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>https://youtu.be/OkxVxox--Io?si=AE4wj_c_uqTWGrbB</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>Arcade</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Qau6mObfSGM?si=RsrcZ0VUCOHaEwE4</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>Burito - Po volnam</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>https://youtu.be/jqyJ4xW2gb0?si=VgrA4JKMWkeWDIA5</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>To Be Free</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>https://youtu.be/hNd5pILkpSw?si=qiwZxiuS0yeiuOPs</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>Castle of Glass</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=PPkJeWPP2nM</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>Ava Max - Alone</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>https://youtu.be/omvW1cI-3xg?si=zHiFadZaUUpddcgu</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>Let Her Go (ft Ed Sheeran)</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>https://youtu.be/HTcL9WkB_wg?si=ILXw9EaPM4GJyx29</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>In the end (rmx)</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>https://youtu.be/WNeLUngb-Xg?si=V95nGOt0sMvhQG7c</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>No Time To Die</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>https://youtu.be/GB_S2qFh5lU?si=XDH6CdXhqJq-g321</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>Tired Of Being Sorry</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>https://youtu.be/gzFmctgW0s8?si=JfvG_0Sj-IdPWoBY</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>The Cup Of Life - Ricky Martin</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>https://youtu.be/CBfSeqfeggI?si=A2RRcM0PSvAsvpHF</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>Баста - Выпускной</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>https://youtu.be/t1-yL-xvklc?si=YZ1rS5hZtleOFOy1</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>Wonderful Life</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>https://youtu.be/qzn_6bXdgeE?si=BgnimyD5Frnn_-o-</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>Shape of My Heart</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>https://youtu.be/pm3rDbXbZRI?si=7TxDuViBxhHGeZoU</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>Edward Maya, Vika Jigulina - Stereo love (Radio Edit) (Lyrics)</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=y9Kqb2z9Lzs</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>Gym Class Heroes: Stereo Hearts ft. Adam Levine [OFFICIAL VIDEO]</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=T3E9Wjbq44E</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>somewhere only we know (Gustixa &amp;amp; Rhianne)</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=92izkAK5OA0</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>Lana Del Rey - Summertime Sadness (Official Music Video)</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=TdrL3QxjyVw</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>Enya - Only Time (Official 4K Music Video)</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=7wfYIMyS_dI</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>Duncan Laurence feat. FLETCHER – Arcade</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=308v08mFWWc</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>Bad Liar (cover)</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>https://youtu.be/5jfz3q9Z0RY?si=OHvyb7AMtM_wtAXc</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>Linkin Park - In The End (Remix)</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=WNeLUngb-Xg</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>Shawn Mendes - It'll Be Okay</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>https://youtu.be/KrgJp7Z1Hv8?si=MOyY5rZzP-7kcfhM</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>Today is a Good Day</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>https://youtu.be/9L4EjJqrz0c?si=x97RAvAA9IELRZPW</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>Heroes Tonight</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=074rfF4RJZc</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>Shakira - Hips Dont Lie</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>https://youtu.be/p3pEe6aAJ4k?si=bzrAEs7c-zSwqBUo</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>Shakira - La La La World Cup 2014</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>https://youtu.be/2igups6VdcA?si=N5uu5genirJuWXWC</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>Shakira - Chantaje (letra)</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>https://youtu.be/J76eQJP3UIQ?si=juYKqG_UCEta8y19</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>Zara Larsson – Dont Worry Bout Me</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>https://youtu.be/u_tzZd9kIWg?si=y-s2yCVh4U2JLsJJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>Selena Gomez - Buscando Amor</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>https://youtu.be/2P6EExu3H5s?si=f2hv9y52VqxnVOmL</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>Shawn Mendes - In My Blood</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>https://youtu.be/36tggrpRoTI?si=CiCfVdO8Oepjt4Rs</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>Charlie Puth - We Dont Talk Anymore</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>https://youtu.be/bpFVJJBgtXY?si=L2NuwOWGhmdKacwg</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>Selena Gomez - Adiós</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>https://youtu.be/9H_368c2Hzw?si=UOBGyTGbUe_fISFW</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>Charlie Puth - Attention</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Oz5JDtkf1as</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>Something Just Like This</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>https://youtu.be/FM7MFYoylVs?si=TrbAGj-JAUeEJ4bd</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>Bruno Mars - Grenade</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>https://youtu.be/4YrzJ9RZ9qY</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>Let Me Love You</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>https://youtu.be/SMs0GnYze34?si=T-UORWGqJCoitcOM</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>Sweet But Psycho</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>https://youtu.be/2KBFD0aoZy8</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>Whos laughing now</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>https://youtu.be/4JYSgIiSZSA?si=3v9kDuzvYJvWaOsO</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>Girls Like You</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>https://youtu.be/aJOTlE1K90k</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>Camila Cabello - Havana</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>https://youtu.be/HCjNJDNzw8Y?si=QjZAi7GPIc4ParOQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>Maroon 5 - Memories</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=SlPhMPnQ58k&amp;pp=ygUPbWFyb29uIG1lbW9yaWVz</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>post malone - rockstar (feat. 21 savage)</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=9lQP9-F8kIQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>Drake - Gods plan</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=ScfgOVJiu_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>Dua Lipa - Levitating</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=j2c3tR_qfiQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>Justin Bieber - Baby</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=khOFw2f4bQY</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>State of Grace</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=gr4cqcqnAN0</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>Taylor Swift - Back To December</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>https://youtu.be/QUwxKWT6m7U?si=LNPBWKl0DqXIfOP2</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>As it was</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Qfm6nfz1QNQ?si=3mMjYFpALij7GELl</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>Taylor Swift - Begin Again</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>https://youtu.be/cMPEd8m79Hw?si=9zE5-51p0xGyEgSO</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>Sofia</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>https://youtu.be/ftI_Lp7LAuU?si=aOFT5Ral2-A_2PxG</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>Numb (lyrics|rock)</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>https://youtu.be/8P0vKLHbtMg?si=HhXMHjE8vD2yeC_B</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>For The Rest Of My Life</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>https://youtu.be/PHbZ9SXHJwA?si=_7a2Gaka2oPEWrCQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>Insha Allah</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>https://youtu.be/8xXJyFNfiy8?si=XkqgGm4hEyZoqJe1</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>Hunger Games | Atlas</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Lh3TokLzzmw?si=I5CcdBNIEuwDZvVT</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>Hard To Say Im Sorry</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>https://youtu.be/XCmOdVia9DE?si=60M6i15UUakuL7DH</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>Sasha Sloan - Lie</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>https://youtu.be/AzjTJpzfB8U?si=PHYxAGETm1P1opd0</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>Solo Para Ti</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>https://youtu.be/5D_A4IBWSv4?si=pgNinSqUyLBks6po</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>Zara Larsson - This Ones For You</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>https://youtu.be/MoHnffhBwqs?si=_FGX4ucMtOTcD2to</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>La Cintura</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Eg4LUvUjUWI?si=YqeuNfTh_iTuj-dP</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>Diamond Heart</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>https://youtu.be/bcHoBDw4G10?si=auASu-G_c9NkS48Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>Halsey - Sorry</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>https://youtu.be/CPAoMCo7tNw?si=2rEiXXCn6UcySUVZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>Relax, Take it Easy</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>https://youtu.be/EVDYmBrl02Q?si=ODB07HFZCtTtg4F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>Thank you Allah</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>https://youtu.be/RBrdl0v_anc?si=cu3qNsVyUIIzZGvv</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>Let me down slowly</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>https://youtu.be/50VNCymT-Cs?si=sEwBTlJCeuqL9LTD</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>Lonely (acoustic)</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Cu5hhxP_prE?si=VRZVlVcLWqk8Dasg</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>Selfish love</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>https://youtu.be/9gqAq6kq5Ek?si=Gro32XWDuPLWzyIv</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>twenty one pilots: Heathens</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>https://youtu.be/UprcpdwuwCg?si=O6_fwxx8TOkfjIXi</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>Dont Let Me Down</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Io0fBr1XBUA?si=SUp9MdCXlOU_Vf5s</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>Someone you loved</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>https://youtu.be/zABLecsR5UE?si=k3rryaA0P3O8JBhY</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>Lucid Dreams</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>https://youtu.be/IfBLD0ATrQA?si=YS-eU-zZX-5dbISw</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>Fed up with us</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>https://youtu.be/n1NTv6Y4pxs?si=76WA3JI0TGILBHm7</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>Skyfall</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>https://youtu.be/DeumyOzKqgI?si=Cok0dR7byK6pN682</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>Story of my life</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>https://youtu.be/W-TE_Ys4iwM?si=RViOxRuaXxdz3pmm</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>Reamonn - Tonight</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>https://youtu.be/jtoncUzV6nA?si=yULSO1-MxnAVV13i</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>Hymn For The Weekend</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=YykjpeuMNEk</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>Hell Or High Water</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>https://youtu.be/zgDbp5C74sU?si=R8Q5HZq2vzhGL57g</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>Lonely</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>https://youtu.be/M4hvSgnsnog?si=TtDhe_NUHM1NZaY9</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>Everything I Need</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=9bCp7j3nC30</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>Love the way you lie</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>https://youtu.be/h_-JFUci0BM?si=SHiuHs1NdIjpN0WP</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>Moving Mountains</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>https://youtu.be/S_0r3hYg78o?si=Be6GShy7mgRcl9Ha</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>Numb (cover)</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>https://youtu.be/gHp-OjLOG5A?si=0abUDswbKz6rhQeX</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>Until I found you</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>https://youtu.be/oIKuyj2GQtY</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>Heart is on fire</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>https://youtu.be/kBqqlW6-99M?si=kXaaJTqhA4PaY6Gd</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>Holes</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>https://youtu.be/DeFWClW7skQ?si=hkIGl-CTTw-FbnLz</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>Survivors</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=vN0gaXS8dQE</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>Irakliy - Ya s toboy(cover)</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>https://youtu.be/3WmdZOF5bKk?si=LcXY8Gohxxx4cZSA</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>Vetrom stat (cover)</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>https://youtu.be/kkzEs0gdvZI?si=Z456wgKuJd0aE_PA</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>Reamonn - Supergirl</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>https://youtu.be/ctmS5XX67Ek?si=NGZGPw0bcpfZciyi</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>Another Love</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Jkj36B1YuDU?si=Yku5tRPe7avRNr2R</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>All the little lights</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>https://youtu.be/OkxVxox--Io?si=AE4wj_c_uqTWGrbB</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>Arcade</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Qau6mObfSGM?si=RsrcZ0VUCOHaEwE4</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>Burito - Po volnam</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>https://youtu.be/jqyJ4xW2gb0?si=VgrA4JKMWkeWDIA5</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>To Be Free</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>https://youtu.be/hNd5pILkpSw?si=qiwZxiuS0yeiuOPs</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>Castle of Glass</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=PPkJeWPP2nM</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>Ava Max - Alone</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>https://youtu.be/omvW1cI-3xg?si=zHiFadZaUUpddcgu</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>Let Her Go (ft Ed Sheeran)</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>https://youtu.be/HTcL9WkB_wg?si=ILXw9EaPM4GJyx29</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>In the end (rmx)</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>https://youtu.be/WNeLUngb-Xg?si=V95nGOt0sMvhQG7c</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>No Time To Die</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>https://youtu.be/GB_S2qFh5lU?si=XDH6CdXhqJq-g321</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>Tired Of Being Sorry</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>https://youtu.be/gzFmctgW0s8?si=JfvG_0Sj-IdPWoBY</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>The Cup Of Life - Ricky Martin</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>https://youtu.be/CBfSeqfeggI?si=A2RRcM0PSvAsvpHF</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>Баста - Выпускной</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>https://youtu.be/t1-yL-xvklc?si=YZ1rS5hZtleOFOy1</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>Wonderful Life</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>https://youtu.be/qzn_6bXdgeE?si=BgnimyD5Frnn_-o-</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>Shape of My Heart</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>https://youtu.be/pm3rDbXbZRI?si=7TxDuViBxhHGeZoU</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>Edward Maya, Vika Jigulina - Stereo love (Radio Edit) (Lyrics)</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=y9Kqb2z9Lzs</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>Gym Class Heroes: Stereo Hearts ft. Adam Levine [OFFICIAL VIDEO]</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=T3E9Wjbq44E</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>somewhere only we know (Gustixa &amp;amp; Rhianne)</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=92izkAK5OA0</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>Lana Del Rey - Summertime Sadness (Official Music Video)</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=TdrL3QxjyVw</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>Enya - Only Time (Official 4K Music Video)</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=7wfYIMyS_dI</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>Duncan Laurence feat. FLETCHER – Arcade</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=308v08mFWWc</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>Bad Liar (cover)</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>https://youtu.be/5jfz3q9Z0RY?si=OHvyb7AMtM_wtAXc</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>Linkin Park - In The End (Remix)</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=WNeLUngb-Xg</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>Shawn Mendes - It'll Be Okay</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>https://youtu.be/KrgJp7Z1Hv8?si=MOyY5rZzP-7kcfhM</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>Today is a Good Day</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>https://youtu.be/9L4EjJqrz0c?si=x97RAvAA9IELRZPW</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>Heroes Tonight</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=074rfF4RJZc</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>Shakira - Hips Dont Lie</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>https://youtu.be/p3pEe6aAJ4k?si=bzrAEs7c-zSwqBUo</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>Shakira - La La La World Cup 2014</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>https://youtu.be/2igups6VdcA?si=N5uu5genirJuWXWC</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>Shakira - Chantaje (letra)</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>https://youtu.be/J76eQJP3UIQ?si=juYKqG_UCEta8y19</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>Zara Larsson – Dont Worry Bout Me</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>https://youtu.be/u_tzZd9kIWg?si=y-s2yCVh4U2JLsJJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>Selena Gomez - Buscando Amor</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>https://youtu.be/2P6EExu3H5s?si=f2hv9y52VqxnVOmL</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>Shawn Mendes - In My Blood</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>https://youtu.be/36tggrpRoTI?si=CiCfVdO8Oepjt4Rs</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>Charlie Puth - We Dont Talk Anymore</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>https://youtu.be/bpFVJJBgtXY?si=L2NuwOWGhmdKacwg</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>Selena Gomez - Adiós</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>https://youtu.be/9H_368c2Hzw?si=UOBGyTGbUe_fISFW</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>Charlie Puth - Attention</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Oz5JDtkf1as</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>Something Just Like This</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>https://youtu.be/FM7MFYoylVs?si=TrbAGj-JAUeEJ4bd</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>Bruno Mars - Grenade</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>https://youtu.be/4YrzJ9RZ9qY</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>Let Me Love You</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>https://youtu.be/SMs0GnYze34?si=T-UORWGqJCoitcOM</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>Sweet But Psycho</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>https://youtu.be/2KBFD0aoZy8</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>Whos laughing now</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>https://youtu.be/4JYSgIiSZSA?si=3v9kDuzvYJvWaOsO</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>Girls Like You</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>https://youtu.be/aJOTlE1K90k</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>Camila Cabello - Havana</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>https://youtu.be/HCjNJDNzw8Y?si=QjZAi7GPIc4ParOQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>Maroon 5 - Memories</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=SlPhMPnQ58k&amp;pp=ygUPbWFyb29uIG1lbW9yaWVz</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>post malone - rockstar (feat. 21 savage)</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=9lQP9-F8kIQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>Drake - Gods plan</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=ScfgOVJiu_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>Dua Lipa - Levitating</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=j2c3tR_qfiQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>Justin Bieber - Baby</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=khOFw2f4bQY</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>State of Grace</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=gr4cqcqnAN0</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>Taylor Swift - Back To December</t>
+        </is>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>https://youtu.be/QUwxKWT6m7U?si=LNPBWKl0DqXIfOP2</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>As it was</t>
+        </is>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Qfm6nfz1QNQ?si=3mMjYFpALij7GELl</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>Taylor Swift - Begin Again</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>https://youtu.be/cMPEd8m79Hw?si=9zE5-51p0xGyEgSO</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>Sofia</t>
+        </is>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>https://youtu.be/ftI_Lp7LAuU?si=aOFT5Ral2-A_2PxG</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>Numb (lyrics|rock)</t>
+        </is>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>https://youtu.be/8P0vKLHbtMg?si=HhXMHjE8vD2yeC_B</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>For The Rest Of My Life</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>https://youtu.be/PHbZ9SXHJwA?si=_7a2Gaka2oPEWrCQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>Insha Allah</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>https://youtu.be/8xXJyFNfiy8?si=XkqgGm4hEyZoqJe1</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>Hunger Games | Atlas</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Lh3TokLzzmw?si=I5CcdBNIEuwDZvVT</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>Hard To Say Im Sorry</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>https://youtu.be/XCmOdVia9DE?si=60M6i15UUakuL7DH</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>Sasha Sloan - Lie</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>https://youtu.be/AzjTJpzfB8U?si=PHYxAGETm1P1opd0</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>Solo Para Ti</t>
+        </is>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>https://youtu.be/5D_A4IBWSv4?si=pgNinSqUyLBks6po</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>Zara Larsson - This Ones For You</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>https://youtu.be/MoHnffhBwqs?si=_FGX4ucMtOTcD2to</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>La Cintura</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Eg4LUvUjUWI?si=YqeuNfTh_iTuj-dP</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>Diamond Heart</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>https://youtu.be/bcHoBDw4G10?si=auASu-G_c9NkS48Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>Halsey - Sorry</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>https://youtu.be/CPAoMCo7tNw?si=2rEiXXCn6UcySUVZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>Relax, Take it Easy</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>https://youtu.be/EVDYmBrl02Q?si=ODB07HFZCtTtg4F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>Thank you Allah</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>https://youtu.be/RBrdl0v_anc?si=cu3qNsVyUIIzZGvv</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>Let me down slowly</t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>https://youtu.be/50VNCymT-Cs?si=sEwBTlJCeuqL9LTD</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>Lonely (acoustic)</t>
+        </is>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Cu5hhxP_prE?si=VRZVlVcLWqk8Dasg</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>Selfish love</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>https://youtu.be/9gqAq6kq5Ek?si=Gro32XWDuPLWzyIv</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>twenty one pilots: Heathens</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>https://youtu.be/UprcpdwuwCg?si=O6_fwxx8TOkfjIXi</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>Dont Let Me Down</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Io0fBr1XBUA?si=SUp9MdCXlOU_Vf5s</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>Someone you loved</t>
+        </is>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>https://youtu.be/zABLecsR5UE?si=k3rryaA0P3O8JBhY</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>Lucid Dreams</t>
+        </is>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>https://youtu.be/IfBLD0ATrQA?si=YS-eU-zZX-5dbISw</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>Fed up with us</t>
+        </is>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>https://youtu.be/n1NTv6Y4pxs?si=76WA3JI0TGILBHm7</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>Skyfall</t>
+        </is>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>https://youtu.be/DeumyOzKqgI?si=Cok0dR7byK6pN682</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>Story of my life</t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>https://youtu.be/W-TE_Ys4iwM?si=RViOxRuaXxdz3pmm</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>Reamonn - Tonight</t>
+        </is>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>https://youtu.be/jtoncUzV6nA?si=yULSO1-MxnAVV13i</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>Hymn For The Weekend</t>
+        </is>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=YykjpeuMNEk</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>Hell Or High Water</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>https://youtu.be/zgDbp5C74sU?si=R8Q5HZq2vzhGL57g</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>Lonely</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>https://youtu.be/M4hvSgnsnog?si=TtDhe_NUHM1NZaY9</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>Everything I Need</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=9bCp7j3nC30</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>Love the way you lie</t>
+        </is>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>https://youtu.be/h_-JFUci0BM?si=SHiuHs1NdIjpN0WP</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>Moving Mountains</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>https://youtu.be/S_0r3hYg78o?si=Be6GShy7mgRcl9Ha</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>Numb (cover)</t>
+        </is>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>https://youtu.be/gHp-OjLOG5A?si=0abUDswbKz6rhQeX</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>Until I found you</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>https://youtu.be/oIKuyj2GQtY</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>Heart is on fire</t>
+        </is>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>https://youtu.be/kBqqlW6-99M?si=kXaaJTqhA4PaY6Gd</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>Holes</t>
+        </is>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>https://youtu.be/DeFWClW7skQ?si=hkIGl-CTTw-FbnLz</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>Survivors</t>
+        </is>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=vN0gaXS8dQE</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>Irakliy - Ya s toboy(cover)</t>
+        </is>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>https://youtu.be/3WmdZOF5bKk?si=LcXY8Gohxxx4cZSA</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>Vetrom stat (cover)</t>
+        </is>
+      </c>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>https://youtu.be/kkzEs0gdvZI?si=Z456wgKuJd0aE_PA</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>Reamonn - Supergirl</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>https://youtu.be/ctmS5XX67Ek?si=NGZGPw0bcpfZciyi</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>Another Love</t>
+        </is>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Jkj36B1YuDU?si=Yku5tRPe7avRNr2R</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>All the little lights</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>https://youtu.be/OkxVxox--Io?si=AE4wj_c_uqTWGrbB</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>Arcade</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Qau6mObfSGM?si=RsrcZ0VUCOHaEwE4</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>Burito - Po volnam</t>
+        </is>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>https://youtu.be/jqyJ4xW2gb0?si=VgrA4JKMWkeWDIA5</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>To Be Free</t>
+        </is>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>https://youtu.be/hNd5pILkpSw?si=qiwZxiuS0yeiuOPs</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>Castle of Glass</t>
+        </is>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=PPkJeWPP2nM</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>Ava Max - Alone</t>
+        </is>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>https://youtu.be/omvW1cI-3xg?si=zHiFadZaUUpddcgu</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>Let Her Go (ft Ed Sheeran)</t>
+        </is>
+      </c>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>https://youtu.be/HTcL9WkB_wg?si=ILXw9EaPM4GJyx29</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>In the end (rmx)</t>
+        </is>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>https://youtu.be/WNeLUngb-Xg?si=V95nGOt0sMvhQG7c</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>No Time To Die</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>https://youtu.be/GB_S2qFh5lU?si=XDH6CdXhqJq-g321</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>Tired Of Being Sorry</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>https://youtu.be/gzFmctgW0s8?si=JfvG_0Sj-IdPWoBY</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>The Cup Of Life - Ricky Martin</t>
+        </is>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>https://youtu.be/CBfSeqfeggI?si=A2RRcM0PSvAsvpHF</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>Баста - Выпускной</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>https://youtu.be/t1-yL-xvklc?si=YZ1rS5hZtleOFOy1</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>Wonderful Life</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>https://youtu.be/qzn_6bXdgeE?si=BgnimyD5Frnn_-o-</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>Shape of My Heart</t>
+        </is>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>https://youtu.be/pm3rDbXbZRI?si=7TxDuViBxhHGeZoU</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>Edward Maya, Vika Jigulina - Stereo love (Radio Edit) (Lyrics)</t>
+        </is>
+      </c>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=y9Kqb2z9Lzs</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>Gym Class Heroes: Stereo Hearts ft. Adam Levine [OFFICIAL VIDEO]</t>
+        </is>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=T3E9Wjbq44E</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>Lana Del Rey - Summertime Sadness (Official Music Video)</t>
+        </is>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=TdrL3QxjyVw</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>Enya - Only Time (Official 4K Music Video)</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=7wfYIMyS_dI</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>somewhere only we know (Gustixa &amp;amp; Rhianne)</t>
+        </is>
+      </c>
+      <c r="C636" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=92izkAK5OA0</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>Duncan Laurence feat. FLETCHER – Arcade</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=308v08mFWWc</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>Bad Liar (cover)</t>
+        </is>
+      </c>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>https://youtu.be/5jfz3q9Z0RY?si=OHvyb7AMtM_wtAXc</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>Linkin Park - In The End (Remix)</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=WNeLUngb-Xg</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>Shawn Mendes - It'll Be Okay</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>https://youtu.be/KrgJp7Z1Hv8?si=MOyY5rZzP-7kcfhM</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>Today is a Good Day</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>https://youtu.be/9L4EjJqrz0c?si=x97RAvAA9IELRZPW</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>Heroes Tonight</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=074rfF4RJZc</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>Shakira - Hips Dont Lie</t>
+        </is>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>https://youtu.be/p3pEe6aAJ4k?si=bzrAEs7c-zSwqBUo</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>Shakira - La La La World Cup 2014</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>https://youtu.be/2igups6VdcA?si=N5uu5genirJuWXWC</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>Shakira - Chantaje (letra)</t>
+        </is>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>https://youtu.be/J76eQJP3UIQ?si=juYKqG_UCEta8y19</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>Zara Larsson – Dont Worry Bout Me</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>https://youtu.be/u_tzZd9kIWg?si=y-s2yCVh4U2JLsJJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>Selena Gomez - Buscando Amor</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>https://youtu.be/2P6EExu3H5s?si=f2hv9y52VqxnVOmL</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>Shawn Mendes - In My Blood</t>
+        </is>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>https://youtu.be/36tggrpRoTI?si=CiCfVdO8Oepjt4Rs</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>Charlie Puth - We Dont Talk Anymore</t>
+        </is>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>https://youtu.be/bpFVJJBgtXY?si=L2NuwOWGhmdKacwg</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>Selena Gomez - Adiós</t>
+        </is>
+      </c>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>https://youtu.be/9H_368c2Hzw?si=UOBGyTGbUe_fISFW</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>Charlie Puth - Attention</t>
+        </is>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Oz5JDtkf1as</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>Something Just Like This</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t>https://youtu.be/FM7MFYoylVs?si=TrbAGj-JAUeEJ4bd</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>Bruno Mars - Grenade</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>https://youtu.be/4YrzJ9RZ9qY</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>Let Me Love You</t>
+        </is>
+      </c>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>https://youtu.be/SMs0GnYze34?si=T-UORWGqJCoitcOM</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>Sweet But Psycho</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>https://youtu.be/2KBFD0aoZy8</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>Whos laughing now</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>https://youtu.be/4JYSgIiSZSA?si=3v9kDuzvYJvWaOsO</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>Girls Like You</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr">
+        <is>
+          <t>https://youtu.be/aJOTlE1K90k</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>Camila Cabello - Havana</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>https://youtu.be/HCjNJDNzw8Y?si=QjZAi7GPIc4ParOQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>Maroon 5 - Memories</t>
+        </is>
+      </c>
+      <c r="C659" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=SlPhMPnQ58k&amp;pp=ygUPbWFyb29uIG1lbW9yaWVz</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>post malone - rockstar (feat. 21 savage)</t>
+        </is>
+      </c>
+      <c r="C660" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=9lQP9-F8kIQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>Drake - Gods plan</t>
+        </is>
+      </c>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=ScfgOVJiu_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>Dua Lipa - Levitating</t>
+        </is>
+      </c>
+      <c r="C662" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=j2c3tR_qfiQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>Justin Bieber - Baby</t>
+        </is>
+      </c>
+      <c r="C663" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=khOFw2f4bQY</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>State of Grace</t>
+        </is>
+      </c>
+      <c r="C664" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=gr4cqcqnAN0</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>Taylor Swift - Back To December</t>
+        </is>
+      </c>
+      <c r="C665" t="inlineStr">
+        <is>
+          <t>https://youtu.be/QUwxKWT6m7U?si=LNPBWKl0DqXIfOP2</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>As it was</t>
+        </is>
+      </c>
+      <c r="C666" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Qfm6nfz1QNQ?si=3mMjYFpALij7GELl</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>Taylor Swift - Begin Again</t>
+        </is>
+      </c>
+      <c r="C667" t="inlineStr">
+        <is>
+          <t>https://youtu.be/cMPEd8m79Hw?si=9zE5-51p0xGyEgSO</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>Sofia</t>
+        </is>
+      </c>
+      <c r="C668" t="inlineStr">
+        <is>
+          <t>https://youtu.be/ftI_Lp7LAuU?si=aOFT5Ral2-A_2PxG</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>Numb (lyrics|rock)</t>
+        </is>
+      </c>
+      <c r="C669" t="inlineStr">
+        <is>
+          <t>https://youtu.be/8P0vKLHbtMg?si=HhXMHjE8vD2yeC_B</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>For The Rest Of My Life</t>
+        </is>
+      </c>
+      <c r="C670" t="inlineStr">
+        <is>
+          <t>https://youtu.be/PHbZ9SXHJwA?si=_7a2Gaka2oPEWrCQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>Insha Allah</t>
+        </is>
+      </c>
+      <c r="C671" t="inlineStr">
+        <is>
+          <t>https://youtu.be/8xXJyFNfiy8?si=XkqgGm4hEyZoqJe1</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>Hunger Games | Atlas</t>
+        </is>
+      </c>
+      <c r="C672" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Lh3TokLzzmw?si=I5CcdBNIEuwDZvVT</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>Hard To Say Im Sorry</t>
+        </is>
+      </c>
+      <c r="C673" t="inlineStr">
+        <is>
+          <t>https://youtu.be/XCmOdVia9DE?si=60M6i15UUakuL7DH</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>Sasha Sloan - Lie</t>
+        </is>
+      </c>
+      <c r="C674" t="inlineStr">
+        <is>
+          <t>https://youtu.be/AzjTJpzfB8U?si=PHYxAGETm1P1opd0</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>Solo Para Ti</t>
+        </is>
+      </c>
+      <c r="C675" t="inlineStr">
+        <is>
+          <t>https://youtu.be/5D_A4IBWSv4?si=pgNinSqUyLBks6po</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>Zara Larsson - This Ones For You</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>https://youtu.be/MoHnffhBwqs?si=_FGX4ucMtOTcD2to</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>La Cintura</t>
+        </is>
+      </c>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Eg4LUvUjUWI?si=YqeuNfTh_iTuj-dP</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>Diamond Heart</t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>https://youtu.be/bcHoBDw4G10?si=auASu-G_c9NkS48Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>Halsey - Sorry</t>
+        </is>
+      </c>
+      <c r="C679" t="inlineStr">
+        <is>
+          <t>https://youtu.be/CPAoMCo7tNw?si=2rEiXXCn6UcySUVZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>Relax, Take it Easy</t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t>https://youtu.be/EVDYmBrl02Q?si=ODB07HFZCtTtg4F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>Thank you Allah</t>
+        </is>
+      </c>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>https://youtu.be/RBrdl0v_anc?si=cu3qNsVyUIIzZGvv</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>Let me down slowly</t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>https://youtu.be/50VNCymT-Cs?si=sEwBTlJCeuqL9LTD</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>Lonely (acoustic)</t>
+        </is>
+      </c>
+      <c r="C683" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Cu5hhxP_prE?si=VRZVlVcLWqk8Dasg</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>Selfish love</t>
+        </is>
+      </c>
+      <c r="C684" t="inlineStr">
+        <is>
+          <t>https://youtu.be/9gqAq6kq5Ek?si=Gro32XWDuPLWzyIv</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>twenty one pilots: Heathens</t>
+        </is>
+      </c>
+      <c r="C685" t="inlineStr">
+        <is>
+          <t>https://youtu.be/UprcpdwuwCg?si=O6_fwxx8TOkfjIXi</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>Dont Let Me Down</t>
+        </is>
+      </c>
+      <c r="C686" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Io0fBr1XBUA?si=SUp9MdCXlOU_Vf5s</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>Someone you loved</t>
+        </is>
+      </c>
+      <c r="C687" t="inlineStr">
+        <is>
+          <t>https://youtu.be/zABLecsR5UE?si=k3rryaA0P3O8JBhY</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>Lucid Dreams</t>
+        </is>
+      </c>
+      <c r="C688" t="inlineStr">
+        <is>
+          <t>https://youtu.be/IfBLD0ATrQA?si=YS-eU-zZX-5dbISw</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>Fed up with us</t>
+        </is>
+      </c>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>https://youtu.be/n1NTv6Y4pxs?si=76WA3JI0TGILBHm7</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>Skyfall</t>
+        </is>
+      </c>
+      <c r="C690" t="inlineStr">
+        <is>
+          <t>https://youtu.be/DeumyOzKqgI?si=Cok0dR7byK6pN682</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>Story of my life</t>
+        </is>
+      </c>
+      <c r="C691" t="inlineStr">
+        <is>
+          <t>https://youtu.be/W-TE_Ys4iwM?si=RViOxRuaXxdz3pmm</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>Reamonn - Tonight</t>
+        </is>
+      </c>
+      <c r="C692" t="inlineStr">
+        <is>
+          <t>https://youtu.be/jtoncUzV6nA?si=yULSO1-MxnAVV13i</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>Hymn For The Weekend</t>
+        </is>
+      </c>
+      <c r="C693" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=YykjpeuMNEk</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>Hell Or High Water</t>
+        </is>
+      </c>
+      <c r="C694" t="inlineStr">
+        <is>
+          <t>https://youtu.be/zgDbp5C74sU?si=R8Q5HZq2vzhGL57g</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>Lonely</t>
+        </is>
+      </c>
+      <c r="C695" t="inlineStr">
+        <is>
+          <t>https://youtu.be/M4hvSgnsnog?si=TtDhe_NUHM1NZaY9</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>Everything I Need</t>
+        </is>
+      </c>
+      <c r="C696" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=9bCp7j3nC30</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>Love the way you lie</t>
+        </is>
+      </c>
+      <c r="C697" t="inlineStr">
+        <is>
+          <t>https://youtu.be/h_-JFUci0BM?si=SHiuHs1NdIjpN0WP</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>Moving Mountains</t>
+        </is>
+      </c>
+      <c r="C698" t="inlineStr">
+        <is>
+          <t>https://youtu.be/S_0r3hYg78o?si=Be6GShy7mgRcl9Ha</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>Numb (cover)</t>
+        </is>
+      </c>
+      <c r="C699" t="inlineStr">
+        <is>
+          <t>https://youtu.be/gHp-OjLOG5A?si=0abUDswbKz6rhQeX</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>Until I found you</t>
+        </is>
+      </c>
+      <c r="C700" t="inlineStr">
+        <is>
+          <t>https://youtu.be/oIKuyj2GQtY</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>Heart is on fire</t>
+        </is>
+      </c>
+      <c r="C701" t="inlineStr">
+        <is>
+          <t>https://youtu.be/kBqqlW6-99M?si=kXaaJTqhA4PaY6Gd</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>Holes</t>
+        </is>
+      </c>
+      <c r="C702" t="inlineStr">
+        <is>
+          <t>https://youtu.be/DeFWClW7skQ?si=hkIGl-CTTw-FbnLz</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>Survivors</t>
+        </is>
+      </c>
+      <c r="C703" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=vN0gaXS8dQE</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>Irakliy - Ya s toboy(cover)</t>
+        </is>
+      </c>
+      <c r="C704" t="inlineStr">
+        <is>
+          <t>https://youtu.be/3WmdZOF5bKk?si=LcXY8Gohxxx4cZSA</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>Vetrom stat (cover)</t>
+        </is>
+      </c>
+      <c r="C705" t="inlineStr">
+        <is>
+          <t>https://youtu.be/kkzEs0gdvZI?si=Z456wgKuJd0aE_PA</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>Reamonn - Supergirl</t>
+        </is>
+      </c>
+      <c r="C706" t="inlineStr">
+        <is>
+          <t>https://youtu.be/ctmS5XX67Ek?si=NGZGPw0bcpfZciyi</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>Another Love</t>
+        </is>
+      </c>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Jkj36B1YuDU?si=Yku5tRPe7avRNr2R</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>All the little lights</t>
+        </is>
+      </c>
+      <c r="C708" t="inlineStr">
+        <is>
+          <t>https://youtu.be/OkxVxox--Io?si=AE4wj_c_uqTWGrbB</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>Arcade</t>
+        </is>
+      </c>
+      <c r="C709" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Qau6mObfSGM?si=RsrcZ0VUCOHaEwE4</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>Burito - Po volnam</t>
+        </is>
+      </c>
+      <c r="C710" t="inlineStr">
+        <is>
+          <t>https://youtu.be/jqyJ4xW2gb0?si=VgrA4JKMWkeWDIA5</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>To Be Free</t>
+        </is>
+      </c>
+      <c r="C711" t="inlineStr">
+        <is>
+          <t>https://youtu.be/hNd5pILkpSw?si=qiwZxiuS0yeiuOPs</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>Castle of Glass</t>
+        </is>
+      </c>
+      <c r="C712" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=PPkJeWPP2nM</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>Ava Max - Alone</t>
+        </is>
+      </c>
+      <c r="C713" t="inlineStr">
+        <is>
+          <t>https://youtu.be/omvW1cI-3xg?si=zHiFadZaUUpddcgu</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>Let Her Go (ft Ed Sheeran)</t>
+        </is>
+      </c>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t>https://youtu.be/HTcL9WkB_wg?si=ILXw9EaPM4GJyx29</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>In the end (rmx)</t>
+        </is>
+      </c>
+      <c r="C715" t="inlineStr">
+        <is>
+          <t>https://youtu.be/WNeLUngb-Xg?si=V95nGOt0sMvhQG7c</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>No Time To Die</t>
+        </is>
+      </c>
+      <c r="C716" t="inlineStr">
+        <is>
+          <t>https://youtu.be/GB_S2qFh5lU?si=XDH6CdXhqJq-g321</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>Tired Of Being Sorry</t>
+        </is>
+      </c>
+      <c r="C717" t="inlineStr">
+        <is>
+          <t>https://youtu.be/gzFmctgW0s8?si=JfvG_0Sj-IdPWoBY</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>The Cup Of Life - Ricky Martin</t>
+        </is>
+      </c>
+      <c r="C718" t="inlineStr">
+        <is>
+          <t>https://youtu.be/CBfSeqfeggI?si=A2RRcM0PSvAsvpHF</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>Баста - Выпускной</t>
+        </is>
+      </c>
+      <c r="C719" t="inlineStr">
+        <is>
+          <t>https://youtu.be/t1-yL-xvklc?si=YZ1rS5hZtleOFOy1</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>Wonderful Life</t>
+        </is>
+      </c>
+      <c r="C720" t="inlineStr">
+        <is>
+          <t>https://youtu.be/qzn_6bXdgeE?si=BgnimyD5Frnn_-o-</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>Shape of My Heart</t>
+        </is>
+      </c>
+      <c r="C721" t="inlineStr">
+        <is>
+          <t>https://youtu.be/pm3rDbXbZRI?si=7TxDuViBxhHGeZoU</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>Gym Class Heroes: Stereo Hearts ft. Adam Levine [OFFICIAL VIDEO]</t>
+        </is>
+      </c>
+      <c r="C722" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=T3E9Wjbq44E</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>Edward Maya, Vika Jigulina - Stereo love (Radio Edit) (Lyrics)</t>
+        </is>
+      </c>
+      <c r="C723" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=y9Kqb2z9Lzs</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>Lana Del Rey - Summertime Sadness (Official Music Video)</t>
+        </is>
+      </c>
+      <c r="C724" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=TdrL3QxjyVw</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>Enya - Only Time (Official 4K Music Video)</t>
+        </is>
+      </c>
+      <c r="C725" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=7wfYIMyS_dI</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>somewhere only we know (Gustixa &amp;amp; Rhianne)</t>
+        </is>
+      </c>
+      <c r="C726" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=92izkAK5OA0</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>Duncan Laurence feat. FLETCHER – Arcade</t>
+        </is>
+      </c>
+      <c r="C727" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=308v08mFWWc</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>Bad Liar (cover)</t>
+        </is>
+      </c>
+      <c r="C728" t="inlineStr">
+        <is>
+          <t>https://youtu.be/5jfz3q9Z0RY?si=OHvyb7AMtM_wtAXc</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>Linkin Park - In The End (Remix)</t>
+        </is>
+      </c>
+      <c r="C729" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=WNeLUngb-Xg</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>Shawn Mendes - It'll Be Okay</t>
+        </is>
+      </c>
+      <c r="C730" t="inlineStr">
+        <is>
+          <t>https://youtu.be/KrgJp7Z1Hv8?si=MOyY5rZzP-7kcfhM</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>Today is a Good Day</t>
+        </is>
+      </c>
+      <c r="C731" t="inlineStr">
+        <is>
+          <t>https://youtu.be/9L4EjJqrz0c?si=x97RAvAA9IELRZPW</t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>Heroes Tonight</t>
+        </is>
+      </c>
+      <c r="C732" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=074rfF4RJZc</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>Shakira - Hips Dont Lie</t>
+        </is>
+      </c>
+      <c r="C733" t="inlineStr">
+        <is>
+          <t>https://youtu.be/p3pEe6aAJ4k?si=bzrAEs7c-zSwqBUo</t>
+        </is>
+      </c>
+    </row>
+    <row r="734">
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>Shakira - La La La World Cup 2014</t>
+        </is>
+      </c>
+      <c r="C734" t="inlineStr">
+        <is>
+          <t>https://youtu.be/2igups6VdcA?si=N5uu5genirJuWXWC</t>
+        </is>
+      </c>
+    </row>
+    <row r="735">
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>Shakira - Chantaje (letra)</t>
+        </is>
+      </c>
+      <c r="C735" t="inlineStr">
+        <is>
+          <t>https://youtu.be/J76eQJP3UIQ?si=juYKqG_UCEta8y19</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>Zara Larsson – Dont Worry Bout Me</t>
+        </is>
+      </c>
+      <c r="C736" t="inlineStr">
+        <is>
+          <t>https://youtu.be/u_tzZd9kIWg?si=y-s2yCVh4U2JLsJJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="737">
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>Selena Gomez - Buscando Amor</t>
+        </is>
+      </c>
+      <c r="C737" t="inlineStr">
+        <is>
+          <t>https://youtu.be/2P6EExu3H5s?si=f2hv9y52VqxnVOmL</t>
+        </is>
+      </c>
+    </row>
+    <row r="738">
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>Shawn Mendes - In My Blood</t>
+        </is>
+      </c>
+      <c r="C738" t="inlineStr">
+        <is>
+          <t>https://youtu.be/36tggrpRoTI?si=CiCfVdO8Oepjt4Rs</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>Charlie Puth - We Dont Talk Anymore</t>
+        </is>
+      </c>
+      <c r="C739" t="inlineStr">
+        <is>
+          <t>https://youtu.be/bpFVJJBgtXY?si=L2NuwOWGhmdKacwg</t>
+        </is>
+      </c>
+    </row>
+    <row r="740">
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>Selena Gomez - Adiós</t>
+        </is>
+      </c>
+      <c r="C740" t="inlineStr">
+        <is>
+          <t>https://youtu.be/9H_368c2Hzw?si=UOBGyTGbUe_fISFW</t>
+        </is>
+      </c>
+    </row>
+    <row r="741">
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>Charlie Puth - Attention</t>
+        </is>
+      </c>
+      <c r="C741" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Oz5JDtkf1as</t>
+        </is>
+      </c>
+    </row>
+    <row r="742">
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>Something Just Like This</t>
+        </is>
+      </c>
+      <c r="C742" t="inlineStr">
+        <is>
+          <t>https://youtu.be/FM7MFYoylVs?si=TrbAGj-JAUeEJ4bd</t>
+        </is>
+      </c>
+    </row>
+    <row r="743">
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>Bruno Mars - Grenade</t>
+        </is>
+      </c>
+      <c r="C743" t="inlineStr">
+        <is>
+          <t>https://youtu.be/4YrzJ9RZ9qY</t>
+        </is>
+      </c>
+    </row>
+    <row r="744">
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>Let Me Love You</t>
+        </is>
+      </c>
+      <c r="C744" t="inlineStr">
+        <is>
+          <t>https://youtu.be/SMs0GnYze34?si=T-UORWGqJCoitcOM</t>
+        </is>
+      </c>
+    </row>
+    <row r="745">
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>Sweet But Psycho</t>
+        </is>
+      </c>
+      <c r="C745" t="inlineStr">
+        <is>
+          <t>https://youtu.be/2KBFD0aoZy8</t>
+        </is>
+      </c>
+    </row>
+    <row r="746">
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>Whos laughing now</t>
+        </is>
+      </c>
+      <c r="C746" t="inlineStr">
+        <is>
+          <t>https://youtu.be/4JYSgIiSZSA?si=3v9kDuzvYJvWaOsO</t>
+        </is>
+      </c>
+    </row>
+    <row r="747">
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>Girls Like You</t>
+        </is>
+      </c>
+      <c r="C747" t="inlineStr">
+        <is>
+          <t>https://youtu.be/aJOTlE1K90k</t>
+        </is>
+      </c>
+    </row>
+    <row r="748">
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>Camila Cabello - Havana</t>
+        </is>
+      </c>
+      <c r="C748" t="inlineStr">
+        <is>
+          <t>https://youtu.be/HCjNJDNzw8Y?si=QjZAi7GPIc4ParOQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="749">
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>Maroon 5 - Memories</t>
+        </is>
+      </c>
+      <c r="C749" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=SlPhMPnQ58k&amp;pp=ygUPbWFyb29uIG1lbW9yaWVz</t>
+        </is>
+      </c>
+    </row>
+    <row r="750">
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>post malone - rockstar (feat. 21 savage)</t>
+        </is>
+      </c>
+      <c r="C750" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=9lQP9-F8kIQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="751">
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>Drake - Gods plan</t>
+        </is>
+      </c>
+      <c r="C751" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=ScfgOVJiu_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="752">
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>Dua Lipa - Levitating</t>
+        </is>
+      </c>
+      <c r="C752" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=j2c3tR_qfiQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>Justin Bieber - Baby</t>
+        </is>
+      </c>
+      <c r="C753" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=khOFw2f4bQY</t>
+        </is>
+      </c>
+    </row>
+    <row r="754">
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>State of Grace</t>
+        </is>
+      </c>
+      <c r="C754" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=gr4cqcqnAN0</t>
+        </is>
+      </c>
+    </row>
+    <row r="755">
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>Taylor Swift - Back To December</t>
+        </is>
+      </c>
+      <c r="C755" t="inlineStr">
+        <is>
+          <t>https://youtu.be/QUwxKWT6m7U?si=LNPBWKl0DqXIfOP2</t>
+        </is>
+      </c>
+    </row>
+    <row r="756">
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>As it was</t>
+        </is>
+      </c>
+      <c r="C756" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Qfm6nfz1QNQ?si=3mMjYFpALij7GELl</t>
+        </is>
+      </c>
+    </row>
+    <row r="757">
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>Taylor Swift - Begin Again</t>
+        </is>
+      </c>
+      <c r="C757" t="inlineStr">
+        <is>
+          <t>https://youtu.be/cMPEd8m79Hw?si=9zE5-51p0xGyEgSO</t>
+        </is>
+      </c>
+    </row>
+    <row r="758">
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>Sofia</t>
+        </is>
+      </c>
+      <c r="C758" t="inlineStr">
+        <is>
+          <t>https://youtu.be/ftI_Lp7LAuU?si=aOFT5Ral2-A_2PxG</t>
+        </is>
+      </c>
+    </row>
+    <row r="759">
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>Numb (lyrics|rock)</t>
+        </is>
+      </c>
+      <c r="C759" t="inlineStr">
+        <is>
+          <t>https://youtu.be/8P0vKLHbtMg?si=HhXMHjE8vD2yeC_B</t>
+        </is>
+      </c>
+    </row>
+    <row r="760">
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>For The Rest Of My Life</t>
+        </is>
+      </c>
+      <c r="C760" t="inlineStr">
+        <is>
+          <t>https://youtu.be/PHbZ9SXHJwA?si=_7a2Gaka2oPEWrCQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="761">
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>Insha Allah</t>
+        </is>
+      </c>
+      <c r="C761" t="inlineStr">
+        <is>
+          <t>https://youtu.be/8xXJyFNfiy8?si=XkqgGm4hEyZoqJe1</t>
+        </is>
+      </c>
+    </row>
+    <row r="762">
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>Hunger Games | Atlas</t>
+        </is>
+      </c>
+      <c r="C762" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Lh3TokLzzmw?si=I5CcdBNIEuwDZvVT</t>
+        </is>
+      </c>
+    </row>
+    <row r="763">
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>Hard To Say Im Sorry</t>
+        </is>
+      </c>
+      <c r="C763" t="inlineStr">
+        <is>
+          <t>https://youtu.be/XCmOdVia9DE?si=60M6i15UUakuL7DH</t>
+        </is>
+      </c>
+    </row>
+    <row r="764">
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>Sasha Sloan - Lie</t>
+        </is>
+      </c>
+      <c r="C764" t="inlineStr">
+        <is>
+          <t>https://youtu.be/AzjTJpzfB8U?si=PHYxAGETm1P1opd0</t>
+        </is>
+      </c>
+    </row>
+    <row r="765">
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>Solo Para Ti</t>
+        </is>
+      </c>
+      <c r="C765" t="inlineStr">
+        <is>
+          <t>https://youtu.be/5D_A4IBWSv4?si=pgNinSqUyLBks6po</t>
+        </is>
+      </c>
+    </row>
+    <row r="766">
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>Zara Larsson - This Ones For You</t>
+        </is>
+      </c>
+      <c r="C766" t="inlineStr">
+        <is>
+          <t>https://youtu.be/MoHnffhBwqs?si=_FGX4ucMtOTcD2to</t>
+        </is>
+      </c>
+    </row>
+    <row r="767">
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>La Cintura</t>
+        </is>
+      </c>
+      <c r="C767" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Eg4LUvUjUWI?si=YqeuNfTh_iTuj-dP</t>
+        </is>
+      </c>
+    </row>
+    <row r="768">
+      <c r="B768" t="inlineStr">
+        <is>
+          <t>Diamond Heart</t>
+        </is>
+      </c>
+      <c r="C768" t="inlineStr">
+        <is>
+          <t>https://youtu.be/bcHoBDw4G10?si=auASu-G_c9NkS48Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="769">
+      <c r="B769" t="inlineStr">
+        <is>
+          <t>Halsey - Sorry</t>
+        </is>
+      </c>
+      <c r="C769" t="inlineStr">
+        <is>
+          <t>https://youtu.be/CPAoMCo7tNw?si=2rEiXXCn6UcySUVZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="770">
+      <c r="B770" t="inlineStr">
+        <is>
+          <t>Relax, Take it Easy</t>
+        </is>
+      </c>
+      <c r="C770" t="inlineStr">
+        <is>
+          <t>https://youtu.be/EVDYmBrl02Q?si=ODB07HFZCtTtg4F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="771">
+      <c r="B771" t="inlineStr">
+        <is>
+          <t>Thank you Allah</t>
+        </is>
+      </c>
+      <c r="C771" t="inlineStr">
+        <is>
+          <t>https://youtu.be/RBrdl0v_anc?si=cu3qNsVyUIIzZGvv</t>
+        </is>
+      </c>
+    </row>
+    <row r="772">
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>Let me down slowly</t>
+        </is>
+      </c>
+      <c r="C772" t="inlineStr">
+        <is>
+          <t>https://youtu.be/50VNCymT-Cs?si=sEwBTlJCeuqL9LTD</t>
+        </is>
+      </c>
+    </row>
+    <row r="773">
+      <c r="B773" t="inlineStr">
+        <is>
+          <t>Lonely (acoustic)</t>
+        </is>
+      </c>
+      <c r="C773" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Cu5hhxP_prE?si=VRZVlVcLWqk8Dasg</t>
+        </is>
+      </c>
+    </row>
+    <row r="774">
+      <c r="B774" t="inlineStr">
+        <is>
+          <t>Selfish love</t>
+        </is>
+      </c>
+      <c r="C774" t="inlineStr">
+        <is>
+          <t>https://youtu.be/9gqAq6kq5Ek?si=Gro32XWDuPLWzyIv</t>
+        </is>
+      </c>
+    </row>
+    <row r="775">
+      <c r="B775" t="inlineStr">
+        <is>
+          <t>twenty one pilots: Heathens</t>
+        </is>
+      </c>
+      <c r="C775" t="inlineStr">
+        <is>
+          <t>https://youtu.be/UprcpdwuwCg?si=O6_fwxx8TOkfjIXi</t>
+        </is>
+      </c>
+    </row>
+    <row r="776">
+      <c r="B776" t="inlineStr">
+        <is>
+          <t>Dont Let Me Down</t>
+        </is>
+      </c>
+      <c r="C776" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Io0fBr1XBUA?si=SUp9MdCXlOU_Vf5s</t>
+        </is>
+      </c>
+    </row>
+    <row r="777">
+      <c r="B777" t="inlineStr">
+        <is>
+          <t>Someone you loved</t>
+        </is>
+      </c>
+      <c r="C777" t="inlineStr">
+        <is>
+          <t>https://youtu.be/zABLecsR5UE?si=k3rryaA0P3O8JBhY</t>
+        </is>
+      </c>
+    </row>
+    <row r="778">
+      <c r="B778" t="inlineStr">
+        <is>
+          <t>Lucid Dreams</t>
+        </is>
+      </c>
+      <c r="C778" t="inlineStr">
+        <is>
+          <t>https://youtu.be/IfBLD0ATrQA?si=YS-eU-zZX-5dbISw</t>
+        </is>
+      </c>
+    </row>
+    <row r="779">
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>Fed up with us</t>
+        </is>
+      </c>
+      <c r="C779" t="inlineStr">
+        <is>
+          <t>https://youtu.be/n1NTv6Y4pxs?si=76WA3JI0TGILBHm7</t>
+        </is>
+      </c>
+    </row>
+    <row r="780">
+      <c r="B780" t="inlineStr">
+        <is>
+          <t>Skyfall</t>
+        </is>
+      </c>
+      <c r="C780" t="inlineStr">
+        <is>
+          <t>https://youtu.be/DeumyOzKqgI?si=Cok0dR7byK6pN682</t>
+        </is>
+      </c>
+    </row>
+    <row r="781">
+      <c r="B781" t="inlineStr">
+        <is>
+          <t>Story of my life</t>
+        </is>
+      </c>
+      <c r="C781" t="inlineStr">
+        <is>
+          <t>https://youtu.be/W-TE_Ys4iwM?si=RViOxRuaXxdz3pmm</t>
+        </is>
+      </c>
+    </row>
+    <row r="782">
+      <c r="B782" t="inlineStr">
+        <is>
+          <t>Reamonn - Tonight</t>
+        </is>
+      </c>
+      <c r="C782" t="inlineStr">
+        <is>
+          <t>https://youtu.be/jtoncUzV6nA?si=yULSO1-MxnAVV13i</t>
+        </is>
+      </c>
+    </row>
+    <row r="783">
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>Hymn For The Weekend</t>
+        </is>
+      </c>
+      <c r="C783" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=YykjpeuMNEk</t>
+        </is>
+      </c>
+    </row>
+    <row r="784">
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>Hell Or High Water</t>
+        </is>
+      </c>
+      <c r="C784" t="inlineStr">
+        <is>
+          <t>https://youtu.be/zgDbp5C74sU?si=R8Q5HZq2vzhGL57g</t>
+        </is>
+      </c>
+    </row>
+    <row r="785">
+      <c r="B785" t="inlineStr">
+        <is>
+          <t>Lonely</t>
+        </is>
+      </c>
+      <c r="C785" t="inlineStr">
+        <is>
+          <t>https://youtu.be/M4hvSgnsnog?si=TtDhe_NUHM1NZaY9</t>
+        </is>
+      </c>
+    </row>
+    <row r="786">
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>Everything I Need</t>
+        </is>
+      </c>
+      <c r="C786" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=9bCp7j3nC30</t>
+        </is>
+      </c>
+    </row>
+    <row r="787">
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>Love the way you lie</t>
+        </is>
+      </c>
+      <c r="C787" t="inlineStr">
+        <is>
+          <t>https://youtu.be/h_-JFUci0BM?si=SHiuHs1NdIjpN0WP</t>
+        </is>
+      </c>
+    </row>
+    <row r="788">
+      <c r="B788" t="inlineStr">
+        <is>
+          <t>Moving Mountains</t>
+        </is>
+      </c>
+      <c r="C788" t="inlineStr">
+        <is>
+          <t>https://youtu.be/S_0r3hYg78o?si=Be6GShy7mgRcl9Ha</t>
+        </is>
+      </c>
+    </row>
+    <row r="789">
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>Numb (cover)</t>
+        </is>
+      </c>
+      <c r="C789" t="inlineStr">
+        <is>
+          <t>https://youtu.be/gHp-OjLOG5A?si=0abUDswbKz6rhQeX</t>
+        </is>
+      </c>
+    </row>
+    <row r="790">
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>Until I found you</t>
+        </is>
+      </c>
+      <c r="C790" t="inlineStr">
+        <is>
+          <t>https://youtu.be/oIKuyj2GQtY</t>
+        </is>
+      </c>
+    </row>
+    <row r="791">
+      <c r="B791" t="inlineStr">
+        <is>
+          <t>Heart is on fire</t>
+        </is>
+      </c>
+      <c r="C791" t="inlineStr">
+        <is>
+          <t>https://youtu.be/kBqqlW6-99M?si=kXaaJTqhA4PaY6Gd</t>
+        </is>
+      </c>
+    </row>
+    <row r="792">
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>Holes</t>
+        </is>
+      </c>
+      <c r="C792" t="inlineStr">
+        <is>
+          <t>https://youtu.be/DeFWClW7skQ?si=hkIGl-CTTw-FbnLz</t>
+        </is>
+      </c>
+    </row>
+    <row r="793">
+      <c r="B793" t="inlineStr">
+        <is>
+          <t>Survivors</t>
+        </is>
+      </c>
+      <c r="C793" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=vN0gaXS8dQE</t>
+        </is>
+      </c>
+    </row>
+    <row r="794">
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>Irakliy - Ya s toboy(cover)</t>
+        </is>
+      </c>
+      <c r="C794" t="inlineStr">
+        <is>
+          <t>https://youtu.be/3WmdZOF5bKk?si=LcXY8Gohxxx4cZSA</t>
+        </is>
+      </c>
+    </row>
+    <row r="795">
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>Vetrom stat (cover)</t>
+        </is>
+      </c>
+      <c r="C795" t="inlineStr">
+        <is>
+          <t>https://youtu.be/kkzEs0gdvZI?si=Z456wgKuJd0aE_PA</t>
+        </is>
+      </c>
+    </row>
+    <row r="796">
+      <c r="B796" t="inlineStr">
+        <is>
+          <t>Reamonn - Supergirl</t>
+        </is>
+      </c>
+      <c r="C796" t="inlineStr">
+        <is>
+          <t>https://youtu.be/ctmS5XX67Ek?si=NGZGPw0bcpfZciyi</t>
+        </is>
+      </c>
+    </row>
+    <row r="797">
+      <c r="B797" t="inlineStr">
+        <is>
+          <t>Another Love</t>
+        </is>
+      </c>
+      <c r="C797" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Jkj36B1YuDU?si=Yku5tRPe7avRNr2R</t>
+        </is>
+      </c>
+    </row>
+    <row r="798">
+      <c r="B798" t="inlineStr">
+        <is>
+          <t>All the little lights</t>
+        </is>
+      </c>
+      <c r="C798" t="inlineStr">
+        <is>
+          <t>https://youtu.be/OkxVxox--Io?si=AE4wj_c_uqTWGrbB</t>
+        </is>
+      </c>
+    </row>
+    <row r="799">
+      <c r="B799" t="inlineStr">
+        <is>
+          <t>Arcade</t>
+        </is>
+      </c>
+      <c r="C799" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Qau6mObfSGM?si=RsrcZ0VUCOHaEwE4</t>
+        </is>
+      </c>
+    </row>
+    <row r="800">
+      <c r="B800" t="inlineStr">
+        <is>
+          <t>Burito - Po volnam</t>
+        </is>
+      </c>
+      <c r="C800" t="inlineStr">
+        <is>
+          <t>https://youtu.be/jqyJ4xW2gb0?si=VgrA4JKMWkeWDIA5</t>
+        </is>
+      </c>
+    </row>
+    <row r="801">
+      <c r="B801" t="inlineStr">
+        <is>
+          <t>To Be Free</t>
+        </is>
+      </c>
+      <c r="C801" t="inlineStr">
+        <is>
+          <t>https://youtu.be/hNd5pILkpSw?si=qiwZxiuS0yeiuOPs</t>
+        </is>
+      </c>
+    </row>
+    <row r="802">
+      <c r="B802" t="inlineStr">
+        <is>
+          <t>Castle of Glass</t>
+        </is>
+      </c>
+      <c r="C802" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=PPkJeWPP2nM</t>
+        </is>
+      </c>
+    </row>
+    <row r="803">
+      <c r="B803" t="inlineStr">
+        <is>
+          <t>Ava Max - Alone</t>
+        </is>
+      </c>
+      <c r="C803" t="inlineStr">
+        <is>
+          <t>https://youtu.be/omvW1cI-3xg?si=zHiFadZaUUpddcgu</t>
+        </is>
+      </c>
+    </row>
+    <row r="804">
+      <c r="B804" t="inlineStr">
+        <is>
+          <t>Let Her Go (ft Ed Sheeran)</t>
+        </is>
+      </c>
+      <c r="C804" t="inlineStr">
+        <is>
+          <t>https://youtu.be/HTcL9WkB_wg?si=ILXw9EaPM4GJyx29</t>
+        </is>
+      </c>
+    </row>
+    <row r="805">
+      <c r="B805" t="inlineStr">
+        <is>
+          <t>In the end (rmx)</t>
+        </is>
+      </c>
+      <c r="C805" t="inlineStr">
+        <is>
+          <t>https://youtu.be/WNeLUngb-Xg?si=V95nGOt0sMvhQG7c</t>
+        </is>
+      </c>
+    </row>
+    <row r="806">
+      <c r="B806" t="inlineStr">
+        <is>
+          <t>No Time To Die</t>
+        </is>
+      </c>
+      <c r="C806" t="inlineStr">
+        <is>
+          <t>https://youtu.be/GB_S2qFh5lU?si=XDH6CdXhqJq-g321</t>
+        </is>
+      </c>
+    </row>
+    <row r="807">
+      <c r="B807" t="inlineStr">
+        <is>
+          <t>Tired Of Being Sorry</t>
+        </is>
+      </c>
+      <c r="C807" t="inlineStr">
+        <is>
+          <t>https://youtu.be/gzFmctgW0s8?si=JfvG_0Sj-IdPWoBY</t>
+        </is>
+      </c>
+    </row>
+    <row r="808">
+      <c r="B808" t="inlineStr">
+        <is>
+          <t>The Cup Of Life - Ricky Martin</t>
+        </is>
+      </c>
+      <c r="C808" t="inlineStr">
+        <is>
+          <t>https://youtu.be/CBfSeqfeggI?si=A2RRcM0PSvAsvpHF</t>
+        </is>
+      </c>
+    </row>
+    <row r="809">
+      <c r="B809" t="inlineStr">
+        <is>
+          <t>Баста - Выпускной</t>
+        </is>
+      </c>
+      <c r="C809" t="inlineStr">
+        <is>
+          <t>https://youtu.be/t1-yL-xvklc?si=YZ1rS5hZtleOFOy1</t>
+        </is>
+      </c>
+    </row>
+    <row r="810">
+      <c r="B810" t="inlineStr">
+        <is>
+          <t>Wonderful Life</t>
+        </is>
+      </c>
+      <c r="C810" t="inlineStr">
+        <is>
+          <t>https://youtu.be/qzn_6bXdgeE?si=BgnimyD5Frnn_-o-</t>
+        </is>
+      </c>
+    </row>
+    <row r="811">
+      <c r="B811" t="inlineStr">
+        <is>
+          <t>Shape of My Heart</t>
+        </is>
+      </c>
+      <c r="C811" t="inlineStr">
+        <is>
+          <t>https://youtu.be/pm3rDbXbZRI?si=7TxDuViBxhHGeZoU</t>
+        </is>
+      </c>
+    </row>
+    <row r="812">
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>Edward Maya, Vika Jigulina - Stereo love (Radio Edit) (Lyrics)</t>
+        </is>
+      </c>
+      <c r="C812" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=y9Kqb2z9Lzs</t>
+        </is>
+      </c>
+    </row>
+    <row r="813">
+      <c r="B813" t="inlineStr">
+        <is>
+          <t>Gym Class Heroes: Stereo Hearts ft. Adam Levine [OFFICIAL VIDEO]</t>
+        </is>
+      </c>
+      <c r="C813" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=T3E9Wjbq44E</t>
+        </is>
+      </c>
+    </row>
+    <row r="814">
+      <c r="B814" t="inlineStr">
+        <is>
+          <t>Lana Del Rey - Summertime Sadness (Official Music Video)</t>
+        </is>
+      </c>
+      <c r="C814" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=TdrL3QxjyVw</t>
+        </is>
+      </c>
+    </row>
+    <row r="815">
+      <c r="B815" t="inlineStr">
+        <is>
+          <t>Enya - Only Time (Official 4K Music Video)</t>
+        </is>
+      </c>
+      <c r="C815" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=7wfYIMyS_dI</t>
+        </is>
+      </c>
+    </row>
+    <row r="816">
+      <c r="B816" t="inlineStr">
+        <is>
+          <t>somewhere only we know (Gustixa &amp;amp; Rhianne)</t>
+        </is>
+      </c>
+      <c r="C816" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=92izkAK5OA0</t>
+        </is>
+      </c>
+    </row>
+    <row r="817">
+      <c r="B817" t="inlineStr">
+        <is>
+          <t>Duncan Laurence feat. FLETCHER – Arcade</t>
+        </is>
+      </c>
+      <c r="C817" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=308v08mFWWc</t>
+        </is>
+      </c>
+    </row>
+    <row r="818">
+      <c r="B818" t="inlineStr">
+        <is>
+          <t>Bad Liar (cover)</t>
+        </is>
+      </c>
+      <c r="C818" t="inlineStr">
+        <is>
+          <t>https://youtu.be/5jfz3q9Z0RY?si=OHvyb7AMtM_wtAXc</t>
+        </is>
+      </c>
+    </row>
+    <row r="819">
+      <c r="B819" t="inlineStr">
+        <is>
+          <t>Linkin Park - In The End (Remix)</t>
+        </is>
+      </c>
+      <c r="C819" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=WNeLUngb-Xg</t>
+        </is>
+      </c>
+    </row>
+    <row r="820">
+      <c r="B820" t="inlineStr">
+        <is>
+          <t>Shawn Mendes - It'll Be Okay</t>
+        </is>
+      </c>
+      <c r="C820" t="inlineStr">
+        <is>
+          <t>https://youtu.be/KrgJp7Z1Hv8?si=MOyY5rZzP-7kcfhM</t>
+        </is>
+      </c>
+    </row>
+    <row r="821">
+      <c r="B821" t="inlineStr">
+        <is>
+          <t>Today is a Good Day</t>
+        </is>
+      </c>
+      <c r="C821" t="inlineStr">
+        <is>
+          <t>https://youtu.be/9L4EjJqrz0c?si=x97RAvAA9IELRZPW</t>
+        </is>
+      </c>
+    </row>
+    <row r="822">
+      <c r="B822" t="inlineStr">
+        <is>
+          <t>Heroes Tonight</t>
+        </is>
+      </c>
+      <c r="C822" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=074rfF4RJZc</t>
+        </is>
+      </c>
+    </row>
+    <row r="823">
+      <c r="B823" t="inlineStr">
+        <is>
+          <t>Shakira - Hips Dont Lie</t>
+        </is>
+      </c>
+      <c r="C823" t="inlineStr">
+        <is>
+          <t>https://youtu.be/p3pEe6aAJ4k?si=bzrAEs7c-zSwqBUo</t>
+        </is>
+      </c>
+    </row>
+    <row r="824">
+      <c r="B824" t="inlineStr">
+        <is>
+          <t>Shakira - La La La World Cup 2014</t>
+        </is>
+      </c>
+      <c r="C824" t="inlineStr">
+        <is>
+          <t>https://youtu.be/2igups6VdcA?si=N5uu5genirJuWXWC</t>
+        </is>
+      </c>
+    </row>
+    <row r="825">
+      <c r="B825" t="inlineStr">
+        <is>
+          <t>Shakira - Chantaje (letra)</t>
+        </is>
+      </c>
+      <c r="C825" t="inlineStr">
+        <is>
+          <t>https://youtu.be/J76eQJP3UIQ?si=juYKqG_UCEta8y19</t>
+        </is>
+      </c>
+    </row>
+    <row r="826">
+      <c r="B826" t="inlineStr">
+        <is>
+          <t>Zara Larsson – Dont Worry Bout Me</t>
+        </is>
+      </c>
+      <c r="C826" t="inlineStr">
+        <is>
+          <t>https://youtu.be/u_tzZd9kIWg?si=y-s2yCVh4U2JLsJJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="827">
+      <c r="B827" t="inlineStr">
+        <is>
+          <t>Selena Gomez - Buscando Amor</t>
+        </is>
+      </c>
+      <c r="C827" t="inlineStr">
+        <is>
+          <t>https://youtu.be/2P6EExu3H5s?si=f2hv9y52VqxnVOmL</t>
+        </is>
+      </c>
+    </row>
+    <row r="828">
+      <c r="B828" t="inlineStr">
+        <is>
+          <t>Shawn Mendes - In My Blood</t>
+        </is>
+      </c>
+      <c r="C828" t="inlineStr">
+        <is>
+          <t>https://youtu.be/36tggrpRoTI?si=CiCfVdO8Oepjt4Rs</t>
+        </is>
+      </c>
+    </row>
+    <row r="829">
+      <c r="B829" t="inlineStr">
+        <is>
+          <t>Charlie Puth - We Dont Talk Anymore</t>
+        </is>
+      </c>
+      <c r="C829" t="inlineStr">
+        <is>
+          <t>https://youtu.be/bpFVJJBgtXY?si=L2NuwOWGhmdKacwg</t>
+        </is>
+      </c>
+    </row>
+    <row r="830">
+      <c r="B830" t="inlineStr">
+        <is>
+          <t>Selena Gomez - Adiós</t>
+        </is>
+      </c>
+      <c r="C830" t="inlineStr">
+        <is>
+          <t>https://youtu.be/9H_368c2Hzw?si=UOBGyTGbUe_fISFW</t>
+        </is>
+      </c>
+    </row>
+    <row r="831">
+      <c r="B831" t="inlineStr">
+        <is>
+          <t>Charlie Puth - Attention</t>
+        </is>
+      </c>
+      <c r="C831" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Oz5JDtkf1as</t>
+        </is>
+      </c>
+    </row>
+    <row r="832">
+      <c r="B832" t="inlineStr">
+        <is>
+          <t>Something Just Like This</t>
+        </is>
+      </c>
+      <c r="C832" t="inlineStr">
+        <is>
+          <t>https://youtu.be/FM7MFYoylVs?si=TrbAGj-JAUeEJ4bd</t>
+        </is>
+      </c>
+    </row>
+    <row r="833">
+      <c r="B833" t="inlineStr">
+        <is>
+          <t>Bruno Mars - Grenade</t>
+        </is>
+      </c>
+      <c r="C833" t="inlineStr">
+        <is>
+          <t>https://youtu.be/4YrzJ9RZ9qY</t>
+        </is>
+      </c>
+    </row>
+    <row r="834">
+      <c r="B834" t="inlineStr">
+        <is>
+          <t>Let Me Love You</t>
+        </is>
+      </c>
+      <c r="C834" t="inlineStr">
+        <is>
+          <t>https://youtu.be/SMs0GnYze34?si=T-UORWGqJCoitcOM</t>
+        </is>
+      </c>
+    </row>
+    <row r="835">
+      <c r="B835" t="inlineStr">
+        <is>
+          <t>Sweet But Psycho</t>
+        </is>
+      </c>
+      <c r="C835" t="inlineStr">
+        <is>
+          <t>https://youtu.be/2KBFD0aoZy8</t>
+        </is>
+      </c>
+    </row>
+    <row r="836">
+      <c r="B836" t="inlineStr">
+        <is>
+          <t>Whos laughing now</t>
+        </is>
+      </c>
+      <c r="C836" t="inlineStr">
+        <is>
+          <t>https://youtu.be/4JYSgIiSZSA?si=3v9kDuzvYJvWaOsO</t>
+        </is>
+      </c>
+    </row>
+    <row r="837">
+      <c r="B837" t="inlineStr">
+        <is>
+          <t>Girls Like You</t>
+        </is>
+      </c>
+      <c r="C837" t="inlineStr">
+        <is>
+          <t>https://youtu.be/aJOTlE1K90k</t>
+        </is>
+      </c>
+    </row>
+    <row r="838">
+      <c r="B838" t="inlineStr">
+        <is>
+          <t>Camila Cabello - Havana</t>
+        </is>
+      </c>
+      <c r="C838" t="inlineStr">
+        <is>
+          <t>https://youtu.be/HCjNJDNzw8Y?si=QjZAi7GPIc4ParOQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="839">
+      <c r="B839" t="inlineStr">
+        <is>
+          <t>Maroon 5 - Memories</t>
+        </is>
+      </c>
+      <c r="C839" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=SlPhMPnQ58k&amp;pp=ygUPbWFyb29uIG1lbW9yaWVz</t>
+        </is>
+      </c>
+    </row>
+    <row r="840">
+      <c r="B840" t="inlineStr">
+        <is>
+          <t>post malone - rockstar (feat. 21 savage)</t>
+        </is>
+      </c>
+      <c r="C840" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=9lQP9-F8kIQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="841">
+      <c r="B841" t="inlineStr">
+        <is>
+          <t>Drake - Gods plan</t>
+        </is>
+      </c>
+      <c r="C841" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=ScfgOVJiu_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="842">
+      <c r="B842" t="inlineStr">
+        <is>
+          <t>Dua Lipa - Levitating</t>
+        </is>
+      </c>
+      <c r="C842" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=j2c3tR_qfiQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="843">
+      <c r="B843" t="inlineStr">
+        <is>
+          <t>Justin Bieber - Baby</t>
+        </is>
+      </c>
+      <c r="C843" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=khOFw2f4bQY</t>
+        </is>
+      </c>
+    </row>
+    <row r="844">
+      <c r="B844" t="inlineStr">
+        <is>
+          <t>State of Grace</t>
+        </is>
+      </c>
+      <c r="C844" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=gr4cqcqnAN0</t>
+        </is>
+      </c>
+    </row>
+    <row r="845">
+      <c r="B845" t="inlineStr">
+        <is>
+          <t>Taylor Swift - Back To December</t>
+        </is>
+      </c>
+      <c r="C845" t="inlineStr">
+        <is>
+          <t>https://youtu.be/QUwxKWT6m7U?si=LNPBWKl0DqXIfOP2</t>
+        </is>
+      </c>
+    </row>
+    <row r="846">
+      <c r="B846" t="inlineStr">
+        <is>
+          <t>As it was</t>
+        </is>
+      </c>
+      <c r="C846" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Qfm6nfz1QNQ?si=3mMjYFpALij7GELl</t>
+        </is>
+      </c>
+    </row>
+    <row r="847">
+      <c r="B847" t="inlineStr">
+        <is>
+          <t>Taylor Swift - Begin Again</t>
+        </is>
+      </c>
+      <c r="C847" t="inlineStr">
+        <is>
+          <t>https://youtu.be/cMPEd8m79Hw?si=9zE5-51p0xGyEgSO</t>
+        </is>
+      </c>
+    </row>
+    <row r="848">
+      <c r="B848" t="inlineStr">
+        <is>
+          <t>Sofia</t>
+        </is>
+      </c>
+      <c r="C848" t="inlineStr">
+        <is>
+          <t>https://youtu.be/ftI_Lp7LAuU?si=aOFT5Ral2-A_2PxG</t>
+        </is>
+      </c>
+    </row>
+    <row r="849">
+      <c r="B849" t="inlineStr">
+        <is>
+          <t>Numb (lyrics|rock)</t>
+        </is>
+      </c>
+      <c r="C849" t="inlineStr">
+        <is>
+          <t>https://youtu.be/8P0vKLHbtMg?si=HhXMHjE8vD2yeC_B</t>
+        </is>
+      </c>
+    </row>
+    <row r="850">
+      <c r="B850" t="inlineStr">
+        <is>
+          <t>For The Rest Of My Life</t>
+        </is>
+      </c>
+      <c r="C850" t="inlineStr">
+        <is>
+          <t>https://youtu.be/PHbZ9SXHJwA?si=_7a2Gaka2oPEWrCQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="851">
+      <c r="B851" t="inlineStr">
+        <is>
+          <t>Insha Allah</t>
+        </is>
+      </c>
+      <c r="C851" t="inlineStr">
+        <is>
+          <t>https://youtu.be/8xXJyFNfiy8?si=XkqgGm4hEyZoqJe1</t>
+        </is>
+      </c>
+    </row>
+    <row r="852">
+      <c r="B852" t="inlineStr">
+        <is>
+          <t>Hunger Games | Atlas</t>
+        </is>
+      </c>
+      <c r="C852" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Lh3TokLzzmw?si=I5CcdBNIEuwDZvVT</t>
+        </is>
+      </c>
+    </row>
+    <row r="853">
+      <c r="B853" t="inlineStr">
+        <is>
+          <t>Hard To Say Im Sorry</t>
+        </is>
+      </c>
+      <c r="C853" t="inlineStr">
+        <is>
+          <t>https://youtu.be/XCmOdVia9DE?si=60M6i15UUakuL7DH</t>
+        </is>
+      </c>
+    </row>
+    <row r="854">
+      <c r="B854" t="inlineStr">
+        <is>
+          <t>Sasha Sloan - Lie</t>
+        </is>
+      </c>
+      <c r="C854" t="inlineStr">
+        <is>
+          <t>https://youtu.be/AzjTJpzfB8U?si=PHYxAGETm1P1opd0</t>
+        </is>
+      </c>
+    </row>
+    <row r="855">
+      <c r="B855" t="inlineStr">
+        <is>
+          <t>Solo Para Ti</t>
+        </is>
+      </c>
+      <c r="C855" t="inlineStr">
+        <is>
+          <t>https://youtu.be/5D_A4IBWSv4?si=pgNinSqUyLBks6po</t>
+        </is>
+      </c>
+    </row>
+    <row r="856">
+      <c r="B856" t="inlineStr">
+        <is>
+          <t>Zara Larsson - This Ones For You</t>
+        </is>
+      </c>
+      <c r="C856" t="inlineStr">
+        <is>
+          <t>https://youtu.be/MoHnffhBwqs?si=_FGX4ucMtOTcD2to</t>
+        </is>
+      </c>
+    </row>
+    <row r="857">
+      <c r="B857" t="inlineStr">
+        <is>
+          <t>La Cintura</t>
+        </is>
+      </c>
+      <c r="C857" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Eg4LUvUjUWI?si=YqeuNfTh_iTuj-dP</t>
+        </is>
+      </c>
+    </row>
+    <row r="858">
+      <c r="B858" t="inlineStr">
+        <is>
+          <t>Diamond Heart</t>
+        </is>
+      </c>
+      <c r="C858" t="inlineStr">
+        <is>
+          <t>https://youtu.be/bcHoBDw4G10?si=auASu-G_c9NkS48Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="859">
+      <c r="B859" t="inlineStr">
+        <is>
+          <t>Halsey - Sorry</t>
+        </is>
+      </c>
+      <c r="C859" t="inlineStr">
+        <is>
+          <t>https://youtu.be/CPAoMCo7tNw?si=2rEiXXCn6UcySUVZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="860">
+      <c r="B860" t="inlineStr">
+        <is>
+          <t>Relax, Take it Easy</t>
+        </is>
+      </c>
+      <c r="C860" t="inlineStr">
+        <is>
+          <t>https://youtu.be/EVDYmBrl02Q?si=ODB07HFZCtTtg4F4</t>
+        </is>
+      </c>
+    </row>
+    <row r="861">
+      <c r="B861" t="inlineStr">
+        <is>
+          <t>Thank you Allah</t>
+        </is>
+      </c>
+      <c r="C861" t="inlineStr">
+        <is>
+          <t>https://youtu.be/RBrdl0v_anc?si=cu3qNsVyUIIzZGvv</t>
+        </is>
+      </c>
+    </row>
+    <row r="862">
+      <c r="B862" t="inlineStr">
+        <is>
+          <t>Let me down slowly</t>
+        </is>
+      </c>
+      <c r="C862" t="inlineStr">
+        <is>
+          <t>https://youtu.be/50VNCymT-Cs?si=sEwBTlJCeuqL9LTD</t>
+        </is>
+      </c>
+    </row>
+    <row r="863">
+      <c r="B863" t="inlineStr">
+        <is>
+          <t>Lonely (acoustic)</t>
+        </is>
+      </c>
+      <c r="C863" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Cu5hhxP_prE?si=VRZVlVcLWqk8Dasg</t>
+        </is>
+      </c>
+    </row>
+    <row r="864">
+      <c r="B864" t="inlineStr">
+        <is>
+          <t>Selfish love</t>
+        </is>
+      </c>
+      <c r="C864" t="inlineStr">
+        <is>
+          <t>https://youtu.be/9gqAq6kq5Ek?si=Gro32XWDuPLWzyIv</t>
+        </is>
+      </c>
+    </row>
+    <row r="865">
+      <c r="B865" t="inlineStr">
+        <is>
+          <t>twenty one pilots: Heathens</t>
+        </is>
+      </c>
+      <c r="C865" t="inlineStr">
+        <is>
+          <t>https://youtu.be/UprcpdwuwCg?si=O6_fwxx8TOkfjIXi</t>
+        </is>
+      </c>
+    </row>
+    <row r="866">
+      <c r="B866" t="inlineStr">
+        <is>
+          <t>Dont Let Me Down</t>
+        </is>
+      </c>
+      <c r="C866" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Io0fBr1XBUA?si=SUp9MdCXlOU_Vf5s</t>
+        </is>
+      </c>
+    </row>
+    <row r="867">
+      <c r="B867" t="inlineStr">
+        <is>
+          <t>Someone you loved</t>
+        </is>
+      </c>
+      <c r="C867" t="inlineStr">
+        <is>
+          <t>https://youtu.be/zABLecsR5UE?si=k3rryaA0P3O8JBhY</t>
+        </is>
+      </c>
+    </row>
+    <row r="868">
+      <c r="B868" t="inlineStr">
+        <is>
+          <t>Lucid Dreams</t>
+        </is>
+      </c>
+      <c r="C868" t="inlineStr">
+        <is>
+          <t>https://youtu.be/IfBLD0ATrQA?si=YS-eU-zZX-5dbISw</t>
+        </is>
+      </c>
+    </row>
+    <row r="869">
+      <c r="B869" t="inlineStr">
+        <is>
+          <t>Fed up with us</t>
+        </is>
+      </c>
+      <c r="C869" t="inlineStr">
+        <is>
+          <t>https://youtu.be/n1NTv6Y4pxs?si=76WA3JI0TGILBHm7</t>
+        </is>
+      </c>
+    </row>
+    <row r="870">
+      <c r="B870" t="inlineStr">
+        <is>
+          <t>Skyfall</t>
+        </is>
+      </c>
+      <c r="C870" t="inlineStr">
+        <is>
+          <t>https://youtu.be/DeumyOzKqgI?si=Cok0dR7byK6pN682</t>
+        </is>
+      </c>
+    </row>
+    <row r="871">
+      <c r="B871" t="inlineStr">
+        <is>
+          <t>Story of my life</t>
+        </is>
+      </c>
+      <c r="C871" t="inlineStr">
+        <is>
+          <t>https://youtu.be/W-TE_Ys4iwM?si=RViOxRuaXxdz3pmm</t>
+        </is>
+      </c>
+    </row>
+    <row r="872">
+      <c r="B872" t="inlineStr">
+        <is>
+          <t>Reamonn - Tonight</t>
+        </is>
+      </c>
+      <c r="C872" t="inlineStr">
+        <is>
+          <t>https://youtu.be/jtoncUzV6nA?si=yULSO1-MxnAVV13i</t>
+        </is>
+      </c>
+    </row>
+    <row r="873">
+      <c r="B873" t="inlineStr">
+        <is>
+          <t>Hymn For The Weekend</t>
+        </is>
+      </c>
+      <c r="C873" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=YykjpeuMNEk</t>
+        </is>
+      </c>
+    </row>
+    <row r="874">
+      <c r="B874" t="inlineStr">
+        <is>
+          <t>Hell Or High Water</t>
+        </is>
+      </c>
+      <c r="C874" t="inlineStr">
+        <is>
+          <t>https://youtu.be/zgDbp5C74sU?si=R8Q5HZq2vzhGL57g</t>
+        </is>
+      </c>
+    </row>
+    <row r="875">
+      <c r="B875" t="inlineStr">
+        <is>
+          <t>Lonely</t>
+        </is>
+      </c>
+      <c r="C875" t="inlineStr">
+        <is>
+          <t>https://youtu.be/M4hvSgnsnog?si=TtDhe_NUHM1NZaY9</t>
+        </is>
+      </c>
+    </row>
+    <row r="876">
+      <c r="B876" t="inlineStr">
+        <is>
+          <t>Everything I Need</t>
+        </is>
+      </c>
+      <c r="C876" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=9bCp7j3nC30</t>
+        </is>
+      </c>
+    </row>
+    <row r="877">
+      <c r="B877" t="inlineStr">
+        <is>
+          <t>Love the way you lie</t>
+        </is>
+      </c>
+      <c r="C877" t="inlineStr">
+        <is>
+          <t>https://youtu.be/h_-JFUci0BM?si=SHiuHs1NdIjpN0WP</t>
+        </is>
+      </c>
+    </row>
+    <row r="878">
+      <c r="B878" t="inlineStr">
+        <is>
+          <t>Moving Mountains</t>
+        </is>
+      </c>
+      <c r="C878" t="inlineStr">
+        <is>
+          <t>https://youtu.be/S_0r3hYg78o?si=Be6GShy7mgRcl9Ha</t>
+        </is>
+      </c>
+    </row>
+    <row r="879">
+      <c r="B879" t="inlineStr">
+        <is>
+          <t>Numb (cover)</t>
+        </is>
+      </c>
+      <c r="C879" t="inlineStr">
+        <is>
+          <t>https://youtu.be/gHp-OjLOG5A?si=0abUDswbKz6rhQeX</t>
+        </is>
+      </c>
+    </row>
+    <row r="880">
+      <c r="B880" t="inlineStr">
+        <is>
+          <t>Until I found you</t>
+        </is>
+      </c>
+      <c r="C880" t="inlineStr">
+        <is>
+          <t>https://youtu.be/oIKuyj2GQtY</t>
+        </is>
+      </c>
+    </row>
+    <row r="881">
+      <c r="B881" t="inlineStr">
+        <is>
+          <t>Heart is on fire</t>
+        </is>
+      </c>
+      <c r="C881" t="inlineStr">
+        <is>
+          <t>https://youtu.be/kBqqlW6-99M?si=kXaaJTqhA4PaY6Gd</t>
+        </is>
+      </c>
+    </row>
+    <row r="882">
+      <c r="B882" t="inlineStr">
+        <is>
+          <t>Holes</t>
+        </is>
+      </c>
+      <c r="C882" t="inlineStr">
+        <is>
+          <t>https://youtu.be/DeFWClW7skQ?si=hkIGl-CTTw-FbnLz</t>
+        </is>
+      </c>
+    </row>
+    <row r="883">
+      <c r="B883" t="inlineStr">
+        <is>
+          <t>Survivors</t>
+        </is>
+      </c>
+      <c r="C883" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=vN0gaXS8dQE</t>
+        </is>
+      </c>
+    </row>
+    <row r="884">
+      <c r="B884" t="inlineStr">
+        <is>
+          <t>Irakliy - Ya s toboy(cover)</t>
+        </is>
+      </c>
+      <c r="C884" t="inlineStr">
+        <is>
+          <t>https://youtu.be/3WmdZOF5bKk?si=LcXY8Gohxxx4cZSA</t>
+        </is>
+      </c>
+    </row>
+    <row r="885">
+      <c r="B885" t="inlineStr">
+        <is>
+          <t>Vetrom stat (cover)</t>
+        </is>
+      </c>
+      <c r="C885" t="inlineStr">
+        <is>
+          <t>https://youtu.be/kkzEs0gdvZI?si=Z456wgKuJd0aE_PA</t>
+        </is>
+      </c>
+    </row>
+    <row r="886">
+      <c r="B886" t="inlineStr">
+        <is>
+          <t>Reamonn - Supergirl</t>
+        </is>
+      </c>
+      <c r="C886" t="inlineStr">
+        <is>
+          <t>https://youtu.be/ctmS5XX67Ek?si=NGZGPw0bcpfZciyi</t>
+        </is>
+      </c>
+    </row>
+    <row r="887">
+      <c r="B887" t="inlineStr">
+        <is>
+          <t>Another Love</t>
+        </is>
+      </c>
+      <c r="C887" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Jkj36B1YuDU?si=Yku5tRPe7avRNr2R</t>
+        </is>
+      </c>
+    </row>
+    <row r="888">
+      <c r="B888" t="inlineStr">
+        <is>
+          <t>All the little lights</t>
+        </is>
+      </c>
+      <c r="C888" t="inlineStr">
+        <is>
+          <t>https://youtu.be/OkxVxox--Io?si=AE4wj_c_uqTWGrbB</t>
+        </is>
+      </c>
+    </row>
+    <row r="889">
+      <c r="B889" t="inlineStr">
+        <is>
+          <t>Arcade</t>
+        </is>
+      </c>
+      <c r="C889" t="inlineStr">
+        <is>
+          <t>https://youtu.be/Qau6mObfSGM?si=RsrcZ0VUCOHaEwE4</t>
+        </is>
+      </c>
+    </row>
+    <row r="890">
+      <c r="B890" t="inlineStr">
+        <is>
+          <t>Burito - Po volnam</t>
+        </is>
+      </c>
+      <c r="C890" t="inlineStr">
+        <is>
+          <t>https://youtu.be/jqyJ4xW2gb0?si=VgrA4JKMWkeWDIA5</t>
+        </is>
+      </c>
+    </row>
+    <row r="891">
+      <c r="B891" t="inlineStr">
+        <is>
+          <t>To Be Free</t>
+        </is>
+      </c>
+      <c r="C891" t="inlineStr">
+        <is>
+          <t>https://youtu.be/hNd5pILkpSw?si=qiwZxiuS0yeiuOPs</t>
+        </is>
+      </c>
+    </row>
+    <row r="892">
+      <c r="B892" t="inlineStr">
+        <is>
+          <t>Castle of Glass</t>
+        </is>
+      </c>
+      <c r="C892" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=PPkJeWPP2nM</t>
+        </is>
+      </c>
+    </row>
+    <row r="893">
+      <c r="B893" t="inlineStr">
+        <is>
+          <t>Ava Max - Alone</t>
+        </is>
+      </c>
+      <c r="C893" t="inlineStr">
+        <is>
+          <t>https://youtu.be/omvW1cI-3xg?si=zHiFadZaUUpddcgu</t>
+        </is>
+      </c>
+    </row>
+    <row r="894">
+      <c r="B894" t="inlineStr">
+        <is>
+          <t>Let Her Go (ft Ed Sheeran)</t>
+        </is>
+      </c>
+      <c r="C894" t="inlineStr">
+        <is>
+          <t>https://youtu.be/HTcL9WkB_wg?si=ILXw9EaPM4GJyx29</t>
+        </is>
+      </c>
+    </row>
+    <row r="895">
+      <c r="B895" t="inlineStr">
+        <is>
+          <t>In the end (rmx)</t>
+        </is>
+      </c>
+      <c r="C895" t="inlineStr">
+        <is>
+          <t>https://youtu.be/WNeLUngb-Xg?si=V95nGOt0sMvhQG7c</t>
+        </is>
+      </c>
+    </row>
+    <row r="896">
+      <c r="B896" t="inlineStr">
+        <is>
+          <t>No Time To Die</t>
+        </is>
+      </c>
+      <c r="C896" t="inlineStr">
+        <is>
+          <t>https://youtu.be/GB_S2qFh5lU?si=XDH6CdXhqJq-g321</t>
+        </is>
+      </c>
+    </row>
+    <row r="897">
+      <c r="B897" t="inlineStr">
+        <is>
+          <t>Tired Of Being Sorry</t>
+        </is>
+      </c>
+      <c r="C897" t="inlineStr">
+        <is>
+          <t>https://youtu.be/gzFmctgW0s8?si=JfvG_0Sj-IdPWoBY</t>
+        </is>
+      </c>
+    </row>
+    <row r="898">
+      <c r="B898" t="inlineStr">
+        <is>
+          <t>The Cup Of Life - Ricky Martin</t>
+        </is>
+      </c>
+      <c r="C898" t="inlineStr">
+        <is>
+          <t>https://youtu.be/CBfSeqfeggI?si=A2RRcM0PSvAsvpHF</t>
+        </is>
+      </c>
+    </row>
+    <row r="899">
+      <c r="B899" t="inlineStr">
+        <is>
+          <t>Баста - Выпускной</t>
+        </is>
+      </c>
+      <c r="C899" t="inlineStr">
+        <is>
+          <t>https://youtu.be/t1-yL-xvklc?si=YZ1rS5hZtleOFOy1</t>
+        </is>
+      </c>
+    </row>
+    <row r="900">
+      <c r="B900" t="inlineStr">
+        <is>
+          <t>Wonderful Life</t>
+        </is>
+      </c>
+      <c r="C900" t="inlineStr">
+        <is>
+          <t>https://youtu.be/qzn_6bXdgeE?si=BgnimyD5Frnn_-o-</t>
+        </is>
+      </c>
+    </row>
+    <row r="901">
+      <c r="B901" t="inlineStr">
+        <is>
+          <t>Shape of My Heart</t>
+        </is>
+      </c>
+      <c r="C901" t="inlineStr">
         <is>
           <t>https://youtu.be/pm3rDbXbZRI?si=7TxDuViBxhHGeZoU</t>
         </is>

--- a/songs.xlsx
+++ b/songs.xlsx
@@ -1062,7 +1062,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
@@ -1168,24 +1168,24 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Linkin Park - In The End (Mellen Gi &amp;amp; Tommee Profitt Remix)</t>
+          <t>Maroon 5 - Girls Like You ft. Cardi B (Official Music Video)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=WNeLUngb-Xg</t>
+          <t>https://www.youtube.com/watch?v=aJOTlE1K90k</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Enya - Only Time (Official 4K Music Video)</t>
+          <t>Linkin Park - In The End (Mellen Gi &amp;amp; Tommee Profitt Remix)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=7wfYIMyS_dI</t>
+          <t>https://www.youtube.com/watch?v=WNeLUngb-Xg</t>
         </is>
       </c>
     </row>
@@ -1204,970 +1204,982 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>Today is a Good Day</t>
+          <t>Enya - Only Time (Official 4K Music Video)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://youtu.be/9L4EjJqrz0c?si=x97RAvAA9IELRZPW</t>
+          <t>https://www.youtube.com/watch?v=7wfYIMyS_dI</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>Heroes Tonight</t>
+          <t>Today is a Good Day</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=074rfF4RJZc</t>
+          <t>https://youtu.be/9L4EjJqrz0c?si=x97RAvAA9IELRZPW</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>Shakira - Hips Dont Lie</t>
+          <t>Heroes Tonight</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://youtu.be/p3pEe6aAJ4k?si=bzrAEs7c-zSwqBUo</t>
+          <t>https://www.youtube.com/watch?v=074rfF4RJZc</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>Shakira - La La La World Cup 2014</t>
+          <t>Shakira - Hips Dont Lie</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://youtu.be/2igups6VdcA?si=N5uu5genirJuWXWC</t>
+          <t>https://youtu.be/p3pEe6aAJ4k?si=bzrAEs7c-zSwqBUo</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>Shakira - Chantaje (letra)</t>
+          <t>Shakira - La La La World Cup 2014</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://youtu.be/J76eQJP3UIQ?si=juYKqG_UCEta8y19</t>
+          <t>https://youtu.be/2igups6VdcA?si=N5uu5genirJuWXWC</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>Zara Larsson – Dont Worry Bout Me</t>
+          <t>Something Just Like This</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://youtu.be/u_tzZd9kIWg?si=y-s2yCVh4U2JLsJJ</t>
+          <t>https://youtu.be/FM7MFYoylVs?si=TrbAGj-JAUeEJ4bd</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>Selena Gomez - Buscando Amor</t>
+          <t>Shakira - Chantaje (letra)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://youtu.be/2P6EExu3H5s?si=f2hv9y52VqxnVOmL</t>
+          <t>https://youtu.be/J76eQJP3UIQ?si=juYKqG_UCEta8y19</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>Shawn Mendes - In My Blood</t>
+          <t>Zara Larsson – Dont Worry Bout Me</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://youtu.be/36tggrpRoTI?si=CiCfVdO8Oepjt4Rs</t>
+          <t>https://youtu.be/u_tzZd9kIWg?si=y-s2yCVh4U2JLsJJ</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>Charlie Puth - We Dont Talk Anymore</t>
+          <t>Selena Gomez - Buscando Amor</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://youtu.be/bpFVJJBgtXY?si=L2NuwOWGhmdKacwg</t>
+          <t>https://youtu.be/2P6EExu3H5s?si=f2hv9y52VqxnVOmL</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>Selena Gomez - Adiós</t>
+          <t>Shawn Mendes - In My Blood</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://youtu.be/9H_368c2Hzw?si=UOBGyTGbUe_fISFW</t>
+          <t>https://youtu.be/36tggrpRoTI?si=CiCfVdO8Oepjt4Rs</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>Charlie Puth - Attention</t>
+          <t>Charlie Puth - We Dont Talk Anymore</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://youtu.be/Oz5JDtkf1as</t>
+          <t>https://youtu.be/bpFVJJBgtXY?si=L2NuwOWGhmdKacwg</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>Something Just Like This</t>
+          <t>Selena Gomez - Adiós</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://youtu.be/FM7MFYoylVs?si=TrbAGj-JAUeEJ4bd</t>
+          <t>https://youtu.be/9H_368c2Hzw?si=UOBGyTGbUe_fISFW</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>Bruno Mars - Grenade</t>
+          <t>Charlie Puth - Attention</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://youtu.be/4YrzJ9RZ9qY</t>
+          <t>https://youtu.be/Oz5JDtkf1as</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>Let Me Love You</t>
+          <t>Bruno Mars - Grenade</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://youtu.be/SMs0GnYze34?si=T-UORWGqJCoitcOM</t>
+          <t>https://youtu.be/4YrzJ9RZ9qY</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>Sweet But Psycho</t>
+          <t>Let Me Love You</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://youtu.be/2KBFD0aoZy8</t>
+          <t>https://youtu.be/SMs0GnYze34?si=T-UORWGqJCoitcOM</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>Whos laughing now</t>
+          <t>Sweet But Psycho</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://youtu.be/4JYSgIiSZSA?si=3v9kDuzvYJvWaOsO</t>
+          <t>https://youtu.be/2KBFD0aoZy8</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>Girls Like You</t>
+          <t>Whos laughing now</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://youtu.be/aJOTlE1K90k</t>
+          <t>https://youtu.be/4JYSgIiSZSA?si=3v9kDuzvYJvWaOsO</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>Camila Cabello - Havana</t>
+          <t>Girls Like You</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://youtu.be/HCjNJDNzw8Y?si=QjZAi7GPIc4ParOQ</t>
+          <t>https://youtu.be/aJOTlE1K90k</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>Maroon 5 - Memories</t>
+          <t>Camila Cabello - Havana</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=SlPhMPnQ58k&amp;pp=ygUPbWFyb29uIG1lbW9yaWVz</t>
+          <t>https://youtu.be/HCjNJDNzw8Y?si=QjZAi7GPIc4ParOQ</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>post malone - rockstar (feat. 21 savage)</t>
+          <t>Maroon 5 - Memories</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=9lQP9-F8kIQ</t>
+          <t>https://www.youtube.com/watch?v=SlPhMPnQ58k&amp;pp=ygUPbWFyb29uIG1lbW9yaWVz</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Drake - Gods plan</t>
+          <t>post malone - rockstar (feat. 21 savage)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=ScfgOVJiu_I</t>
+          <t>https://www.youtube.com/watch?v=9lQP9-F8kIQ</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Dua Lipa - Levitating</t>
+          <t>Drake - Gods plan</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=j2c3tR_qfiQ</t>
+          <t>https://www.youtube.com/watch?v=ScfgOVJiu_I</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>Justin Bieber - Baby</t>
+          <t>Dua Lipa - Levitating</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=khOFw2f4bQY</t>
+          <t>https://www.youtube.com/watch?v=j2c3tR_qfiQ</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>State of Grace</t>
+          <t>Justin Bieber - Baby</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=gr4cqcqnAN0</t>
+          <t>https://www.youtube.com/watch?v=khOFw2f4bQY</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>Taylor Swift - Back To December</t>
+          <t>State of Grace</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://youtu.be/QUwxKWT6m7U?si=LNPBWKl0DqXIfOP2</t>
+          <t>https://www.youtube.com/watch?v=gr4cqcqnAN0</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>As it was</t>
+          <t>Taylor Swift - Back To December</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://youtu.be/Qfm6nfz1QNQ?si=3mMjYFpALij7GELl</t>
+          <t>https://youtu.be/QUwxKWT6m7U?si=LNPBWKl0DqXIfOP2</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>Taylor Swift - Begin Again</t>
+          <t>As it was</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://youtu.be/cMPEd8m79Hw?si=9zE5-51p0xGyEgSO</t>
+          <t>https://youtu.be/Qfm6nfz1QNQ?si=3mMjYFpALij7GELl</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>Sofia</t>
+          <t>Taylor Swift - Begin Again</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://youtu.be/ftI_Lp7LAuU?si=aOFT5Ral2-A_2PxG</t>
+          <t>https://youtu.be/cMPEd8m79Hw?si=9zE5-51p0xGyEgSO</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>Numb (lyrics|rock)</t>
+          <t>Sofia</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://youtu.be/8P0vKLHbtMg?si=HhXMHjE8vD2yeC_B</t>
+          <t>https://youtu.be/ftI_Lp7LAuU?si=aOFT5Ral2-A_2PxG</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>For The Rest Of My Life</t>
+          <t>Numb (lyrics|rock)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://youtu.be/PHbZ9SXHJwA?si=_7a2Gaka2oPEWrCQ</t>
+          <t>https://youtu.be/8P0vKLHbtMg?si=HhXMHjE8vD2yeC_B</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>Insha Allah</t>
+          <t>For The Rest Of My Life</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://youtu.be/8xXJyFNfiy8?si=XkqgGm4hEyZoqJe1</t>
+          <t>https://youtu.be/PHbZ9SXHJwA?si=_7a2Gaka2oPEWrCQ</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Hunger Games | Atlas</t>
+          <t>Insha Allah</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://youtu.be/Lh3TokLzzmw?si=I5CcdBNIEuwDZvVT</t>
+          <t>https://youtu.be/8xXJyFNfiy8?si=XkqgGm4hEyZoqJe1</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>Hard To Say Im Sorry</t>
+          <t>Hunger Games | Atlas</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://youtu.be/XCmOdVia9DE?si=60M6i15UUakuL7DH</t>
+          <t>https://youtu.be/Lh3TokLzzmw?si=I5CcdBNIEuwDZvVT</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>Sasha Sloan - Lie</t>
+          <t>Hard To Say Im Sorry</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://youtu.be/AzjTJpzfB8U?si=PHYxAGETm1P1opd0</t>
+          <t>https://youtu.be/XCmOdVia9DE?si=60M6i15UUakuL7DH</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>Solo Para Ti</t>
+          <t>Sasha Sloan - Lie</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://youtu.be/5D_A4IBWSv4?si=pgNinSqUyLBks6po</t>
+          <t>https://youtu.be/AzjTJpzfB8U?si=PHYxAGETm1P1opd0</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Zara Larsson - This Ones For You</t>
+          <t>Solo Para Ti</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://youtu.be/MoHnffhBwqs?si=_FGX4ucMtOTcD2to</t>
+          <t>https://youtu.be/5D_A4IBWSv4?si=pgNinSqUyLBks6po</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>La Cintura</t>
+          <t>Zara Larsson - This Ones For You</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://youtu.be/Eg4LUvUjUWI?si=YqeuNfTh_iTuj-dP</t>
+          <t>https://youtu.be/MoHnffhBwqs?si=_FGX4ucMtOTcD2to</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>Diamond Heart</t>
+          <t>La Cintura</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://youtu.be/bcHoBDw4G10?si=auASu-G_c9NkS48Z</t>
+          <t>https://youtu.be/Eg4LUvUjUWI?si=YqeuNfTh_iTuj-dP</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>Halsey - Sorry</t>
+          <t>Diamond Heart</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://youtu.be/CPAoMCo7tNw?si=2rEiXXCn6UcySUVZ</t>
+          <t>https://youtu.be/bcHoBDw4G10?si=auASu-G_c9NkS48Z</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>Relax, Take it Easy</t>
+          <t>Halsey - Sorry</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://youtu.be/EVDYmBrl02Q?si=ODB07HFZCtTtg4F4</t>
+          <t>https://youtu.be/CPAoMCo7tNw?si=2rEiXXCn6UcySUVZ</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>Thank you Allah</t>
+          <t>Relax, Take it Easy</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://youtu.be/RBrdl0v_anc?si=cu3qNsVyUIIzZGvv</t>
+          <t>https://youtu.be/EVDYmBrl02Q?si=ODB07HFZCtTtg4F4</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>Let me down slowly</t>
+          <t>Thank you Allah</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://youtu.be/50VNCymT-Cs?si=sEwBTlJCeuqL9LTD</t>
+          <t>https://youtu.be/RBrdl0v_anc?si=cu3qNsVyUIIzZGvv</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>Lonely (acoustic)</t>
+          <t>Let me down slowly</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://youtu.be/Cu5hhxP_prE?si=VRZVlVcLWqk8Dasg</t>
+          <t>https://youtu.be/50VNCymT-Cs?si=sEwBTlJCeuqL9LTD</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>Selfish love</t>
+          <t>Lonely (acoustic)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://youtu.be/9gqAq6kq5Ek?si=Gro32XWDuPLWzyIv</t>
+          <t>https://youtu.be/Cu5hhxP_prE?si=VRZVlVcLWqk8Dasg</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>twenty one pilots: Heathens</t>
+          <t>Selfish love</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://youtu.be/UprcpdwuwCg?si=O6_fwxx8TOkfjIXi</t>
+          <t>https://youtu.be/9gqAq6kq5Ek?si=Gro32XWDuPLWzyIv</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>Dont Let Me Down</t>
+          <t>twenty one pilots: Heathens</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://youtu.be/Io0fBr1XBUA?si=SUp9MdCXlOU_Vf5s</t>
+          <t>https://youtu.be/UprcpdwuwCg?si=O6_fwxx8TOkfjIXi</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>Someone you loved</t>
+          <t>Dont Let Me Down</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://youtu.be/zABLecsR5UE?si=k3rryaA0P3O8JBhY</t>
+          <t>https://youtu.be/Io0fBr1XBUA?si=SUp9MdCXlOU_Vf5s</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>Lucid Dreams</t>
+          <t>Someone you loved</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://youtu.be/IfBLD0ATrQA?si=YS-eU-zZX-5dbISw</t>
+          <t>https://youtu.be/zABLecsR5UE?si=k3rryaA0P3O8JBhY</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>Fed up with us</t>
+          <t>Lucid Dreams</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://youtu.be/n1NTv6Y4pxs?si=76WA3JI0TGILBHm7</t>
+          <t>https://youtu.be/IfBLD0ATrQA?si=YS-eU-zZX-5dbISw</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>Skyfall</t>
+          <t>Fed up with us</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://youtu.be/DeumyOzKqgI?si=Cok0dR7byK6pN682</t>
+          <t>https://youtu.be/n1NTv6Y4pxs?si=76WA3JI0TGILBHm7</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>Story of my life</t>
+          <t>Skyfall</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://youtu.be/W-TE_Ys4iwM?si=RViOxRuaXxdz3pmm</t>
+          <t>https://youtu.be/DeumyOzKqgI?si=Cok0dR7byK6pN682</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>Reamonn - Tonight</t>
+          <t>Story of my life</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://youtu.be/jtoncUzV6nA?si=yULSO1-MxnAVV13i</t>
+          <t>https://youtu.be/W-TE_Ys4iwM?si=RViOxRuaXxdz3pmm</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>Hymn For The Weekend</t>
+          <t>Reamonn - Tonight</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=YykjpeuMNEk</t>
+          <t>https://youtu.be/jtoncUzV6nA?si=yULSO1-MxnAVV13i</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>Hell Or High Water</t>
+          <t>Hymn For The Weekend</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://youtu.be/zgDbp5C74sU?si=R8Q5HZq2vzhGL57g</t>
+          <t>https://www.youtube.com/watch?v=YykjpeuMNEk</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>Lonely</t>
+          <t>Hell Or High Water</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://youtu.be/M4hvSgnsnog?si=TtDhe_NUHM1NZaY9</t>
+          <t>https://youtu.be/zgDbp5C74sU?si=R8Q5HZq2vzhGL57g</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>Everything I Need</t>
+          <t>Lonely</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=9bCp7j3nC30</t>
+          <t>https://youtu.be/M4hvSgnsnog?si=TtDhe_NUHM1NZaY9</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>Love the way you lie</t>
+          <t>Everything I Need</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://youtu.be/h_-JFUci0BM?si=SHiuHs1NdIjpN0WP</t>
+          <t>https://www.youtube.com/watch?v=9bCp7j3nC30</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>Moving Mountains</t>
+          <t>Love the way you lie</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://youtu.be/S_0r3hYg78o?si=Be6GShy7mgRcl9Ha</t>
+          <t>https://youtu.be/h_-JFUci0BM?si=SHiuHs1NdIjpN0WP</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>Numb (cover)</t>
+          <t>Moving Mountains</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://youtu.be/gHp-OjLOG5A?si=0abUDswbKz6rhQeX</t>
+          <t>https://youtu.be/S_0r3hYg78o?si=Be6GShy7mgRcl9Ha</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>Until I found you</t>
+          <t>Numb (cover)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://youtu.be/oIKuyj2GQtY</t>
+          <t>https://youtu.be/gHp-OjLOG5A?si=0abUDswbKz6rhQeX</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>Heart is on fire</t>
+          <t>Until I found you</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://youtu.be/kBqqlW6-99M?si=kXaaJTqhA4PaY6Gd</t>
+          <t>https://youtu.be/oIKuyj2GQtY</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>Holes</t>
+          <t>Heart is on fire</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://youtu.be/DeFWClW7skQ?si=hkIGl-CTTw-FbnLz</t>
+          <t>https://youtu.be/kBqqlW6-99M?si=kXaaJTqhA4PaY6Gd</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>Survivors</t>
+          <t>Holes</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=vN0gaXS8dQE</t>
+          <t>https://youtu.be/DeFWClW7skQ?si=hkIGl-CTTw-FbnLz</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>Irakliy - Ya s toboy(cover)</t>
+          <t>Survivors</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://youtu.be/3WmdZOF5bKk?si=LcXY8Gohxxx4cZSA</t>
+          <t>https://www.youtube.com/watch?v=vN0gaXS8dQE</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>Vetrom stat (cover)</t>
+          <t>Irakliy - Ya s toboy(cover)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://youtu.be/kkzEs0gdvZI?si=Z456wgKuJd0aE_PA</t>
+          <t>https://youtu.be/3WmdZOF5bKk?si=LcXY8Gohxxx4cZSA</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>Reamonn - Supergirl</t>
+          <t>Vetrom stat (cover)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://youtu.be/ctmS5XX67Ek?si=NGZGPw0bcpfZciyi</t>
+          <t>https://youtu.be/kkzEs0gdvZI?si=Z456wgKuJd0aE_PA</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>Another Love</t>
+          <t>Reamonn - Supergirl</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://youtu.be/Jkj36B1YuDU?si=Yku5tRPe7avRNr2R</t>
+          <t>https://youtu.be/ctmS5XX67Ek?si=NGZGPw0bcpfZciyi</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>All the little lights</t>
+          <t>Another Love</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://youtu.be/OkxVxox--Io?si=AE4wj_c_uqTWGrbB</t>
+          <t>https://youtu.be/Jkj36B1YuDU?si=Yku5tRPe7avRNr2R</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>Arcade</t>
+          <t>All the little lights</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://youtu.be/Qau6mObfSGM?si=RsrcZ0VUCOHaEwE4</t>
+          <t>https://youtu.be/OkxVxox--Io?si=AE4wj_c_uqTWGrbB</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>Burito - Po volnam</t>
+          <t>Arcade</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://youtu.be/jqyJ4xW2gb0?si=VgrA4JKMWkeWDIA5</t>
+          <t>https://youtu.be/Qau6mObfSGM?si=RsrcZ0VUCOHaEwE4</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>To Be Free</t>
+          <t>Burito - Po volnam</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://youtu.be/hNd5pILkpSw?si=qiwZxiuS0yeiuOPs</t>
+          <t>https://youtu.be/jqyJ4xW2gb0?si=VgrA4JKMWkeWDIA5</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>Castle of Glass</t>
+          <t>To Be Free</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=PPkJeWPP2nM</t>
+          <t>https://youtu.be/hNd5pILkpSw?si=qiwZxiuS0yeiuOPs</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>Ava Max - Alone</t>
+          <t>Castle of Glass</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://youtu.be/omvW1cI-3xg?si=zHiFadZaUUpddcgu</t>
+          <t>https://www.youtube.com/watch?v=PPkJeWPP2nM</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>Let Her Go (ft Ed Sheeran)</t>
+          <t>Ava Max - Alone</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://youtu.be/HTcL9WkB_wg?si=ILXw9EaPM4GJyx29</t>
+          <t>https://youtu.be/omvW1cI-3xg?si=zHiFadZaUUpddcgu</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>In the end (rmx)</t>
+          <t>Let Her Go (ft Ed Sheeran)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://youtu.be/WNeLUngb-Xg?si=V95nGOt0sMvhQG7c</t>
+          <t>https://youtu.be/HTcL9WkB_wg?si=ILXw9EaPM4GJyx29</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>No Time To Die</t>
+          <t>In the end (rmx)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://youtu.be/GB_S2qFh5lU?si=XDH6CdXhqJq-g321</t>
+          <t>https://youtu.be/WNeLUngb-Xg?si=V95nGOt0sMvhQG7c</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>Tired Of Being Sorry</t>
+          <t>No Time To Die</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://youtu.be/gzFmctgW0s8?si=JfvG_0Sj-IdPWoBY</t>
+          <t>https://youtu.be/GB_S2qFh5lU?si=XDH6CdXhqJq-g321</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>The Cup Of Life - Ricky Martin</t>
+          <t>Tired Of Being Sorry</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://youtu.be/CBfSeqfeggI?si=A2RRcM0PSvAsvpHF</t>
+          <t>https://youtu.be/gzFmctgW0s8?si=JfvG_0Sj-IdPWoBY</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>Баста - Выпускной</t>
+          <t>The Cup Of Life - Ricky Martin</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://youtu.be/t1-yL-xvklc?si=YZ1rS5hZtleOFOy1</t>
+          <t>https://youtu.be/CBfSeqfeggI?si=A2RRcM0PSvAsvpHF</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>Wonderful Life</t>
+          <t>Баста - Выпускной</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://youtu.be/qzn_6bXdgeE?si=BgnimyD5Frnn_-o-</t>
+          <t>https://youtu.be/t1-yL-xvklc?si=YZ1rS5hZtleOFOy1</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
+          <t>Wonderful Life</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>https://youtu.be/qzn_6bXdgeE?si=BgnimyD5Frnn_-o-</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="B92" t="inlineStr">
+        <is>
           <t>Shape of My Heart</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t>https://youtu.be/pm3rDbXbZRI?si=7TxDuViBxhHGeZoU</t>
         </is>

--- a/songs.xlsx
+++ b/songs.xlsx
@@ -1062,7 +1062,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F92"/>
+  <dimension ref="A1:F98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
@@ -1096,1090 +1096,1162 @@
     <row r="2">
       <c r="B2" t="inlineStr">
         <is>
-          <t>Edward Maya, Vika Jigulina - Stereo love (Radio Edit) (Lyrics)</t>
+          <t>JEON SOMI DUMB DUMB Lyrics (전소미 DUMB DUMB 가사)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=y9Kqb2z9Lzs</t>
+          <t>https://www.youtube.com/watch?v=TfAzTYzBvTo</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>somewhere only we know (Gustixa &amp;amp; Rhianne)</t>
+          <t>Zara Larsson - Lush Life</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=92izkAK5OA0</t>
+          <t>https://www.youtube.com/watch?v=tD4HCZe-tew</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gym Class Heroes: Stereo Hearts ft. Adam Levine</t>
+          <t>Shakira - Can`t Remember to Forget You (Lyrics) ft. Rihanna</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=T3E9Wjbq44E</t>
+          <t>https://www.youtube.com/watch?v=i_XM3u1_jZQ</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Duncan Laurence feat. FLETCHER – Arcade</t>
+          <t>Justin Bieber &amp; benny blanco - Lonely (Acoustic)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=308v08mFWWc</t>
+          <t>https://www.youtube.com/watch?v=Cu5hhxP_prE</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bad Liar (cover)</t>
+          <t>Craig David - Rise &amp; Fall ft. Sting (Official Video)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://youtu.be/5jfz3q9Z0RY?si=OHvyb7AMtM_wtAXc</t>
+          <t>https://www.youtube.com/watch?v=pU2ukeS2JTE</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Lana Del Rey - Summertime Sadness (Official Music Video)</t>
+          <t>Maroon 5 - Girls Like You ft. Cardi B (Official Music Video)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=TdrL3QxjyVw</t>
+          <t>https://www.youtube.com/watch?v=aJOTlE1K90k</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Maroon 5 - Girls Like You ft. Cardi B (Official Music Video)</t>
+          <t>Havana feat. Yaar &amp; Kaiia - Big Love (Official Video)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=aJOTlE1K90k</t>
+          <t>https://www.youtube.com/watch?v=aVFNJBqj5vU</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Linkin Park - In The End (Mellen Gi &amp;amp; Tommee Profitt Remix)</t>
+          <t>Edward Maya, Vika Jigulina - Stereo love (Radio Edit) (Lyrics)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=WNeLUngb-Xg</t>
+          <t>https://www.youtube.com/watch?v=y9Kqb2z9Lzs</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>Shawn Mendes - It'll Be Okay</t>
+          <t>Gym Class Heroes: Stereo Hearts ft. Adam Levine</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://youtu.be/KrgJp7Z1Hv8?si=MOyY5rZzP-7kcfhM</t>
+          <t>https://www.youtube.com/watch?v=T3E9Wjbq44E</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>Enya - Only Time (Official 4K Music Video)</t>
+          <t>Shawn Mendes - It'll Be Okay</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=7wfYIMyS_dI</t>
+          <t>https://youtu.be/KrgJp7Z1Hv8?si=MOyY5rZzP-7kcfhM</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>Today is a Good Day</t>
+          <t>somewhere only we know (Gustixa &amp;amp; Rhianne)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://youtu.be/9L4EjJqrz0c?si=x97RAvAA9IELRZPW</t>
+          <t>https://www.youtube.com/watch?v=92izkAK5OA0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>Heroes Tonight</t>
+          <t>Duncan Laurence feat. FLETCHER – Arcade</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=074rfF4RJZc</t>
+          <t>https://www.youtube.com/watch?v=308v08mFWWc</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>Shakira - Hips Dont Lie</t>
+          <t>Bad Liar (cover)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://youtu.be/p3pEe6aAJ4k?si=bzrAEs7c-zSwqBUo</t>
+          <t>https://youtu.be/5jfz3q9Z0RY?si=OHvyb7AMtM_wtAXc</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>Shakira - La La La World Cup 2014</t>
+          <t>Lana Del Rey - Summertime Sadness (Official Music Video)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://youtu.be/2igups6VdcA?si=N5uu5genirJuWXWC</t>
+          <t>https://www.youtube.com/watch?v=TdrL3QxjyVw</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>Something Just Like This</t>
+          <t>Linkin Park - In The End (Mellen Gi &amp;amp; Tommee Profitt Remix)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://youtu.be/FM7MFYoylVs?si=TrbAGj-JAUeEJ4bd</t>
+          <t>https://www.youtube.com/watch?v=WNeLUngb-Xg</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>Shakira - Chantaje (letra)</t>
+          <t>Enya - Only Time (Official 4K Music Video)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://youtu.be/J76eQJP3UIQ?si=juYKqG_UCEta8y19</t>
+          <t>https://www.youtube.com/watch?v=7wfYIMyS_dI</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>Zara Larsson – Dont Worry Bout Me</t>
+          <t>Today is a Good Day</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://youtu.be/u_tzZd9kIWg?si=y-s2yCVh4U2JLsJJ</t>
+          <t>https://youtu.be/9L4EjJqrz0c?si=x97RAvAA9IELRZPW</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>Selena Gomez - Buscando Amor</t>
+          <t>Heroes Tonight</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://youtu.be/2P6EExu3H5s?si=f2hv9y52VqxnVOmL</t>
+          <t>https://www.youtube.com/watch?v=074rfF4RJZc</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>Shawn Mendes - In My Blood</t>
+          <t>Shakira - Hips Dont Lie</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://youtu.be/36tggrpRoTI?si=CiCfVdO8Oepjt4Rs</t>
+          <t>https://youtu.be/p3pEe6aAJ4k?si=bzrAEs7c-zSwqBUo</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>Charlie Puth - We Dont Talk Anymore</t>
+          <t>Shakira - La La La World Cup 2014</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://youtu.be/bpFVJJBgtXY?si=L2NuwOWGhmdKacwg</t>
+          <t>https://youtu.be/2igups6VdcA?si=N5uu5genirJuWXWC</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>Selena Gomez - Adiós</t>
+          <t>Something Just Like This</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://youtu.be/9H_368c2Hzw?si=UOBGyTGbUe_fISFW</t>
+          <t>https://youtu.be/FM7MFYoylVs?si=TrbAGj-JAUeEJ4bd</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>Charlie Puth - Attention</t>
+          <t>Shakira - Chantaje (letra)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://youtu.be/Oz5JDtkf1as</t>
+          <t>https://youtu.be/J76eQJP3UIQ?si=juYKqG_UCEta8y19</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>Bruno Mars - Grenade</t>
+          <t>Zara Larsson – Dont Worry Bout Me</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://youtu.be/4YrzJ9RZ9qY</t>
+          <t>https://youtu.be/u_tzZd9kIWg?si=y-s2yCVh4U2JLsJJ</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>Let Me Love You</t>
+          <t>Selena Gomez - Buscando Amor</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://youtu.be/SMs0GnYze34?si=T-UORWGqJCoitcOM</t>
+          <t>https://youtu.be/2P6EExu3H5s?si=f2hv9y52VqxnVOmL</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>Sweet But Psycho</t>
+          <t>Shawn Mendes - In My Blood</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://youtu.be/2KBFD0aoZy8</t>
+          <t>https://youtu.be/36tggrpRoTI?si=CiCfVdO8Oepjt4Rs</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>Whos laughing now</t>
+          <t>Charlie Puth - We Dont Talk Anymore</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://youtu.be/4JYSgIiSZSA?si=3v9kDuzvYJvWaOsO</t>
+          <t>https://youtu.be/bpFVJJBgtXY?si=L2NuwOWGhmdKacwg</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>Girls Like You</t>
+          <t>Selena Gomez - Adiós</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://youtu.be/aJOTlE1K90k</t>
+          <t>https://youtu.be/9H_368c2Hzw?si=UOBGyTGbUe_fISFW</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>Camila Cabello - Havana</t>
+          <t>Charlie Puth - Attention</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://youtu.be/HCjNJDNzw8Y?si=QjZAi7GPIc4ParOQ</t>
+          <t>https://youtu.be/Oz5JDtkf1as</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>Maroon 5 - Memories</t>
+          <t>Bruno Mars - Grenade</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=SlPhMPnQ58k&amp;pp=ygUPbWFyb29uIG1lbW9yaWVz</t>
+          <t>https://youtu.be/4YrzJ9RZ9qY</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>post malone - rockstar (feat. 21 savage)</t>
+          <t>Let Me Love You</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=9lQP9-F8kIQ</t>
+          <t>https://youtu.be/SMs0GnYze34?si=T-UORWGqJCoitcOM</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Drake - Gods plan</t>
+          <t>Sweet But Psycho</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=ScfgOVJiu_I</t>
+          <t>https://youtu.be/2KBFD0aoZy8</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>Dua Lipa - Levitating</t>
+          <t>Whos laughing now</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=j2c3tR_qfiQ</t>
+          <t>https://youtu.be/4JYSgIiSZSA?si=3v9kDuzvYJvWaOsO</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>Justin Bieber - Baby</t>
+          <t>Girls Like You</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=khOFw2f4bQY</t>
+          <t>https://youtu.be/aJOTlE1K90k</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>State of Grace</t>
+          <t>Camila Cabello - Havana</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=gr4cqcqnAN0</t>
+          <t>https://youtu.be/HCjNJDNzw8Y?si=QjZAi7GPIc4ParOQ</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>Taylor Swift - Back To December</t>
+          <t>Maroon 5 - Memories</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://youtu.be/QUwxKWT6m7U?si=LNPBWKl0DqXIfOP2</t>
+          <t>https://www.youtube.com/watch?v=SlPhMPnQ58k&amp;pp=ygUPbWFyb29uIG1lbW9yaWVz</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>As it was</t>
+          <t>post malone - rockstar (feat. 21 savage)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://youtu.be/Qfm6nfz1QNQ?si=3mMjYFpALij7GELl</t>
+          <t>https://www.youtube.com/watch?v=9lQP9-F8kIQ</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>Taylor Swift - Begin Again</t>
+          <t>Drake - Gods plan</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://youtu.be/cMPEd8m79Hw?si=9zE5-51p0xGyEgSO</t>
+          <t>https://www.youtube.com/watch?v=ScfgOVJiu_I</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>Sofia</t>
+          <t>Dua Lipa - Levitating</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://youtu.be/ftI_Lp7LAuU?si=aOFT5Ral2-A_2PxG</t>
+          <t>https://www.youtube.com/watch?v=j2c3tR_qfiQ</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>Numb (lyrics|rock)</t>
+          <t>Justin Bieber - Baby</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://youtu.be/8P0vKLHbtMg?si=HhXMHjE8vD2yeC_B</t>
+          <t>https://www.youtube.com/watch?v=khOFw2f4bQY</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>For The Rest Of My Life</t>
+          <t>State of Grace</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://youtu.be/PHbZ9SXHJwA?si=_7a2Gaka2oPEWrCQ</t>
+          <t>https://www.youtube.com/watch?v=gr4cqcqnAN0</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Insha Allah</t>
+          <t>Taylor Swift - Back To December</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://youtu.be/8xXJyFNfiy8?si=XkqgGm4hEyZoqJe1</t>
+          <t>https://youtu.be/QUwxKWT6m7U?si=LNPBWKl0DqXIfOP2</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>Hunger Games | Atlas</t>
+          <t>As it was</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://youtu.be/Lh3TokLzzmw?si=I5CcdBNIEuwDZvVT</t>
+          <t>https://youtu.be/Qfm6nfz1QNQ?si=3mMjYFpALij7GELl</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>Hard To Say Im Sorry</t>
+          <t>Taylor Swift - Begin Again</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://youtu.be/XCmOdVia9DE?si=60M6i15UUakuL7DH</t>
+          <t>https://youtu.be/cMPEd8m79Hw?si=9zE5-51p0xGyEgSO</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>Sasha Sloan - Lie</t>
+          <t>Sofia</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://youtu.be/AzjTJpzfB8U?si=PHYxAGETm1P1opd0</t>
+          <t>https://youtu.be/ftI_Lp7LAuU?si=aOFT5Ral2-A_2PxG</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Solo Para Ti</t>
+          <t>Numb (lyrics|rock)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://youtu.be/5D_A4IBWSv4?si=pgNinSqUyLBks6po</t>
+          <t>https://youtu.be/8P0vKLHbtMg?si=HhXMHjE8vD2yeC_B</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>Zara Larsson - This Ones For You</t>
+          <t>For The Rest Of My Life</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://youtu.be/MoHnffhBwqs?si=_FGX4ucMtOTcD2to</t>
+          <t>https://youtu.be/PHbZ9SXHJwA?si=_7a2Gaka2oPEWrCQ</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>La Cintura</t>
+          <t>Insha Allah</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://youtu.be/Eg4LUvUjUWI?si=YqeuNfTh_iTuj-dP</t>
+          <t>https://youtu.be/8xXJyFNfiy8?si=XkqgGm4hEyZoqJe1</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>Diamond Heart</t>
+          <t>Hunger Games | Atlas</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://youtu.be/bcHoBDw4G10?si=auASu-G_c9NkS48Z</t>
+          <t>https://youtu.be/Lh3TokLzzmw?si=I5CcdBNIEuwDZvVT</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>Halsey - Sorry</t>
+          <t>Hard To Say Im Sorry</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://youtu.be/CPAoMCo7tNw?si=2rEiXXCn6UcySUVZ</t>
+          <t>https://youtu.be/XCmOdVia9DE?si=60M6i15UUakuL7DH</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>Relax, Take it Easy</t>
+          <t>Sasha Sloan - Lie</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://youtu.be/EVDYmBrl02Q?si=ODB07HFZCtTtg4F4</t>
+          <t>https://youtu.be/AzjTJpzfB8U?si=PHYxAGETm1P1opd0</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>Thank you Allah</t>
+          <t>Solo Para Ti</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://youtu.be/RBrdl0v_anc?si=cu3qNsVyUIIzZGvv</t>
+          <t>https://youtu.be/5D_A4IBWSv4?si=pgNinSqUyLBks6po</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>Let me down slowly</t>
+          <t>Zara Larsson - This Ones For You</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://youtu.be/50VNCymT-Cs?si=sEwBTlJCeuqL9LTD</t>
+          <t>https://youtu.be/MoHnffhBwqs?si=_FGX4ucMtOTcD2to</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>Lonely (acoustic)</t>
+          <t>La Cintura</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://youtu.be/Cu5hhxP_prE?si=VRZVlVcLWqk8Dasg</t>
+          <t>https://youtu.be/Eg4LUvUjUWI?si=YqeuNfTh_iTuj-dP</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>Selfish love</t>
+          <t>Diamond Heart</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://youtu.be/9gqAq6kq5Ek?si=Gro32XWDuPLWzyIv</t>
+          <t>https://youtu.be/bcHoBDw4G10?si=auASu-G_c9NkS48Z</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>twenty one pilots: Heathens</t>
+          <t>Halsey - Sorry</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://youtu.be/UprcpdwuwCg?si=O6_fwxx8TOkfjIXi</t>
+          <t>https://youtu.be/CPAoMCo7tNw?si=2rEiXXCn6UcySUVZ</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>Dont Let Me Down</t>
+          <t>Relax, Take it Easy</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://youtu.be/Io0fBr1XBUA?si=SUp9MdCXlOU_Vf5s</t>
+          <t>https://youtu.be/EVDYmBrl02Q?si=ODB07HFZCtTtg4F4</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>Someone you loved</t>
+          <t>Thank you Allah</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://youtu.be/zABLecsR5UE?si=k3rryaA0P3O8JBhY</t>
+          <t>https://youtu.be/RBrdl0v_anc?si=cu3qNsVyUIIzZGvv</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>Lucid Dreams</t>
+          <t>Let me down slowly</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://youtu.be/IfBLD0ATrQA?si=YS-eU-zZX-5dbISw</t>
+          <t>https://youtu.be/50VNCymT-Cs?si=sEwBTlJCeuqL9LTD</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>Fed up with us</t>
+          <t>Lonely (acoustic)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://youtu.be/n1NTv6Y4pxs?si=76WA3JI0TGILBHm7</t>
+          <t>https://youtu.be/Cu5hhxP_prE?si=VRZVlVcLWqk8Dasg</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>Skyfall</t>
+          <t>Selfish love</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://youtu.be/DeumyOzKqgI?si=Cok0dR7byK6pN682</t>
+          <t>https://youtu.be/9gqAq6kq5Ek?si=Gro32XWDuPLWzyIv</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>Story of my life</t>
+          <t>twenty one pilots: Heathens</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://youtu.be/W-TE_Ys4iwM?si=RViOxRuaXxdz3pmm</t>
+          <t>https://youtu.be/UprcpdwuwCg?si=O6_fwxx8TOkfjIXi</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>Reamonn - Tonight</t>
+          <t>Dont Let Me Down</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://youtu.be/jtoncUzV6nA?si=yULSO1-MxnAVV13i</t>
+          <t>https://youtu.be/Io0fBr1XBUA?si=SUp9MdCXlOU_Vf5s</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>Hymn For The Weekend</t>
+          <t>Someone you loved</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=YykjpeuMNEk</t>
+          <t>https://youtu.be/zABLecsR5UE?si=k3rryaA0P3O8JBhY</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>Hell Or High Water</t>
+          <t>Lucid Dreams</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://youtu.be/zgDbp5C74sU?si=R8Q5HZq2vzhGL57g</t>
+          <t>https://youtu.be/IfBLD0ATrQA?si=YS-eU-zZX-5dbISw</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>Lonely</t>
+          <t>Fed up with us</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://youtu.be/M4hvSgnsnog?si=TtDhe_NUHM1NZaY9</t>
+          <t>https://youtu.be/n1NTv6Y4pxs?si=76WA3JI0TGILBHm7</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>Everything I Need</t>
+          <t>Skyfall</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=9bCp7j3nC30</t>
+          <t>https://youtu.be/DeumyOzKqgI?si=Cok0dR7byK6pN682</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>Love the way you lie</t>
+          <t>Story of my life</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://youtu.be/h_-JFUci0BM?si=SHiuHs1NdIjpN0WP</t>
+          <t>https://youtu.be/W-TE_Ys4iwM?si=RViOxRuaXxdz3pmm</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>Moving Mountains</t>
+          <t>Reamonn - Tonight</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://youtu.be/S_0r3hYg78o?si=Be6GShy7mgRcl9Ha</t>
+          <t>https://youtu.be/jtoncUzV6nA?si=yULSO1-MxnAVV13i</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>Numb (cover)</t>
+          <t>Hymn For The Weekend</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://youtu.be/gHp-OjLOG5A?si=0abUDswbKz6rhQeX</t>
+          <t>https://www.youtube.com/watch?v=YykjpeuMNEk</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>Until I found you</t>
+          <t>Hell Or High Water</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://youtu.be/oIKuyj2GQtY</t>
+          <t>https://youtu.be/zgDbp5C74sU?si=R8Q5HZq2vzhGL57g</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>Heart is on fire</t>
+          <t>Lonely</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://youtu.be/kBqqlW6-99M?si=kXaaJTqhA4PaY6Gd</t>
+          <t>https://youtu.be/M4hvSgnsnog?si=TtDhe_NUHM1NZaY9</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>Holes</t>
+          <t>Everything I Need</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://youtu.be/DeFWClW7skQ?si=hkIGl-CTTw-FbnLz</t>
+          <t>https://www.youtube.com/watch?v=9bCp7j3nC30</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>Survivors</t>
+          <t>Love the way you lie</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=vN0gaXS8dQE</t>
+          <t>https://youtu.be/h_-JFUci0BM?si=SHiuHs1NdIjpN0WP</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>Irakliy - Ya s toboy(cover)</t>
+          <t>Moving Mountains</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://youtu.be/3WmdZOF5bKk?si=LcXY8Gohxxx4cZSA</t>
+          <t>https://youtu.be/S_0r3hYg78o?si=Be6GShy7mgRcl9Ha</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>Vetrom stat (cover)</t>
+          <t>Numb (cover)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://youtu.be/kkzEs0gdvZI?si=Z456wgKuJd0aE_PA</t>
+          <t>https://youtu.be/gHp-OjLOG5A?si=0abUDswbKz6rhQeX</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>Reamonn - Supergirl</t>
+          <t>Until I found you</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://youtu.be/ctmS5XX67Ek?si=NGZGPw0bcpfZciyi</t>
+          <t>https://youtu.be/oIKuyj2GQtY</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>Another Love</t>
+          <t>Heart is on fire</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://youtu.be/Jkj36B1YuDU?si=Yku5tRPe7avRNr2R</t>
+          <t>https://youtu.be/kBqqlW6-99M?si=kXaaJTqhA4PaY6Gd</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>All the little lights</t>
+          <t>Holes</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://youtu.be/OkxVxox--Io?si=AE4wj_c_uqTWGrbB</t>
+          <t>https://youtu.be/DeFWClW7skQ?si=hkIGl-CTTw-FbnLz</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>Arcade</t>
+          <t>Survivors</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://youtu.be/Qau6mObfSGM?si=RsrcZ0VUCOHaEwE4</t>
+          <t>https://www.youtube.com/watch?v=vN0gaXS8dQE</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>Burito - Po volnam</t>
+          <t>Irakliy - Ya s toboy(cover)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://youtu.be/jqyJ4xW2gb0?si=VgrA4JKMWkeWDIA5</t>
+          <t>https://youtu.be/3WmdZOF5bKk?si=LcXY8Gohxxx4cZSA</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>To Be Free</t>
+          <t>Vetrom stat (cover)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://youtu.be/hNd5pILkpSw?si=qiwZxiuS0yeiuOPs</t>
+          <t>https://youtu.be/kkzEs0gdvZI?si=Z456wgKuJd0aE_PA</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>Castle of Glass</t>
+          <t>Reamonn - Supergirl</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=PPkJeWPP2nM</t>
+          <t>https://youtu.be/ctmS5XX67Ek?si=NGZGPw0bcpfZciyi</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>Ava Max - Alone</t>
+          <t>Another Love</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://youtu.be/omvW1cI-3xg?si=zHiFadZaUUpddcgu</t>
+          <t>https://youtu.be/Jkj36B1YuDU?si=Yku5tRPe7avRNr2R</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>Let Her Go (ft Ed Sheeran)</t>
+          <t>All the little lights</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://youtu.be/HTcL9WkB_wg?si=ILXw9EaPM4GJyx29</t>
+          <t>https://youtu.be/OkxVxox--Io?si=AE4wj_c_uqTWGrbB</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>In the end (rmx)</t>
+          <t>Arcade</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://youtu.be/WNeLUngb-Xg?si=V95nGOt0sMvhQG7c</t>
+          <t>https://youtu.be/Qau6mObfSGM?si=RsrcZ0VUCOHaEwE4</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>No Time To Die</t>
+          <t>Burito - Po volnam</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://youtu.be/GB_S2qFh5lU?si=XDH6CdXhqJq-g321</t>
+          <t>https://youtu.be/jqyJ4xW2gb0?si=VgrA4JKMWkeWDIA5</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>Tired Of Being Sorry</t>
+          <t>To Be Free</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://youtu.be/gzFmctgW0s8?si=JfvG_0Sj-IdPWoBY</t>
+          <t>https://youtu.be/hNd5pILkpSw?si=qiwZxiuS0yeiuOPs</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>The Cup Of Life - Ricky Martin</t>
+          <t>Castle of Glass</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://youtu.be/CBfSeqfeggI?si=A2RRcM0PSvAsvpHF</t>
+          <t>https://www.youtube.com/watch?v=PPkJeWPP2nM</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>Баста - Выпускной</t>
+          <t>Ava Max - Alone</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://youtu.be/t1-yL-xvklc?si=YZ1rS5hZtleOFOy1</t>
+          <t>https://youtu.be/omvW1cI-3xg?si=zHiFadZaUUpddcgu</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>Wonderful Life</t>
+          <t>Let Her Go (ft Ed Sheeran)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://youtu.be/qzn_6bXdgeE?si=BgnimyD5Frnn_-o-</t>
+          <t>https://youtu.be/HTcL9WkB_wg?si=ILXw9EaPM4GJyx29</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
+          <t>In the end (rmx)</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>https://youtu.be/WNeLUngb-Xg?si=V95nGOt0sMvhQG7c</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>No Time To Die</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>https://youtu.be/GB_S2qFh5lU?si=XDH6CdXhqJq-g321</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Tired Of Being Sorry</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>https://youtu.be/gzFmctgW0s8?si=JfvG_0Sj-IdPWoBY</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>The Cup Of Life - Ricky Martin</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>https://youtu.be/CBfSeqfeggI?si=A2RRcM0PSvAsvpHF</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Баста - Выпускной</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>https://youtu.be/t1-yL-xvklc?si=YZ1rS5hZtleOFOy1</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Wonderful Life</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>https://youtu.be/qzn_6bXdgeE?si=BgnimyD5Frnn_-o-</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" t="inlineStr">
+        <is>
           <t>Shape of My Heart</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="C98" t="inlineStr">
         <is>
           <t>https://youtu.be/pm3rDbXbZRI?si=7TxDuViBxhHGeZoU</t>
         </is>

--- a/songs.xlsx
+++ b/songs.xlsx
@@ -1062,7 +1062,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F98"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
@@ -1096,1162 +1096,1186 @@
     <row r="2">
       <c r="B2" t="inlineStr">
         <is>
-          <t>JEON SOMI DUMB DUMB Lyrics (전소미 DUMB DUMB 가사)</t>
+          <t>Escape (Rosaline OST)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=TfAzTYzBvTo</t>
+          <t>https://www.youtube.com/watch?v=M9b_z-LKE14</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>Zara Larsson - Lush Life</t>
+          <t>JEON SOMI DUMB DUMB Lyrics (전소미 DUMB DUMB 가사)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=tD4HCZe-tew</t>
+          <t>https://www.youtube.com/watch?v=TfAzTYzBvTo</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>Shakira - Can`t Remember to Forget You (Lyrics) ft. Rihanna</t>
+          <t>Zara Larsson - Lush Life</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=i_XM3u1_jZQ</t>
+          <t>https://www.youtube.com/watch?v=tD4HCZe-tew</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Justin Bieber &amp; benny blanco - Lonely (Acoustic)</t>
+          <t>Shakira - Can`t Remember to Forget You (Lyrics) ft. Rihanna</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=Cu5hhxP_prE</t>
+          <t>https://www.youtube.com/watch?v=i_XM3u1_jZQ</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Craig David - Rise &amp; Fall ft. Sting (Official Video)</t>
+          <t>Havana feat. Yaar &amp;amp; Kaiia - Last Night (Lyrics)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=pU2ukeS2JTE</t>
+          <t>https://www.youtube.com/watch?v=i-Yuf5-zTec</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Maroon 5 - Girls Like You ft. Cardi B (Official Music Video)</t>
+          <t>Justin Bieber &amp; benny blanco - Lonely (Acoustic)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=aJOTlE1K90k</t>
+          <t>https://www.youtube.com/watch?v=Cu5hhxP_prE</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Havana feat. Yaar &amp; Kaiia - Big Love (Official Video)</t>
+          <t>Craig David - Rise &amp; Fall ft. Sting (Official Video)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=aVFNJBqj5vU</t>
+          <t>https://www.youtube.com/watch?v=pU2ukeS2JTE</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Edward Maya, Vika Jigulina - Stereo love (Radio Edit) (Lyrics)</t>
+          <t>Maroon 5 - Girls Like You ft. Cardi B (Official Music Video)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=y9Kqb2z9Lzs</t>
+          <t>https://www.youtube.com/watch?v=aJOTlE1K90k</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>Gym Class Heroes: Stereo Hearts ft. Adam Levine</t>
+          <t>Havana feat. Yaar &amp; Kaiia - Big Love (Official Video)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=T3E9Wjbq44E</t>
+          <t>https://www.youtube.com/watch?v=aVFNJBqj5vU</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>Shawn Mendes - It'll Be Okay</t>
+          <t>Edward Maya, Vika Jigulina - Stereo love (Radio Edit) (Lyrics)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://youtu.be/KrgJp7Z1Hv8?si=MOyY5rZzP-7kcfhM</t>
+          <t>https://www.youtube.com/watch?v=y9Kqb2z9Lzs</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>somewhere only we know (Gustixa &amp;amp; Rhianne)</t>
+          <t>Gym Class Heroes: Stereo Hearts ft. Adam Levine</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=92izkAK5OA0</t>
+          <t>https://www.youtube.com/watch?v=T3E9Wjbq44E</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>Duncan Laurence feat. FLETCHER – Arcade</t>
+          <t>Shawn Mendes - It'll Be Okay</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=308v08mFWWc</t>
+          <t>https://youtu.be/KrgJp7Z1Hv8?si=MOyY5rZzP-7kcfhM</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>Bad Liar (cover)</t>
+          <t>somewhere only we know (Gustixa &amp;amp; Rhianne)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://youtu.be/5jfz3q9Z0RY?si=OHvyb7AMtM_wtAXc</t>
+          <t>https://www.youtube.com/watch?v=92izkAK5OA0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>Lana Del Rey - Summertime Sadness (Official Music Video)</t>
+          <t>Duncan Laurence feat. FLETCHER – Arcade</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=TdrL3QxjyVw</t>
+          <t>https://www.youtube.com/watch?v=308v08mFWWc</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>Linkin Park - In The End (Mellen Gi &amp;amp; Tommee Profitt Remix)</t>
+          <t>Bad Liar (cover)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=WNeLUngb-Xg</t>
+          <t>https://youtu.be/5jfz3q9Z0RY?si=OHvyb7AMtM_wtAXc</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>Enya - Only Time (Official 4K Music Video)</t>
+          <t>Lana Del Rey - Summertime Sadness (Official Music Video)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=7wfYIMyS_dI</t>
+          <t>https://www.youtube.com/watch?v=TdrL3QxjyVw</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>Today is a Good Day</t>
+          <t>Linkin Park - In The End (Mellen Gi &amp;amp; Tommee Profitt Remix)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://youtu.be/9L4EjJqrz0c?si=x97RAvAA9IELRZPW</t>
+          <t>https://www.youtube.com/watch?v=WNeLUngb-Xg</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>Heroes Tonight</t>
+          <t>Enya - Only Time (Official 4K Music Video)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=074rfF4RJZc</t>
+          <t>https://www.youtube.com/watch?v=7wfYIMyS_dI</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>Shakira - Hips Dont Lie</t>
+          <t>Today is a Good Day</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://youtu.be/p3pEe6aAJ4k?si=bzrAEs7c-zSwqBUo</t>
+          <t>https://youtu.be/9L4EjJqrz0c?si=x97RAvAA9IELRZPW</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>Shakira - La La La World Cup 2014</t>
+          <t>Heroes Tonight</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://youtu.be/2igups6VdcA?si=N5uu5genirJuWXWC</t>
+          <t>https://www.youtube.com/watch?v=074rfF4RJZc</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>Something Just Like This</t>
+          <t>Shakira - Hips Dont Lie</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://youtu.be/FM7MFYoylVs?si=TrbAGj-JAUeEJ4bd</t>
+          <t>https://youtu.be/p3pEe6aAJ4k?si=bzrAEs7c-zSwqBUo</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>Shakira - Chantaje (letra)</t>
+          <t>Shakira - La La La World Cup 2014</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://youtu.be/J76eQJP3UIQ?si=juYKqG_UCEta8y19</t>
+          <t>https://youtu.be/2igups6VdcA?si=N5uu5genirJuWXWC</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>Zara Larsson – Dont Worry Bout Me</t>
+          <t>Something Just Like This</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://youtu.be/u_tzZd9kIWg?si=y-s2yCVh4U2JLsJJ</t>
+          <t>https://youtu.be/FM7MFYoylVs?si=TrbAGj-JAUeEJ4bd</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>Selena Gomez - Buscando Amor</t>
+          <t>Shakira - Chantaje (letra)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://youtu.be/2P6EExu3H5s?si=f2hv9y52VqxnVOmL</t>
+          <t>https://youtu.be/J76eQJP3UIQ?si=juYKqG_UCEta8y19</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>Shawn Mendes - In My Blood</t>
+          <t>Zara Larsson – Dont Worry Bout Me</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://youtu.be/36tggrpRoTI?si=CiCfVdO8Oepjt4Rs</t>
+          <t>https://youtu.be/u_tzZd9kIWg?si=y-s2yCVh4U2JLsJJ</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>Charlie Puth - We Dont Talk Anymore</t>
+          <t>Selena Gomez - Buscando Amor</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://youtu.be/bpFVJJBgtXY?si=L2NuwOWGhmdKacwg</t>
+          <t>https://youtu.be/2P6EExu3H5s?si=f2hv9y52VqxnVOmL</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>Selena Gomez - Adiós</t>
+          <t>Shawn Mendes - In My Blood</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://youtu.be/9H_368c2Hzw?si=UOBGyTGbUe_fISFW</t>
+          <t>https://youtu.be/36tggrpRoTI?si=CiCfVdO8Oepjt4Rs</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>Charlie Puth - Attention</t>
+          <t>Charlie Puth - We Dont Talk Anymore</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://youtu.be/Oz5JDtkf1as</t>
+          <t>https://youtu.be/bpFVJJBgtXY?si=L2NuwOWGhmdKacwg</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>Bruno Mars - Grenade</t>
+          <t>Selena Gomez - Adiós</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://youtu.be/4YrzJ9RZ9qY</t>
+          <t>https://youtu.be/9H_368c2Hzw?si=UOBGyTGbUe_fISFW</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Let Me Love You</t>
+          <t>Charlie Puth - Attention</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://youtu.be/SMs0GnYze34?si=T-UORWGqJCoitcOM</t>
+          <t>https://youtu.be/Oz5JDtkf1as</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Sweet But Psycho</t>
+          <t>Bruno Mars - Grenade</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://youtu.be/2KBFD0aoZy8</t>
+          <t>https://youtu.be/4YrzJ9RZ9qY</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>Whos laughing now</t>
+          <t>Let Me Love You</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://youtu.be/4JYSgIiSZSA?si=3v9kDuzvYJvWaOsO</t>
+          <t>https://youtu.be/SMs0GnYze34?si=T-UORWGqJCoitcOM</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>Girls Like You</t>
+          <t>Sweet But Psycho</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://youtu.be/aJOTlE1K90k</t>
+          <t>https://youtu.be/2KBFD0aoZy8</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>Camila Cabello - Havana</t>
+          <t>Whos laughing now</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://youtu.be/HCjNJDNzw8Y?si=QjZAi7GPIc4ParOQ</t>
+          <t>https://youtu.be/4JYSgIiSZSA?si=3v9kDuzvYJvWaOsO</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>Maroon 5 - Memories</t>
+          <t>Girls Like You</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=SlPhMPnQ58k&amp;pp=ygUPbWFyb29uIG1lbW9yaWVz</t>
+          <t>https://youtu.be/aJOTlE1K90k</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>post malone - rockstar (feat. 21 savage)</t>
+          <t>Camila Cabello - Havana</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=9lQP9-F8kIQ</t>
+          <t>https://youtu.be/HCjNJDNzw8Y?si=QjZAi7GPIc4ParOQ</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>Drake - Gods plan</t>
+          <t>Maroon 5 - Memories</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=ScfgOVJiu_I</t>
+          <t>https://www.youtube.com/watch?v=SlPhMPnQ58k&amp;pp=ygUPbWFyb29uIG1lbW9yaWVz</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>Dua Lipa - Levitating</t>
+          <t>post malone - rockstar (feat. 21 savage)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=j2c3tR_qfiQ</t>
+          <t>https://www.youtube.com/watch?v=9lQP9-F8kIQ</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>Justin Bieber - Baby</t>
+          <t>Drake - Gods plan</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=khOFw2f4bQY</t>
+          <t>https://www.youtube.com/watch?v=ScfgOVJiu_I</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>State of Grace</t>
+          <t>Dua Lipa - Levitating</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=gr4cqcqnAN0</t>
+          <t>https://www.youtube.com/watch?v=j2c3tR_qfiQ</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Taylor Swift - Back To December</t>
+          <t>Justin Bieber - Baby</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://youtu.be/QUwxKWT6m7U?si=LNPBWKl0DqXIfOP2</t>
+          <t>https://www.youtube.com/watch?v=khOFw2f4bQY</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>As it was</t>
+          <t>State of Grace</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://youtu.be/Qfm6nfz1QNQ?si=3mMjYFpALij7GELl</t>
+          <t>https://www.youtube.com/watch?v=gr4cqcqnAN0</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>Taylor Swift - Begin Again</t>
+          <t>Taylor Swift - Back To December</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://youtu.be/cMPEd8m79Hw?si=9zE5-51p0xGyEgSO</t>
+          <t>https://youtu.be/QUwxKWT6m7U?si=LNPBWKl0DqXIfOP2</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>Sofia</t>
+          <t>As it was</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://youtu.be/ftI_Lp7LAuU?si=aOFT5Ral2-A_2PxG</t>
+          <t>https://youtu.be/Qfm6nfz1QNQ?si=3mMjYFpALij7GELl</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Numb (lyrics|rock)</t>
+          <t>Taylor Swift - Begin Again</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://youtu.be/8P0vKLHbtMg?si=HhXMHjE8vD2yeC_B</t>
+          <t>https://youtu.be/cMPEd8m79Hw?si=9zE5-51p0xGyEgSO</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>For The Rest Of My Life</t>
+          <t>Sofia</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://youtu.be/PHbZ9SXHJwA?si=_7a2Gaka2oPEWrCQ</t>
+          <t>https://youtu.be/ftI_Lp7LAuU?si=aOFT5Ral2-A_2PxG</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>Insha Allah</t>
+          <t>Numb (lyrics|rock)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://youtu.be/8xXJyFNfiy8?si=XkqgGm4hEyZoqJe1</t>
+          <t>https://youtu.be/8P0vKLHbtMg?si=HhXMHjE8vD2yeC_B</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>Hunger Games | Atlas</t>
+          <t>For The Rest Of My Life</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://youtu.be/Lh3TokLzzmw?si=I5CcdBNIEuwDZvVT</t>
+          <t>https://youtu.be/PHbZ9SXHJwA?si=_7a2Gaka2oPEWrCQ</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>Hard To Say Im Sorry</t>
+          <t>Insha Allah</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://youtu.be/XCmOdVia9DE?si=60M6i15UUakuL7DH</t>
+          <t>https://youtu.be/8xXJyFNfiy8?si=XkqgGm4hEyZoqJe1</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>Sasha Sloan - Lie</t>
+          <t>Hunger Games | Atlas</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://youtu.be/AzjTJpzfB8U?si=PHYxAGETm1P1opd0</t>
+          <t>https://youtu.be/Lh3TokLzzmw?si=I5CcdBNIEuwDZvVT</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>Solo Para Ti</t>
+          <t>Hard To Say Im Sorry</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://youtu.be/5D_A4IBWSv4?si=pgNinSqUyLBks6po</t>
+          <t>https://youtu.be/XCmOdVia9DE?si=60M6i15UUakuL7DH</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>Zara Larsson - This Ones For You</t>
+          <t>Sasha Sloan - Lie</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://youtu.be/MoHnffhBwqs?si=_FGX4ucMtOTcD2to</t>
+          <t>https://youtu.be/AzjTJpzfB8U?si=PHYxAGETm1P1opd0</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>La Cintura</t>
+          <t>Solo Para Ti</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://youtu.be/Eg4LUvUjUWI?si=YqeuNfTh_iTuj-dP</t>
+          <t>https://youtu.be/5D_A4IBWSv4?si=pgNinSqUyLBks6po</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>Diamond Heart</t>
+          <t>Zara Larsson - This Ones For You</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://youtu.be/bcHoBDw4G10?si=auASu-G_c9NkS48Z</t>
+          <t>https://youtu.be/MoHnffhBwqs?si=_FGX4ucMtOTcD2to</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>Halsey - Sorry</t>
+          <t>La Cintura</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://youtu.be/CPAoMCo7tNw?si=2rEiXXCn6UcySUVZ</t>
+          <t>https://youtu.be/Eg4LUvUjUWI?si=YqeuNfTh_iTuj-dP</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>Relax, Take it Easy</t>
+          <t>Diamond Heart</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://youtu.be/EVDYmBrl02Q?si=ODB07HFZCtTtg4F4</t>
+          <t>https://youtu.be/bcHoBDw4G10?si=auASu-G_c9NkS48Z</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>Thank you Allah</t>
+          <t>Halsey - Sorry</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://youtu.be/RBrdl0v_anc?si=cu3qNsVyUIIzZGvv</t>
+          <t>https://youtu.be/CPAoMCo7tNw?si=2rEiXXCn6UcySUVZ</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>Let me down slowly</t>
+          <t>Relax, Take it Easy</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://youtu.be/50VNCymT-Cs?si=sEwBTlJCeuqL9LTD</t>
+          <t>https://youtu.be/EVDYmBrl02Q?si=ODB07HFZCtTtg4F4</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>Lonely (acoustic)</t>
+          <t>Thank you Allah</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://youtu.be/Cu5hhxP_prE?si=VRZVlVcLWqk8Dasg</t>
+          <t>https://youtu.be/RBrdl0v_anc?si=cu3qNsVyUIIzZGvv</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>Selfish love</t>
+          <t>Let me down slowly</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://youtu.be/9gqAq6kq5Ek?si=Gro32XWDuPLWzyIv</t>
+          <t>https://youtu.be/50VNCymT-Cs?si=sEwBTlJCeuqL9LTD</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>twenty one pilots: Heathens</t>
+          <t>Lonely (acoustic)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://youtu.be/UprcpdwuwCg?si=O6_fwxx8TOkfjIXi</t>
+          <t>https://youtu.be/Cu5hhxP_prE?si=VRZVlVcLWqk8Dasg</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>Dont Let Me Down</t>
+          <t>Selfish love</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://youtu.be/Io0fBr1XBUA?si=SUp9MdCXlOU_Vf5s</t>
+          <t>https://youtu.be/9gqAq6kq5Ek?si=Gro32XWDuPLWzyIv</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>Someone you loved</t>
+          <t>twenty one pilots: Heathens</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://youtu.be/zABLecsR5UE?si=k3rryaA0P3O8JBhY</t>
+          <t>https://youtu.be/UprcpdwuwCg?si=O6_fwxx8TOkfjIXi</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>Lucid Dreams</t>
+          <t>Dont Let Me Down</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://youtu.be/IfBLD0ATrQA?si=YS-eU-zZX-5dbISw</t>
+          <t>https://youtu.be/Io0fBr1XBUA?si=SUp9MdCXlOU_Vf5s</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>Fed up with us</t>
+          <t>Someone you loved</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://youtu.be/n1NTv6Y4pxs?si=76WA3JI0TGILBHm7</t>
+          <t>https://youtu.be/zABLecsR5UE?si=k3rryaA0P3O8JBhY</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>Skyfall</t>
+          <t>Lucid Dreams</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://youtu.be/DeumyOzKqgI?si=Cok0dR7byK6pN682</t>
+          <t>https://youtu.be/IfBLD0ATrQA?si=YS-eU-zZX-5dbISw</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>Story of my life</t>
+          <t>Fed up with us</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://youtu.be/W-TE_Ys4iwM?si=RViOxRuaXxdz3pmm</t>
+          <t>https://youtu.be/n1NTv6Y4pxs?si=76WA3JI0TGILBHm7</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>Reamonn - Tonight</t>
+          <t>Skyfall</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://youtu.be/jtoncUzV6nA?si=yULSO1-MxnAVV13i</t>
+          <t>https://youtu.be/DeumyOzKqgI?si=Cok0dR7byK6pN682</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>Hymn For The Weekend</t>
+          <t>Story of my life</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=YykjpeuMNEk</t>
+          <t>https://youtu.be/W-TE_Ys4iwM?si=RViOxRuaXxdz3pmm</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>Hell Or High Water</t>
+          <t>Reamonn - Tonight</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://youtu.be/zgDbp5C74sU?si=R8Q5HZq2vzhGL57g</t>
+          <t>https://youtu.be/jtoncUzV6nA?si=yULSO1-MxnAVV13i</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>Lonely</t>
+          <t>Hymn For The Weekend</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://youtu.be/M4hvSgnsnog?si=TtDhe_NUHM1NZaY9</t>
+          <t>https://www.youtube.com/watch?v=YykjpeuMNEk</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>Everything I Need</t>
+          <t>Hell Or High Water</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=9bCp7j3nC30</t>
+          <t>https://youtu.be/zgDbp5C74sU?si=R8Q5HZq2vzhGL57g</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>Love the way you lie</t>
+          <t>Lonely</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://youtu.be/h_-JFUci0BM?si=SHiuHs1NdIjpN0WP</t>
+          <t>https://youtu.be/M4hvSgnsnog?si=TtDhe_NUHM1NZaY9</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>Moving Mountains</t>
+          <t>Everything I Need</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://youtu.be/S_0r3hYg78o?si=Be6GShy7mgRcl9Ha</t>
+          <t>https://www.youtube.com/watch?v=9bCp7j3nC30</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>Numb (cover)</t>
+          <t>Love the way you lie</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://youtu.be/gHp-OjLOG5A?si=0abUDswbKz6rhQeX</t>
+          <t>https://youtu.be/h_-JFUci0BM?si=SHiuHs1NdIjpN0WP</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>Until I found you</t>
+          <t>Moving Mountains</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://youtu.be/oIKuyj2GQtY</t>
+          <t>https://youtu.be/S_0r3hYg78o?si=Be6GShy7mgRcl9Ha</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>Heart is on fire</t>
+          <t>Numb (cover)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://youtu.be/kBqqlW6-99M?si=kXaaJTqhA4PaY6Gd</t>
+          <t>https://youtu.be/gHp-OjLOG5A?si=0abUDswbKz6rhQeX</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>Holes</t>
+          <t>Until I found you</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://youtu.be/DeFWClW7skQ?si=hkIGl-CTTw-FbnLz</t>
+          <t>https://youtu.be/oIKuyj2GQtY</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>Survivors</t>
+          <t>Heart is on fire</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=vN0gaXS8dQE</t>
+          <t>https://youtu.be/kBqqlW6-99M?si=kXaaJTqhA4PaY6Gd</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>Irakliy - Ya s toboy(cover)</t>
+          <t>Holes</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://youtu.be/3WmdZOF5bKk?si=LcXY8Gohxxx4cZSA</t>
+          <t>https://youtu.be/DeFWClW7skQ?si=hkIGl-CTTw-FbnLz</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>Vetrom stat (cover)</t>
+          <t>Survivors</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://youtu.be/kkzEs0gdvZI?si=Z456wgKuJd0aE_PA</t>
+          <t>https://www.youtube.com/watch?v=vN0gaXS8dQE</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>Reamonn - Supergirl</t>
+          <t>Irakliy - Ya s toboy(cover)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://youtu.be/ctmS5XX67Ek?si=NGZGPw0bcpfZciyi</t>
+          <t>https://youtu.be/3WmdZOF5bKk?si=LcXY8Gohxxx4cZSA</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>Another Love</t>
+          <t>Vetrom stat (cover)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://youtu.be/Jkj36B1YuDU?si=Yku5tRPe7avRNr2R</t>
+          <t>https://youtu.be/kkzEs0gdvZI?si=Z456wgKuJd0aE_PA</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>All the little lights</t>
+          <t>Reamonn - Supergirl</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://youtu.be/OkxVxox--Io?si=AE4wj_c_uqTWGrbB</t>
+          <t>https://youtu.be/ctmS5XX67Ek?si=NGZGPw0bcpfZciyi</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>Arcade</t>
+          <t>Another Love</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://youtu.be/Qau6mObfSGM?si=RsrcZ0VUCOHaEwE4</t>
+          <t>https://youtu.be/Jkj36B1YuDU?si=Yku5tRPe7avRNr2R</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>Burito - Po volnam</t>
+          <t>All the little lights</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://youtu.be/jqyJ4xW2gb0?si=VgrA4JKMWkeWDIA5</t>
+          <t>https://youtu.be/OkxVxox--Io?si=AE4wj_c_uqTWGrbB</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>To Be Free</t>
+          <t>Arcade</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://youtu.be/hNd5pILkpSw?si=qiwZxiuS0yeiuOPs</t>
+          <t>https://youtu.be/Qau6mObfSGM?si=RsrcZ0VUCOHaEwE4</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>Castle of Glass</t>
+          <t>Burito - Po volnam</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=PPkJeWPP2nM</t>
+          <t>https://youtu.be/jqyJ4xW2gb0?si=VgrA4JKMWkeWDIA5</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>Ava Max - Alone</t>
+          <t>To Be Free</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://youtu.be/omvW1cI-3xg?si=zHiFadZaUUpddcgu</t>
+          <t>https://youtu.be/hNd5pILkpSw?si=qiwZxiuS0yeiuOPs</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>Let Her Go (ft Ed Sheeran)</t>
+          <t>Castle of Glass</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://youtu.be/HTcL9WkB_wg?si=ILXw9EaPM4GJyx29</t>
+          <t>https://www.youtube.com/watch?v=PPkJeWPP2nM</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>In the end (rmx)</t>
+          <t>Ava Max - Alone</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://youtu.be/WNeLUngb-Xg?si=V95nGOt0sMvhQG7c</t>
+          <t>https://youtu.be/omvW1cI-3xg?si=zHiFadZaUUpddcgu</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>No Time To Die</t>
+          <t>Let Her Go (ft Ed Sheeran)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://youtu.be/GB_S2qFh5lU?si=XDH6CdXhqJq-g321</t>
+          <t>https://youtu.be/HTcL9WkB_wg?si=ILXw9EaPM4GJyx29</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>Tired Of Being Sorry</t>
+          <t>In the end (rmx)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://youtu.be/gzFmctgW0s8?si=JfvG_0Sj-IdPWoBY</t>
+          <t>https://youtu.be/WNeLUngb-Xg?si=V95nGOt0sMvhQG7c</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="B95" t="inlineStr">
         <is>
-          <t>The Cup Of Life - Ricky Martin</t>
+          <t>No Time To Die</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://youtu.be/CBfSeqfeggI?si=A2RRcM0PSvAsvpHF</t>
+          <t>https://youtu.be/GB_S2qFh5lU?si=XDH6CdXhqJq-g321</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>Баста - Выпускной</t>
+          <t>Tired Of Being Sorry</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://youtu.be/t1-yL-xvklc?si=YZ1rS5hZtleOFOy1</t>
+          <t>https://youtu.be/gzFmctgW0s8?si=JfvG_0Sj-IdPWoBY</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="B97" t="inlineStr">
         <is>
-          <t>Wonderful Life</t>
+          <t>The Cup Of Life - Ricky Martin</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://youtu.be/qzn_6bXdgeE?si=BgnimyD5Frnn_-o-</t>
+          <t>https://youtu.be/CBfSeqfeggI?si=A2RRcM0PSvAsvpHF</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
+          <t>Баста - Выпускной</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>https://youtu.be/t1-yL-xvklc?si=YZ1rS5hZtleOFOy1</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Wonderful Life</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>https://youtu.be/qzn_6bXdgeE?si=BgnimyD5Frnn_-o-</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="B100" t="inlineStr">
+        <is>
           <t>Shape of My Heart</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t>https://youtu.be/pm3rDbXbZRI?si=7TxDuViBxhHGeZoU</t>
         </is>

--- a/songs.xlsx
+++ b/songs.xlsx
@@ -1062,7 +1062,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:F108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
@@ -1096,1186 +1096,1282 @@
     <row r="2">
       <c r="B2" t="inlineStr">
         <is>
-          <t>Escape (Rosaline OST)</t>
+          <t>Sunset Sons - I Can`t Wait (Official Audio)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=M9b_z-LKE14</t>
+          <t>https://www.youtube.com/watch?v=JuiegvRQ8dI</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>JEON SOMI DUMB DUMB Lyrics (전소미 DUMB DUMB 가사)</t>
+          <t>Sunset Sons - Loa (Official Audio)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=TfAzTYzBvTo</t>
+          <t>https://www.youtube.com/watch?v=9tXWQy7mMsM</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>Zara Larsson - Lush Life</t>
+          <t>Sunset Sons - Somewhere Maybe (Official Audio)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=tD4HCZe-tew</t>
+          <t>https://www.youtube.com/watch?v=SHapfmLyBp0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Shakira - Can`t Remember to Forget You (Lyrics) ft. Rihanna</t>
+          <t>Sunset Sons - The River</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=i_XM3u1_jZQ</t>
+          <t>https://www.youtube.com/watch?v=MCyEm1fViZQ</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Havana feat. Yaar &amp;amp; Kaiia - Last Night (Lyrics)</t>
+          <t>Sunset Sons - Know My Name (Official Audio)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=i-Yuf5-zTec</t>
+          <t>https://www.youtube.com/watch?v=orMwK0veDVQ</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Justin Bieber &amp; benny blanco - Lonely (Acoustic)</t>
+          <t>Sunset Song - On The Road (Lyrics)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=Cu5hhxP_prE</t>
+          <t>https://www.youtube.com/watch?v=NsKZ-5EDqPA</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Craig David - Rise &amp; Fall ft. Sting (Official Video)</t>
+          <t>Sunset Sons - Remember</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=pU2ukeS2JTE</t>
+          <t>https://www.youtube.com/watch?v=PH_P12XqY9Y</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Maroon 5 - Girls Like You ft. Cardi B (Official Music Video)</t>
+          <t>Craig David - Walking Away [Lyrics] 🎵</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=aJOTlE1K90k</t>
+          <t>https://www.youtube.com/watch?v=8AwamgSDpdA</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>Havana feat. Yaar &amp; Kaiia - Big Love (Official Video)</t>
+          <t>Escape (Rosaline OST)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=aVFNJBqj5vU</t>
+          <t>https://www.youtube.com/watch?v=M9b_z-LKE14</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>Edward Maya, Vika Jigulina - Stereo love (Radio Edit) (Lyrics)</t>
+          <t>JEON SOMI DUMB DUMB Lyrics (전소미 DUMB DUMB 가사)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=y9Kqb2z9Lzs</t>
+          <t>https://www.youtube.com/watch?v=TfAzTYzBvTo</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>Gym Class Heroes: Stereo Hearts ft. Adam Levine</t>
+          <t>Zara Larsson - Lush Life</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=T3E9Wjbq44E</t>
+          <t>https://www.youtube.com/watch?v=tD4HCZe-tew</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>Shawn Mendes - It'll Be Okay</t>
+          <t>Shakira - Can`t Remember to Forget You (Lyrics) ft. Rihanna</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://youtu.be/KrgJp7Z1Hv8?si=MOyY5rZzP-7kcfhM</t>
+          <t>https://www.youtube.com/watch?v=i_XM3u1_jZQ</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>somewhere only we know (Gustixa &amp;amp; Rhianne)</t>
+          <t>Havana feat. Yaar &amp;amp; Kaiia - Last Night (Lyrics)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=92izkAK5OA0</t>
+          <t>https://www.youtube.com/watch?v=i-Yuf5-zTec</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>Duncan Laurence feat. FLETCHER – Arcade</t>
+          <t>Justin Bieber &amp; benny blanco - Lonely (Acoustic)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=308v08mFWWc</t>
+          <t>https://www.youtube.com/watch?v=Cu5hhxP_prE</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>Bad Liar (cover)</t>
+          <t>Craig David - Rise &amp; Fall ft. Sting (Official Video)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://youtu.be/5jfz3q9Z0RY?si=OHvyb7AMtM_wtAXc</t>
+          <t>https://www.youtube.com/watch?v=pU2ukeS2JTE</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>Lana Del Rey - Summertime Sadness (Official Music Video)</t>
+          <t>Maroon 5 - Girls Like You ft. Cardi B (Official Music Video)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=TdrL3QxjyVw</t>
+          <t>https://www.youtube.com/watch?v=aJOTlE1K90k</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>Linkin Park - In The End (Mellen Gi &amp;amp; Tommee Profitt Remix)</t>
+          <t>Havana feat. Yaar &amp; Kaiia - Big Love (Official Video)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=WNeLUngb-Xg</t>
+          <t>https://www.youtube.com/watch?v=aVFNJBqj5vU</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>Enya - Only Time (Official 4K Music Video)</t>
+          <t>Edward Maya, Vika Jigulina - Stereo love (Radio Edit) (Lyrics)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=7wfYIMyS_dI</t>
+          <t>https://www.youtube.com/watch?v=y9Kqb2z9Lzs</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>Today is a Good Day</t>
+          <t>Gym Class Heroes: Stereo Hearts ft. Adam Levine</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://youtu.be/9L4EjJqrz0c?si=x97RAvAA9IELRZPW</t>
+          <t>https://www.youtube.com/watch?v=T3E9Wjbq44E</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>Heroes Tonight</t>
+          <t>Shawn Mendes - It'll Be Okay</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=074rfF4RJZc</t>
+          <t>https://youtu.be/KrgJp7Z1Hv8?si=MOyY5rZzP-7kcfhM</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>Shakira - Hips Dont Lie</t>
+          <t>somewhere only we know (Gustixa &amp;amp; Rhianne)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://youtu.be/p3pEe6aAJ4k?si=bzrAEs7c-zSwqBUo</t>
+          <t>https://www.youtube.com/watch?v=92izkAK5OA0</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>Shakira - La La La World Cup 2014</t>
+          <t>Duncan Laurence feat. FLETCHER – Arcade</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://youtu.be/2igups6VdcA?si=N5uu5genirJuWXWC</t>
+          <t>https://www.youtube.com/watch?v=308v08mFWWc</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>Something Just Like This</t>
+          <t>Bad Liar (cover)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://youtu.be/FM7MFYoylVs?si=TrbAGj-JAUeEJ4bd</t>
+          <t>https://youtu.be/5jfz3q9Z0RY?si=OHvyb7AMtM_wtAXc</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>Shakira - Chantaje (letra)</t>
+          <t>Lana Del Rey - Summertime Sadness (Official Music Video)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://youtu.be/J76eQJP3UIQ?si=juYKqG_UCEta8y19</t>
+          <t>https://www.youtube.com/watch?v=TdrL3QxjyVw</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>Zara Larsson – Dont Worry Bout Me</t>
+          <t>Linkin Park - In The End (Mellen Gi &amp;amp; Tommee Profitt Remix)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://youtu.be/u_tzZd9kIWg?si=y-s2yCVh4U2JLsJJ</t>
+          <t>https://www.youtube.com/watch?v=WNeLUngb-Xg</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>Selena Gomez - Buscando Amor</t>
+          <t>Enya - Only Time (Official 4K Music Video)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://youtu.be/2P6EExu3H5s?si=f2hv9y52VqxnVOmL</t>
+          <t>https://www.youtube.com/watch?v=7wfYIMyS_dI</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>Shawn Mendes - In My Blood</t>
+          <t>Today is a Good Day</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://youtu.be/36tggrpRoTI?si=CiCfVdO8Oepjt4Rs</t>
+          <t>https://youtu.be/9L4EjJqrz0c?si=x97RAvAA9IELRZPW</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>Charlie Puth - We Dont Talk Anymore</t>
+          <t>Heroes Tonight</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://youtu.be/bpFVJJBgtXY?si=L2NuwOWGhmdKacwg</t>
+          <t>https://www.youtube.com/watch?v=074rfF4RJZc</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>Selena Gomez - Adiós</t>
+          <t>Shakira - Hips Dont Lie</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://youtu.be/9H_368c2Hzw?si=UOBGyTGbUe_fISFW</t>
+          <t>https://youtu.be/p3pEe6aAJ4k?si=bzrAEs7c-zSwqBUo</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Charlie Puth - Attention</t>
+          <t>Shakira - La La La World Cup 2014</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://youtu.be/Oz5JDtkf1as</t>
+          <t>https://youtu.be/2igups6VdcA?si=N5uu5genirJuWXWC</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Bruno Mars - Grenade</t>
+          <t>Something Just Like This</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://youtu.be/4YrzJ9RZ9qY</t>
+          <t>https://youtu.be/FM7MFYoylVs?si=TrbAGj-JAUeEJ4bd</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>Let Me Love You</t>
+          <t>Shakira - Chantaje (letra)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://youtu.be/SMs0GnYze34?si=T-UORWGqJCoitcOM</t>
+          <t>https://youtu.be/J76eQJP3UIQ?si=juYKqG_UCEta8y19</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>Sweet But Psycho</t>
+          <t>Zara Larsson – Dont Worry Bout Me</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://youtu.be/2KBFD0aoZy8</t>
+          <t>https://youtu.be/u_tzZd9kIWg?si=y-s2yCVh4U2JLsJJ</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>Whos laughing now</t>
+          <t>Selena Gomez - Buscando Amor</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://youtu.be/4JYSgIiSZSA?si=3v9kDuzvYJvWaOsO</t>
+          <t>https://youtu.be/2P6EExu3H5s?si=f2hv9y52VqxnVOmL</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>Girls Like You</t>
+          <t>Shawn Mendes - In My Blood</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://youtu.be/aJOTlE1K90k</t>
+          <t>https://youtu.be/36tggrpRoTI?si=CiCfVdO8Oepjt4Rs</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>Camila Cabello - Havana</t>
+          <t>Charlie Puth - We Dont Talk Anymore</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://youtu.be/HCjNJDNzw8Y?si=QjZAi7GPIc4ParOQ</t>
+          <t>https://youtu.be/bpFVJJBgtXY?si=L2NuwOWGhmdKacwg</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>Maroon 5 - Memories</t>
+          <t>Selena Gomez - Adiós</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=SlPhMPnQ58k&amp;pp=ygUPbWFyb29uIG1lbW9yaWVz</t>
+          <t>https://youtu.be/9H_368c2Hzw?si=UOBGyTGbUe_fISFW</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>post malone - rockstar (feat. 21 savage)</t>
+          <t>Charlie Puth - Attention</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=9lQP9-F8kIQ</t>
+          <t>https://youtu.be/Oz5JDtkf1as</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>Drake - Gods plan</t>
+          <t>Bruno Mars - Grenade</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=ScfgOVJiu_I</t>
+          <t>https://youtu.be/4YrzJ9RZ9qY</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>Dua Lipa - Levitating</t>
+          <t>Let Me Love You</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=j2c3tR_qfiQ</t>
+          <t>https://youtu.be/SMs0GnYze34?si=T-UORWGqJCoitcOM</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Justin Bieber - Baby</t>
+          <t>Sweet But Psycho</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=khOFw2f4bQY</t>
+          <t>https://youtu.be/2KBFD0aoZy8</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>State of Grace</t>
+          <t>Whos laughing now</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=gr4cqcqnAN0</t>
+          <t>https://youtu.be/4JYSgIiSZSA?si=3v9kDuzvYJvWaOsO</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>Taylor Swift - Back To December</t>
+          <t>Girls Like You</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://youtu.be/QUwxKWT6m7U?si=LNPBWKl0DqXIfOP2</t>
+          <t>https://youtu.be/aJOTlE1K90k</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>As it was</t>
+          <t>Camila Cabello - Havana</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://youtu.be/Qfm6nfz1QNQ?si=3mMjYFpALij7GELl</t>
+          <t>https://youtu.be/HCjNJDNzw8Y?si=QjZAi7GPIc4ParOQ</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Taylor Swift - Begin Again</t>
+          <t>Maroon 5 - Memories</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://youtu.be/cMPEd8m79Hw?si=9zE5-51p0xGyEgSO</t>
+          <t>https://www.youtube.com/watch?v=SlPhMPnQ58k&amp;pp=ygUPbWFyb29uIG1lbW9yaWVz</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>Sofia</t>
+          <t>post malone - rockstar (feat. 21 savage)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://youtu.be/ftI_Lp7LAuU?si=aOFT5Ral2-A_2PxG</t>
+          <t>https://www.youtube.com/watch?v=9lQP9-F8kIQ</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>Numb (lyrics|rock)</t>
+          <t>Drake - Gods plan</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://youtu.be/8P0vKLHbtMg?si=HhXMHjE8vD2yeC_B</t>
+          <t>https://www.youtube.com/watch?v=ScfgOVJiu_I</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>For The Rest Of My Life</t>
+          <t>Dua Lipa - Levitating</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://youtu.be/PHbZ9SXHJwA?si=_7a2Gaka2oPEWrCQ</t>
+          <t>https://www.youtube.com/watch?v=j2c3tR_qfiQ</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>Insha Allah</t>
+          <t>Justin Bieber - Baby</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://youtu.be/8xXJyFNfiy8?si=XkqgGm4hEyZoqJe1</t>
+          <t>https://www.youtube.com/watch?v=khOFw2f4bQY</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>Hunger Games | Atlas</t>
+          <t>State of Grace</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://youtu.be/Lh3TokLzzmw?si=I5CcdBNIEuwDZvVT</t>
+          <t>https://www.youtube.com/watch?v=gr4cqcqnAN0</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>Hard To Say Im Sorry</t>
+          <t>Taylor Swift - Back To December</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://youtu.be/XCmOdVia9DE?si=60M6i15UUakuL7DH</t>
+          <t>https://youtu.be/QUwxKWT6m7U?si=LNPBWKl0DqXIfOP2</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>Sasha Sloan - Lie</t>
+          <t>As it was</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://youtu.be/AzjTJpzfB8U?si=PHYxAGETm1P1opd0</t>
+          <t>https://youtu.be/Qfm6nfz1QNQ?si=3mMjYFpALij7GELl</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>Solo Para Ti</t>
+          <t>Taylor Swift - Begin Again</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://youtu.be/5D_A4IBWSv4?si=pgNinSqUyLBks6po</t>
+          <t>https://youtu.be/cMPEd8m79Hw?si=9zE5-51p0xGyEgSO</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>Zara Larsson - This Ones For You</t>
+          <t>Sofia</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://youtu.be/MoHnffhBwqs?si=_FGX4ucMtOTcD2to</t>
+          <t>https://youtu.be/ftI_Lp7LAuU?si=aOFT5Ral2-A_2PxG</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>La Cintura</t>
+          <t>Numb (lyrics|rock)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://youtu.be/Eg4LUvUjUWI?si=YqeuNfTh_iTuj-dP</t>
+          <t>https://youtu.be/8P0vKLHbtMg?si=HhXMHjE8vD2yeC_B</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>Diamond Heart</t>
+          <t>For The Rest Of My Life</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://youtu.be/bcHoBDw4G10?si=auASu-G_c9NkS48Z</t>
+          <t>https://youtu.be/PHbZ9SXHJwA?si=_7a2Gaka2oPEWrCQ</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>Halsey - Sorry</t>
+          <t>Insha Allah</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://youtu.be/CPAoMCo7tNw?si=2rEiXXCn6UcySUVZ</t>
+          <t>https://youtu.be/8xXJyFNfiy8?si=XkqgGm4hEyZoqJe1</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>Relax, Take it Easy</t>
+          <t>Hunger Games | Atlas</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://youtu.be/EVDYmBrl02Q?si=ODB07HFZCtTtg4F4</t>
+          <t>https://youtu.be/Lh3TokLzzmw?si=I5CcdBNIEuwDZvVT</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>Thank you Allah</t>
+          <t>Hard To Say Im Sorry</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://youtu.be/RBrdl0v_anc?si=cu3qNsVyUIIzZGvv</t>
+          <t>https://youtu.be/XCmOdVia9DE?si=60M6i15UUakuL7DH</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>Let me down slowly</t>
+          <t>Sasha Sloan - Lie</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://youtu.be/50VNCymT-Cs?si=sEwBTlJCeuqL9LTD</t>
+          <t>https://youtu.be/AzjTJpzfB8U?si=PHYxAGETm1P1opd0</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>Lonely (acoustic)</t>
+          <t>Solo Para Ti</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://youtu.be/Cu5hhxP_prE?si=VRZVlVcLWqk8Dasg</t>
+          <t>https://youtu.be/5D_A4IBWSv4?si=pgNinSqUyLBks6po</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>Selfish love</t>
+          <t>Zara Larsson - This Ones For You</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://youtu.be/9gqAq6kq5Ek?si=Gro32XWDuPLWzyIv</t>
+          <t>https://youtu.be/MoHnffhBwqs?si=_FGX4ucMtOTcD2to</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>twenty one pilots: Heathens</t>
+          <t>La Cintura</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://youtu.be/UprcpdwuwCg?si=O6_fwxx8TOkfjIXi</t>
+          <t>https://youtu.be/Eg4LUvUjUWI?si=YqeuNfTh_iTuj-dP</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>Dont Let Me Down</t>
+          <t>Diamond Heart</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://youtu.be/Io0fBr1XBUA?si=SUp9MdCXlOU_Vf5s</t>
+          <t>https://youtu.be/bcHoBDw4G10?si=auASu-G_c9NkS48Z</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>Someone you loved</t>
+          <t>Halsey - Sorry</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://youtu.be/zABLecsR5UE?si=k3rryaA0P3O8JBhY</t>
+          <t>https://youtu.be/CPAoMCo7tNw?si=2rEiXXCn6UcySUVZ</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>Lucid Dreams</t>
+          <t>Relax, Take it Easy</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://youtu.be/IfBLD0ATrQA?si=YS-eU-zZX-5dbISw</t>
+          <t>https://youtu.be/EVDYmBrl02Q?si=ODB07HFZCtTtg4F4</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>Fed up with us</t>
+          <t>Thank you Allah</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://youtu.be/n1NTv6Y4pxs?si=76WA3JI0TGILBHm7</t>
+          <t>https://youtu.be/RBrdl0v_anc?si=cu3qNsVyUIIzZGvv</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>Skyfall</t>
+          <t>Let me down slowly</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://youtu.be/DeumyOzKqgI?si=Cok0dR7byK6pN682</t>
+          <t>https://youtu.be/50VNCymT-Cs?si=sEwBTlJCeuqL9LTD</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>Story of my life</t>
+          <t>Lonely (acoustic)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://youtu.be/W-TE_Ys4iwM?si=RViOxRuaXxdz3pmm</t>
+          <t>https://youtu.be/Cu5hhxP_prE?si=VRZVlVcLWqk8Dasg</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>Reamonn - Tonight</t>
+          <t>Selfish love</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://youtu.be/jtoncUzV6nA?si=yULSO1-MxnAVV13i</t>
+          <t>https://youtu.be/9gqAq6kq5Ek?si=Gro32XWDuPLWzyIv</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>Hymn For The Weekend</t>
+          <t>twenty one pilots: Heathens</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=YykjpeuMNEk</t>
+          <t>https://youtu.be/UprcpdwuwCg?si=O6_fwxx8TOkfjIXi</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>Hell Or High Water</t>
+          <t>Dont Let Me Down</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://youtu.be/zgDbp5C74sU?si=R8Q5HZq2vzhGL57g</t>
+          <t>https://youtu.be/Io0fBr1XBUA?si=SUp9MdCXlOU_Vf5s</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>Lonely</t>
+          <t>Someone you loved</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://youtu.be/M4hvSgnsnog?si=TtDhe_NUHM1NZaY9</t>
+          <t>https://youtu.be/zABLecsR5UE?si=k3rryaA0P3O8JBhY</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>Everything I Need</t>
+          <t>Lucid Dreams</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=9bCp7j3nC30</t>
+          <t>https://youtu.be/IfBLD0ATrQA?si=YS-eU-zZX-5dbISw</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>Love the way you lie</t>
+          <t>Fed up with us</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://youtu.be/h_-JFUci0BM?si=SHiuHs1NdIjpN0WP</t>
+          <t>https://youtu.be/n1NTv6Y4pxs?si=76WA3JI0TGILBHm7</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>Moving Mountains</t>
+          <t>Skyfall</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://youtu.be/S_0r3hYg78o?si=Be6GShy7mgRcl9Ha</t>
+          <t>https://youtu.be/DeumyOzKqgI?si=Cok0dR7byK6pN682</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>Numb (cover)</t>
+          <t>Story of my life</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://youtu.be/gHp-OjLOG5A?si=0abUDswbKz6rhQeX</t>
+          <t>https://youtu.be/W-TE_Ys4iwM?si=RViOxRuaXxdz3pmm</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>Until I found you</t>
+          <t>Reamonn - Tonight</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://youtu.be/oIKuyj2GQtY</t>
+          <t>https://youtu.be/jtoncUzV6nA?si=yULSO1-MxnAVV13i</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>Heart is on fire</t>
+          <t>Hymn For The Weekend</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://youtu.be/kBqqlW6-99M?si=kXaaJTqhA4PaY6Gd</t>
+          <t>https://www.youtube.com/watch?v=YykjpeuMNEk</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>Holes</t>
+          <t>Hell Or High Water</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://youtu.be/DeFWClW7skQ?si=hkIGl-CTTw-FbnLz</t>
+          <t>https://youtu.be/zgDbp5C74sU?si=R8Q5HZq2vzhGL57g</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>Survivors</t>
+          <t>Lonely</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=vN0gaXS8dQE</t>
+          <t>https://youtu.be/M4hvSgnsnog?si=TtDhe_NUHM1NZaY9</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>Irakliy - Ya s toboy(cover)</t>
+          <t>Everything I Need</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://youtu.be/3WmdZOF5bKk?si=LcXY8Gohxxx4cZSA</t>
+          <t>https://www.youtube.com/watch?v=9bCp7j3nC30</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>Vetrom stat (cover)</t>
+          <t>Love the way you lie</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://youtu.be/kkzEs0gdvZI?si=Z456wgKuJd0aE_PA</t>
+          <t>https://youtu.be/h_-JFUci0BM?si=SHiuHs1NdIjpN0WP</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>Reamonn - Supergirl</t>
+          <t>Moving Mountains</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://youtu.be/ctmS5XX67Ek?si=NGZGPw0bcpfZciyi</t>
+          <t>https://youtu.be/S_0r3hYg78o?si=Be6GShy7mgRcl9Ha</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>Another Love</t>
+          <t>Numb (cover)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://youtu.be/Jkj36B1YuDU?si=Yku5tRPe7avRNr2R</t>
+          <t>https://youtu.be/gHp-OjLOG5A?si=0abUDswbKz6rhQeX</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>All the little lights</t>
+          <t>Until I found you</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://youtu.be/OkxVxox--Io?si=AE4wj_c_uqTWGrbB</t>
+          <t>https://youtu.be/oIKuyj2GQtY</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>Arcade</t>
+          <t>Heart is on fire</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://youtu.be/Qau6mObfSGM?si=RsrcZ0VUCOHaEwE4</t>
+          <t>https://youtu.be/kBqqlW6-99M?si=kXaaJTqhA4PaY6Gd</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>Burito - Po volnam</t>
+          <t>Holes</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://youtu.be/jqyJ4xW2gb0?si=VgrA4JKMWkeWDIA5</t>
+          <t>https://youtu.be/DeFWClW7skQ?si=hkIGl-CTTw-FbnLz</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>To Be Free</t>
+          <t>Survivors</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://youtu.be/hNd5pILkpSw?si=qiwZxiuS0yeiuOPs</t>
+          <t>https://www.youtube.com/watch?v=vN0gaXS8dQE</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>Castle of Glass</t>
+          <t>Irakliy - Ya s toboy(cover)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=PPkJeWPP2nM</t>
+          <t>https://youtu.be/3WmdZOF5bKk?si=LcXY8Gohxxx4cZSA</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>Ava Max - Alone</t>
+          <t>Vetrom stat (cover)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://youtu.be/omvW1cI-3xg?si=zHiFadZaUUpddcgu</t>
+          <t>https://youtu.be/kkzEs0gdvZI?si=Z456wgKuJd0aE_PA</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>Let Her Go (ft Ed Sheeran)</t>
+          <t>Reamonn - Supergirl</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://youtu.be/HTcL9WkB_wg?si=ILXw9EaPM4GJyx29</t>
+          <t>https://youtu.be/ctmS5XX67Ek?si=NGZGPw0bcpfZciyi</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>In the end (rmx)</t>
+          <t>Another Love</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://youtu.be/WNeLUngb-Xg?si=V95nGOt0sMvhQG7c</t>
+          <t>https://youtu.be/Jkj36B1YuDU?si=Yku5tRPe7avRNr2R</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="B95" t="inlineStr">
         <is>
-          <t>No Time To Die</t>
+          <t>All the little lights</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://youtu.be/GB_S2qFh5lU?si=XDH6CdXhqJq-g321</t>
+          <t>https://youtu.be/OkxVxox--Io?si=AE4wj_c_uqTWGrbB</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>Tired Of Being Sorry</t>
+          <t>Arcade</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://youtu.be/gzFmctgW0s8?si=JfvG_0Sj-IdPWoBY</t>
+          <t>https://youtu.be/Qau6mObfSGM?si=RsrcZ0VUCOHaEwE4</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="B97" t="inlineStr">
         <is>
-          <t>The Cup Of Life - Ricky Martin</t>
+          <t>Burito - Po volnam</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://youtu.be/CBfSeqfeggI?si=A2RRcM0PSvAsvpHF</t>
+          <t>https://youtu.be/jqyJ4xW2gb0?si=VgrA4JKMWkeWDIA5</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>Баста - Выпускной</t>
+          <t>To Be Free</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://youtu.be/t1-yL-xvklc?si=YZ1rS5hZtleOFOy1</t>
+          <t>https://youtu.be/hNd5pILkpSw?si=qiwZxiuS0yeiuOPs</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="B99" t="inlineStr">
         <is>
-          <t>Wonderful Life</t>
+          <t>Castle of Glass</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://youtu.be/qzn_6bXdgeE?si=BgnimyD5Frnn_-o-</t>
+          <t>https://www.youtube.com/watch?v=PPkJeWPP2nM</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="B100" t="inlineStr">
         <is>
+          <t>Ava Max - Alone</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>https://youtu.be/omvW1cI-3xg?si=zHiFadZaUUpddcgu</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Let Her Go (ft Ed Sheeran)</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>https://youtu.be/HTcL9WkB_wg?si=ILXw9EaPM4GJyx29</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>In the end (rmx)</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>https://youtu.be/WNeLUngb-Xg?si=V95nGOt0sMvhQG7c</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>No Time To Die</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>https://youtu.be/GB_S2qFh5lU?si=XDH6CdXhqJq-g321</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Tired Of Being Sorry</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>https://youtu.be/gzFmctgW0s8?si=JfvG_0Sj-IdPWoBY</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>The Cup Of Life - Ricky Martin</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>https://youtu.be/CBfSeqfeggI?si=A2RRcM0PSvAsvpHF</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Баста - Выпускной</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>https://youtu.be/t1-yL-xvklc?si=YZ1rS5hZtleOFOy1</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Wonderful Life</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>https://youtu.be/qzn_6bXdgeE?si=BgnimyD5Frnn_-o-</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="B108" t="inlineStr">
+        <is>
           <t>Shape of My Heart</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="C108" t="inlineStr">
         <is>
           <t>https://youtu.be/pm3rDbXbZRI?si=7TxDuViBxhHGeZoU</t>
         </is>

--- a/songs.xlsx
+++ b/songs.xlsx
@@ -1062,7 +1062,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F108"/>
+  <dimension ref="A1:F109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
@@ -1096,1282 +1096,1294 @@
     <row r="2">
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sunset Sons - I Can`t Wait (Official Audio)</t>
+          <t>the luka state - bring this all together</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=JuiegvRQ8dI</t>
+          <t>https://www.youtube.com/watch?v=OcJ5EgxsWBg</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sunset Sons - Loa (Official Audio)</t>
+          <t>Sunset Sons - I Can`t Wait (Official Audio)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=9tXWQy7mMsM</t>
+          <t>https://www.youtube.com/watch?v=JuiegvRQ8dI</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sunset Sons - Somewhere Maybe (Official Audio)</t>
+          <t>Sunset Sons - Loa (Official Audio)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=SHapfmLyBp0</t>
+          <t>https://www.youtube.com/watch?v=9tXWQy7mMsM</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sunset Sons - The River</t>
+          <t>Sunset Sons - Somewhere Maybe (Official Audio)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=MCyEm1fViZQ</t>
+          <t>https://www.youtube.com/watch?v=SHapfmLyBp0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sunset Sons - Know My Name (Official Audio)</t>
+          <t>Sunset Sons - The River</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=orMwK0veDVQ</t>
+          <t>https://www.youtube.com/watch?v=MCyEm1fViZQ</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sunset Song - On The Road (Lyrics)</t>
+          <t>Sunset Sons - Know My Name (Official Audio)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=NsKZ-5EDqPA</t>
+          <t>https://www.youtube.com/watch?v=orMwK0veDVQ</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sunset Sons - Remember</t>
+          <t>Sunset Song - On The Road (Lyrics)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=PH_P12XqY9Y</t>
+          <t>https://www.youtube.com/watch?v=NsKZ-5EDqPA</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Craig David - Walking Away [Lyrics] 🎵</t>
+          <t>Sunset Sons - Remember</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=8AwamgSDpdA</t>
+          <t>https://www.youtube.com/watch?v=PH_P12XqY9Y</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>Escape (Rosaline OST)</t>
+          <t>Craig David - Walking Away [Lyrics] 🎵</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=M9b_z-LKE14</t>
+          <t>https://www.youtube.com/watch?v=8AwamgSDpdA</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>JEON SOMI DUMB DUMB Lyrics (전소미 DUMB DUMB 가사)</t>
+          <t>Escape (Rosaline OST)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=TfAzTYzBvTo</t>
+          <t>https://www.youtube.com/watch?v=M9b_z-LKE14</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>Zara Larsson - Lush Life</t>
+          <t>JEON SOMI DUMB DUMB Lyrics (전소미 DUMB DUMB 가사)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=tD4HCZe-tew</t>
+          <t>https://www.youtube.com/watch?v=TfAzTYzBvTo</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>Shakira - Can`t Remember to Forget You (Lyrics) ft. Rihanna</t>
+          <t>Zara Larsson - Lush Life</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=i_XM3u1_jZQ</t>
+          <t>https://www.youtube.com/watch?v=tD4HCZe-tew</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>Havana feat. Yaar &amp;amp; Kaiia - Last Night (Lyrics)</t>
+          <t>Shakira - Can`t Remember to Forget You (Lyrics) ft. Rihanna</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=i-Yuf5-zTec</t>
+          <t>https://www.youtube.com/watch?v=i_XM3u1_jZQ</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>Justin Bieber &amp; benny blanco - Lonely (Acoustic)</t>
+          <t>Havana feat. Yaar &amp;amp; Kaiia - Last Night (Lyrics)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=Cu5hhxP_prE</t>
+          <t>https://www.youtube.com/watch?v=i-Yuf5-zTec</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>Craig David - Rise &amp; Fall ft. Sting (Official Video)</t>
+          <t>Justin Bieber &amp; benny blanco - Lonely (Acoustic)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=pU2ukeS2JTE</t>
+          <t>https://www.youtube.com/watch?v=Cu5hhxP_prE</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>Maroon 5 - Girls Like You ft. Cardi B (Official Music Video)</t>
+          <t>Craig David - Rise &amp; Fall ft. Sting (Official Video)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=aJOTlE1K90k</t>
+          <t>https://www.youtube.com/watch?v=pU2ukeS2JTE</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>Havana feat. Yaar &amp; Kaiia - Big Love (Official Video)</t>
+          <t>Maroon 5 - Girls Like You ft. Cardi B (Official Music Video)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=aVFNJBqj5vU</t>
+          <t>https://www.youtube.com/watch?v=aJOTlE1K90k</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>Edward Maya, Vika Jigulina - Stereo love (Radio Edit) (Lyrics)</t>
+          <t>Havana feat. Yaar &amp; Kaiia - Big Love (Official Video)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=y9Kqb2z9Lzs</t>
+          <t>https://www.youtube.com/watch?v=aVFNJBqj5vU</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>Gym Class Heroes: Stereo Hearts ft. Adam Levine</t>
+          <t>Edward Maya, Vika Jigulina - Stereo love (Radio Edit) (Lyrics)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=T3E9Wjbq44E</t>
+          <t>https://www.youtube.com/watch?v=y9Kqb2z9Lzs</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>Shawn Mendes - It'll Be Okay</t>
+          <t>Gym Class Heroes: Stereo Hearts ft. Adam Levine</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://youtu.be/KrgJp7Z1Hv8?si=MOyY5rZzP-7kcfhM</t>
+          <t>https://www.youtube.com/watch?v=T3E9Wjbq44E</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>somewhere only we know (Gustixa &amp;amp; Rhianne)</t>
+          <t>Shawn Mendes - It'll Be Okay</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=92izkAK5OA0</t>
+          <t>https://youtu.be/KrgJp7Z1Hv8?si=MOyY5rZzP-7kcfhM</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>Duncan Laurence feat. FLETCHER – Arcade</t>
+          <t>somewhere only we know (Gustixa &amp;amp; Rhianne)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=308v08mFWWc</t>
+          <t>https://www.youtube.com/watch?v=92izkAK5OA0</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>Bad Liar (cover)</t>
+          <t>Duncan Laurence feat. FLETCHER – Arcade</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://youtu.be/5jfz3q9Z0RY?si=OHvyb7AMtM_wtAXc</t>
+          <t>https://www.youtube.com/watch?v=308v08mFWWc</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>Lana Del Rey - Summertime Sadness (Official Music Video)</t>
+          <t>Bad Liar (cover)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=TdrL3QxjyVw</t>
+          <t>https://youtu.be/5jfz3q9Z0RY?si=OHvyb7AMtM_wtAXc</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>Linkin Park - In The End (Mellen Gi &amp;amp; Tommee Profitt Remix)</t>
+          <t>Lana Del Rey - Summertime Sadness (Official Music Video)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=WNeLUngb-Xg</t>
+          <t>https://www.youtube.com/watch?v=TdrL3QxjyVw</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>Enya - Only Time (Official 4K Music Video)</t>
+          <t>Linkin Park - In The End (Mellen Gi &amp;amp; Tommee Profitt Remix)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=7wfYIMyS_dI</t>
+          <t>https://www.youtube.com/watch?v=WNeLUngb-Xg</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>Today is a Good Day</t>
+          <t>Enya - Only Time (Official 4K Music Video)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://youtu.be/9L4EjJqrz0c?si=x97RAvAA9IELRZPW</t>
+          <t>https://www.youtube.com/watch?v=7wfYIMyS_dI</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>Heroes Tonight</t>
+          <t>Today is a Good Day</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=074rfF4RJZc</t>
+          <t>https://youtu.be/9L4EjJqrz0c?si=x97RAvAA9IELRZPW</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>Shakira - Hips Dont Lie</t>
+          <t>Heroes Tonight</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://youtu.be/p3pEe6aAJ4k?si=bzrAEs7c-zSwqBUo</t>
+          <t>https://www.youtube.com/watch?v=074rfF4RJZc</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Shakira - La La La World Cup 2014</t>
+          <t>Shakira - Hips Dont Lie</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://youtu.be/2igups6VdcA?si=N5uu5genirJuWXWC</t>
+          <t>https://youtu.be/p3pEe6aAJ4k?si=bzrAEs7c-zSwqBUo</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Something Just Like This</t>
+          <t>Shakira - La La La World Cup 2014</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://youtu.be/FM7MFYoylVs?si=TrbAGj-JAUeEJ4bd</t>
+          <t>https://youtu.be/2igups6VdcA?si=N5uu5genirJuWXWC</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>Shakira - Chantaje (letra)</t>
+          <t>Something Just Like This</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://youtu.be/J76eQJP3UIQ?si=juYKqG_UCEta8y19</t>
+          <t>https://youtu.be/FM7MFYoylVs?si=TrbAGj-JAUeEJ4bd</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>Zara Larsson – Dont Worry Bout Me</t>
+          <t>Shakira - Chantaje (letra)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://youtu.be/u_tzZd9kIWg?si=y-s2yCVh4U2JLsJJ</t>
+          <t>https://youtu.be/J76eQJP3UIQ?si=juYKqG_UCEta8y19</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>Selena Gomez - Buscando Amor</t>
+          <t>Zara Larsson – Dont Worry Bout Me</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://youtu.be/2P6EExu3H5s?si=f2hv9y52VqxnVOmL</t>
+          <t>https://youtu.be/u_tzZd9kIWg?si=y-s2yCVh4U2JLsJJ</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>Shawn Mendes - In My Blood</t>
+          <t>Selena Gomez - Buscando Amor</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://youtu.be/36tggrpRoTI?si=CiCfVdO8Oepjt4Rs</t>
+          <t>https://youtu.be/2P6EExu3H5s?si=f2hv9y52VqxnVOmL</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>Charlie Puth - We Dont Talk Anymore</t>
+          <t>Shawn Mendes - In My Blood</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://youtu.be/bpFVJJBgtXY?si=L2NuwOWGhmdKacwg</t>
+          <t>https://youtu.be/36tggrpRoTI?si=CiCfVdO8Oepjt4Rs</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>Selena Gomez - Adiós</t>
+          <t>Charlie Puth - We Dont Talk Anymore</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://youtu.be/9H_368c2Hzw?si=UOBGyTGbUe_fISFW</t>
+          <t>https://youtu.be/bpFVJJBgtXY?si=L2NuwOWGhmdKacwg</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>Charlie Puth - Attention</t>
+          <t>Selena Gomez - Adiós</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://youtu.be/Oz5JDtkf1as</t>
+          <t>https://youtu.be/9H_368c2Hzw?si=UOBGyTGbUe_fISFW</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>Bruno Mars - Grenade</t>
+          <t>Charlie Puth - Attention</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://youtu.be/4YrzJ9RZ9qY</t>
+          <t>https://youtu.be/Oz5JDtkf1as</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>Let Me Love You</t>
+          <t>Bruno Mars - Grenade</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://youtu.be/SMs0GnYze34?si=T-UORWGqJCoitcOM</t>
+          <t>https://youtu.be/4YrzJ9RZ9qY</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Sweet But Psycho</t>
+          <t>Let Me Love You</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://youtu.be/2KBFD0aoZy8</t>
+          <t>https://youtu.be/SMs0GnYze34?si=T-UORWGqJCoitcOM</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>Whos laughing now</t>
+          <t>Sweet But Psycho</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://youtu.be/4JYSgIiSZSA?si=3v9kDuzvYJvWaOsO</t>
+          <t>https://youtu.be/2KBFD0aoZy8</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>Girls Like You</t>
+          <t>Whos laughing now</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://youtu.be/aJOTlE1K90k</t>
+          <t>https://youtu.be/4JYSgIiSZSA?si=3v9kDuzvYJvWaOsO</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>Camila Cabello - Havana</t>
+          <t>Girls Like You</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://youtu.be/HCjNJDNzw8Y?si=QjZAi7GPIc4ParOQ</t>
+          <t>https://youtu.be/aJOTlE1K90k</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Maroon 5 - Memories</t>
+          <t>Camila Cabello - Havana</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=SlPhMPnQ58k&amp;pp=ygUPbWFyb29uIG1lbW9yaWVz</t>
+          <t>https://youtu.be/HCjNJDNzw8Y?si=QjZAi7GPIc4ParOQ</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>post malone - rockstar (feat. 21 savage)</t>
+          <t>Maroon 5 - Memories</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=9lQP9-F8kIQ</t>
+          <t>https://www.youtube.com/watch?v=SlPhMPnQ58k&amp;pp=ygUPbWFyb29uIG1lbW9yaWVz</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>Drake - Gods plan</t>
+          <t>post malone - rockstar (feat. 21 savage)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=ScfgOVJiu_I</t>
+          <t>https://www.youtube.com/watch?v=9lQP9-F8kIQ</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>Dua Lipa - Levitating</t>
+          <t>Drake - Gods plan</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=j2c3tR_qfiQ</t>
+          <t>https://www.youtube.com/watch?v=ScfgOVJiu_I</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>Justin Bieber - Baby</t>
+          <t>Dua Lipa - Levitating</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=khOFw2f4bQY</t>
+          <t>https://www.youtube.com/watch?v=j2c3tR_qfiQ</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>State of Grace</t>
+          <t>Justin Bieber - Baby</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=gr4cqcqnAN0</t>
+          <t>https://www.youtube.com/watch?v=khOFw2f4bQY</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>Taylor Swift - Back To December</t>
+          <t>State of Grace</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://youtu.be/QUwxKWT6m7U?si=LNPBWKl0DqXIfOP2</t>
+          <t>https://www.youtube.com/watch?v=gr4cqcqnAN0</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>As it was</t>
+          <t>Taylor Swift - Back To December</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://youtu.be/Qfm6nfz1QNQ?si=3mMjYFpALij7GELl</t>
+          <t>https://youtu.be/QUwxKWT6m7U?si=LNPBWKl0DqXIfOP2</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>Taylor Swift - Begin Again</t>
+          <t>As it was</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://youtu.be/cMPEd8m79Hw?si=9zE5-51p0xGyEgSO</t>
+          <t>https://youtu.be/Qfm6nfz1QNQ?si=3mMjYFpALij7GELl</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>Sofia</t>
+          <t>Taylor Swift - Begin Again</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://youtu.be/ftI_Lp7LAuU?si=aOFT5Ral2-A_2PxG</t>
+          <t>https://youtu.be/cMPEd8m79Hw?si=9zE5-51p0xGyEgSO</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>Numb (lyrics|rock)</t>
+          <t>Sofia</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://youtu.be/8P0vKLHbtMg?si=HhXMHjE8vD2yeC_B</t>
+          <t>https://youtu.be/ftI_Lp7LAuU?si=aOFT5Ral2-A_2PxG</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>For The Rest Of My Life</t>
+          <t>Numb (lyrics|rock)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://youtu.be/PHbZ9SXHJwA?si=_7a2Gaka2oPEWrCQ</t>
+          <t>https://youtu.be/8P0vKLHbtMg?si=HhXMHjE8vD2yeC_B</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>Insha Allah</t>
+          <t>For The Rest Of My Life</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://youtu.be/8xXJyFNfiy8?si=XkqgGm4hEyZoqJe1</t>
+          <t>https://youtu.be/PHbZ9SXHJwA?si=_7a2Gaka2oPEWrCQ</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>Hunger Games | Atlas</t>
+          <t>Insha Allah</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://youtu.be/Lh3TokLzzmw?si=I5CcdBNIEuwDZvVT</t>
+          <t>https://youtu.be/8xXJyFNfiy8?si=XkqgGm4hEyZoqJe1</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>Hard To Say Im Sorry</t>
+          <t>Hunger Games | Atlas</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://youtu.be/XCmOdVia9DE?si=60M6i15UUakuL7DH</t>
+          <t>https://youtu.be/Lh3TokLzzmw?si=I5CcdBNIEuwDZvVT</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>Sasha Sloan - Lie</t>
+          <t>Hard To Say Im Sorry</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://youtu.be/AzjTJpzfB8U?si=PHYxAGETm1P1opd0</t>
+          <t>https://youtu.be/XCmOdVia9DE?si=60M6i15UUakuL7DH</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>Solo Para Ti</t>
+          <t>Sasha Sloan - Lie</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://youtu.be/5D_A4IBWSv4?si=pgNinSqUyLBks6po</t>
+          <t>https://youtu.be/AzjTJpzfB8U?si=PHYxAGETm1P1opd0</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>Zara Larsson - This Ones For You</t>
+          <t>Solo Para Ti</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://youtu.be/MoHnffhBwqs?si=_FGX4ucMtOTcD2to</t>
+          <t>https://youtu.be/5D_A4IBWSv4?si=pgNinSqUyLBks6po</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>La Cintura</t>
+          <t>Zara Larsson - This Ones For You</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://youtu.be/Eg4LUvUjUWI?si=YqeuNfTh_iTuj-dP</t>
+          <t>https://youtu.be/MoHnffhBwqs?si=_FGX4ucMtOTcD2to</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>Diamond Heart</t>
+          <t>La Cintura</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://youtu.be/bcHoBDw4G10?si=auASu-G_c9NkS48Z</t>
+          <t>https://youtu.be/Eg4LUvUjUWI?si=YqeuNfTh_iTuj-dP</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>Halsey - Sorry</t>
+          <t>Diamond Heart</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://youtu.be/CPAoMCo7tNw?si=2rEiXXCn6UcySUVZ</t>
+          <t>https://youtu.be/bcHoBDw4G10?si=auASu-G_c9NkS48Z</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>Relax, Take it Easy</t>
+          <t>Halsey - Sorry</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://youtu.be/EVDYmBrl02Q?si=ODB07HFZCtTtg4F4</t>
+          <t>https://youtu.be/CPAoMCo7tNw?si=2rEiXXCn6UcySUVZ</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>Thank you Allah</t>
+          <t>Relax, Take it Easy</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://youtu.be/RBrdl0v_anc?si=cu3qNsVyUIIzZGvv</t>
+          <t>https://youtu.be/EVDYmBrl02Q?si=ODB07HFZCtTtg4F4</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>Let me down slowly</t>
+          <t>Thank you Allah</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://youtu.be/50VNCymT-Cs?si=sEwBTlJCeuqL9LTD</t>
+          <t>https://youtu.be/RBrdl0v_anc?si=cu3qNsVyUIIzZGvv</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>Lonely (acoustic)</t>
+          <t>Let me down slowly</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://youtu.be/Cu5hhxP_prE?si=VRZVlVcLWqk8Dasg</t>
+          <t>https://youtu.be/50VNCymT-Cs?si=sEwBTlJCeuqL9LTD</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>Selfish love</t>
+          <t>Lonely (acoustic)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://youtu.be/9gqAq6kq5Ek?si=Gro32XWDuPLWzyIv</t>
+          <t>https://youtu.be/Cu5hhxP_prE?si=VRZVlVcLWqk8Dasg</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>twenty one pilots: Heathens</t>
+          <t>Selfish love</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://youtu.be/UprcpdwuwCg?si=O6_fwxx8TOkfjIXi</t>
+          <t>https://youtu.be/9gqAq6kq5Ek?si=Gro32XWDuPLWzyIv</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>Dont Let Me Down</t>
+          <t>twenty one pilots: Heathens</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://youtu.be/Io0fBr1XBUA?si=SUp9MdCXlOU_Vf5s</t>
+          <t>https://youtu.be/UprcpdwuwCg?si=O6_fwxx8TOkfjIXi</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>Someone you loved</t>
+          <t>Dont Let Me Down</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://youtu.be/zABLecsR5UE?si=k3rryaA0P3O8JBhY</t>
+          <t>https://youtu.be/Io0fBr1XBUA?si=SUp9MdCXlOU_Vf5s</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>Lucid Dreams</t>
+          <t>Someone you loved</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://youtu.be/IfBLD0ATrQA?si=YS-eU-zZX-5dbISw</t>
+          <t>https://youtu.be/zABLecsR5UE?si=k3rryaA0P3O8JBhY</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>Fed up with us</t>
+          <t>Lucid Dreams</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://youtu.be/n1NTv6Y4pxs?si=76WA3JI0TGILBHm7</t>
+          <t>https://youtu.be/IfBLD0ATrQA?si=YS-eU-zZX-5dbISw</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>Skyfall</t>
+          <t>Fed up with us</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://youtu.be/DeumyOzKqgI?si=Cok0dR7byK6pN682</t>
+          <t>https://youtu.be/n1NTv6Y4pxs?si=76WA3JI0TGILBHm7</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>Story of my life</t>
+          <t>Skyfall</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://youtu.be/W-TE_Ys4iwM?si=RViOxRuaXxdz3pmm</t>
+          <t>https://youtu.be/DeumyOzKqgI?si=Cok0dR7byK6pN682</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>Reamonn - Tonight</t>
+          <t>Story of my life</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://youtu.be/jtoncUzV6nA?si=yULSO1-MxnAVV13i</t>
+          <t>https://youtu.be/W-TE_Ys4iwM?si=RViOxRuaXxdz3pmm</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>Hymn For The Weekend</t>
+          <t>Reamonn - Tonight</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=YykjpeuMNEk</t>
+          <t>https://youtu.be/jtoncUzV6nA?si=yULSO1-MxnAVV13i</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>Hell Or High Water</t>
+          <t>Hymn For The Weekend</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://youtu.be/zgDbp5C74sU?si=R8Q5HZq2vzhGL57g</t>
+          <t>https://www.youtube.com/watch?v=YykjpeuMNEk</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>Lonely</t>
+          <t>Hell Or High Water</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://youtu.be/M4hvSgnsnog?si=TtDhe_NUHM1NZaY9</t>
+          <t>https://youtu.be/zgDbp5C74sU?si=R8Q5HZq2vzhGL57g</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>Everything I Need</t>
+          <t>Lonely</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=9bCp7j3nC30</t>
+          <t>https://youtu.be/M4hvSgnsnog?si=TtDhe_NUHM1NZaY9</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>Love the way you lie</t>
+          <t>Everything I Need</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://youtu.be/h_-JFUci0BM?si=SHiuHs1NdIjpN0WP</t>
+          <t>https://www.youtube.com/watch?v=9bCp7j3nC30</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>Moving Mountains</t>
+          <t>Love the way you lie</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://youtu.be/S_0r3hYg78o?si=Be6GShy7mgRcl9Ha</t>
+          <t>https://youtu.be/h_-JFUci0BM?si=SHiuHs1NdIjpN0WP</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>Numb (cover)</t>
+          <t>Moving Mountains</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://youtu.be/gHp-OjLOG5A?si=0abUDswbKz6rhQeX</t>
+          <t>https://youtu.be/S_0r3hYg78o?si=Be6GShy7mgRcl9Ha</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>Until I found you</t>
+          <t>Numb (cover)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://youtu.be/oIKuyj2GQtY</t>
+          <t>https://youtu.be/gHp-OjLOG5A?si=0abUDswbKz6rhQeX</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>Heart is on fire</t>
+          <t>Until I found you</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://youtu.be/kBqqlW6-99M?si=kXaaJTqhA4PaY6Gd</t>
+          <t>https://youtu.be/oIKuyj2GQtY</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>Holes</t>
+          <t>Heart is on fire</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://youtu.be/DeFWClW7skQ?si=hkIGl-CTTw-FbnLz</t>
+          <t>https://youtu.be/kBqqlW6-99M?si=kXaaJTqhA4PaY6Gd</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>Survivors</t>
+          <t>Holes</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=vN0gaXS8dQE</t>
+          <t>https://youtu.be/DeFWClW7skQ?si=hkIGl-CTTw-FbnLz</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>Irakliy - Ya s toboy(cover)</t>
+          <t>Survivors</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://youtu.be/3WmdZOF5bKk?si=LcXY8Gohxxx4cZSA</t>
+          <t>https://www.youtube.com/watch?v=vN0gaXS8dQE</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>Vetrom stat (cover)</t>
+          <t>Irakliy - Ya s toboy(cover)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://youtu.be/kkzEs0gdvZI?si=Z456wgKuJd0aE_PA</t>
+          <t>https://youtu.be/3WmdZOF5bKk?si=LcXY8Gohxxx4cZSA</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>Reamonn - Supergirl</t>
+          <t>Vetrom stat (cover)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://youtu.be/ctmS5XX67Ek?si=NGZGPw0bcpfZciyi</t>
+          <t>https://youtu.be/kkzEs0gdvZI?si=Z456wgKuJd0aE_PA</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>Another Love</t>
+          <t>Reamonn - Supergirl</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://youtu.be/Jkj36B1YuDU?si=Yku5tRPe7avRNr2R</t>
+          <t>https://youtu.be/ctmS5XX67Ek?si=NGZGPw0bcpfZciyi</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="B95" t="inlineStr">
         <is>
-          <t>All the little lights</t>
+          <t>Another Love</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://youtu.be/OkxVxox--Io?si=AE4wj_c_uqTWGrbB</t>
+          <t>https://youtu.be/Jkj36B1YuDU?si=Yku5tRPe7avRNr2R</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>Arcade</t>
+          <t>All the little lights</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://youtu.be/Qau6mObfSGM?si=RsrcZ0VUCOHaEwE4</t>
+          <t>https://youtu.be/OkxVxox--Io?si=AE4wj_c_uqTWGrbB</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="B97" t="inlineStr">
         <is>
-          <t>Burito - Po volnam</t>
+          <t>Arcade</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://youtu.be/jqyJ4xW2gb0?si=VgrA4JKMWkeWDIA5</t>
+          <t>https://youtu.be/Qau6mObfSGM?si=RsrcZ0VUCOHaEwE4</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>To Be Free</t>
+          <t>Burito - Po volnam</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://youtu.be/hNd5pILkpSw?si=qiwZxiuS0yeiuOPs</t>
+          <t>https://youtu.be/jqyJ4xW2gb0?si=VgrA4JKMWkeWDIA5</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="B99" t="inlineStr">
         <is>
-          <t>Castle of Glass</t>
+          <t>To Be Free</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=PPkJeWPP2nM</t>
+          <t>https://youtu.be/hNd5pILkpSw?si=qiwZxiuS0yeiuOPs</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="B100" t="inlineStr">
         <is>
-          <t>Ava Max - Alone</t>
+          <t>Castle of Glass</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://youtu.be/omvW1cI-3xg?si=zHiFadZaUUpddcgu</t>
+          <t>https://www.youtube.com/watch?v=PPkJeWPP2nM</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>Let Her Go (ft Ed Sheeran)</t>
+          <t>Ava Max - Alone</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://youtu.be/HTcL9WkB_wg?si=ILXw9EaPM4GJyx29</t>
+          <t>https://youtu.be/omvW1cI-3xg?si=zHiFadZaUUpddcgu</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="B102" t="inlineStr">
         <is>
-          <t>In the end (rmx)</t>
+          <t>Let Her Go (ft Ed Sheeran)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>https://youtu.be/WNeLUngb-Xg?si=V95nGOt0sMvhQG7c</t>
+          <t>https://youtu.be/HTcL9WkB_wg?si=ILXw9EaPM4GJyx29</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>No Time To Die</t>
+          <t>In the end (rmx)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>https://youtu.be/GB_S2qFh5lU?si=XDH6CdXhqJq-g321</t>
+          <t>https://youtu.be/WNeLUngb-Xg?si=V95nGOt0sMvhQG7c</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>Tired Of Being Sorry</t>
+          <t>No Time To Die</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>https://youtu.be/gzFmctgW0s8?si=JfvG_0Sj-IdPWoBY</t>
+          <t>https://youtu.be/GB_S2qFh5lU?si=XDH6CdXhqJq-g321</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
-          <t>The Cup Of Life - Ricky Martin</t>
+          <t>Tired Of Being Sorry</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>https://youtu.be/CBfSeqfeggI?si=A2RRcM0PSvAsvpHF</t>
+          <t>https://youtu.be/gzFmctgW0s8?si=JfvG_0Sj-IdPWoBY</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="B106" t="inlineStr">
         <is>
-          <t>Баста - Выпускной</t>
+          <t>The Cup Of Life - Ricky Martin</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>https://youtu.be/t1-yL-xvklc?si=YZ1rS5hZtleOFOy1</t>
+          <t>https://youtu.be/CBfSeqfeggI?si=A2RRcM0PSvAsvpHF</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="B107" t="inlineStr">
         <is>
-          <t>Wonderful Life</t>
+          <t>Баста - Выпускной</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>https://youtu.be/qzn_6bXdgeE?si=BgnimyD5Frnn_-o-</t>
+          <t>https://youtu.be/t1-yL-xvklc?si=YZ1rS5hZtleOFOy1</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="B108" t="inlineStr">
         <is>
+          <t>Wonderful Life</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>https://youtu.be/qzn_6bXdgeE?si=BgnimyD5Frnn_-o-</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="B109" t="inlineStr">
+        <is>
           <t>Shape of My Heart</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="C109" t="inlineStr">
         <is>
           <t>https://youtu.be/pm3rDbXbZRI?si=7TxDuViBxhHGeZoU</t>
         </is>

--- a/songs.xlsx
+++ b/songs.xlsx
@@ -1062,7 +1062,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F109"/>
+  <dimension ref="A1:F112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
@@ -1096,1294 +1096,1330 @@
     <row r="2">
       <c r="B2" t="inlineStr">
         <is>
-          <t>the luka state - bring this all together</t>
+          <t>Tones and I: Dance Monkey (US TV Debut)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=OcJ5EgxsWBg</t>
+          <t>https://www.youtube.com/watch?v=4iQxG8ZjYO8</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sunset Sons - I Can`t Wait (Official Audio)</t>
+          <t>Florida Georgia Line - Simple (Lyrics)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=JuiegvRQ8dI</t>
+          <t>https://www.youtube.com/watch?v=TuTDc9d_9yI</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sunset Sons - Loa (Official Audio)</t>
+          <t>Selena Gomez - Bad Liar</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=9tXWQy7mMsM</t>
+          <t>https://www.youtube.com/watch?v=NZKXkD6EgBk</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sunset Sons - Somewhere Maybe (Official Audio)</t>
+          <t>the luka state - bring this all together</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=SHapfmLyBp0</t>
+          <t>https://www.youtube.com/watch?v=OcJ5EgxsWBg</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sunset Sons - The River</t>
+          <t>Sunset Sons - I Can`t Wait (Official Audio)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=MCyEm1fViZQ</t>
+          <t>https://www.youtube.com/watch?v=JuiegvRQ8dI</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sunset Sons - Know My Name (Official Audio)</t>
+          <t>Sunset Sons - Somewhere Maybe (Official Audio)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=orMwK0veDVQ</t>
+          <t>https://www.youtube.com/watch?v=SHapfmLyBp0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sunset Song - On The Road (Lyrics)</t>
+          <t>Sunset Sons - Know My Name (Official Audio)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=NsKZ-5EDqPA</t>
+          <t>https://www.youtube.com/watch?v=orMwK0veDVQ</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sunset Sons - Remember</t>
+          <t>Sunset Sons - The River</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=PH_P12XqY9Y</t>
+          <t>https://www.youtube.com/watch?v=MCyEm1fViZQ</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>Craig David - Walking Away [Lyrics] 🎵</t>
+          <t>Sunset Sons - Loa (Official Audio)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=8AwamgSDpdA</t>
+          <t>https://www.youtube.com/watch?v=9tXWQy7mMsM</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>Escape (Rosaline OST)</t>
+          <t>Sunset Song - On The Road (Lyrics)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=M9b_z-LKE14</t>
+          <t>https://www.youtube.com/watch?v=NsKZ-5EDqPA</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>JEON SOMI DUMB DUMB Lyrics (전소미 DUMB DUMB 가사)</t>
+          <t>Sunset Sons - Remember</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=TfAzTYzBvTo</t>
+          <t>https://www.youtube.com/watch?v=PH_P12XqY9Y</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>Zara Larsson - Lush Life</t>
+          <t>Craig David - Walking Away [Lyrics] 🎵</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=tD4HCZe-tew</t>
+          <t>https://www.youtube.com/watch?v=8AwamgSDpdA</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>Shakira - Can`t Remember to Forget You (Lyrics) ft. Rihanna</t>
+          <t>Escape (Rosaline OST)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=i_XM3u1_jZQ</t>
+          <t>https://www.youtube.com/watch?v=M9b_z-LKE14</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>Havana feat. Yaar &amp;amp; Kaiia - Last Night (Lyrics)</t>
+          <t>JEON SOMI DUMB DUMB Lyrics (전소미 DUMB DUMB 가사)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=i-Yuf5-zTec</t>
+          <t>https://www.youtube.com/watch?v=TfAzTYzBvTo</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>Justin Bieber &amp; benny blanco - Lonely (Acoustic)</t>
+          <t>Zara Larsson - Lush Life</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=Cu5hhxP_prE</t>
+          <t>https://www.youtube.com/watch?v=tD4HCZe-tew</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>Craig David - Rise &amp; Fall ft. Sting (Official Video)</t>
+          <t>Shakira - Can`t Remember to Forget You (Lyrics) ft. Rihanna</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=pU2ukeS2JTE</t>
+          <t>https://www.youtube.com/watch?v=i_XM3u1_jZQ</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>Maroon 5 - Girls Like You ft. Cardi B (Official Music Video)</t>
+          <t>Havana feat. Yaar &amp;amp; Kaiia - Last Night (Lyrics)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=aJOTlE1K90k</t>
+          <t>https://www.youtube.com/watch?v=i-Yuf5-zTec</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>Havana feat. Yaar &amp; Kaiia - Big Love (Official Video)</t>
+          <t>Justin Bieber &amp; benny blanco - Lonely (Acoustic)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=aVFNJBqj5vU</t>
+          <t>https://www.youtube.com/watch?v=Cu5hhxP_prE</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>Edward Maya, Vika Jigulina - Stereo love (Radio Edit) (Lyrics)</t>
+          <t>Craig David - Rise &amp; Fall ft. Sting (Official Video)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=y9Kqb2z9Lzs</t>
+          <t>https://www.youtube.com/watch?v=pU2ukeS2JTE</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>Gym Class Heroes: Stereo Hearts ft. Adam Levine</t>
+          <t>Maroon 5 - Girls Like You ft. Cardi B (Official Music Video)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=T3E9Wjbq44E</t>
+          <t>https://www.youtube.com/watch?v=aJOTlE1K90k</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>Shawn Mendes - It'll Be Okay</t>
+          <t>Havana feat. Yaar &amp; Kaiia - Big Love (Official Video)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://youtu.be/KrgJp7Z1Hv8?si=MOyY5rZzP-7kcfhM</t>
+          <t>https://www.youtube.com/watch?v=aVFNJBqj5vU</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>somewhere only we know (Gustixa &amp;amp; Rhianne)</t>
+          <t>Edward Maya, Vika Jigulina - Stereo love (Radio Edit) (Lyrics)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=92izkAK5OA0</t>
+          <t>https://www.youtube.com/watch?v=y9Kqb2z9Lzs</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>Duncan Laurence feat. FLETCHER – Arcade</t>
+          <t>Gym Class Heroes: Stereo Hearts ft. Adam Levine</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=308v08mFWWc</t>
+          <t>https://www.youtube.com/watch?v=T3E9Wjbq44E</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>Bad Liar (cover)</t>
+          <t>Shawn Mendes - It'll Be Okay</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://youtu.be/5jfz3q9Z0RY?si=OHvyb7AMtM_wtAXc</t>
+          <t>https://youtu.be/KrgJp7Z1Hv8?si=MOyY5rZzP-7kcfhM</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>Lana Del Rey - Summertime Sadness (Official Music Video)</t>
+          <t>somewhere only we know (Gustixa &amp;amp; Rhianne)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=TdrL3QxjyVw</t>
+          <t>https://www.youtube.com/watch?v=92izkAK5OA0</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>Linkin Park - In The End (Mellen Gi &amp;amp; Tommee Profitt Remix)</t>
+          <t>Duncan Laurence feat. FLETCHER – Arcade</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=WNeLUngb-Xg</t>
+          <t>https://www.youtube.com/watch?v=308v08mFWWc</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>Enya - Only Time (Official 4K Music Video)</t>
+          <t>Bad Liar (cover)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=7wfYIMyS_dI</t>
+          <t>https://youtu.be/5jfz3q9Z0RY?si=OHvyb7AMtM_wtAXc</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>Today is a Good Day</t>
+          <t>Lana Del Rey - Summertime Sadness (Official Music Video)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://youtu.be/9L4EjJqrz0c?si=x97RAvAA9IELRZPW</t>
+          <t>https://www.youtube.com/watch?v=TdrL3QxjyVw</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>Heroes Tonight</t>
+          <t>Linkin Park - In The End (Mellen Gi &amp;amp; Tommee Profitt Remix)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=074rfF4RJZc</t>
+          <t>https://www.youtube.com/watch?v=WNeLUngb-Xg</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Shakira - Hips Dont Lie</t>
+          <t>Enya - Only Time (Official 4K Music Video)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://youtu.be/p3pEe6aAJ4k?si=bzrAEs7c-zSwqBUo</t>
+          <t>https://www.youtube.com/watch?v=7wfYIMyS_dI</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Shakira - La La La World Cup 2014</t>
+          <t>Today is a Good Day</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://youtu.be/2igups6VdcA?si=N5uu5genirJuWXWC</t>
+          <t>https://youtu.be/9L4EjJqrz0c?si=x97RAvAA9IELRZPW</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>Something Just Like This</t>
+          <t>Heroes Tonight</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://youtu.be/FM7MFYoylVs?si=TrbAGj-JAUeEJ4bd</t>
+          <t>https://www.youtube.com/watch?v=074rfF4RJZc</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>Shakira - Chantaje (letra)</t>
+          <t>Shakira - Hips Dont Lie</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://youtu.be/J76eQJP3UIQ?si=juYKqG_UCEta8y19</t>
+          <t>https://youtu.be/p3pEe6aAJ4k?si=bzrAEs7c-zSwqBUo</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>Zara Larsson – Dont Worry Bout Me</t>
+          <t>Shakira - La La La World Cup 2014</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://youtu.be/u_tzZd9kIWg?si=y-s2yCVh4U2JLsJJ</t>
+          <t>https://youtu.be/2igups6VdcA?si=N5uu5genirJuWXWC</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>Selena Gomez - Buscando Amor</t>
+          <t>Something Just Like This</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://youtu.be/2P6EExu3H5s?si=f2hv9y52VqxnVOmL</t>
+          <t>https://youtu.be/FM7MFYoylVs?si=TrbAGj-JAUeEJ4bd</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>Shawn Mendes - In My Blood</t>
+          <t>Shakira - Chantaje (letra)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://youtu.be/36tggrpRoTI?si=CiCfVdO8Oepjt4Rs</t>
+          <t>https://youtu.be/J76eQJP3UIQ?si=juYKqG_UCEta8y19</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>Charlie Puth - We Dont Talk Anymore</t>
+          <t>Zara Larsson – Dont Worry Bout Me</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://youtu.be/bpFVJJBgtXY?si=L2NuwOWGhmdKacwg</t>
+          <t>https://youtu.be/u_tzZd9kIWg?si=y-s2yCVh4U2JLsJJ</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>Selena Gomez - Adiós</t>
+          <t>Selena Gomez - Buscando Amor</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://youtu.be/9H_368c2Hzw?si=UOBGyTGbUe_fISFW</t>
+          <t>https://youtu.be/2P6EExu3H5s?si=f2hv9y52VqxnVOmL</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>Charlie Puth - Attention</t>
+          <t>Shawn Mendes - In My Blood</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://youtu.be/Oz5JDtkf1as</t>
+          <t>https://youtu.be/36tggrpRoTI?si=CiCfVdO8Oepjt4Rs</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>Bruno Mars - Grenade</t>
+          <t>Charlie Puth - We Dont Talk Anymore</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://youtu.be/4YrzJ9RZ9qY</t>
+          <t>https://youtu.be/bpFVJJBgtXY?si=L2NuwOWGhmdKacwg</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Let Me Love You</t>
+          <t>Selena Gomez - Adiós</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://youtu.be/SMs0GnYze34?si=T-UORWGqJCoitcOM</t>
+          <t>https://youtu.be/9H_368c2Hzw?si=UOBGyTGbUe_fISFW</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>Sweet But Psycho</t>
+          <t>Charlie Puth - Attention</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://youtu.be/2KBFD0aoZy8</t>
+          <t>https://youtu.be/Oz5JDtkf1as</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>Whos laughing now</t>
+          <t>Bruno Mars - Grenade</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://youtu.be/4JYSgIiSZSA?si=3v9kDuzvYJvWaOsO</t>
+          <t>https://youtu.be/4YrzJ9RZ9qY</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>Girls Like You</t>
+          <t>Let Me Love You</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://youtu.be/aJOTlE1K90k</t>
+          <t>https://youtu.be/SMs0GnYze34?si=T-UORWGqJCoitcOM</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Camila Cabello - Havana</t>
+          <t>Sweet But Psycho</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://youtu.be/HCjNJDNzw8Y?si=QjZAi7GPIc4ParOQ</t>
+          <t>https://youtu.be/2KBFD0aoZy8</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>Maroon 5 - Memories</t>
+          <t>Whos laughing now</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=SlPhMPnQ58k&amp;pp=ygUPbWFyb29uIG1lbW9yaWVz</t>
+          <t>https://youtu.be/4JYSgIiSZSA?si=3v9kDuzvYJvWaOsO</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>post malone - rockstar (feat. 21 savage)</t>
+          <t>Girls Like You</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=9lQP9-F8kIQ</t>
+          <t>https://youtu.be/aJOTlE1K90k</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>Drake - Gods plan</t>
+          <t>Camila Cabello - Havana</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=ScfgOVJiu_I</t>
+          <t>https://youtu.be/HCjNJDNzw8Y?si=QjZAi7GPIc4ParOQ</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>Dua Lipa - Levitating</t>
+          <t>Maroon 5 - Memories</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=j2c3tR_qfiQ</t>
+          <t>https://www.youtube.com/watch?v=SlPhMPnQ58k&amp;pp=ygUPbWFyb29uIG1lbW9yaWVz</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>Justin Bieber - Baby</t>
+          <t>post malone - rockstar (feat. 21 savage)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=khOFw2f4bQY</t>
+          <t>https://www.youtube.com/watch?v=9lQP9-F8kIQ</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>State of Grace</t>
+          <t>Drake - Gods plan</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=gr4cqcqnAN0</t>
+          <t>https://www.youtube.com/watch?v=ScfgOVJiu_I</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>Taylor Swift - Back To December</t>
+          <t>Dua Lipa - Levitating</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://youtu.be/QUwxKWT6m7U?si=LNPBWKl0DqXIfOP2</t>
+          <t>https://www.youtube.com/watch?v=j2c3tR_qfiQ</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>As it was</t>
+          <t>Justin Bieber - Baby</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://youtu.be/Qfm6nfz1QNQ?si=3mMjYFpALij7GELl</t>
+          <t>https://www.youtube.com/watch?v=khOFw2f4bQY</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>Taylor Swift - Begin Again</t>
+          <t>State of Grace</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://youtu.be/cMPEd8m79Hw?si=9zE5-51p0xGyEgSO</t>
+          <t>https://www.youtube.com/watch?v=gr4cqcqnAN0</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>Sofia</t>
+          <t>Taylor Swift - Back To December</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://youtu.be/ftI_Lp7LAuU?si=aOFT5Ral2-A_2PxG</t>
+          <t>https://youtu.be/QUwxKWT6m7U?si=LNPBWKl0DqXIfOP2</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>Numb (lyrics|rock)</t>
+          <t>As it was</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://youtu.be/8P0vKLHbtMg?si=HhXMHjE8vD2yeC_B</t>
+          <t>https://youtu.be/Qfm6nfz1QNQ?si=3mMjYFpALij7GELl</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>For The Rest Of My Life</t>
+          <t>Taylor Swift - Begin Again</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://youtu.be/PHbZ9SXHJwA?si=_7a2Gaka2oPEWrCQ</t>
+          <t>https://youtu.be/cMPEd8m79Hw?si=9zE5-51p0xGyEgSO</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>Insha Allah</t>
+          <t>Sofia</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://youtu.be/8xXJyFNfiy8?si=XkqgGm4hEyZoqJe1</t>
+          <t>https://youtu.be/ftI_Lp7LAuU?si=aOFT5Ral2-A_2PxG</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>Hunger Games | Atlas</t>
+          <t>Numb (lyrics|rock)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://youtu.be/Lh3TokLzzmw?si=I5CcdBNIEuwDZvVT</t>
+          <t>https://youtu.be/8P0vKLHbtMg?si=HhXMHjE8vD2yeC_B</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>Hard To Say Im Sorry</t>
+          <t>For The Rest Of My Life</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://youtu.be/XCmOdVia9DE?si=60M6i15UUakuL7DH</t>
+          <t>https://youtu.be/PHbZ9SXHJwA?si=_7a2Gaka2oPEWrCQ</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>Sasha Sloan - Lie</t>
+          <t>Insha Allah</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://youtu.be/AzjTJpzfB8U?si=PHYxAGETm1P1opd0</t>
+          <t>https://youtu.be/8xXJyFNfiy8?si=XkqgGm4hEyZoqJe1</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>Solo Para Ti</t>
+          <t>Hunger Games | Atlas</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://youtu.be/5D_A4IBWSv4?si=pgNinSqUyLBks6po</t>
+          <t>https://youtu.be/Lh3TokLzzmw?si=I5CcdBNIEuwDZvVT</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>Zara Larsson - This Ones For You</t>
+          <t>Hard To Say Im Sorry</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://youtu.be/MoHnffhBwqs?si=_FGX4ucMtOTcD2to</t>
+          <t>https://youtu.be/XCmOdVia9DE?si=60M6i15UUakuL7DH</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>La Cintura</t>
+          <t>Sasha Sloan - Lie</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://youtu.be/Eg4LUvUjUWI?si=YqeuNfTh_iTuj-dP</t>
+          <t>https://youtu.be/AzjTJpzfB8U?si=PHYxAGETm1P1opd0</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>Diamond Heart</t>
+          <t>Solo Para Ti</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://youtu.be/bcHoBDw4G10?si=auASu-G_c9NkS48Z</t>
+          <t>https://youtu.be/5D_A4IBWSv4?si=pgNinSqUyLBks6po</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>Halsey - Sorry</t>
+          <t>Zara Larsson - This Ones For You</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://youtu.be/CPAoMCo7tNw?si=2rEiXXCn6UcySUVZ</t>
+          <t>https://youtu.be/MoHnffhBwqs?si=_FGX4ucMtOTcD2to</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>Relax, Take it Easy</t>
+          <t>La Cintura</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://youtu.be/EVDYmBrl02Q?si=ODB07HFZCtTtg4F4</t>
+          <t>https://youtu.be/Eg4LUvUjUWI?si=YqeuNfTh_iTuj-dP</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>Thank you Allah</t>
+          <t>Diamond Heart</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://youtu.be/RBrdl0v_anc?si=cu3qNsVyUIIzZGvv</t>
+          <t>https://youtu.be/bcHoBDw4G10?si=auASu-G_c9NkS48Z</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>Let me down slowly</t>
+          <t>Halsey - Sorry</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://youtu.be/50VNCymT-Cs?si=sEwBTlJCeuqL9LTD</t>
+          <t>https://youtu.be/CPAoMCo7tNw?si=2rEiXXCn6UcySUVZ</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>Lonely (acoustic)</t>
+          <t>Relax, Take it Easy</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://youtu.be/Cu5hhxP_prE?si=VRZVlVcLWqk8Dasg</t>
+          <t>https://youtu.be/EVDYmBrl02Q?si=ODB07HFZCtTtg4F4</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>Selfish love</t>
+          <t>Thank you Allah</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://youtu.be/9gqAq6kq5Ek?si=Gro32XWDuPLWzyIv</t>
+          <t>https://youtu.be/RBrdl0v_anc?si=cu3qNsVyUIIzZGvv</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>twenty one pilots: Heathens</t>
+          <t>Let me down slowly</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://youtu.be/UprcpdwuwCg?si=O6_fwxx8TOkfjIXi</t>
+          <t>https://youtu.be/50VNCymT-Cs?si=sEwBTlJCeuqL9LTD</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>Dont Let Me Down</t>
+          <t>Lonely (acoustic)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://youtu.be/Io0fBr1XBUA?si=SUp9MdCXlOU_Vf5s</t>
+          <t>https://youtu.be/Cu5hhxP_prE?si=VRZVlVcLWqk8Dasg</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>Someone you loved</t>
+          <t>Selfish love</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://youtu.be/zABLecsR5UE?si=k3rryaA0P3O8JBhY</t>
+          <t>https://youtu.be/9gqAq6kq5Ek?si=Gro32XWDuPLWzyIv</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>Lucid Dreams</t>
+          <t>twenty one pilots: Heathens</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://youtu.be/IfBLD0ATrQA?si=YS-eU-zZX-5dbISw</t>
+          <t>https://youtu.be/UprcpdwuwCg?si=O6_fwxx8TOkfjIXi</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>Fed up with us</t>
+          <t>Dont Let Me Down</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://youtu.be/n1NTv6Y4pxs?si=76WA3JI0TGILBHm7</t>
+          <t>https://youtu.be/Io0fBr1XBUA?si=SUp9MdCXlOU_Vf5s</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>Skyfall</t>
+          <t>Someone you loved</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://youtu.be/DeumyOzKqgI?si=Cok0dR7byK6pN682</t>
+          <t>https://youtu.be/zABLecsR5UE?si=k3rryaA0P3O8JBhY</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>Story of my life</t>
+          <t>Lucid Dreams</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://youtu.be/W-TE_Ys4iwM?si=RViOxRuaXxdz3pmm</t>
+          <t>https://youtu.be/IfBLD0ATrQA?si=YS-eU-zZX-5dbISw</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>Reamonn - Tonight</t>
+          <t>Fed up with us</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://youtu.be/jtoncUzV6nA?si=yULSO1-MxnAVV13i</t>
+          <t>https://youtu.be/n1NTv6Y4pxs?si=76WA3JI0TGILBHm7</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>Hymn For The Weekend</t>
+          <t>Skyfall</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=YykjpeuMNEk</t>
+          <t>https://youtu.be/DeumyOzKqgI?si=Cok0dR7byK6pN682</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>Hell Or High Water</t>
+          <t>Story of my life</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://youtu.be/zgDbp5C74sU?si=R8Q5HZq2vzhGL57g</t>
+          <t>https://youtu.be/W-TE_Ys4iwM?si=RViOxRuaXxdz3pmm</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>Lonely</t>
+          <t>Reamonn - Tonight</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://youtu.be/M4hvSgnsnog?si=TtDhe_NUHM1NZaY9</t>
+          <t>https://youtu.be/jtoncUzV6nA?si=yULSO1-MxnAVV13i</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>Everything I Need</t>
+          <t>Hymn For The Weekend</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=9bCp7j3nC30</t>
+          <t>https://www.youtube.com/watch?v=YykjpeuMNEk</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>Love the way you lie</t>
+          <t>Hell Or High Water</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://youtu.be/h_-JFUci0BM?si=SHiuHs1NdIjpN0WP</t>
+          <t>https://youtu.be/zgDbp5C74sU?si=R8Q5HZq2vzhGL57g</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>Moving Mountains</t>
+          <t>Lonely</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://youtu.be/S_0r3hYg78o?si=Be6GShy7mgRcl9Ha</t>
+          <t>https://youtu.be/M4hvSgnsnog?si=TtDhe_NUHM1NZaY9</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>Numb (cover)</t>
+          <t>Everything I Need</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://youtu.be/gHp-OjLOG5A?si=0abUDswbKz6rhQeX</t>
+          <t>https://www.youtube.com/watch?v=9bCp7j3nC30</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>Until I found you</t>
+          <t>Love the way you lie</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://youtu.be/oIKuyj2GQtY</t>
+          <t>https://youtu.be/h_-JFUci0BM?si=SHiuHs1NdIjpN0WP</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>Heart is on fire</t>
+          <t>Moving Mountains</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://youtu.be/kBqqlW6-99M?si=kXaaJTqhA4PaY6Gd</t>
+          <t>https://youtu.be/S_0r3hYg78o?si=Be6GShy7mgRcl9Ha</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>Holes</t>
+          <t>Numb (cover)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://youtu.be/DeFWClW7skQ?si=hkIGl-CTTw-FbnLz</t>
+          <t>https://youtu.be/gHp-OjLOG5A?si=0abUDswbKz6rhQeX</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>Survivors</t>
+          <t>Until I found you</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=vN0gaXS8dQE</t>
+          <t>https://youtu.be/oIKuyj2GQtY</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>Irakliy - Ya s toboy(cover)</t>
+          <t>Heart is on fire</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://youtu.be/3WmdZOF5bKk?si=LcXY8Gohxxx4cZSA</t>
+          <t>https://youtu.be/kBqqlW6-99M?si=kXaaJTqhA4PaY6Gd</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>Vetrom stat (cover)</t>
+          <t>Holes</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://youtu.be/kkzEs0gdvZI?si=Z456wgKuJd0aE_PA</t>
+          <t>https://youtu.be/DeFWClW7skQ?si=hkIGl-CTTw-FbnLz</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>Reamonn - Supergirl</t>
+          <t>Survivors</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://youtu.be/ctmS5XX67Ek?si=NGZGPw0bcpfZciyi</t>
+          <t>https://www.youtube.com/watch?v=vN0gaXS8dQE</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="B95" t="inlineStr">
         <is>
-          <t>Another Love</t>
+          <t>Irakliy - Ya s toboy(cover)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://youtu.be/Jkj36B1YuDU?si=Yku5tRPe7avRNr2R</t>
+          <t>https://youtu.be/3WmdZOF5bKk?si=LcXY8Gohxxx4cZSA</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>All the little lights</t>
+          <t>Vetrom stat (cover)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://youtu.be/OkxVxox--Io?si=AE4wj_c_uqTWGrbB</t>
+          <t>https://youtu.be/kkzEs0gdvZI?si=Z456wgKuJd0aE_PA</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="B97" t="inlineStr">
         <is>
-          <t>Arcade</t>
+          <t>Reamonn - Supergirl</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://youtu.be/Qau6mObfSGM?si=RsrcZ0VUCOHaEwE4</t>
+          <t>https://youtu.be/ctmS5XX67Ek?si=NGZGPw0bcpfZciyi</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>Burito - Po volnam</t>
+          <t>Another Love</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://youtu.be/jqyJ4xW2gb0?si=VgrA4JKMWkeWDIA5</t>
+          <t>https://youtu.be/Jkj36B1YuDU?si=Yku5tRPe7avRNr2R</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="B99" t="inlineStr">
         <is>
-          <t>To Be Free</t>
+          <t>All the little lights</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://youtu.be/hNd5pILkpSw?si=qiwZxiuS0yeiuOPs</t>
+          <t>https://youtu.be/OkxVxox--Io?si=AE4wj_c_uqTWGrbB</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="B100" t="inlineStr">
         <is>
-          <t>Castle of Glass</t>
+          <t>Arcade</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=PPkJeWPP2nM</t>
+          <t>https://youtu.be/Qau6mObfSGM?si=RsrcZ0VUCOHaEwE4</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>Ava Max - Alone</t>
+          <t>Burito - Po volnam</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://youtu.be/omvW1cI-3xg?si=zHiFadZaUUpddcgu</t>
+          <t>https://youtu.be/jqyJ4xW2gb0?si=VgrA4JKMWkeWDIA5</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="B102" t="inlineStr">
         <is>
-          <t>Let Her Go (ft Ed Sheeran)</t>
+          <t>To Be Free</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>https://youtu.be/HTcL9WkB_wg?si=ILXw9EaPM4GJyx29</t>
+          <t>https://youtu.be/hNd5pILkpSw?si=qiwZxiuS0yeiuOPs</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>In the end (rmx)</t>
+          <t>Castle of Glass</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>https://youtu.be/WNeLUngb-Xg?si=V95nGOt0sMvhQG7c</t>
+          <t>https://www.youtube.com/watch?v=PPkJeWPP2nM</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>No Time To Die</t>
+          <t>Ava Max - Alone</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>https://youtu.be/GB_S2qFh5lU?si=XDH6CdXhqJq-g321</t>
+          <t>https://youtu.be/omvW1cI-3xg?si=zHiFadZaUUpddcgu</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
-          <t>Tired Of Being Sorry</t>
+          <t>Let Her Go (ft Ed Sheeran)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>https://youtu.be/gzFmctgW0s8?si=JfvG_0Sj-IdPWoBY</t>
+          <t>https://youtu.be/HTcL9WkB_wg?si=ILXw9EaPM4GJyx29</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="B106" t="inlineStr">
         <is>
-          <t>The Cup Of Life - Ricky Martin</t>
+          <t>In the end (rmx)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>https://youtu.be/CBfSeqfeggI?si=A2RRcM0PSvAsvpHF</t>
+          <t>https://youtu.be/WNeLUngb-Xg?si=V95nGOt0sMvhQG7c</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="B107" t="inlineStr">
         <is>
-          <t>Баста - Выпускной</t>
+          <t>No Time To Die</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>https://youtu.be/t1-yL-xvklc?si=YZ1rS5hZtleOFOy1</t>
+          <t>https://youtu.be/GB_S2qFh5lU?si=XDH6CdXhqJq-g321</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="B108" t="inlineStr">
         <is>
-          <t>Wonderful Life</t>
+          <t>Tired Of Being Sorry</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>https://youtu.be/qzn_6bXdgeE?si=BgnimyD5Frnn_-o-</t>
+          <t>https://youtu.be/gzFmctgW0s8?si=JfvG_0Sj-IdPWoBY</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
+          <t>The Cup Of Life - Ricky Martin</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>https://youtu.be/CBfSeqfeggI?si=A2RRcM0PSvAsvpHF</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Баста - Выпускной</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>https://youtu.be/t1-yL-xvklc?si=YZ1rS5hZtleOFOy1</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Wonderful Life</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>https://youtu.be/qzn_6bXdgeE?si=BgnimyD5Frnn_-o-</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="B112" t="inlineStr">
+        <is>
           <t>Shape of My Heart</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="C112" t="inlineStr">
         <is>
           <t>https://youtu.be/pm3rDbXbZRI?si=7TxDuViBxhHGeZoU</t>
         </is>

--- a/songs.xlsx
+++ b/songs.xlsx
@@ -1062,7 +1062,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F112"/>
+  <dimension ref="A1:F115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
@@ -1096,1330 +1096,1366 @@
     <row r="2">
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tones and I: Dance Monkey (US TV Debut)</t>
+          <t>Feeling Good 🌱 A playlist to lift your mood</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=4iQxG8ZjYO8</t>
+          <t>https://www.youtube.com/watch?v=VYtBO_cDJCU</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>Florida Georgia Line - Simple (Lyrics)</t>
+          <t>falling in love with someone you can't have (a playlist)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=TuTDc9d_9yI</t>
+          <t>https://www.youtube.com/watch?v=_K57AlI62V4</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>Selena Gomez - Bad Liar</t>
+          <t>Best classical music: Beethoven, Mozart, Schubert,Bach...🎶</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=NZKXkD6EgBk</t>
+          <t>https://www.youtube.com/watch?v=DxnDcH2NS5c</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>the luka state - bring this all together</t>
+          <t>Tones and I: Dance Monkey (US TV Debut)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=OcJ5EgxsWBg</t>
+          <t>https://www.youtube.com/watch?v=4iQxG8ZjYO8</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sunset Sons - I Can`t Wait (Official Audio)</t>
+          <t>Florida Georgia Line - Simple (Lyrics)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=JuiegvRQ8dI</t>
+          <t>https://www.youtube.com/watch?v=TuTDc9d_9yI</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sunset Sons - Somewhere Maybe (Official Audio)</t>
+          <t>Selena Gomez - Bad Liar</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=SHapfmLyBp0</t>
+          <t>https://www.youtube.com/watch?v=NZKXkD6EgBk</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sunset Sons - Know My Name (Official Audio)</t>
+          <t>the luka state - bring this all together</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=orMwK0veDVQ</t>
+          <t>https://www.youtube.com/watch?v=OcJ5EgxsWBg</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sunset Sons - The River</t>
+          <t>Sunset Sons - I Can`t Wait (Official Audio)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=MCyEm1fViZQ</t>
+          <t>https://www.youtube.com/watch?v=JuiegvRQ8dI</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sunset Sons - Loa (Official Audio)</t>
+          <t>Sunset Sons - Somewhere Maybe (Official Audio)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=9tXWQy7mMsM</t>
+          <t>https://www.youtube.com/watch?v=SHapfmLyBp0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sunset Song - On The Road (Lyrics)</t>
+          <t>Sunset Sons - Know My Name (Official Audio)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=NsKZ-5EDqPA</t>
+          <t>https://www.youtube.com/watch?v=orMwK0veDVQ</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>Sunset Sons - Remember</t>
+          <t>Sunset Sons - The River</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=PH_P12XqY9Y</t>
+          <t>https://www.youtube.com/watch?v=MCyEm1fViZQ</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>Craig David - Walking Away [Lyrics] 🎵</t>
+          <t>Sunset Sons - Loa (Official Audio)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=8AwamgSDpdA</t>
+          <t>https://www.youtube.com/watch?v=9tXWQy7mMsM</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>Escape (Rosaline OST)</t>
+          <t>Sunset Song - On The Road (Lyrics)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=M9b_z-LKE14</t>
+          <t>https://www.youtube.com/watch?v=NsKZ-5EDqPA</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>JEON SOMI DUMB DUMB Lyrics (전소미 DUMB DUMB 가사)</t>
+          <t>Sunset Sons - Remember</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=TfAzTYzBvTo</t>
+          <t>https://www.youtube.com/watch?v=PH_P12XqY9Y</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>Zara Larsson - Lush Life</t>
+          <t>Craig David - Walking Away [Lyrics] 🎵</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=tD4HCZe-tew</t>
+          <t>https://www.youtube.com/watch?v=8AwamgSDpdA</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>Shakira - Can`t Remember to Forget You (Lyrics) ft. Rihanna</t>
+          <t>Escape (Rosaline OST)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=i_XM3u1_jZQ</t>
+          <t>https://www.youtube.com/watch?v=M9b_z-LKE14</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>Havana feat. Yaar &amp;amp; Kaiia - Last Night (Lyrics)</t>
+          <t>JEON SOMI DUMB DUMB Lyrics (전소미 DUMB DUMB 가사)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=i-Yuf5-zTec</t>
+          <t>https://www.youtube.com/watch?v=TfAzTYzBvTo</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>Justin Bieber &amp; benny blanco - Lonely (Acoustic)</t>
+          <t>Zara Larsson - Lush Life</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=Cu5hhxP_prE</t>
+          <t>https://www.youtube.com/watch?v=tD4HCZe-tew</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>Craig David - Rise &amp; Fall ft. Sting (Official Video)</t>
+          <t>Shakira - Can`t Remember to Forget You (Lyrics) ft. Rihanna</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=pU2ukeS2JTE</t>
+          <t>https://www.youtube.com/watch?v=i_XM3u1_jZQ</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>Maroon 5 - Girls Like You ft. Cardi B (Official Music Video)</t>
+          <t>Havana feat. Yaar &amp;amp; Kaiia - Last Night (Lyrics)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=aJOTlE1K90k</t>
+          <t>https://www.youtube.com/watch?v=i-Yuf5-zTec</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>Havana feat. Yaar &amp; Kaiia - Big Love (Official Video)</t>
+          <t>Justin Bieber &amp; benny blanco - Lonely (Acoustic)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=aVFNJBqj5vU</t>
+          <t>https://www.youtube.com/watch?v=Cu5hhxP_prE</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>Edward Maya, Vika Jigulina - Stereo love (Radio Edit) (Lyrics)</t>
+          <t>Craig David - Rise &amp; Fall ft. Sting (Official Video)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=y9Kqb2z9Lzs</t>
+          <t>https://www.youtube.com/watch?v=pU2ukeS2JTE</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>Gym Class Heroes: Stereo Hearts ft. Adam Levine</t>
+          <t>Maroon 5 - Girls Like You ft. Cardi B (Official Music Video)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=T3E9Wjbq44E</t>
+          <t>https://www.youtube.com/watch?v=aJOTlE1K90k</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>Shawn Mendes - It'll Be Okay</t>
+          <t>Havana feat. Yaar &amp; Kaiia - Big Love (Official Video)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://youtu.be/KrgJp7Z1Hv8?si=MOyY5rZzP-7kcfhM</t>
+          <t>https://www.youtube.com/watch?v=aVFNJBqj5vU</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>somewhere only we know (Gustixa &amp;amp; Rhianne)</t>
+          <t>Edward Maya, Vika Jigulina - Stereo love (Radio Edit) (Lyrics)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=92izkAK5OA0</t>
+          <t>https://www.youtube.com/watch?v=y9Kqb2z9Lzs</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>Duncan Laurence feat. FLETCHER – Arcade</t>
+          <t>Gym Class Heroes: Stereo Hearts ft. Adam Levine</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=308v08mFWWc</t>
+          <t>https://www.youtube.com/watch?v=T3E9Wjbq44E</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>Bad Liar (cover)</t>
+          <t>Shawn Mendes - It'll Be Okay</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://youtu.be/5jfz3q9Z0RY?si=OHvyb7AMtM_wtAXc</t>
+          <t>https://youtu.be/KrgJp7Z1Hv8?si=MOyY5rZzP-7kcfhM</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>Lana Del Rey - Summertime Sadness (Official Music Video)</t>
+          <t>somewhere only we know (Gustixa &amp;amp; Rhianne)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=TdrL3QxjyVw</t>
+          <t>https://www.youtube.com/watch?v=92izkAK5OA0</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>Linkin Park - In The End (Mellen Gi &amp;amp; Tommee Profitt Remix)</t>
+          <t>Duncan Laurence feat. FLETCHER – Arcade</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=WNeLUngb-Xg</t>
+          <t>https://www.youtube.com/watch?v=308v08mFWWc</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Enya - Only Time (Official 4K Music Video)</t>
+          <t>Bad Liar (cover)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=7wfYIMyS_dI</t>
+          <t>https://youtu.be/5jfz3q9Z0RY?si=OHvyb7AMtM_wtAXc</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Today is a Good Day</t>
+          <t>Lana Del Rey - Summertime Sadness (Official Music Video)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://youtu.be/9L4EjJqrz0c?si=x97RAvAA9IELRZPW</t>
+          <t>https://www.youtube.com/watch?v=TdrL3QxjyVw</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>Heroes Tonight</t>
+          <t>Linkin Park - In The End (Mellen Gi &amp;amp; Tommee Profitt Remix)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=074rfF4RJZc</t>
+          <t>https://www.youtube.com/watch?v=WNeLUngb-Xg</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>Shakira - Hips Dont Lie</t>
+          <t>Enya - Only Time (Official 4K Music Video)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://youtu.be/p3pEe6aAJ4k?si=bzrAEs7c-zSwqBUo</t>
+          <t>https://www.youtube.com/watch?v=7wfYIMyS_dI</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>Shakira - La La La World Cup 2014</t>
+          <t>Today is a Good Day</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://youtu.be/2igups6VdcA?si=N5uu5genirJuWXWC</t>
+          <t>https://youtu.be/9L4EjJqrz0c?si=x97RAvAA9IELRZPW</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>Something Just Like This</t>
+          <t>Heroes Tonight</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://youtu.be/FM7MFYoylVs?si=TrbAGj-JAUeEJ4bd</t>
+          <t>https://www.youtube.com/watch?v=074rfF4RJZc</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>Shakira - Chantaje (letra)</t>
+          <t>Shakira - Hips Dont Lie</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://youtu.be/J76eQJP3UIQ?si=juYKqG_UCEta8y19</t>
+          <t>https://youtu.be/p3pEe6aAJ4k?si=bzrAEs7c-zSwqBUo</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>Zara Larsson – Dont Worry Bout Me</t>
+          <t>Shakira - La La La World Cup 2014</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://youtu.be/u_tzZd9kIWg?si=y-s2yCVh4U2JLsJJ</t>
+          <t>https://youtu.be/2igups6VdcA?si=N5uu5genirJuWXWC</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>Selena Gomez - Buscando Amor</t>
+          <t>Something Just Like This</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://youtu.be/2P6EExu3H5s?si=f2hv9y52VqxnVOmL</t>
+          <t>https://youtu.be/FM7MFYoylVs?si=TrbAGj-JAUeEJ4bd</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>Shawn Mendes - In My Blood</t>
+          <t>Shakira - Chantaje (letra)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://youtu.be/36tggrpRoTI?si=CiCfVdO8Oepjt4Rs</t>
+          <t>https://youtu.be/J76eQJP3UIQ?si=juYKqG_UCEta8y19</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>Charlie Puth - We Dont Talk Anymore</t>
+          <t>Zara Larsson – Dont Worry Bout Me</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://youtu.be/bpFVJJBgtXY?si=L2NuwOWGhmdKacwg</t>
+          <t>https://youtu.be/u_tzZd9kIWg?si=y-s2yCVh4U2JLsJJ</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Selena Gomez - Adiós</t>
+          <t>Selena Gomez - Buscando Amor</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://youtu.be/9H_368c2Hzw?si=UOBGyTGbUe_fISFW</t>
+          <t>https://youtu.be/2P6EExu3H5s?si=f2hv9y52VqxnVOmL</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>Charlie Puth - Attention</t>
+          <t>Shawn Mendes - In My Blood</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://youtu.be/Oz5JDtkf1as</t>
+          <t>https://youtu.be/36tggrpRoTI?si=CiCfVdO8Oepjt4Rs</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>Bruno Mars - Grenade</t>
+          <t>Charlie Puth - We Dont Talk Anymore</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://youtu.be/4YrzJ9RZ9qY</t>
+          <t>https://youtu.be/bpFVJJBgtXY?si=L2NuwOWGhmdKacwg</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>Let Me Love You</t>
+          <t>Selena Gomez - Adiós</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://youtu.be/SMs0GnYze34?si=T-UORWGqJCoitcOM</t>
+          <t>https://youtu.be/9H_368c2Hzw?si=UOBGyTGbUe_fISFW</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Sweet But Psycho</t>
+          <t>Charlie Puth - Attention</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://youtu.be/2KBFD0aoZy8</t>
+          <t>https://youtu.be/Oz5JDtkf1as</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>Whos laughing now</t>
+          <t>Bruno Mars - Grenade</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://youtu.be/4JYSgIiSZSA?si=3v9kDuzvYJvWaOsO</t>
+          <t>https://youtu.be/4YrzJ9RZ9qY</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>Girls Like You</t>
+          <t>Let Me Love You</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://youtu.be/aJOTlE1K90k</t>
+          <t>https://youtu.be/SMs0GnYze34?si=T-UORWGqJCoitcOM</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>Camila Cabello - Havana</t>
+          <t>Sweet But Psycho</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://youtu.be/HCjNJDNzw8Y?si=QjZAi7GPIc4ParOQ</t>
+          <t>https://youtu.be/2KBFD0aoZy8</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>Maroon 5 - Memories</t>
+          <t>Whos laughing now</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=SlPhMPnQ58k&amp;pp=ygUPbWFyb29uIG1lbW9yaWVz</t>
+          <t>https://youtu.be/4JYSgIiSZSA?si=3v9kDuzvYJvWaOsO</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>post malone - rockstar (feat. 21 savage)</t>
+          <t>Girls Like You</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=9lQP9-F8kIQ</t>
+          <t>https://youtu.be/aJOTlE1K90k</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>Drake - Gods plan</t>
+          <t>Camila Cabello - Havana</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=ScfgOVJiu_I</t>
+          <t>https://youtu.be/HCjNJDNzw8Y?si=QjZAi7GPIc4ParOQ</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>Dua Lipa - Levitating</t>
+          <t>Maroon 5 - Memories</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=j2c3tR_qfiQ</t>
+          <t>https://www.youtube.com/watch?v=SlPhMPnQ58k&amp;pp=ygUPbWFyb29uIG1lbW9yaWVz</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>Justin Bieber - Baby</t>
+          <t>post malone - rockstar (feat. 21 savage)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=khOFw2f4bQY</t>
+          <t>https://www.youtube.com/watch?v=9lQP9-F8kIQ</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>State of Grace</t>
+          <t>Drake - Gods plan</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=gr4cqcqnAN0</t>
+          <t>https://www.youtube.com/watch?v=ScfgOVJiu_I</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>Taylor Swift - Back To December</t>
+          <t>Dua Lipa - Levitating</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://youtu.be/QUwxKWT6m7U?si=LNPBWKl0DqXIfOP2</t>
+          <t>https://www.youtube.com/watch?v=j2c3tR_qfiQ</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>As it was</t>
+          <t>Justin Bieber - Baby</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://youtu.be/Qfm6nfz1QNQ?si=3mMjYFpALij7GELl</t>
+          <t>https://www.youtube.com/watch?v=khOFw2f4bQY</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>Taylor Swift - Begin Again</t>
+          <t>State of Grace</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://youtu.be/cMPEd8m79Hw?si=9zE5-51p0xGyEgSO</t>
+          <t>https://www.youtube.com/watch?v=gr4cqcqnAN0</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>Sofia</t>
+          <t>Taylor Swift - Back To December</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://youtu.be/ftI_Lp7LAuU?si=aOFT5Ral2-A_2PxG</t>
+          <t>https://youtu.be/QUwxKWT6m7U?si=LNPBWKl0DqXIfOP2</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>Numb (lyrics|rock)</t>
+          <t>As it was</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://youtu.be/8P0vKLHbtMg?si=HhXMHjE8vD2yeC_B</t>
+          <t>https://youtu.be/Qfm6nfz1QNQ?si=3mMjYFpALij7GELl</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>For The Rest Of My Life</t>
+          <t>Taylor Swift - Begin Again</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://youtu.be/PHbZ9SXHJwA?si=_7a2Gaka2oPEWrCQ</t>
+          <t>https://youtu.be/cMPEd8m79Hw?si=9zE5-51p0xGyEgSO</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>Insha Allah</t>
+          <t>Sofia</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://youtu.be/8xXJyFNfiy8?si=XkqgGm4hEyZoqJe1</t>
+          <t>https://youtu.be/ftI_Lp7LAuU?si=aOFT5Ral2-A_2PxG</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>Hunger Games | Atlas</t>
+          <t>Numb (lyrics|rock)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://youtu.be/Lh3TokLzzmw?si=I5CcdBNIEuwDZvVT</t>
+          <t>https://youtu.be/8P0vKLHbtMg?si=HhXMHjE8vD2yeC_B</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>Hard To Say Im Sorry</t>
+          <t>For The Rest Of My Life</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://youtu.be/XCmOdVia9DE?si=60M6i15UUakuL7DH</t>
+          <t>https://youtu.be/PHbZ9SXHJwA?si=_7a2Gaka2oPEWrCQ</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>Sasha Sloan - Lie</t>
+          <t>Insha Allah</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://youtu.be/AzjTJpzfB8U?si=PHYxAGETm1P1opd0</t>
+          <t>https://youtu.be/8xXJyFNfiy8?si=XkqgGm4hEyZoqJe1</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>Solo Para Ti</t>
+          <t>Hunger Games | Atlas</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://youtu.be/5D_A4IBWSv4?si=pgNinSqUyLBks6po</t>
+          <t>https://youtu.be/Lh3TokLzzmw?si=I5CcdBNIEuwDZvVT</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>Zara Larsson - This Ones For You</t>
+          <t>Hard To Say Im Sorry</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://youtu.be/MoHnffhBwqs?si=_FGX4ucMtOTcD2to</t>
+          <t>https://youtu.be/XCmOdVia9DE?si=60M6i15UUakuL7DH</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>La Cintura</t>
+          <t>Sasha Sloan - Lie</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://youtu.be/Eg4LUvUjUWI?si=YqeuNfTh_iTuj-dP</t>
+          <t>https://youtu.be/AzjTJpzfB8U?si=PHYxAGETm1P1opd0</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>Diamond Heart</t>
+          <t>Solo Para Ti</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://youtu.be/bcHoBDw4G10?si=auASu-G_c9NkS48Z</t>
+          <t>https://youtu.be/5D_A4IBWSv4?si=pgNinSqUyLBks6po</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>Halsey - Sorry</t>
+          <t>Zara Larsson - This Ones For You</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://youtu.be/CPAoMCo7tNw?si=2rEiXXCn6UcySUVZ</t>
+          <t>https://youtu.be/MoHnffhBwqs?si=_FGX4ucMtOTcD2to</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>Relax, Take it Easy</t>
+          <t>La Cintura</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://youtu.be/EVDYmBrl02Q?si=ODB07HFZCtTtg4F4</t>
+          <t>https://youtu.be/Eg4LUvUjUWI?si=YqeuNfTh_iTuj-dP</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>Thank you Allah</t>
+          <t>Diamond Heart</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://youtu.be/RBrdl0v_anc?si=cu3qNsVyUIIzZGvv</t>
+          <t>https://youtu.be/bcHoBDw4G10?si=auASu-G_c9NkS48Z</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>Let me down slowly</t>
+          <t>Halsey - Sorry</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://youtu.be/50VNCymT-Cs?si=sEwBTlJCeuqL9LTD</t>
+          <t>https://youtu.be/CPAoMCo7tNw?si=2rEiXXCn6UcySUVZ</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>Lonely (acoustic)</t>
+          <t>Relax, Take it Easy</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://youtu.be/Cu5hhxP_prE?si=VRZVlVcLWqk8Dasg</t>
+          <t>https://youtu.be/EVDYmBrl02Q?si=ODB07HFZCtTtg4F4</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>Selfish love</t>
+          <t>Thank you Allah</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://youtu.be/9gqAq6kq5Ek?si=Gro32XWDuPLWzyIv</t>
+          <t>https://youtu.be/RBrdl0v_anc?si=cu3qNsVyUIIzZGvv</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>twenty one pilots: Heathens</t>
+          <t>Let me down slowly</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://youtu.be/UprcpdwuwCg?si=O6_fwxx8TOkfjIXi</t>
+          <t>https://youtu.be/50VNCymT-Cs?si=sEwBTlJCeuqL9LTD</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>Dont Let Me Down</t>
+          <t>Lonely (acoustic)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://youtu.be/Io0fBr1XBUA?si=SUp9MdCXlOU_Vf5s</t>
+          <t>https://youtu.be/Cu5hhxP_prE?si=VRZVlVcLWqk8Dasg</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>Someone you loved</t>
+          <t>Selfish love</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://youtu.be/zABLecsR5UE?si=k3rryaA0P3O8JBhY</t>
+          <t>https://youtu.be/9gqAq6kq5Ek?si=Gro32XWDuPLWzyIv</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>Lucid Dreams</t>
+          <t>twenty one pilots: Heathens</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://youtu.be/IfBLD0ATrQA?si=YS-eU-zZX-5dbISw</t>
+          <t>https://youtu.be/UprcpdwuwCg?si=O6_fwxx8TOkfjIXi</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>Fed up with us</t>
+          <t>Dont Let Me Down</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://youtu.be/n1NTv6Y4pxs?si=76WA3JI0TGILBHm7</t>
+          <t>https://youtu.be/Io0fBr1XBUA?si=SUp9MdCXlOU_Vf5s</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>Skyfall</t>
+          <t>Someone you loved</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://youtu.be/DeumyOzKqgI?si=Cok0dR7byK6pN682</t>
+          <t>https://youtu.be/zABLecsR5UE?si=k3rryaA0P3O8JBhY</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>Story of my life</t>
+          <t>Lucid Dreams</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://youtu.be/W-TE_Ys4iwM?si=RViOxRuaXxdz3pmm</t>
+          <t>https://youtu.be/IfBLD0ATrQA?si=YS-eU-zZX-5dbISw</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>Reamonn - Tonight</t>
+          <t>Fed up with us</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://youtu.be/jtoncUzV6nA?si=yULSO1-MxnAVV13i</t>
+          <t>https://youtu.be/n1NTv6Y4pxs?si=76WA3JI0TGILBHm7</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>Hymn For The Weekend</t>
+          <t>Skyfall</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=YykjpeuMNEk</t>
+          <t>https://youtu.be/DeumyOzKqgI?si=Cok0dR7byK6pN682</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>Hell Or High Water</t>
+          <t>Story of my life</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://youtu.be/zgDbp5C74sU?si=R8Q5HZq2vzhGL57g</t>
+          <t>https://youtu.be/W-TE_Ys4iwM?si=RViOxRuaXxdz3pmm</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>Lonely</t>
+          <t>Reamonn - Tonight</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://youtu.be/M4hvSgnsnog?si=TtDhe_NUHM1NZaY9</t>
+          <t>https://youtu.be/jtoncUzV6nA?si=yULSO1-MxnAVV13i</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>Everything I Need</t>
+          <t>Hymn For The Weekend</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=9bCp7j3nC30</t>
+          <t>https://www.youtube.com/watch?v=YykjpeuMNEk</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>Love the way you lie</t>
+          <t>Hell Or High Water</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://youtu.be/h_-JFUci0BM?si=SHiuHs1NdIjpN0WP</t>
+          <t>https://youtu.be/zgDbp5C74sU?si=R8Q5HZq2vzhGL57g</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>Moving Mountains</t>
+          <t>Lonely</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://youtu.be/S_0r3hYg78o?si=Be6GShy7mgRcl9Ha</t>
+          <t>https://youtu.be/M4hvSgnsnog?si=TtDhe_NUHM1NZaY9</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>Numb (cover)</t>
+          <t>Everything I Need</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://youtu.be/gHp-OjLOG5A?si=0abUDswbKz6rhQeX</t>
+          <t>https://www.youtube.com/watch?v=9bCp7j3nC30</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>Until I found you</t>
+          <t>Love the way you lie</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://youtu.be/oIKuyj2GQtY</t>
+          <t>https://youtu.be/h_-JFUci0BM?si=SHiuHs1NdIjpN0WP</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>Heart is on fire</t>
+          <t>Moving Mountains</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://youtu.be/kBqqlW6-99M?si=kXaaJTqhA4PaY6Gd</t>
+          <t>https://youtu.be/S_0r3hYg78o?si=Be6GShy7mgRcl9Ha</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>Holes</t>
+          <t>Numb (cover)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://youtu.be/DeFWClW7skQ?si=hkIGl-CTTw-FbnLz</t>
+          <t>https://youtu.be/gHp-OjLOG5A?si=0abUDswbKz6rhQeX</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>Survivors</t>
+          <t>Until I found you</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=vN0gaXS8dQE</t>
+          <t>https://youtu.be/oIKuyj2GQtY</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="B95" t="inlineStr">
         <is>
-          <t>Irakliy - Ya s toboy(cover)</t>
+          <t>Heart is on fire</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://youtu.be/3WmdZOF5bKk?si=LcXY8Gohxxx4cZSA</t>
+          <t>https://youtu.be/kBqqlW6-99M?si=kXaaJTqhA4PaY6Gd</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>Vetrom stat (cover)</t>
+          <t>Holes</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://youtu.be/kkzEs0gdvZI?si=Z456wgKuJd0aE_PA</t>
+          <t>https://youtu.be/DeFWClW7skQ?si=hkIGl-CTTw-FbnLz</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="B97" t="inlineStr">
         <is>
-          <t>Reamonn - Supergirl</t>
+          <t>Survivors</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://youtu.be/ctmS5XX67Ek?si=NGZGPw0bcpfZciyi</t>
+          <t>https://www.youtube.com/watch?v=vN0gaXS8dQE</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>Another Love</t>
+          <t>Irakliy - Ya s toboy(cover)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://youtu.be/Jkj36B1YuDU?si=Yku5tRPe7avRNr2R</t>
+          <t>https://youtu.be/3WmdZOF5bKk?si=LcXY8Gohxxx4cZSA</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="B99" t="inlineStr">
         <is>
-          <t>All the little lights</t>
+          <t>Vetrom stat (cover)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://youtu.be/OkxVxox--Io?si=AE4wj_c_uqTWGrbB</t>
+          <t>https://youtu.be/kkzEs0gdvZI?si=Z456wgKuJd0aE_PA</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="B100" t="inlineStr">
         <is>
-          <t>Arcade</t>
+          <t>Reamonn - Supergirl</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://youtu.be/Qau6mObfSGM?si=RsrcZ0VUCOHaEwE4</t>
+          <t>https://youtu.be/ctmS5XX67Ek?si=NGZGPw0bcpfZciyi</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>Burito - Po volnam</t>
+          <t>Another Love</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://youtu.be/jqyJ4xW2gb0?si=VgrA4JKMWkeWDIA5</t>
+          <t>https://youtu.be/Jkj36B1YuDU?si=Yku5tRPe7avRNr2R</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="B102" t="inlineStr">
         <is>
-          <t>To Be Free</t>
+          <t>All the little lights</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>https://youtu.be/hNd5pILkpSw?si=qiwZxiuS0yeiuOPs</t>
+          <t>https://youtu.be/OkxVxox--Io?si=AE4wj_c_uqTWGrbB</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>Castle of Glass</t>
+          <t>Arcade</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=PPkJeWPP2nM</t>
+          <t>https://youtu.be/Qau6mObfSGM?si=RsrcZ0VUCOHaEwE4</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>Ava Max - Alone</t>
+          <t>Burito - Po volnam</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>https://youtu.be/omvW1cI-3xg?si=zHiFadZaUUpddcgu</t>
+          <t>https://youtu.be/jqyJ4xW2gb0?si=VgrA4JKMWkeWDIA5</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
-          <t>Let Her Go (ft Ed Sheeran)</t>
+          <t>To Be Free</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>https://youtu.be/HTcL9WkB_wg?si=ILXw9EaPM4GJyx29</t>
+          <t>https://youtu.be/hNd5pILkpSw?si=qiwZxiuS0yeiuOPs</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="B106" t="inlineStr">
         <is>
-          <t>In the end (rmx)</t>
+          <t>Castle of Glass</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>https://youtu.be/WNeLUngb-Xg?si=V95nGOt0sMvhQG7c</t>
+          <t>https://www.youtube.com/watch?v=PPkJeWPP2nM</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="B107" t="inlineStr">
         <is>
-          <t>No Time To Die</t>
+          <t>Ava Max - Alone</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>https://youtu.be/GB_S2qFh5lU?si=XDH6CdXhqJq-g321</t>
+          <t>https://youtu.be/omvW1cI-3xg?si=zHiFadZaUUpddcgu</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="B108" t="inlineStr">
         <is>
-          <t>Tired Of Being Sorry</t>
+          <t>Let Her Go (ft Ed Sheeran)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>https://youtu.be/gzFmctgW0s8?si=JfvG_0Sj-IdPWoBY</t>
+          <t>https://youtu.be/HTcL9WkB_wg?si=ILXw9EaPM4GJyx29</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>The Cup Of Life - Ricky Martin</t>
+          <t>In the end (rmx)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>https://youtu.be/CBfSeqfeggI?si=A2RRcM0PSvAsvpHF</t>
+          <t>https://youtu.be/WNeLUngb-Xg?si=V95nGOt0sMvhQG7c</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>Баста - Выпускной</t>
+          <t>No Time To Die</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>https://youtu.be/t1-yL-xvklc?si=YZ1rS5hZtleOFOy1</t>
+          <t>https://youtu.be/GB_S2qFh5lU?si=XDH6CdXhqJq-g321</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="B111" t="inlineStr">
         <is>
-          <t>Wonderful Life</t>
+          <t>Tired Of Being Sorry</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>https://youtu.be/qzn_6bXdgeE?si=BgnimyD5Frnn_-o-</t>
+          <t>https://youtu.be/gzFmctgW0s8?si=JfvG_0Sj-IdPWoBY</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
+          <t>The Cup Of Life - Ricky Martin</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>https://youtu.be/CBfSeqfeggI?si=A2RRcM0PSvAsvpHF</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Баста - Выпускной</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>https://youtu.be/t1-yL-xvklc?si=YZ1rS5hZtleOFOy1</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Wonderful Life</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>https://youtu.be/qzn_6bXdgeE?si=BgnimyD5Frnn_-o-</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="B115" t="inlineStr">
+        <is>
           <t>Shape of My Heart</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="C115" t="inlineStr">
         <is>
           <t>https://youtu.be/pm3rDbXbZRI?si=7TxDuViBxhHGeZoU</t>
         </is>

--- a/songs.xlsx
+++ b/songs.xlsx
@@ -1132,12 +1132,12 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tones and I: Dance Monkey (US TV Debut)</t>
+          <t>Selena Gomez - Bad Liar</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=4iQxG8ZjYO8</t>
+          <t>https://www.youtube.com/watch?v=NZKXkD6EgBk</t>
         </is>
       </c>
     </row>
@@ -1156,12 +1156,12 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Selena Gomez - Bad Liar</t>
+          <t>Tones and I: Dance Monkey (US TV Debut)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=NZKXkD6EgBk</t>
+          <t>https://www.youtube.com/watch?v=4iQxG8ZjYO8</t>
         </is>
       </c>
     </row>

--- a/songs.xlsx
+++ b/songs.xlsx
@@ -1062,7 +1062,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F115"/>
+  <dimension ref="A1:F118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
@@ -1096,1366 +1096,1402 @@
     <row r="2">
       <c r="B2" t="inlineStr">
         <is>
-          <t>Feeling Good 🌱 A playlist to lift your mood</t>
+          <t>Broken Angel (Albert Vishi ft. Taulant Sllamniku Cover)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=VYtBO_cDJCU</t>
+          <t>https://www.youtube.com/watch?v=5miHGQVFJm0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>falling in love with someone you can't have (a playlist)</t>
+          <t>Laura Pausini - It’s Not Goodbye</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=_K57AlI62V4</t>
+          <t>https://www.youtube.com/watch?v=onYQkI8S1UY</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>Best classical music: Beethoven, Mozart, Schubert,Bach...🎶</t>
+          <t xml:space="preserve">Juice Wrld - Lucid Dreams </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=DxnDcH2NS5c</t>
+          <t>https://www.youtube.com/watch?v=_fh64GbFSw4</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Selena Gomez - Bad Liar</t>
+          <t>Ramz - Barking</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=NZKXkD6EgBk</t>
+          <t>https://www.youtube.com/watch?v=Q0QKUU95bVc</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Florida Georgia Line - Simple (Lyrics)</t>
+          <t>Feeling Good 🌱 A playlist to lift your mood</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=TuTDc9d_9yI</t>
+          <t>https://www.youtube.com/watch?v=VYtBO_cDJCU</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Tones and I: Dance Monkey (US TV Debut)</t>
+          <t>falling in love with someone you can't have (a playlist)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=4iQxG8ZjYO8</t>
+          <t>https://www.youtube.com/watch?v=_K57AlI62V4</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>the luka state - bring this all together</t>
+          <t>Best classical music: Beethoven, Mozart, Schubert,Bach...🎶</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=OcJ5EgxsWBg</t>
+          <t>https://www.youtube.com/watch?v=DxnDcH2NS5c</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sunset Sons - I Can`t Wait (Official Audio)</t>
+          <t>Selena Gomez - Bad Liar</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=JuiegvRQ8dI</t>
+          <t>https://www.youtube.com/watch?v=NZKXkD6EgBk</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sunset Sons - Somewhere Maybe (Official Audio)</t>
+          <t>Florida Georgia Line - Simple (Lyrics)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=SHapfmLyBp0</t>
+          <t>https://www.youtube.com/watch?v=TuTDc9d_9yI</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sunset Sons - Know My Name (Official Audio)</t>
+          <t>Tones and I: Dance Monkey (US TV Debut)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=orMwK0veDVQ</t>
+          <t>https://www.youtube.com/watch?v=4iQxG8ZjYO8</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>Sunset Sons - The River</t>
+          <t>the luka state - bring this all together</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=MCyEm1fViZQ</t>
+          <t>https://www.youtube.com/watch?v=OcJ5EgxsWBg</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>Sunset Sons - Loa (Official Audio)</t>
+          <t>Sunset Sons - I Can`t Wait (Official Audio)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=9tXWQy7mMsM</t>
+          <t>https://www.youtube.com/watch?v=JuiegvRQ8dI</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>Sunset Song - On The Road (Lyrics)</t>
+          <t>Sunset Sons - Somewhere Maybe (Official Audio)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=NsKZ-5EDqPA</t>
+          <t>https://www.youtube.com/watch?v=SHapfmLyBp0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sunset Sons - Remember</t>
+          <t>Sunset Sons - Know My Name (Official Audio)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=PH_P12XqY9Y</t>
+          <t>https://www.youtube.com/watch?v=orMwK0veDVQ</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>Craig David - Walking Away [Lyrics] 🎵</t>
+          <t>Sunset Sons - The River</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=8AwamgSDpdA</t>
+          <t>https://www.youtube.com/watch?v=MCyEm1fViZQ</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>Escape (Rosaline OST)</t>
+          <t>Sunset Sons - Loa (Official Audio)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=M9b_z-LKE14</t>
+          <t>https://www.youtube.com/watch?v=9tXWQy7mMsM</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>JEON SOMI DUMB DUMB Lyrics (전소미 DUMB DUMB 가사)</t>
+          <t>Sunset Song - On The Road (Lyrics)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=TfAzTYzBvTo</t>
+          <t>https://www.youtube.com/watch?v=NsKZ-5EDqPA</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>Zara Larsson - Lush Life</t>
+          <t>Sunset Sons - Remember</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=tD4HCZe-tew</t>
+          <t>https://www.youtube.com/watch?v=PH_P12XqY9Y</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>Shakira - Can`t Remember to Forget You (Lyrics) ft. Rihanna</t>
+          <t>Craig David - Walking Away [Lyrics] 🎵</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=i_XM3u1_jZQ</t>
+          <t>https://www.youtube.com/watch?v=8AwamgSDpdA</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>Havana feat. Yaar &amp;amp; Kaiia - Last Night (Lyrics)</t>
+          <t>Escape (Rosaline OST)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=i-Yuf5-zTec</t>
+          <t>https://www.youtube.com/watch?v=M9b_z-LKE14</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>Justin Bieber &amp; benny blanco - Lonely (Acoustic)</t>
+          <t>JEON SOMI DUMB DUMB Lyrics (전소미 DUMB DUMB 가사)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=Cu5hhxP_prE</t>
+          <t>https://www.youtube.com/watch?v=TfAzTYzBvTo</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>Craig David - Rise &amp; Fall ft. Sting (Official Video)</t>
+          <t>Zara Larsson - Lush Life</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=pU2ukeS2JTE</t>
+          <t>https://www.youtube.com/watch?v=tD4HCZe-tew</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>Maroon 5 - Girls Like You ft. Cardi B (Official Music Video)</t>
+          <t>Shakira - Can`t Remember to Forget You (Lyrics) ft. Rihanna</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=aJOTlE1K90k</t>
+          <t>https://www.youtube.com/watch?v=i_XM3u1_jZQ</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>Havana feat. Yaar &amp; Kaiia - Big Love (Official Video)</t>
+          <t>Havana feat. Yaar &amp;amp; Kaiia - Last Night (Lyrics)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=aVFNJBqj5vU</t>
+          <t>https://www.youtube.com/watch?v=i-Yuf5-zTec</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>Edward Maya, Vika Jigulina - Stereo love (Radio Edit) (Lyrics)</t>
+          <t>Justin Bieber &amp; benny blanco - Lonely (Acoustic)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=y9Kqb2z9Lzs</t>
+          <t>https://www.youtube.com/watch?v=Cu5hhxP_prE</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>Gym Class Heroes: Stereo Hearts ft. Adam Levine</t>
+          <t>Craig David - Rise &amp; Fall ft. Sting (Official Video)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=T3E9Wjbq44E</t>
+          <t>https://www.youtube.com/watch?v=pU2ukeS2JTE</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>Shawn Mendes - It'll Be Okay</t>
+          <t>Maroon 5 - Girls Like You ft. Cardi B (Official Music Video)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://youtu.be/KrgJp7Z1Hv8?si=MOyY5rZzP-7kcfhM</t>
+          <t>https://www.youtube.com/watch?v=aJOTlE1K90k</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>somewhere only we know (Gustixa &amp;amp; Rhianne)</t>
+          <t>Havana feat. Yaar &amp; Kaiia - Big Love (Official Video)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=92izkAK5OA0</t>
+          <t>https://www.youtube.com/watch?v=aVFNJBqj5vU</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>Duncan Laurence feat. FLETCHER – Arcade</t>
+          <t>Edward Maya, Vika Jigulina - Stereo love (Radio Edit) (Lyrics)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=308v08mFWWc</t>
+          <t>https://www.youtube.com/watch?v=y9Kqb2z9Lzs</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Bad Liar (cover)</t>
+          <t>Gym Class Heroes: Stereo Hearts ft. Adam Levine</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://youtu.be/5jfz3q9Z0RY?si=OHvyb7AMtM_wtAXc</t>
+          <t>https://www.youtube.com/watch?v=T3E9Wjbq44E</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Lana Del Rey - Summertime Sadness (Official Music Video)</t>
+          <t>Shawn Mendes - It'll Be Okay</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=TdrL3QxjyVw</t>
+          <t>https://youtu.be/KrgJp7Z1Hv8?si=MOyY5rZzP-7kcfhM</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>Linkin Park - In The End (Mellen Gi &amp;amp; Tommee Profitt Remix)</t>
+          <t>somewhere only we know (Gustixa &amp;amp; Rhianne)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=WNeLUngb-Xg</t>
+          <t>https://www.youtube.com/watch?v=92izkAK5OA0</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>Enya - Only Time (Official 4K Music Video)</t>
+          <t>Duncan Laurence feat. FLETCHER – Arcade</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=7wfYIMyS_dI</t>
+          <t>https://www.youtube.com/watch?v=308v08mFWWc</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>Today is a Good Day</t>
+          <t>Bad Liar (cover)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://youtu.be/9L4EjJqrz0c?si=x97RAvAA9IELRZPW</t>
+          <t>https://youtu.be/5jfz3q9Z0RY?si=OHvyb7AMtM_wtAXc</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>Heroes Tonight</t>
+          <t>Lana Del Rey - Summertime Sadness (Official Music Video)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=074rfF4RJZc</t>
+          <t>https://www.youtube.com/watch?v=TdrL3QxjyVw</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>Shakira - Hips Dont Lie</t>
+          <t>Linkin Park - In The End (Mellen Gi &amp;amp; Tommee Profitt Remix)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://youtu.be/p3pEe6aAJ4k?si=bzrAEs7c-zSwqBUo</t>
+          <t>https://www.youtube.com/watch?v=WNeLUngb-Xg</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>Shakira - La La La World Cup 2014</t>
+          <t>Enya - Only Time (Official 4K Music Video)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://youtu.be/2igups6VdcA?si=N5uu5genirJuWXWC</t>
+          <t>https://www.youtube.com/watch?v=7wfYIMyS_dI</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>Something Just Like This</t>
+          <t>Today is a Good Day</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://youtu.be/FM7MFYoylVs?si=TrbAGj-JAUeEJ4bd</t>
+          <t>https://youtu.be/9L4EjJqrz0c?si=x97RAvAA9IELRZPW</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>Shakira - Chantaje (letra)</t>
+          <t>Heroes Tonight</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://youtu.be/J76eQJP3UIQ?si=juYKqG_UCEta8y19</t>
+          <t>https://www.youtube.com/watch?v=074rfF4RJZc</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>Zara Larsson – Dont Worry Bout Me</t>
+          <t>Shakira - Hips Dont Lie</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://youtu.be/u_tzZd9kIWg?si=y-s2yCVh4U2JLsJJ</t>
+          <t>https://youtu.be/p3pEe6aAJ4k?si=bzrAEs7c-zSwqBUo</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Selena Gomez - Buscando Amor</t>
+          <t>Shakira - La La La World Cup 2014</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://youtu.be/2P6EExu3H5s?si=f2hv9y52VqxnVOmL</t>
+          <t>https://youtu.be/2igups6VdcA?si=N5uu5genirJuWXWC</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>Shawn Mendes - In My Blood</t>
+          <t>Something Just Like This</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://youtu.be/36tggrpRoTI?si=CiCfVdO8Oepjt4Rs</t>
+          <t>https://youtu.be/FM7MFYoylVs?si=TrbAGj-JAUeEJ4bd</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>Charlie Puth - We Dont Talk Anymore</t>
+          <t>Shakira - Chantaje (letra)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://youtu.be/bpFVJJBgtXY?si=L2NuwOWGhmdKacwg</t>
+          <t>https://youtu.be/J76eQJP3UIQ?si=juYKqG_UCEta8y19</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>Selena Gomez - Adiós</t>
+          <t>Zara Larsson – Dont Worry Bout Me</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://youtu.be/9H_368c2Hzw?si=UOBGyTGbUe_fISFW</t>
+          <t>https://youtu.be/u_tzZd9kIWg?si=y-s2yCVh4U2JLsJJ</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Charlie Puth - Attention</t>
+          <t>Selena Gomez - Buscando Amor</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://youtu.be/Oz5JDtkf1as</t>
+          <t>https://youtu.be/2P6EExu3H5s?si=f2hv9y52VqxnVOmL</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>Bruno Mars - Grenade</t>
+          <t>Shawn Mendes - In My Blood</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://youtu.be/4YrzJ9RZ9qY</t>
+          <t>https://youtu.be/36tggrpRoTI?si=CiCfVdO8Oepjt4Rs</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>Let Me Love You</t>
+          <t>Charlie Puth - We Dont Talk Anymore</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://youtu.be/SMs0GnYze34?si=T-UORWGqJCoitcOM</t>
+          <t>https://youtu.be/bpFVJJBgtXY?si=L2NuwOWGhmdKacwg</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>Sweet But Psycho</t>
+          <t>Selena Gomez - Adiós</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://youtu.be/2KBFD0aoZy8</t>
+          <t>https://youtu.be/9H_368c2Hzw?si=UOBGyTGbUe_fISFW</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>Whos laughing now</t>
+          <t>Charlie Puth - Attention</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://youtu.be/4JYSgIiSZSA?si=3v9kDuzvYJvWaOsO</t>
+          <t>https://youtu.be/Oz5JDtkf1as</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>Girls Like You</t>
+          <t>Bruno Mars - Grenade</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://youtu.be/aJOTlE1K90k</t>
+          <t>https://youtu.be/4YrzJ9RZ9qY</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>Camila Cabello - Havana</t>
+          <t>Let Me Love You</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://youtu.be/HCjNJDNzw8Y?si=QjZAi7GPIc4ParOQ</t>
+          <t>https://youtu.be/SMs0GnYze34?si=T-UORWGqJCoitcOM</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>Maroon 5 - Memories</t>
+          <t>Sweet But Psycho</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=SlPhMPnQ58k&amp;pp=ygUPbWFyb29uIG1lbW9yaWVz</t>
+          <t>https://youtu.be/2KBFD0aoZy8</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>post malone - rockstar (feat. 21 savage)</t>
+          <t>Whos laughing now</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=9lQP9-F8kIQ</t>
+          <t>https://youtu.be/4JYSgIiSZSA?si=3v9kDuzvYJvWaOsO</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>Drake - Gods plan</t>
+          <t>Girls Like You</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=ScfgOVJiu_I</t>
+          <t>https://youtu.be/aJOTlE1K90k</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>Dua Lipa - Levitating</t>
+          <t>Camila Cabello - Havana</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=j2c3tR_qfiQ</t>
+          <t>https://youtu.be/HCjNJDNzw8Y?si=QjZAi7GPIc4ParOQ</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>Justin Bieber - Baby</t>
+          <t>Maroon 5 - Memories</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=khOFw2f4bQY</t>
+          <t>https://www.youtube.com/watch?v=SlPhMPnQ58k&amp;pp=ygUPbWFyb29uIG1lbW9yaWVz</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>State of Grace</t>
+          <t>post malone - rockstar (feat. 21 savage)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=gr4cqcqnAN0</t>
+          <t>https://www.youtube.com/watch?v=9lQP9-F8kIQ</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>Taylor Swift - Back To December</t>
+          <t>Drake - Gods plan</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://youtu.be/QUwxKWT6m7U?si=LNPBWKl0DqXIfOP2</t>
+          <t>https://www.youtube.com/watch?v=ScfgOVJiu_I</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>As it was</t>
+          <t>Dua Lipa - Levitating</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://youtu.be/Qfm6nfz1QNQ?si=3mMjYFpALij7GELl</t>
+          <t>https://www.youtube.com/watch?v=j2c3tR_qfiQ</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>Taylor Swift - Begin Again</t>
+          <t>Justin Bieber - Baby</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://youtu.be/cMPEd8m79Hw?si=9zE5-51p0xGyEgSO</t>
+          <t>https://www.youtube.com/watch?v=khOFw2f4bQY</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>Sofia</t>
+          <t>State of Grace</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://youtu.be/ftI_Lp7LAuU?si=aOFT5Ral2-A_2PxG</t>
+          <t>https://www.youtube.com/watch?v=gr4cqcqnAN0</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>Numb (lyrics|rock)</t>
+          <t>Taylor Swift - Back To December</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://youtu.be/8P0vKLHbtMg?si=HhXMHjE8vD2yeC_B</t>
+          <t>https://youtu.be/QUwxKWT6m7U?si=LNPBWKl0DqXIfOP2</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>For The Rest Of My Life</t>
+          <t>As it was</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://youtu.be/PHbZ9SXHJwA?si=_7a2Gaka2oPEWrCQ</t>
+          <t>https://youtu.be/Qfm6nfz1QNQ?si=3mMjYFpALij7GELl</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>Insha Allah</t>
+          <t>Taylor Swift - Begin Again</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://youtu.be/8xXJyFNfiy8?si=XkqgGm4hEyZoqJe1</t>
+          <t>https://youtu.be/cMPEd8m79Hw?si=9zE5-51p0xGyEgSO</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>Hunger Games | Atlas</t>
+          <t>Sofia</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://youtu.be/Lh3TokLzzmw?si=I5CcdBNIEuwDZvVT</t>
+          <t>https://youtu.be/ftI_Lp7LAuU?si=aOFT5Ral2-A_2PxG</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>Hard To Say Im Sorry</t>
+          <t>Numb (lyrics|rock)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://youtu.be/XCmOdVia9DE?si=60M6i15UUakuL7DH</t>
+          <t>https://youtu.be/8P0vKLHbtMg?si=HhXMHjE8vD2yeC_B</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>Sasha Sloan - Lie</t>
+          <t>For The Rest Of My Life</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://youtu.be/AzjTJpzfB8U?si=PHYxAGETm1P1opd0</t>
+          <t>https://youtu.be/PHbZ9SXHJwA?si=_7a2Gaka2oPEWrCQ</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>Solo Para Ti</t>
+          <t>Insha Allah</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://youtu.be/5D_A4IBWSv4?si=pgNinSqUyLBks6po</t>
+          <t>https://youtu.be/8xXJyFNfiy8?si=XkqgGm4hEyZoqJe1</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>Zara Larsson - This Ones For You</t>
+          <t>Hunger Games | Atlas</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://youtu.be/MoHnffhBwqs?si=_FGX4ucMtOTcD2to</t>
+          <t>https://youtu.be/Lh3TokLzzmw?si=I5CcdBNIEuwDZvVT</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>La Cintura</t>
+          <t>Hard To Say Im Sorry</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://youtu.be/Eg4LUvUjUWI?si=YqeuNfTh_iTuj-dP</t>
+          <t>https://youtu.be/XCmOdVia9DE?si=60M6i15UUakuL7DH</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>Diamond Heart</t>
+          <t>Sasha Sloan - Lie</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://youtu.be/bcHoBDw4G10?si=auASu-G_c9NkS48Z</t>
+          <t>https://youtu.be/AzjTJpzfB8U?si=PHYxAGETm1P1opd0</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>Halsey - Sorry</t>
+          <t>Solo Para Ti</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://youtu.be/CPAoMCo7tNw?si=2rEiXXCn6UcySUVZ</t>
+          <t>https://youtu.be/5D_A4IBWSv4?si=pgNinSqUyLBks6po</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>Relax, Take it Easy</t>
+          <t>Zara Larsson - This Ones For You</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://youtu.be/EVDYmBrl02Q?si=ODB07HFZCtTtg4F4</t>
+          <t>https://youtu.be/MoHnffhBwqs?si=_FGX4ucMtOTcD2to</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>Thank you Allah</t>
+          <t>La Cintura</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://youtu.be/RBrdl0v_anc?si=cu3qNsVyUIIzZGvv</t>
+          <t>https://youtu.be/Eg4LUvUjUWI?si=YqeuNfTh_iTuj-dP</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>Let me down slowly</t>
+          <t>Diamond Heart</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://youtu.be/50VNCymT-Cs?si=sEwBTlJCeuqL9LTD</t>
+          <t>https://youtu.be/bcHoBDw4G10?si=auASu-G_c9NkS48Z</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>Lonely (acoustic)</t>
+          <t>Halsey - Sorry</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://youtu.be/Cu5hhxP_prE?si=VRZVlVcLWqk8Dasg</t>
+          <t>https://youtu.be/CPAoMCo7tNw?si=2rEiXXCn6UcySUVZ</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>Selfish love</t>
+          <t>Relax, Take it Easy</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://youtu.be/9gqAq6kq5Ek?si=Gro32XWDuPLWzyIv</t>
+          <t>https://youtu.be/EVDYmBrl02Q?si=ODB07HFZCtTtg4F4</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>twenty one pilots: Heathens</t>
+          <t>Thank you Allah</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://youtu.be/UprcpdwuwCg?si=O6_fwxx8TOkfjIXi</t>
+          <t>https://youtu.be/RBrdl0v_anc?si=cu3qNsVyUIIzZGvv</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>Dont Let Me Down</t>
+          <t>Let me down slowly</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://youtu.be/Io0fBr1XBUA?si=SUp9MdCXlOU_Vf5s</t>
+          <t>https://youtu.be/50VNCymT-Cs?si=sEwBTlJCeuqL9LTD</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>Someone you loved</t>
+          <t>Lonely (acoustic)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://youtu.be/zABLecsR5UE?si=k3rryaA0P3O8JBhY</t>
+          <t>https://youtu.be/Cu5hhxP_prE?si=VRZVlVcLWqk8Dasg</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>Lucid Dreams</t>
+          <t>Selfish love</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://youtu.be/IfBLD0ATrQA?si=YS-eU-zZX-5dbISw</t>
+          <t>https://youtu.be/9gqAq6kq5Ek?si=Gro32XWDuPLWzyIv</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>Fed up with us</t>
+          <t>twenty one pilots: Heathens</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://youtu.be/n1NTv6Y4pxs?si=76WA3JI0TGILBHm7</t>
+          <t>https://youtu.be/UprcpdwuwCg?si=O6_fwxx8TOkfjIXi</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>Skyfall</t>
+          <t>Dont Let Me Down</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://youtu.be/DeumyOzKqgI?si=Cok0dR7byK6pN682</t>
+          <t>https://youtu.be/Io0fBr1XBUA?si=SUp9MdCXlOU_Vf5s</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>Story of my life</t>
+          <t>Someone you loved</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://youtu.be/W-TE_Ys4iwM?si=RViOxRuaXxdz3pmm</t>
+          <t>https://youtu.be/zABLecsR5UE?si=k3rryaA0P3O8JBhY</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>Reamonn - Tonight</t>
+          <t>Fed up with us</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://youtu.be/jtoncUzV6nA?si=yULSO1-MxnAVV13i</t>
+          <t>https://youtu.be/n1NTv6Y4pxs?si=76WA3JI0TGILBHm7</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>Hymn For The Weekend</t>
+          <t>Skyfall</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=YykjpeuMNEk</t>
+          <t>https://youtu.be/DeumyOzKqgI?si=Cok0dR7byK6pN682</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>Hell Or High Water</t>
+          <t>Story of my life</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://youtu.be/zgDbp5C74sU?si=R8Q5HZq2vzhGL57g</t>
+          <t>https://youtu.be/W-TE_Ys4iwM?si=RViOxRuaXxdz3pmm</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>Lonely</t>
+          <t>Reamonn - Tonight</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://youtu.be/M4hvSgnsnog?si=TtDhe_NUHM1NZaY9</t>
+          <t>https://youtu.be/jtoncUzV6nA?si=yULSO1-MxnAVV13i</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>Everything I Need</t>
+          <t>Hymn For The Weekend</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=9bCp7j3nC30</t>
+          <t>https://www.youtube.com/watch?v=YykjpeuMNEk</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>Love the way you lie</t>
+          <t>Hell Or High Water</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://youtu.be/h_-JFUci0BM?si=SHiuHs1NdIjpN0WP</t>
+          <t>https://youtu.be/zgDbp5C74sU?si=R8Q5HZq2vzhGL57g</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>Moving Mountains</t>
+          <t>Lonely</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://youtu.be/S_0r3hYg78o?si=Be6GShy7mgRcl9Ha</t>
+          <t>https://youtu.be/M4hvSgnsnog?si=TtDhe_NUHM1NZaY9</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>Numb (cover)</t>
+          <t>Everything I Need</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://youtu.be/gHp-OjLOG5A?si=0abUDswbKz6rhQeX</t>
+          <t>https://www.youtube.com/watch?v=9bCp7j3nC30</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>Until I found you</t>
+          <t>Love the way you lie</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://youtu.be/oIKuyj2GQtY</t>
+          <t>https://youtu.be/h_-JFUci0BM?si=SHiuHs1NdIjpN0WP</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="B95" t="inlineStr">
         <is>
-          <t>Heart is on fire</t>
+          <t>Moving Mountains</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://youtu.be/kBqqlW6-99M?si=kXaaJTqhA4PaY6Gd</t>
+          <t>https://youtu.be/S_0r3hYg78o?si=Be6GShy7mgRcl9Ha</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>Holes</t>
+          <t>Numb (cover)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://youtu.be/DeFWClW7skQ?si=hkIGl-CTTw-FbnLz</t>
+          <t>https://youtu.be/gHp-OjLOG5A?si=0abUDswbKz6rhQeX</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="B97" t="inlineStr">
         <is>
-          <t>Survivors</t>
+          <t>Until I found you</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=vN0gaXS8dQE</t>
+          <t>https://youtu.be/oIKuyj2GQtY</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>Irakliy - Ya s toboy(cover)</t>
+          <t>Heart is on fire</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://youtu.be/3WmdZOF5bKk?si=LcXY8Gohxxx4cZSA</t>
+          <t>https://youtu.be/kBqqlW6-99M?si=kXaaJTqhA4PaY6Gd</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="B99" t="inlineStr">
         <is>
-          <t>Vetrom stat (cover)</t>
+          <t>Holes</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://youtu.be/kkzEs0gdvZI?si=Z456wgKuJd0aE_PA</t>
+          <t>https://youtu.be/DeFWClW7skQ?si=hkIGl-CTTw-FbnLz</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="B100" t="inlineStr">
         <is>
-          <t>Reamonn - Supergirl</t>
+          <t>Survivors</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://youtu.be/ctmS5XX67Ek?si=NGZGPw0bcpfZciyi</t>
+          <t>https://www.youtube.com/watch?v=vN0gaXS8dQE</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>Another Love</t>
+          <t>Irakliy - Ya s toboy(cover)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://youtu.be/Jkj36B1YuDU?si=Yku5tRPe7avRNr2R</t>
+          <t>https://youtu.be/3WmdZOF5bKk?si=LcXY8Gohxxx4cZSA</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="B102" t="inlineStr">
         <is>
-          <t>All the little lights</t>
+          <t>Vetrom stat (cover)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>https://youtu.be/OkxVxox--Io?si=AE4wj_c_uqTWGrbB</t>
+          <t>https://youtu.be/kkzEs0gdvZI?si=Z456wgKuJd0aE_PA</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>Arcade</t>
+          <t>Reamonn - Supergirl</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>https://youtu.be/Qau6mObfSGM?si=RsrcZ0VUCOHaEwE4</t>
+          <t>https://youtu.be/ctmS5XX67Ek?si=NGZGPw0bcpfZciyi</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>Burito - Po volnam</t>
+          <t>Another Love</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>https://youtu.be/jqyJ4xW2gb0?si=VgrA4JKMWkeWDIA5</t>
+          <t>https://youtu.be/Jkj36B1YuDU?si=Yku5tRPe7avRNr2R</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
-          <t>To Be Free</t>
+          <t>All the little lights</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>https://youtu.be/hNd5pILkpSw?si=qiwZxiuS0yeiuOPs</t>
+          <t>https://youtu.be/OkxVxox--Io?si=AE4wj_c_uqTWGrbB</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="B106" t="inlineStr">
         <is>
-          <t>Castle of Glass</t>
+          <t>Arcade</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=PPkJeWPP2nM</t>
+          <t>https://youtu.be/Qau6mObfSGM?si=RsrcZ0VUCOHaEwE4</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="B107" t="inlineStr">
         <is>
-          <t>Ava Max - Alone</t>
+          <t>Burito - Po volnam</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>https://youtu.be/omvW1cI-3xg?si=zHiFadZaUUpddcgu</t>
+          <t>https://youtu.be/jqyJ4xW2gb0?si=VgrA4JKMWkeWDIA5</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="B108" t="inlineStr">
         <is>
-          <t>Let Her Go (ft Ed Sheeran)</t>
+          <t>To Be Free</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>https://youtu.be/HTcL9WkB_wg?si=ILXw9EaPM4GJyx29</t>
+          <t>https://youtu.be/hNd5pILkpSw?si=qiwZxiuS0yeiuOPs</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>In the end (rmx)</t>
+          <t>Castle of Glass</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>https://youtu.be/WNeLUngb-Xg?si=V95nGOt0sMvhQG7c</t>
+          <t>https://www.youtube.com/watch?v=PPkJeWPP2nM</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>No Time To Die</t>
+          <t>Ava Max - Alone</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>https://youtu.be/GB_S2qFh5lU?si=XDH6CdXhqJq-g321</t>
+          <t>https://youtu.be/omvW1cI-3xg?si=zHiFadZaUUpddcgu</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="B111" t="inlineStr">
         <is>
-          <t>Tired Of Being Sorry</t>
+          <t>Let Her Go (ft Ed Sheeran)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>https://youtu.be/gzFmctgW0s8?si=JfvG_0Sj-IdPWoBY</t>
+          <t>https://youtu.be/HTcL9WkB_wg?si=ILXw9EaPM4GJyx29</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>The Cup Of Life - Ricky Martin</t>
+          <t>In the end (rmx)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>https://youtu.be/CBfSeqfeggI?si=A2RRcM0PSvAsvpHF</t>
+          <t>https://youtu.be/WNeLUngb-Xg?si=V95nGOt0sMvhQG7c</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="B113" t="inlineStr">
         <is>
-          <t>Баста - Выпускной</t>
+          <t>No Time To Die</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>https://youtu.be/t1-yL-xvklc?si=YZ1rS5hZtleOFOy1</t>
+          <t>https://youtu.be/GB_S2qFh5lU?si=XDH6CdXhqJq-g321</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="B114" t="inlineStr">
         <is>
-          <t>Wonderful Life</t>
+          <t>Tired Of Being Sorry</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>https://youtu.be/qzn_6bXdgeE?si=BgnimyD5Frnn_-o-</t>
+          <t>https://youtu.be/gzFmctgW0s8?si=JfvG_0Sj-IdPWoBY</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="B115" t="inlineStr">
         <is>
+          <t>The Cup Of Life - Ricky Martin</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>https://youtu.be/CBfSeqfeggI?si=A2RRcM0PSvAsvpHF</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Баста - Выпускной</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>https://youtu.be/t1-yL-xvklc?si=YZ1rS5hZtleOFOy1</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Wonderful Life</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>https://youtu.be/qzn_6bXdgeE?si=BgnimyD5Frnn_-o-</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="B118" t="inlineStr">
+        <is>
           <t>Shape of My Heart</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="C118" t="inlineStr">
         <is>
           <t>https://youtu.be/pm3rDbXbZRI?si=7TxDuViBxhHGeZoU</t>
         </is>

--- a/songs.xlsx
+++ b/songs.xlsx
@@ -1062,7 +1062,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F118"/>
+  <dimension ref="A1:F119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
@@ -1096,1402 +1096,1414 @@
     <row r="2">
       <c r="B2" t="inlineStr">
         <is>
-          <t>Broken Angel (Albert Vishi ft. Taulant Sllamniku Cover)</t>
+          <t>Lady Gaga, Bruno Mars - Die With A Smile</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=5miHGQVFJm0</t>
+          <t>https://www.youtube.com/watch?v=zgaCZOQCpp8</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>Laura Pausini - It’s Not Goodbye</t>
+          <t>Broken Angel (Albert Vishi ft. Taulant Sllamniku Cover)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=onYQkI8S1UY</t>
+          <t>https://www.youtube.com/watch?v=5miHGQVFJm0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Juice Wrld - Lucid Dreams </t>
+          <t>Laura Pausini - It’s Not Goodbye</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=_fh64GbFSw4</t>
+          <t>https://www.youtube.com/watch?v=onYQkI8S1UY</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ramz - Barking</t>
+          <t xml:space="preserve">Juice Wrld - Lucid Dreams </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=Q0QKUU95bVc</t>
+          <t>https://www.youtube.com/watch?v=_fh64GbFSw4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Feeling Good 🌱 A playlist to lift your mood</t>
+          <t>Ramz - Barking</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=VYtBO_cDJCU</t>
+          <t>https://www.youtube.com/watch?v=Q0QKUU95bVc</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>falling in love with someone you can't have (a playlist)</t>
+          <t>Feeling Good 🌱 A playlist to lift your mood</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=_K57AlI62V4</t>
+          <t>https://www.youtube.com/watch?v=VYtBO_cDJCU</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Best classical music: Beethoven, Mozart, Schubert,Bach...🎶</t>
+          <t>falling in love with someone you can't have (a playlist)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=DxnDcH2NS5c</t>
+          <t>https://www.youtube.com/watch?v=_K57AlI62V4</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Selena Gomez - Bad Liar</t>
+          <t>Best classical music: Beethoven, Mozart, Schubert,Bach...🎶</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=NZKXkD6EgBk</t>
+          <t>https://www.youtube.com/watch?v=DxnDcH2NS5c</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>Florida Georgia Line - Simple (Lyrics)</t>
+          <t>Selena Gomez - Bad Liar</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=TuTDc9d_9yI</t>
+          <t>https://www.youtube.com/watch?v=NZKXkD6EgBk</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>Tones and I: Dance Monkey (US TV Debut)</t>
+          <t>Florida Georgia Line - Simple (Lyrics)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=4iQxG8ZjYO8</t>
+          <t>https://www.youtube.com/watch?v=TuTDc9d_9yI</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>the luka state - bring this all together</t>
+          <t>Tones and I: Dance Monkey (US TV Debut)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=OcJ5EgxsWBg</t>
+          <t>https://www.youtube.com/watch?v=4iQxG8ZjYO8</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>Sunset Sons - I Can`t Wait (Official Audio)</t>
+          <t>the luka state - bring this all together</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=JuiegvRQ8dI</t>
+          <t>https://www.youtube.com/watch?v=OcJ5EgxsWBg</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>Sunset Sons - Somewhere Maybe (Official Audio)</t>
+          <t>Sunset Sons - I Can`t Wait (Official Audio)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=SHapfmLyBp0</t>
+          <t>https://www.youtube.com/watch?v=JuiegvRQ8dI</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sunset Sons - Know My Name (Official Audio)</t>
+          <t>Sunset Sons - Somewhere Maybe (Official Audio)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=orMwK0veDVQ</t>
+          <t>https://www.youtube.com/watch?v=SHapfmLyBp0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sunset Sons - The River</t>
+          <t>Sunset Sons - Know My Name (Official Audio)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=MCyEm1fViZQ</t>
+          <t>https://www.youtube.com/watch?v=orMwK0veDVQ</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sunset Sons - Loa (Official Audio)</t>
+          <t>Sunset Sons - The River</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=9tXWQy7mMsM</t>
+          <t>https://www.youtube.com/watch?v=MCyEm1fViZQ</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sunset Song - On The Road (Lyrics)</t>
+          <t>Sunset Sons - Loa (Official Audio)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=NsKZ-5EDqPA</t>
+          <t>https://www.youtube.com/watch?v=9tXWQy7mMsM</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sunset Sons - Remember</t>
+          <t>Sunset Song - On The Road (Lyrics)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=PH_P12XqY9Y</t>
+          <t>https://www.youtube.com/watch?v=NsKZ-5EDqPA</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>Craig David - Walking Away [Lyrics] 🎵</t>
+          <t>Sunset Sons - Remember</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=8AwamgSDpdA</t>
+          <t>https://www.youtube.com/watch?v=PH_P12XqY9Y</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>Escape (Rosaline OST)</t>
+          <t>Craig David - Walking Away [Lyrics] 🎵</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=M9b_z-LKE14</t>
+          <t>https://www.youtube.com/watch?v=8AwamgSDpdA</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>JEON SOMI DUMB DUMB Lyrics (전소미 DUMB DUMB 가사)</t>
+          <t>Escape (Rosaline OST)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=TfAzTYzBvTo</t>
+          <t>https://www.youtube.com/watch?v=M9b_z-LKE14</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>Zara Larsson - Lush Life</t>
+          <t>JEON SOMI DUMB DUMB Lyrics (전소미 DUMB DUMB 가사)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=tD4HCZe-tew</t>
+          <t>https://www.youtube.com/watch?v=TfAzTYzBvTo</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>Shakira - Can`t Remember to Forget You (Lyrics) ft. Rihanna</t>
+          <t>Zara Larsson - Lush Life</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=i_XM3u1_jZQ</t>
+          <t>https://www.youtube.com/watch?v=tD4HCZe-tew</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>Havana feat. Yaar &amp;amp; Kaiia - Last Night (Lyrics)</t>
+          <t>Shakira - Can`t Remember to Forget You (Lyrics) ft. Rihanna</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=i-Yuf5-zTec</t>
+          <t>https://www.youtube.com/watch?v=i_XM3u1_jZQ</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>Justin Bieber &amp; benny blanco - Lonely (Acoustic)</t>
+          <t>Havana feat. Yaar &amp;amp; Kaiia - Last Night (Lyrics)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=Cu5hhxP_prE</t>
+          <t>https://www.youtube.com/watch?v=i-Yuf5-zTec</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>Craig David - Rise &amp; Fall ft. Sting (Official Video)</t>
+          <t>Justin Bieber &amp; benny blanco - Lonely (Acoustic)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=pU2ukeS2JTE</t>
+          <t>https://www.youtube.com/watch?v=Cu5hhxP_prE</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>Maroon 5 - Girls Like You ft. Cardi B (Official Music Video)</t>
+          <t>Craig David - Rise &amp; Fall ft. Sting (Official Video)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=aJOTlE1K90k</t>
+          <t>https://www.youtube.com/watch?v=pU2ukeS2JTE</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>Havana feat. Yaar &amp; Kaiia - Big Love (Official Video)</t>
+          <t>Maroon 5 - Girls Like You ft. Cardi B (Official Music Video)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=aVFNJBqj5vU</t>
+          <t>https://www.youtube.com/watch?v=aJOTlE1K90k</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>Edward Maya, Vika Jigulina - Stereo love (Radio Edit) (Lyrics)</t>
+          <t>Havana feat. Yaar &amp; Kaiia - Big Love (Official Video)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=y9Kqb2z9Lzs</t>
+          <t>https://www.youtube.com/watch?v=aVFNJBqj5vU</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Gym Class Heroes: Stereo Hearts ft. Adam Levine</t>
+          <t>Edward Maya, Vika Jigulina - Stereo love (Radio Edit) (Lyrics)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=T3E9Wjbq44E</t>
+          <t>https://www.youtube.com/watch?v=y9Kqb2z9Lzs</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Shawn Mendes - It'll Be Okay</t>
+          <t>Gym Class Heroes: Stereo Hearts ft. Adam Levine</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://youtu.be/KrgJp7Z1Hv8?si=MOyY5rZzP-7kcfhM</t>
+          <t>https://www.youtube.com/watch?v=T3E9Wjbq44E</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>somewhere only we know (Gustixa &amp;amp; Rhianne)</t>
+          <t>Shawn Mendes - It'll Be Okay</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=92izkAK5OA0</t>
+          <t>https://youtu.be/KrgJp7Z1Hv8?si=MOyY5rZzP-7kcfhM</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>Duncan Laurence feat. FLETCHER – Arcade</t>
+          <t>somewhere only we know (Gustixa &amp;amp; Rhianne)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=308v08mFWWc</t>
+          <t>https://www.youtube.com/watch?v=92izkAK5OA0</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>Bad Liar (cover)</t>
+          <t>Duncan Laurence feat. FLETCHER – Arcade</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://youtu.be/5jfz3q9Z0RY?si=OHvyb7AMtM_wtAXc</t>
+          <t>https://www.youtube.com/watch?v=308v08mFWWc</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>Lana Del Rey - Summertime Sadness (Official Music Video)</t>
+          <t>Bad Liar (cover)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=TdrL3QxjyVw</t>
+          <t>https://youtu.be/5jfz3q9Z0RY?si=OHvyb7AMtM_wtAXc</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>Linkin Park - In The End (Mellen Gi &amp;amp; Tommee Profitt Remix)</t>
+          <t>Lana Del Rey - Summertime Sadness (Official Music Video)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=WNeLUngb-Xg</t>
+          <t>https://www.youtube.com/watch?v=TdrL3QxjyVw</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>Enya - Only Time (Official 4K Music Video)</t>
+          <t>Linkin Park - In The End (Mellen Gi &amp;amp; Tommee Profitt Remix)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=7wfYIMyS_dI</t>
+          <t>https://www.youtube.com/watch?v=WNeLUngb-Xg</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>Today is a Good Day</t>
+          <t>Enya - Only Time (Official 4K Music Video)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://youtu.be/9L4EjJqrz0c?si=x97RAvAA9IELRZPW</t>
+          <t>https://www.youtube.com/watch?v=7wfYIMyS_dI</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>Heroes Tonight</t>
+          <t>Today is a Good Day</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=074rfF4RJZc</t>
+          <t>https://youtu.be/9L4EjJqrz0c?si=x97RAvAA9IELRZPW</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>Shakira - Hips Dont Lie</t>
+          <t>Heroes Tonight</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://youtu.be/p3pEe6aAJ4k?si=bzrAEs7c-zSwqBUo</t>
+          <t>https://www.youtube.com/watch?v=074rfF4RJZc</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Shakira - La La La World Cup 2014</t>
+          <t>Shakira - Hips Dont Lie</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://youtu.be/2igups6VdcA?si=N5uu5genirJuWXWC</t>
+          <t>https://youtu.be/p3pEe6aAJ4k?si=bzrAEs7c-zSwqBUo</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>Something Just Like This</t>
+          <t>Shakira - La La La World Cup 2014</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://youtu.be/FM7MFYoylVs?si=TrbAGj-JAUeEJ4bd</t>
+          <t>https://youtu.be/2igups6VdcA?si=N5uu5genirJuWXWC</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>Shakira - Chantaje (letra)</t>
+          <t>Something Just Like This</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://youtu.be/J76eQJP3UIQ?si=juYKqG_UCEta8y19</t>
+          <t>https://youtu.be/FM7MFYoylVs?si=TrbAGj-JAUeEJ4bd</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>Zara Larsson – Dont Worry Bout Me</t>
+          <t>Shakira - Chantaje (letra)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://youtu.be/u_tzZd9kIWg?si=y-s2yCVh4U2JLsJJ</t>
+          <t>https://youtu.be/J76eQJP3UIQ?si=juYKqG_UCEta8y19</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Selena Gomez - Buscando Amor</t>
+          <t>Zara Larsson – Dont Worry Bout Me</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://youtu.be/2P6EExu3H5s?si=f2hv9y52VqxnVOmL</t>
+          <t>https://youtu.be/u_tzZd9kIWg?si=y-s2yCVh4U2JLsJJ</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>Shawn Mendes - In My Blood</t>
+          <t>Selena Gomez - Buscando Amor</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://youtu.be/36tggrpRoTI?si=CiCfVdO8Oepjt4Rs</t>
+          <t>https://youtu.be/2P6EExu3H5s?si=f2hv9y52VqxnVOmL</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>Charlie Puth - We Dont Talk Anymore</t>
+          <t>Shawn Mendes - In My Blood</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://youtu.be/bpFVJJBgtXY?si=L2NuwOWGhmdKacwg</t>
+          <t>https://youtu.be/36tggrpRoTI?si=CiCfVdO8Oepjt4Rs</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>Selena Gomez - Adiós</t>
+          <t>Charlie Puth - We Dont Talk Anymore</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://youtu.be/9H_368c2Hzw?si=UOBGyTGbUe_fISFW</t>
+          <t>https://youtu.be/bpFVJJBgtXY?si=L2NuwOWGhmdKacwg</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>Charlie Puth - Attention</t>
+          <t>Selena Gomez - Adiós</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://youtu.be/Oz5JDtkf1as</t>
+          <t>https://youtu.be/9H_368c2Hzw?si=UOBGyTGbUe_fISFW</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>Bruno Mars - Grenade</t>
+          <t>Charlie Puth - Attention</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://youtu.be/4YrzJ9RZ9qY</t>
+          <t>https://youtu.be/Oz5JDtkf1as</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>Let Me Love You</t>
+          <t>Bruno Mars - Grenade</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://youtu.be/SMs0GnYze34?si=T-UORWGqJCoitcOM</t>
+          <t>https://youtu.be/4YrzJ9RZ9qY</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>Sweet But Psycho</t>
+          <t>Let Me Love You</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://youtu.be/2KBFD0aoZy8</t>
+          <t>https://youtu.be/SMs0GnYze34?si=T-UORWGqJCoitcOM</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>Whos laughing now</t>
+          <t>Sweet But Psycho</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://youtu.be/4JYSgIiSZSA?si=3v9kDuzvYJvWaOsO</t>
+          <t>https://youtu.be/2KBFD0aoZy8</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>Girls Like You</t>
+          <t>Whos laughing now</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://youtu.be/aJOTlE1K90k</t>
+          <t>https://youtu.be/4JYSgIiSZSA?si=3v9kDuzvYJvWaOsO</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>Camila Cabello - Havana</t>
+          <t>Girls Like You</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://youtu.be/HCjNJDNzw8Y?si=QjZAi7GPIc4ParOQ</t>
+          <t>https://youtu.be/aJOTlE1K90k</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>Maroon 5 - Memories</t>
+          <t>Camila Cabello - Havana</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=SlPhMPnQ58k&amp;pp=ygUPbWFyb29uIG1lbW9yaWVz</t>
+          <t>https://youtu.be/HCjNJDNzw8Y?si=QjZAi7GPIc4ParOQ</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>post malone - rockstar (feat. 21 savage)</t>
+          <t>Maroon 5 - Memories</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=9lQP9-F8kIQ</t>
+          <t>https://www.youtube.com/watch?v=SlPhMPnQ58k&amp;pp=ygUPbWFyb29uIG1lbW9yaWVz</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>Drake - Gods plan</t>
+          <t>post malone - rockstar (feat. 21 savage)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=ScfgOVJiu_I</t>
+          <t>https://www.youtube.com/watch?v=9lQP9-F8kIQ</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>Dua Lipa - Levitating</t>
+          <t>Drake - Gods plan</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=j2c3tR_qfiQ</t>
+          <t>https://www.youtube.com/watch?v=ScfgOVJiu_I</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>Justin Bieber - Baby</t>
+          <t>Dua Lipa - Levitating</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=khOFw2f4bQY</t>
+          <t>https://www.youtube.com/watch?v=j2c3tR_qfiQ</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>State of Grace</t>
+          <t>Justin Bieber - Baby</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=gr4cqcqnAN0</t>
+          <t>https://www.youtube.com/watch?v=khOFw2f4bQY</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>Taylor Swift - Back To December</t>
+          <t>State of Grace</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://youtu.be/QUwxKWT6m7U?si=LNPBWKl0DqXIfOP2</t>
+          <t>https://www.youtube.com/watch?v=gr4cqcqnAN0</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>As it was</t>
+          <t>Taylor Swift - Back To December</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://youtu.be/Qfm6nfz1QNQ?si=3mMjYFpALij7GELl</t>
+          <t>https://youtu.be/QUwxKWT6m7U?si=LNPBWKl0DqXIfOP2</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>Taylor Swift - Begin Again</t>
+          <t>As it was</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://youtu.be/cMPEd8m79Hw?si=9zE5-51p0xGyEgSO</t>
+          <t>https://youtu.be/Qfm6nfz1QNQ?si=3mMjYFpALij7GELl</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>Sofia</t>
+          <t>Taylor Swift - Begin Again</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://youtu.be/ftI_Lp7LAuU?si=aOFT5Ral2-A_2PxG</t>
+          <t>https://youtu.be/cMPEd8m79Hw?si=9zE5-51p0xGyEgSO</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>Numb (lyrics|rock)</t>
+          <t>Sofia</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://youtu.be/8P0vKLHbtMg?si=HhXMHjE8vD2yeC_B</t>
+          <t>https://youtu.be/ftI_Lp7LAuU?si=aOFT5Ral2-A_2PxG</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>For The Rest Of My Life</t>
+          <t>Numb (lyrics|rock)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://youtu.be/PHbZ9SXHJwA?si=_7a2Gaka2oPEWrCQ</t>
+          <t>https://youtu.be/8P0vKLHbtMg?si=HhXMHjE8vD2yeC_B</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>Insha Allah</t>
+          <t>For The Rest Of My Life</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://youtu.be/8xXJyFNfiy8?si=XkqgGm4hEyZoqJe1</t>
+          <t>https://youtu.be/PHbZ9SXHJwA?si=_7a2Gaka2oPEWrCQ</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>Hunger Games | Atlas</t>
+          <t>Insha Allah</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://youtu.be/Lh3TokLzzmw?si=I5CcdBNIEuwDZvVT</t>
+          <t>https://youtu.be/8xXJyFNfiy8?si=XkqgGm4hEyZoqJe1</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>Hard To Say Im Sorry</t>
+          <t>Hunger Games | Atlas</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://youtu.be/XCmOdVia9DE?si=60M6i15UUakuL7DH</t>
+          <t>https://youtu.be/Lh3TokLzzmw?si=I5CcdBNIEuwDZvVT</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>Sasha Sloan - Lie</t>
+          <t>Hard To Say Im Sorry</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://youtu.be/AzjTJpzfB8U?si=PHYxAGETm1P1opd0</t>
+          <t>https://youtu.be/XCmOdVia9DE?si=60M6i15UUakuL7DH</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>Solo Para Ti</t>
+          <t>Sasha Sloan - Lie</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://youtu.be/5D_A4IBWSv4?si=pgNinSqUyLBks6po</t>
+          <t>https://youtu.be/AzjTJpzfB8U?si=PHYxAGETm1P1opd0</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>Zara Larsson - This Ones For You</t>
+          <t>Solo Para Ti</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://youtu.be/MoHnffhBwqs?si=_FGX4ucMtOTcD2to</t>
+          <t>https://youtu.be/5D_A4IBWSv4?si=pgNinSqUyLBks6po</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>La Cintura</t>
+          <t>Zara Larsson - This Ones For You</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://youtu.be/Eg4LUvUjUWI?si=YqeuNfTh_iTuj-dP</t>
+          <t>https://youtu.be/MoHnffhBwqs?si=_FGX4ucMtOTcD2to</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>Diamond Heart</t>
+          <t>La Cintura</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://youtu.be/bcHoBDw4G10?si=auASu-G_c9NkS48Z</t>
+          <t>https://youtu.be/Eg4LUvUjUWI?si=YqeuNfTh_iTuj-dP</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>Halsey - Sorry</t>
+          <t>Diamond Heart</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://youtu.be/CPAoMCo7tNw?si=2rEiXXCn6UcySUVZ</t>
+          <t>https://youtu.be/bcHoBDw4G10?si=auASu-G_c9NkS48Z</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>Relax, Take it Easy</t>
+          <t>Halsey - Sorry</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://youtu.be/EVDYmBrl02Q?si=ODB07HFZCtTtg4F4</t>
+          <t>https://youtu.be/CPAoMCo7tNw?si=2rEiXXCn6UcySUVZ</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>Thank you Allah</t>
+          <t>Relax, Take it Easy</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://youtu.be/RBrdl0v_anc?si=cu3qNsVyUIIzZGvv</t>
+          <t>https://youtu.be/EVDYmBrl02Q?si=ODB07HFZCtTtg4F4</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>Let me down slowly</t>
+          <t>Thank you Allah</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://youtu.be/50VNCymT-Cs?si=sEwBTlJCeuqL9LTD</t>
+          <t>https://youtu.be/RBrdl0v_anc?si=cu3qNsVyUIIzZGvv</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>Lonely (acoustic)</t>
+          <t>Let me down slowly</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://youtu.be/Cu5hhxP_prE?si=VRZVlVcLWqk8Dasg</t>
+          <t>https://youtu.be/50VNCymT-Cs?si=sEwBTlJCeuqL9LTD</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>Selfish love</t>
+          <t>Lonely (acoustic)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://youtu.be/9gqAq6kq5Ek?si=Gro32XWDuPLWzyIv</t>
+          <t>https://youtu.be/Cu5hhxP_prE?si=VRZVlVcLWqk8Dasg</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>twenty one pilots: Heathens</t>
+          <t>Selfish love</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://youtu.be/UprcpdwuwCg?si=O6_fwxx8TOkfjIXi</t>
+          <t>https://youtu.be/9gqAq6kq5Ek?si=Gro32XWDuPLWzyIv</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>Dont Let Me Down</t>
+          <t>twenty one pilots: Heathens</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://youtu.be/Io0fBr1XBUA?si=SUp9MdCXlOU_Vf5s</t>
+          <t>https://youtu.be/UprcpdwuwCg?si=O6_fwxx8TOkfjIXi</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>Someone you loved</t>
+          <t>Dont Let Me Down</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://youtu.be/zABLecsR5UE?si=k3rryaA0P3O8JBhY</t>
+          <t>https://youtu.be/Io0fBr1XBUA?si=SUp9MdCXlOU_Vf5s</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>Fed up with us</t>
+          <t>Someone you loved</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://youtu.be/n1NTv6Y4pxs?si=76WA3JI0TGILBHm7</t>
+          <t>https://youtu.be/zABLecsR5UE?si=k3rryaA0P3O8JBhY</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>Skyfall</t>
+          <t>Fed up with us</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://youtu.be/DeumyOzKqgI?si=Cok0dR7byK6pN682</t>
+          <t>https://youtu.be/n1NTv6Y4pxs?si=76WA3JI0TGILBHm7</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>Story of my life</t>
+          <t>Skyfall</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://youtu.be/W-TE_Ys4iwM?si=RViOxRuaXxdz3pmm</t>
+          <t>https://youtu.be/DeumyOzKqgI?si=Cok0dR7byK6pN682</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>Reamonn - Tonight</t>
+          <t>Story of my life</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://youtu.be/jtoncUzV6nA?si=yULSO1-MxnAVV13i</t>
+          <t>https://youtu.be/W-TE_Ys4iwM?si=RViOxRuaXxdz3pmm</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>Hymn For The Weekend</t>
+          <t>Reamonn - Tonight</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=YykjpeuMNEk</t>
+          <t>https://youtu.be/jtoncUzV6nA?si=yULSO1-MxnAVV13i</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>Hell Or High Water</t>
+          <t>Hymn For The Weekend</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://youtu.be/zgDbp5C74sU?si=R8Q5HZq2vzhGL57g</t>
+          <t>https://www.youtube.com/watch?v=YykjpeuMNEk</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>Lonely</t>
+          <t>Hell Or High Water</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://youtu.be/M4hvSgnsnog?si=TtDhe_NUHM1NZaY9</t>
+          <t>https://youtu.be/zgDbp5C74sU?si=R8Q5HZq2vzhGL57g</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>Everything I Need</t>
+          <t>Lonely</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=9bCp7j3nC30</t>
+          <t>https://youtu.be/M4hvSgnsnog?si=TtDhe_NUHM1NZaY9</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>Love the way you lie</t>
+          <t>Everything I Need</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://youtu.be/h_-JFUci0BM?si=SHiuHs1NdIjpN0WP</t>
+          <t>https://www.youtube.com/watch?v=9bCp7j3nC30</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="B95" t="inlineStr">
         <is>
-          <t>Moving Mountains</t>
+          <t>Love the way you lie</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://youtu.be/S_0r3hYg78o?si=Be6GShy7mgRcl9Ha</t>
+          <t>https://youtu.be/h_-JFUci0BM?si=SHiuHs1NdIjpN0WP</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>Numb (cover)</t>
+          <t>Moving Mountains</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://youtu.be/gHp-OjLOG5A?si=0abUDswbKz6rhQeX</t>
+          <t>https://youtu.be/S_0r3hYg78o?si=Be6GShy7mgRcl9Ha</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="B97" t="inlineStr">
         <is>
-          <t>Until I found you</t>
+          <t>Numb (cover)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://youtu.be/oIKuyj2GQtY</t>
+          <t>https://youtu.be/gHp-OjLOG5A?si=0abUDswbKz6rhQeX</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>Heart is on fire</t>
+          <t>Until I found you</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://youtu.be/kBqqlW6-99M?si=kXaaJTqhA4PaY6Gd</t>
+          <t>https://youtu.be/oIKuyj2GQtY</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="B99" t="inlineStr">
         <is>
-          <t>Holes</t>
+          <t>Heart is on fire</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://youtu.be/DeFWClW7skQ?si=hkIGl-CTTw-FbnLz</t>
+          <t>https://youtu.be/kBqqlW6-99M?si=kXaaJTqhA4PaY6Gd</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="B100" t="inlineStr">
         <is>
-          <t>Survivors</t>
+          <t>Holes</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=vN0gaXS8dQE</t>
+          <t>https://youtu.be/DeFWClW7skQ?si=hkIGl-CTTw-FbnLz</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>Irakliy - Ya s toboy(cover)</t>
+          <t>Survivors</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://youtu.be/3WmdZOF5bKk?si=LcXY8Gohxxx4cZSA</t>
+          <t>https://www.youtube.com/watch?v=vN0gaXS8dQE</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="B102" t="inlineStr">
         <is>
-          <t>Vetrom stat (cover)</t>
+          <t>Irakliy - Ya s toboy(cover)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>https://youtu.be/kkzEs0gdvZI?si=Z456wgKuJd0aE_PA</t>
+          <t>https://youtu.be/3WmdZOF5bKk?si=LcXY8Gohxxx4cZSA</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>Reamonn - Supergirl</t>
+          <t>Vetrom stat (cover)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>https://youtu.be/ctmS5XX67Ek?si=NGZGPw0bcpfZciyi</t>
+          <t>https://youtu.be/kkzEs0gdvZI?si=Z456wgKuJd0aE_PA</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>Another Love</t>
+          <t>Reamonn - Supergirl</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>https://youtu.be/Jkj36B1YuDU?si=Yku5tRPe7avRNr2R</t>
+          <t>https://youtu.be/ctmS5XX67Ek?si=NGZGPw0bcpfZciyi</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
-          <t>All the little lights</t>
+          <t>Another Love</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>https://youtu.be/OkxVxox--Io?si=AE4wj_c_uqTWGrbB</t>
+          <t>https://youtu.be/Jkj36B1YuDU?si=Yku5tRPe7avRNr2R</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="B106" t="inlineStr">
         <is>
-          <t>Arcade</t>
+          <t>All the little lights</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>https://youtu.be/Qau6mObfSGM?si=RsrcZ0VUCOHaEwE4</t>
+          <t>https://youtu.be/OkxVxox--Io?si=AE4wj_c_uqTWGrbB</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="B107" t="inlineStr">
         <is>
-          <t>Burito - Po volnam</t>
+          <t>Arcade</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>https://youtu.be/jqyJ4xW2gb0?si=VgrA4JKMWkeWDIA5</t>
+          <t>https://youtu.be/Qau6mObfSGM?si=RsrcZ0VUCOHaEwE4</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="B108" t="inlineStr">
         <is>
-          <t>To Be Free</t>
+          <t>Burito - Po volnam</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>https://youtu.be/hNd5pILkpSw?si=qiwZxiuS0yeiuOPs</t>
+          <t>https://youtu.be/jqyJ4xW2gb0?si=VgrA4JKMWkeWDIA5</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>Castle of Glass</t>
+          <t>To Be Free</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=PPkJeWPP2nM</t>
+          <t>https://youtu.be/hNd5pILkpSw?si=qiwZxiuS0yeiuOPs</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>Ava Max - Alone</t>
+          <t>Castle of Glass</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>https://youtu.be/omvW1cI-3xg?si=zHiFadZaUUpddcgu</t>
+          <t>https://www.youtube.com/watch?v=PPkJeWPP2nM</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="B111" t="inlineStr">
         <is>
-          <t>Let Her Go (ft Ed Sheeran)</t>
+          <t>Ava Max - Alone</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>https://youtu.be/HTcL9WkB_wg?si=ILXw9EaPM4GJyx29</t>
+          <t>https://youtu.be/omvW1cI-3xg?si=zHiFadZaUUpddcgu</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>In the end (rmx)</t>
+          <t>Let Her Go (ft Ed Sheeran)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>https://youtu.be/WNeLUngb-Xg?si=V95nGOt0sMvhQG7c</t>
+          <t>https://youtu.be/HTcL9WkB_wg?si=ILXw9EaPM4GJyx29</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="B113" t="inlineStr">
         <is>
-          <t>No Time To Die</t>
+          <t>In the end (rmx)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>https://youtu.be/GB_S2qFh5lU?si=XDH6CdXhqJq-g321</t>
+          <t>https://youtu.be/WNeLUngb-Xg?si=V95nGOt0sMvhQG7c</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="B114" t="inlineStr">
         <is>
-          <t>Tired Of Being Sorry</t>
+          <t>No Time To Die</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>https://youtu.be/gzFmctgW0s8?si=JfvG_0Sj-IdPWoBY</t>
+          <t>https://youtu.be/GB_S2qFh5lU?si=XDH6CdXhqJq-g321</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="B115" t="inlineStr">
         <is>
-          <t>The Cup Of Life - Ricky Martin</t>
+          <t>Tired Of Being Sorry</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>https://youtu.be/CBfSeqfeggI?si=A2RRcM0PSvAsvpHF</t>
+          <t>https://youtu.be/gzFmctgW0s8?si=JfvG_0Sj-IdPWoBY</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="B116" t="inlineStr">
         <is>
-          <t>Баста - Выпускной</t>
+          <t>The Cup Of Life - Ricky Martin</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>https://youtu.be/t1-yL-xvklc?si=YZ1rS5hZtleOFOy1</t>
+          <t>https://youtu.be/CBfSeqfeggI?si=A2RRcM0PSvAsvpHF</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="B117" t="inlineStr">
         <is>
-          <t>Wonderful Life</t>
+          <t>Баста - Выпускной</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>https://youtu.be/qzn_6bXdgeE?si=BgnimyD5Frnn_-o-</t>
+          <t>https://youtu.be/t1-yL-xvklc?si=YZ1rS5hZtleOFOy1</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="B118" t="inlineStr">
         <is>
+          <t>Wonderful Life</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>https://youtu.be/qzn_6bXdgeE?si=BgnimyD5Frnn_-o-</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="B119" t="inlineStr">
+        <is>
           <t>Shape of My Heart</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="C119" t="inlineStr">
         <is>
           <t>https://youtu.be/pm3rDbXbZRI?si=7TxDuViBxhHGeZoU</t>
         </is>

--- a/songs.xlsx
+++ b/songs.xlsx
@@ -1062,7 +1062,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F119"/>
+  <dimension ref="A1:F121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
@@ -1108,1402 +1108,1426 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>Broken Angel (Albert Vishi ft. Taulant Sllamniku Cover)</t>
+          <t>Maxim Fadeev - Googoosha</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=5miHGQVFJm0</t>
+          <t>https://www.youtube.com/watch?v=gqOoJXttEec</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>Laura Pausini - It’s Not Goodbye</t>
+          <t>Elley Duhe - Middle Of The Night</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=onYQkI8S1UY</t>
+          <t>https://www.youtube.com/watch?v=KLTMCPzRO64</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Juice Wrld - Lucid Dreams </t>
+          <t>Broken Angel (Albert Vishi ft. Taulant Sllamniku Cover)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=_fh64GbFSw4</t>
+          <t>https://www.youtube.com/watch?v=5miHGQVFJm0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ramz - Barking</t>
+          <t>Laura Pausini - It’s Not Goodbye</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=Q0QKUU95bVc</t>
+          <t>https://www.youtube.com/watch?v=onYQkI8S1UY</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Feeling Good 🌱 A playlist to lift your mood</t>
+          <t xml:space="preserve">Juice Wrld - Lucid Dreams </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=VYtBO_cDJCU</t>
+          <t>https://www.youtube.com/watch?v=_fh64GbFSw4</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>falling in love with someone you can't have (a playlist)</t>
+          <t>Ramz - Barking</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=_K57AlI62V4</t>
+          <t>https://www.youtube.com/watch?v=Q0QKUU95bVc</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Best classical music: Beethoven, Mozart, Schubert,Bach...🎶</t>
+          <t>falling in love with someone you can't have (a playlist)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=DxnDcH2NS5c</t>
+          <t>https://www.youtube.com/watch?v=_K57AlI62V4</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>Selena Gomez - Bad Liar</t>
+          <t>Feeling Good 🌱 A playlist to lift your mood</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=NZKXkD6EgBk</t>
+          <t>https://www.youtube.com/watch?v=VYtBO_cDJCU</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>Florida Georgia Line - Simple (Lyrics)</t>
+          <t>Best classical music: Beethoven, Mozart, Schubert,Bach...🎶</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=TuTDc9d_9yI</t>
+          <t>https://www.youtube.com/watch?v=DxnDcH2NS5c</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>Tones and I: Dance Monkey (US TV Debut)</t>
+          <t>Selena Gomez - Bad Liar</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=4iQxG8ZjYO8</t>
+          <t>https://www.youtube.com/watch?v=NZKXkD6EgBk</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>the luka state - bring this all together</t>
+          <t>Florida Georgia Line - Simple (Lyrics)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=OcJ5EgxsWBg</t>
+          <t>https://www.youtube.com/watch?v=TuTDc9d_9yI</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>Sunset Sons - I Can`t Wait (Official Audio)</t>
+          <t>Tones and I: Dance Monkey (US TV Debut)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=JuiegvRQ8dI</t>
+          <t>https://www.youtube.com/watch?v=4iQxG8ZjYO8</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sunset Sons - Somewhere Maybe (Official Audio)</t>
+          <t>the luka state - bring this all together</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=SHapfmLyBp0</t>
+          <t>https://www.youtube.com/watch?v=OcJ5EgxsWBg</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sunset Sons - Know My Name (Official Audio)</t>
+          <t>Sunset Sons - I Can`t Wait (Official Audio)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=orMwK0veDVQ</t>
+          <t>https://www.youtube.com/watch?v=JuiegvRQ8dI</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sunset Sons - The River</t>
+          <t>Sunset Sons - Somewhere Maybe (Official Audio)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=MCyEm1fViZQ</t>
+          <t>https://www.youtube.com/watch?v=SHapfmLyBp0</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sunset Sons - Loa (Official Audio)</t>
+          <t>Sunset Sons - Know My Name (Official Audio)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=9tXWQy7mMsM</t>
+          <t>https://www.youtube.com/watch?v=orMwK0veDVQ</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sunset Song - On The Road (Lyrics)</t>
+          <t>Sunset Sons - The River</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=NsKZ-5EDqPA</t>
+          <t>https://www.youtube.com/watch?v=MCyEm1fViZQ</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sunset Sons - Remember</t>
+          <t>Sunset Sons - Loa (Official Audio)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=PH_P12XqY9Y</t>
+          <t>https://www.youtube.com/watch?v=9tXWQy7mMsM</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>Craig David - Walking Away [Lyrics] 🎵</t>
+          <t>Sunset Song - On The Road (Lyrics)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=8AwamgSDpdA</t>
+          <t>https://www.youtube.com/watch?v=NsKZ-5EDqPA</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>Escape (Rosaline OST)</t>
+          <t>Sunset Sons - Remember</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=M9b_z-LKE14</t>
+          <t>https://www.youtube.com/watch?v=PH_P12XqY9Y</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>JEON SOMI DUMB DUMB Lyrics (전소미 DUMB DUMB 가사)</t>
+          <t>Craig David - Walking Away [Lyrics] 🎵</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=TfAzTYzBvTo</t>
+          <t>https://www.youtube.com/watch?v=8AwamgSDpdA</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>Zara Larsson - Lush Life</t>
+          <t>Escape (Rosaline OST)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=tD4HCZe-tew</t>
+          <t>https://www.youtube.com/watch?v=M9b_z-LKE14</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>Shakira - Can`t Remember to Forget You (Lyrics) ft. Rihanna</t>
+          <t>JEON SOMI DUMB DUMB Lyrics (전소미 DUMB DUMB 가사)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=i_XM3u1_jZQ</t>
+          <t>https://www.youtube.com/watch?v=TfAzTYzBvTo</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>Havana feat. Yaar &amp;amp; Kaiia - Last Night (Lyrics)</t>
+          <t>Zara Larsson - Lush Life</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=i-Yuf5-zTec</t>
+          <t>https://www.youtube.com/watch?v=tD4HCZe-tew</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>Justin Bieber &amp; benny blanco - Lonely (Acoustic)</t>
+          <t>Shakira - Can`t Remember to Forget You (Lyrics) ft. Rihanna</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=Cu5hhxP_prE</t>
+          <t>https://www.youtube.com/watch?v=i_XM3u1_jZQ</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>Craig David - Rise &amp; Fall ft. Sting (Official Video)</t>
+          <t>Havana feat. Yaar &amp;amp; Kaiia - Last Night (Lyrics)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=pU2ukeS2JTE</t>
+          <t>https://www.youtube.com/watch?v=i-Yuf5-zTec</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>Maroon 5 - Girls Like You ft. Cardi B (Official Music Video)</t>
+          <t>Justin Bieber &amp; benny blanco - Lonely (Acoustic)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=aJOTlE1K90k</t>
+          <t>https://www.youtube.com/watch?v=Cu5hhxP_prE</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>Havana feat. Yaar &amp; Kaiia - Big Love (Official Video)</t>
+          <t>Craig David - Rise &amp; Fall ft. Sting (Official Video)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=aVFNJBqj5vU</t>
+          <t>https://www.youtube.com/watch?v=pU2ukeS2JTE</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Edward Maya, Vika Jigulina - Stereo love (Radio Edit) (Lyrics)</t>
+          <t>Maroon 5 - Girls Like You ft. Cardi B (Official Music Video)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=y9Kqb2z9Lzs</t>
+          <t>https://www.youtube.com/watch?v=aJOTlE1K90k</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Gym Class Heroes: Stereo Hearts ft. Adam Levine</t>
+          <t>Havana feat. Yaar &amp; Kaiia - Big Love (Official Video)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=T3E9Wjbq44E</t>
+          <t>https://www.youtube.com/watch?v=aVFNJBqj5vU</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>Shawn Mendes - It'll Be Okay</t>
+          <t>Edward Maya, Vika Jigulina - Stereo love (Radio Edit) (Lyrics)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://youtu.be/KrgJp7Z1Hv8?si=MOyY5rZzP-7kcfhM</t>
+          <t>https://www.youtube.com/watch?v=y9Kqb2z9Lzs</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>somewhere only we know (Gustixa &amp;amp; Rhianne)</t>
+          <t>Gym Class Heroes: Stereo Hearts ft. Adam Levine</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=92izkAK5OA0</t>
+          <t>https://www.youtube.com/watch?v=T3E9Wjbq44E</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>Duncan Laurence feat. FLETCHER – Arcade</t>
+          <t>Shawn Mendes - It'll Be Okay</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=308v08mFWWc</t>
+          <t>https://youtu.be/KrgJp7Z1Hv8?si=MOyY5rZzP-7kcfhM</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>Bad Liar (cover)</t>
+          <t>somewhere only we know (Gustixa &amp;amp; Rhianne)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://youtu.be/5jfz3q9Z0RY?si=OHvyb7AMtM_wtAXc</t>
+          <t>https://www.youtube.com/watch?v=92izkAK5OA0</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>Lana Del Rey - Summertime Sadness (Official Music Video)</t>
+          <t>Duncan Laurence feat. FLETCHER – Arcade</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=TdrL3QxjyVw</t>
+          <t>https://www.youtube.com/watch?v=308v08mFWWc</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>Linkin Park - In The End (Mellen Gi &amp;amp; Tommee Profitt Remix)</t>
+          <t>Bad Liar (cover)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=WNeLUngb-Xg</t>
+          <t>https://youtu.be/5jfz3q9Z0RY?si=OHvyb7AMtM_wtAXc</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>Enya - Only Time (Official 4K Music Video)</t>
+          <t>Lana Del Rey - Summertime Sadness (Official Music Video)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=7wfYIMyS_dI</t>
+          <t>https://www.youtube.com/watch?v=TdrL3QxjyVw</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>Today is a Good Day</t>
+          <t>Linkin Park - In The End (Mellen Gi &amp;amp; Tommee Profitt Remix)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://youtu.be/9L4EjJqrz0c?si=x97RAvAA9IELRZPW</t>
+          <t>https://www.youtube.com/watch?v=WNeLUngb-Xg</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>Heroes Tonight</t>
+          <t>Enya - Only Time (Official 4K Music Video)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=074rfF4RJZc</t>
+          <t>https://www.youtube.com/watch?v=7wfYIMyS_dI</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Shakira - Hips Dont Lie</t>
+          <t>Today is a Good Day</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://youtu.be/p3pEe6aAJ4k?si=bzrAEs7c-zSwqBUo</t>
+          <t>https://youtu.be/9L4EjJqrz0c?si=x97RAvAA9IELRZPW</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>Shakira - La La La World Cup 2014</t>
+          <t>Heroes Tonight</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://youtu.be/2igups6VdcA?si=N5uu5genirJuWXWC</t>
+          <t>https://www.youtube.com/watch?v=074rfF4RJZc</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>Something Just Like This</t>
+          <t>Shakira - Hips Dont Lie</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://youtu.be/FM7MFYoylVs?si=TrbAGj-JAUeEJ4bd</t>
+          <t>https://youtu.be/p3pEe6aAJ4k?si=bzrAEs7c-zSwqBUo</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>Shakira - Chantaje (letra)</t>
+          <t>Shakira - La La La World Cup 2014</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://youtu.be/J76eQJP3UIQ?si=juYKqG_UCEta8y19</t>
+          <t>https://youtu.be/2igups6VdcA?si=N5uu5genirJuWXWC</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Zara Larsson – Dont Worry Bout Me</t>
+          <t>Something Just Like This</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://youtu.be/u_tzZd9kIWg?si=y-s2yCVh4U2JLsJJ</t>
+          <t>https://youtu.be/FM7MFYoylVs?si=TrbAGj-JAUeEJ4bd</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>Selena Gomez - Buscando Amor</t>
+          <t>Shakira - Chantaje (letra)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://youtu.be/2P6EExu3H5s?si=f2hv9y52VqxnVOmL</t>
+          <t>https://youtu.be/J76eQJP3UIQ?si=juYKqG_UCEta8y19</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>Shawn Mendes - In My Blood</t>
+          <t>Zara Larsson – Dont Worry Bout Me</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://youtu.be/36tggrpRoTI?si=CiCfVdO8Oepjt4Rs</t>
+          <t>https://youtu.be/u_tzZd9kIWg?si=y-s2yCVh4U2JLsJJ</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>Charlie Puth - We Dont Talk Anymore</t>
+          <t>Selena Gomez - Buscando Amor</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://youtu.be/bpFVJJBgtXY?si=L2NuwOWGhmdKacwg</t>
+          <t>https://youtu.be/2P6EExu3H5s?si=f2hv9y52VqxnVOmL</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>Selena Gomez - Adiós</t>
+          <t>Shawn Mendes - In My Blood</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://youtu.be/9H_368c2Hzw?si=UOBGyTGbUe_fISFW</t>
+          <t>https://youtu.be/36tggrpRoTI?si=CiCfVdO8Oepjt4Rs</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>Charlie Puth - Attention</t>
+          <t>Charlie Puth - We Dont Talk Anymore</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://youtu.be/Oz5JDtkf1as</t>
+          <t>https://youtu.be/bpFVJJBgtXY?si=L2NuwOWGhmdKacwg</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>Bruno Mars - Grenade</t>
+          <t>Selena Gomez - Adiós</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://youtu.be/4YrzJ9RZ9qY</t>
+          <t>https://youtu.be/9H_368c2Hzw?si=UOBGyTGbUe_fISFW</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>Let Me Love You</t>
+          <t>Charlie Puth - Attention</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://youtu.be/SMs0GnYze34?si=T-UORWGqJCoitcOM</t>
+          <t>https://youtu.be/Oz5JDtkf1as</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>Sweet But Psycho</t>
+          <t>Bruno Mars - Grenade</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://youtu.be/2KBFD0aoZy8</t>
+          <t>https://youtu.be/4YrzJ9RZ9qY</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>Whos laughing now</t>
+          <t>Let Me Love You</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://youtu.be/4JYSgIiSZSA?si=3v9kDuzvYJvWaOsO</t>
+          <t>https://youtu.be/SMs0GnYze34?si=T-UORWGqJCoitcOM</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>Girls Like You</t>
+          <t>Sweet But Psycho</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://youtu.be/aJOTlE1K90k</t>
+          <t>https://youtu.be/2KBFD0aoZy8</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>Camila Cabello - Havana</t>
+          <t>Whos laughing now</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://youtu.be/HCjNJDNzw8Y?si=QjZAi7GPIc4ParOQ</t>
+          <t>https://youtu.be/4JYSgIiSZSA?si=3v9kDuzvYJvWaOsO</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>Maroon 5 - Memories</t>
+          <t>Girls Like You</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=SlPhMPnQ58k&amp;pp=ygUPbWFyb29uIG1lbW9yaWVz</t>
+          <t>https://youtu.be/aJOTlE1K90k</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>post malone - rockstar (feat. 21 savage)</t>
+          <t>Camila Cabello - Havana</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=9lQP9-F8kIQ</t>
+          <t>https://youtu.be/HCjNJDNzw8Y?si=QjZAi7GPIc4ParOQ</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>Drake - Gods plan</t>
+          <t>Maroon 5 - Memories</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=ScfgOVJiu_I</t>
+          <t>https://www.youtube.com/watch?v=SlPhMPnQ58k&amp;pp=ygUPbWFyb29uIG1lbW9yaWVz</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>Dua Lipa - Levitating</t>
+          <t>post malone - rockstar (feat. 21 savage)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=j2c3tR_qfiQ</t>
+          <t>https://www.youtube.com/watch?v=9lQP9-F8kIQ</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>Justin Bieber - Baby</t>
+          <t>Drake - Gods plan</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=khOFw2f4bQY</t>
+          <t>https://www.youtube.com/watch?v=ScfgOVJiu_I</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>State of Grace</t>
+          <t>Dua Lipa - Levitating</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=gr4cqcqnAN0</t>
+          <t>https://www.youtube.com/watch?v=j2c3tR_qfiQ</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>Taylor Swift - Back To December</t>
+          <t>Justin Bieber - Baby</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://youtu.be/QUwxKWT6m7U?si=LNPBWKl0DqXIfOP2</t>
+          <t>https://www.youtube.com/watch?v=khOFw2f4bQY</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>As it was</t>
+          <t>State of Grace</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://youtu.be/Qfm6nfz1QNQ?si=3mMjYFpALij7GELl</t>
+          <t>https://www.youtube.com/watch?v=gr4cqcqnAN0</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>Taylor Swift - Begin Again</t>
+          <t>Taylor Swift - Back To December</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://youtu.be/cMPEd8m79Hw?si=9zE5-51p0xGyEgSO</t>
+          <t>https://youtu.be/QUwxKWT6m7U?si=LNPBWKl0DqXIfOP2</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>Sofia</t>
+          <t>As it was</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://youtu.be/ftI_Lp7LAuU?si=aOFT5Ral2-A_2PxG</t>
+          <t>https://youtu.be/Qfm6nfz1QNQ?si=3mMjYFpALij7GELl</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>Numb (lyrics|rock)</t>
+          <t>Taylor Swift - Begin Again</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://youtu.be/8P0vKLHbtMg?si=HhXMHjE8vD2yeC_B</t>
+          <t>https://youtu.be/cMPEd8m79Hw?si=9zE5-51p0xGyEgSO</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>For The Rest Of My Life</t>
+          <t>Sofia</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://youtu.be/PHbZ9SXHJwA?si=_7a2Gaka2oPEWrCQ</t>
+          <t>https://youtu.be/ftI_Lp7LAuU?si=aOFT5Ral2-A_2PxG</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>Insha Allah</t>
+          <t>Numb (lyrics|rock)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://youtu.be/8xXJyFNfiy8?si=XkqgGm4hEyZoqJe1</t>
+          <t>https://youtu.be/8P0vKLHbtMg?si=HhXMHjE8vD2yeC_B</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>Hunger Games | Atlas</t>
+          <t>For The Rest Of My Life</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://youtu.be/Lh3TokLzzmw?si=I5CcdBNIEuwDZvVT</t>
+          <t>https://youtu.be/PHbZ9SXHJwA?si=_7a2Gaka2oPEWrCQ</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>Hard To Say Im Sorry</t>
+          <t>Insha Allah</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://youtu.be/XCmOdVia9DE?si=60M6i15UUakuL7DH</t>
+          <t>https://youtu.be/8xXJyFNfiy8?si=XkqgGm4hEyZoqJe1</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>Sasha Sloan - Lie</t>
+          <t>Hunger Games | Atlas</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://youtu.be/AzjTJpzfB8U?si=PHYxAGETm1P1opd0</t>
+          <t>https://youtu.be/Lh3TokLzzmw?si=I5CcdBNIEuwDZvVT</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>Solo Para Ti</t>
+          <t>Hard To Say Im Sorry</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://youtu.be/5D_A4IBWSv4?si=pgNinSqUyLBks6po</t>
+          <t>https://youtu.be/XCmOdVia9DE?si=60M6i15UUakuL7DH</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>Zara Larsson - This Ones For You</t>
+          <t>Sasha Sloan - Lie</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://youtu.be/MoHnffhBwqs?si=_FGX4ucMtOTcD2to</t>
+          <t>https://youtu.be/AzjTJpzfB8U?si=PHYxAGETm1P1opd0</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>La Cintura</t>
+          <t>Solo Para Ti</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://youtu.be/Eg4LUvUjUWI?si=YqeuNfTh_iTuj-dP</t>
+          <t>https://youtu.be/5D_A4IBWSv4?si=pgNinSqUyLBks6po</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>Diamond Heart</t>
+          <t>Zara Larsson - This Ones For You</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://youtu.be/bcHoBDw4G10?si=auASu-G_c9NkS48Z</t>
+          <t>https://youtu.be/MoHnffhBwqs?si=_FGX4ucMtOTcD2to</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>Halsey - Sorry</t>
+          <t>La Cintura</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://youtu.be/CPAoMCo7tNw?si=2rEiXXCn6UcySUVZ</t>
+          <t>https://youtu.be/Eg4LUvUjUWI?si=YqeuNfTh_iTuj-dP</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>Relax, Take it Easy</t>
+          <t>Diamond Heart</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://youtu.be/EVDYmBrl02Q?si=ODB07HFZCtTtg4F4</t>
+          <t>https://youtu.be/bcHoBDw4G10?si=auASu-G_c9NkS48Z</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>Thank you Allah</t>
+          <t>Halsey - Sorry</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://youtu.be/RBrdl0v_anc?si=cu3qNsVyUIIzZGvv</t>
+          <t>https://youtu.be/CPAoMCo7tNw?si=2rEiXXCn6UcySUVZ</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>Let me down slowly</t>
+          <t>Relax, Take it Easy</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://youtu.be/50VNCymT-Cs?si=sEwBTlJCeuqL9LTD</t>
+          <t>https://youtu.be/EVDYmBrl02Q?si=ODB07HFZCtTtg4F4</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>Lonely (acoustic)</t>
+          <t>Thank you Allah</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://youtu.be/Cu5hhxP_prE?si=VRZVlVcLWqk8Dasg</t>
+          <t>https://youtu.be/RBrdl0v_anc?si=cu3qNsVyUIIzZGvv</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>Selfish love</t>
+          <t>Let me down slowly</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://youtu.be/9gqAq6kq5Ek?si=Gro32XWDuPLWzyIv</t>
+          <t>https://youtu.be/50VNCymT-Cs?si=sEwBTlJCeuqL9LTD</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>twenty one pilots: Heathens</t>
+          <t>Lonely (acoustic)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://youtu.be/UprcpdwuwCg?si=O6_fwxx8TOkfjIXi</t>
+          <t>https://youtu.be/Cu5hhxP_prE?si=VRZVlVcLWqk8Dasg</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>Dont Let Me Down</t>
+          <t>Selfish love</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://youtu.be/Io0fBr1XBUA?si=SUp9MdCXlOU_Vf5s</t>
+          <t>https://youtu.be/9gqAq6kq5Ek?si=Gro32XWDuPLWzyIv</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>Someone you loved</t>
+          <t>twenty one pilots: Heathens</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://youtu.be/zABLecsR5UE?si=k3rryaA0P3O8JBhY</t>
+          <t>https://youtu.be/UprcpdwuwCg?si=O6_fwxx8TOkfjIXi</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>Fed up with us</t>
+          <t>Dont Let Me Down</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://youtu.be/n1NTv6Y4pxs?si=76WA3JI0TGILBHm7</t>
+          <t>https://youtu.be/Io0fBr1XBUA?si=SUp9MdCXlOU_Vf5s</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>Skyfall</t>
+          <t>Someone you loved</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://youtu.be/DeumyOzKqgI?si=Cok0dR7byK6pN682</t>
+          <t>https://youtu.be/zABLecsR5UE?si=k3rryaA0P3O8JBhY</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>Story of my life</t>
+          <t>Fed up with us</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://youtu.be/W-TE_Ys4iwM?si=RViOxRuaXxdz3pmm</t>
+          <t>https://youtu.be/n1NTv6Y4pxs?si=76WA3JI0TGILBHm7</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>Reamonn - Tonight</t>
+          <t>Skyfall</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://youtu.be/jtoncUzV6nA?si=yULSO1-MxnAVV13i</t>
+          <t>https://youtu.be/DeumyOzKqgI?si=Cok0dR7byK6pN682</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>Hymn For The Weekend</t>
+          <t>Story of my life</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=YykjpeuMNEk</t>
+          <t>https://youtu.be/W-TE_Ys4iwM?si=RViOxRuaXxdz3pmm</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>Hell Or High Water</t>
+          <t>Reamonn - Tonight</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://youtu.be/zgDbp5C74sU?si=R8Q5HZq2vzhGL57g</t>
+          <t>https://youtu.be/jtoncUzV6nA?si=yULSO1-MxnAVV13i</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>Lonely</t>
+          <t>Hymn For The Weekend</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://youtu.be/M4hvSgnsnog?si=TtDhe_NUHM1NZaY9</t>
+          <t>https://www.youtube.com/watch?v=YykjpeuMNEk</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>Everything I Need</t>
+          <t>Hell Or High Water</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=9bCp7j3nC30</t>
+          <t>https://youtu.be/zgDbp5C74sU?si=R8Q5HZq2vzhGL57g</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="B95" t="inlineStr">
         <is>
-          <t>Love the way you lie</t>
+          <t>Lonely</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://youtu.be/h_-JFUci0BM?si=SHiuHs1NdIjpN0WP</t>
+          <t>https://youtu.be/M4hvSgnsnog?si=TtDhe_NUHM1NZaY9</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>Moving Mountains</t>
+          <t>Everything I Need</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://youtu.be/S_0r3hYg78o?si=Be6GShy7mgRcl9Ha</t>
+          <t>https://www.youtube.com/watch?v=9bCp7j3nC30</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="B97" t="inlineStr">
         <is>
-          <t>Numb (cover)</t>
+          <t>Love the way you lie</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://youtu.be/gHp-OjLOG5A?si=0abUDswbKz6rhQeX</t>
+          <t>https://youtu.be/h_-JFUci0BM?si=SHiuHs1NdIjpN0WP</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>Until I found you</t>
+          <t>Moving Mountains</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://youtu.be/oIKuyj2GQtY</t>
+          <t>https://youtu.be/S_0r3hYg78o?si=Be6GShy7mgRcl9Ha</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="B99" t="inlineStr">
         <is>
-          <t>Heart is on fire</t>
+          <t>Numb (cover)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://youtu.be/kBqqlW6-99M?si=kXaaJTqhA4PaY6Gd</t>
+          <t>https://youtu.be/gHp-OjLOG5A?si=0abUDswbKz6rhQeX</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="B100" t="inlineStr">
         <is>
-          <t>Holes</t>
+          <t>Until I found you</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://youtu.be/DeFWClW7skQ?si=hkIGl-CTTw-FbnLz</t>
+          <t>https://youtu.be/oIKuyj2GQtY</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>Survivors</t>
+          <t>Heart is on fire</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=vN0gaXS8dQE</t>
+          <t>https://youtu.be/kBqqlW6-99M?si=kXaaJTqhA4PaY6Gd</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="B102" t="inlineStr">
         <is>
-          <t>Irakliy - Ya s toboy(cover)</t>
+          <t>Holes</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>https://youtu.be/3WmdZOF5bKk?si=LcXY8Gohxxx4cZSA</t>
+          <t>https://youtu.be/DeFWClW7skQ?si=hkIGl-CTTw-FbnLz</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>Vetrom stat (cover)</t>
+          <t>Survivors</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>https://youtu.be/kkzEs0gdvZI?si=Z456wgKuJd0aE_PA</t>
+          <t>https://www.youtube.com/watch?v=vN0gaXS8dQE</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>Reamonn - Supergirl</t>
+          <t>Irakliy - Ya s toboy(cover)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>https://youtu.be/ctmS5XX67Ek?si=NGZGPw0bcpfZciyi</t>
+          <t>https://youtu.be/3WmdZOF5bKk?si=LcXY8Gohxxx4cZSA</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
-          <t>Another Love</t>
+          <t>Vetrom stat (cover)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>https://youtu.be/Jkj36B1YuDU?si=Yku5tRPe7avRNr2R</t>
+          <t>https://youtu.be/kkzEs0gdvZI?si=Z456wgKuJd0aE_PA</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="B106" t="inlineStr">
         <is>
-          <t>All the little lights</t>
+          <t>Reamonn - Supergirl</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>https://youtu.be/OkxVxox--Io?si=AE4wj_c_uqTWGrbB</t>
+          <t>https://youtu.be/ctmS5XX67Ek?si=NGZGPw0bcpfZciyi</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="B107" t="inlineStr">
         <is>
-          <t>Arcade</t>
+          <t>Another Love</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>https://youtu.be/Qau6mObfSGM?si=RsrcZ0VUCOHaEwE4</t>
+          <t>https://youtu.be/Jkj36B1YuDU?si=Yku5tRPe7avRNr2R</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="B108" t="inlineStr">
         <is>
-          <t>Burito - Po volnam</t>
+          <t>All the little lights</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>https://youtu.be/jqyJ4xW2gb0?si=VgrA4JKMWkeWDIA5</t>
+          <t>https://youtu.be/OkxVxox--Io?si=AE4wj_c_uqTWGrbB</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>To Be Free</t>
+          <t>Arcade</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>https://youtu.be/hNd5pILkpSw?si=qiwZxiuS0yeiuOPs</t>
+          <t>https://youtu.be/Qau6mObfSGM?si=RsrcZ0VUCOHaEwE4</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>Castle of Glass</t>
+          <t>Burito - Po volnam</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=PPkJeWPP2nM</t>
+          <t>https://youtu.be/jqyJ4xW2gb0?si=VgrA4JKMWkeWDIA5</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="B111" t="inlineStr">
         <is>
-          <t>Ava Max - Alone</t>
+          <t>To Be Free</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>https://youtu.be/omvW1cI-3xg?si=zHiFadZaUUpddcgu</t>
+          <t>https://youtu.be/hNd5pILkpSw?si=qiwZxiuS0yeiuOPs</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>Let Her Go (ft Ed Sheeran)</t>
+          <t>Castle of Glass</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>https://youtu.be/HTcL9WkB_wg?si=ILXw9EaPM4GJyx29</t>
+          <t>https://www.youtube.com/watch?v=PPkJeWPP2nM</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="B113" t="inlineStr">
         <is>
-          <t>In the end (rmx)</t>
+          <t>Ava Max - Alone</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>https://youtu.be/WNeLUngb-Xg?si=V95nGOt0sMvhQG7c</t>
+          <t>https://youtu.be/omvW1cI-3xg?si=zHiFadZaUUpddcgu</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="B114" t="inlineStr">
         <is>
-          <t>No Time To Die</t>
+          <t>Let Her Go (ft Ed Sheeran)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>https://youtu.be/GB_S2qFh5lU?si=XDH6CdXhqJq-g321</t>
+          <t>https://youtu.be/HTcL9WkB_wg?si=ILXw9EaPM4GJyx29</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="B115" t="inlineStr">
         <is>
-          <t>Tired Of Being Sorry</t>
+          <t>In the end (rmx)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>https://youtu.be/gzFmctgW0s8?si=JfvG_0Sj-IdPWoBY</t>
+          <t>https://youtu.be/WNeLUngb-Xg?si=V95nGOt0sMvhQG7c</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="B116" t="inlineStr">
         <is>
-          <t>The Cup Of Life - Ricky Martin</t>
+          <t>No Time To Die</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>https://youtu.be/CBfSeqfeggI?si=A2RRcM0PSvAsvpHF</t>
+          <t>https://youtu.be/GB_S2qFh5lU?si=XDH6CdXhqJq-g321</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="B117" t="inlineStr">
         <is>
-          <t>Баста - Выпускной</t>
+          <t>Tired Of Being Sorry</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>https://youtu.be/t1-yL-xvklc?si=YZ1rS5hZtleOFOy1</t>
+          <t>https://youtu.be/gzFmctgW0s8?si=JfvG_0Sj-IdPWoBY</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="B118" t="inlineStr">
         <is>
-          <t>Wonderful Life</t>
+          <t>The Cup Of Life - Ricky Martin</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>https://youtu.be/qzn_6bXdgeE?si=BgnimyD5Frnn_-o-</t>
+          <t>https://youtu.be/CBfSeqfeggI?si=A2RRcM0PSvAsvpHF</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="B119" t="inlineStr">
         <is>
+          <t>Баста - Выпускной</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>https://youtu.be/t1-yL-xvklc?si=YZ1rS5hZtleOFOy1</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Wonderful Life</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>https://youtu.be/qzn_6bXdgeE?si=BgnimyD5Frnn_-o-</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="B121" t="inlineStr">
+        <is>
           <t>Shape of My Heart</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="C121" t="inlineStr">
         <is>
           <t>https://youtu.be/pm3rDbXbZRI?si=7TxDuViBxhHGeZoU</t>
         </is>

--- a/songs.xlsx
+++ b/songs.xlsx
@@ -1062,7 +1062,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F121"/>
+  <dimension ref="A1:F122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
@@ -1096,1438 +1096,1450 @@
     <row r="2">
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lady Gaga, Bruno Mars - Die With A Smile</t>
+          <t>I Got Summer On My Mind (Still Dre Remix)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=zgaCZOQCpp8</t>
+          <t>https://www.youtube.com/watch?v=89LOsf8pDhY</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>Maxim Fadeev - Googoosha</t>
+          <t>Lady Gaga, Bruno Mars - Die With A Smile</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=gqOoJXttEec</t>
+          <t>https://www.youtube.com/watch?v=zgaCZOQCpp8</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>Elley Duhe - Middle Of The Night</t>
+          <t>Maxim Fadeev - Googoosha</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=KLTMCPzRO64</t>
+          <t>https://www.youtube.com/watch?v=gqOoJXttEec</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Broken Angel (Albert Vishi ft. Taulant Sllamniku Cover)</t>
+          <t>Elley Duhe - Middle Of The Night</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=5miHGQVFJm0</t>
+          <t>https://www.youtube.com/watch?v=KLTMCPzRO64</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Laura Pausini - It’s Not Goodbye</t>
+          <t>Broken Angel (Albert Vishi ft. Taulant Sllamniku Cover)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=onYQkI8S1UY</t>
+          <t>https://www.youtube.com/watch?v=5miHGQVFJm0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Juice Wrld - Lucid Dreams </t>
+          <t>Laura Pausini - It’s Not Goodbye</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=_fh64GbFSw4</t>
+          <t>https://www.youtube.com/watch?v=onYQkI8S1UY</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ramz - Barking</t>
+          <t xml:space="preserve">Juice Wrld - Lucid Dreams </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=Q0QKUU95bVc</t>
+          <t>https://www.youtube.com/watch?v=_fh64GbFSw4</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>falling in love with someone you can't have (a playlist)</t>
+          <t>Ramz - Barking</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=_K57AlI62V4</t>
+          <t>https://www.youtube.com/watch?v=Q0QKUU95bVc</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>Feeling Good 🌱 A playlist to lift your mood</t>
+          <t>falling in love with someone you can't have (a playlist)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=VYtBO_cDJCU</t>
+          <t>https://www.youtube.com/watch?v=_K57AlI62V4</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>Best classical music: Beethoven, Mozart, Schubert,Bach...🎶</t>
+          <t>Feeling Good 🌱 A playlist to lift your mood</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=DxnDcH2NS5c</t>
+          <t>https://www.youtube.com/watch?v=VYtBO_cDJCU</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>Selena Gomez - Bad Liar</t>
+          <t>Best classical music: Beethoven, Mozart, Schubert,Bach...🎶</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=NZKXkD6EgBk</t>
+          <t>https://www.youtube.com/watch?v=DxnDcH2NS5c</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>Florida Georgia Line - Simple (Lyrics)</t>
+          <t>Selena Gomez - Bad Liar</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=TuTDc9d_9yI</t>
+          <t>https://www.youtube.com/watch?v=NZKXkD6EgBk</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>Tones and I: Dance Monkey (US TV Debut)</t>
+          <t>Florida Georgia Line - Simple (Lyrics)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=4iQxG8ZjYO8</t>
+          <t>https://www.youtube.com/watch?v=TuTDc9d_9yI</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>the luka state - bring this all together</t>
+          <t>Tones and I: Dance Monkey (US TV Debut)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=OcJ5EgxsWBg</t>
+          <t>https://www.youtube.com/watch?v=4iQxG8ZjYO8</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sunset Sons - I Can`t Wait (Official Audio)</t>
+          <t>the luka state - bring this all together</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=JuiegvRQ8dI</t>
+          <t>https://www.youtube.com/watch?v=OcJ5EgxsWBg</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sunset Sons - Somewhere Maybe (Official Audio)</t>
+          <t>Sunset Sons - I Can`t Wait (Official Audio)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=SHapfmLyBp0</t>
+          <t>https://www.youtube.com/watch?v=JuiegvRQ8dI</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sunset Sons - Know My Name (Official Audio)</t>
+          <t>Sunset Sons - Somewhere Maybe (Official Audio)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=orMwK0veDVQ</t>
+          <t>https://www.youtube.com/watch?v=SHapfmLyBp0</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sunset Sons - The River</t>
+          <t>Sunset Sons - Know My Name (Official Audio)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=MCyEm1fViZQ</t>
+          <t>https://www.youtube.com/watch?v=orMwK0veDVQ</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sunset Sons - Loa (Official Audio)</t>
+          <t>Sunset Sons - The River</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=9tXWQy7mMsM</t>
+          <t>https://www.youtube.com/watch?v=MCyEm1fViZQ</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>Sunset Song - On The Road (Lyrics)</t>
+          <t>Sunset Sons - Loa (Official Audio)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=NsKZ-5EDqPA</t>
+          <t>https://www.youtube.com/watch?v=9tXWQy7mMsM</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>Sunset Sons - Remember</t>
+          <t>Sunset Song - On The Road (Lyrics)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=PH_P12XqY9Y</t>
+          <t>https://www.youtube.com/watch?v=NsKZ-5EDqPA</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>Craig David - Walking Away [Lyrics] 🎵</t>
+          <t>Sunset Sons - Remember</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=8AwamgSDpdA</t>
+          <t>https://www.youtube.com/watch?v=PH_P12XqY9Y</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>Escape (Rosaline OST)</t>
+          <t>Craig David - Walking Away [Lyrics] 🎵</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=M9b_z-LKE14</t>
+          <t>https://www.youtube.com/watch?v=8AwamgSDpdA</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>JEON SOMI DUMB DUMB Lyrics (전소미 DUMB DUMB 가사)</t>
+          <t>Escape (Rosaline OST)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=TfAzTYzBvTo</t>
+          <t>https://www.youtube.com/watch?v=M9b_z-LKE14</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>Zara Larsson - Lush Life</t>
+          <t>JEON SOMI DUMB DUMB Lyrics (전소미 DUMB DUMB 가사)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=tD4HCZe-tew</t>
+          <t>https://www.youtube.com/watch?v=TfAzTYzBvTo</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>Shakira - Can`t Remember to Forget You (Lyrics) ft. Rihanna</t>
+          <t>Zara Larsson - Lush Life</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=i_XM3u1_jZQ</t>
+          <t>https://www.youtube.com/watch?v=tD4HCZe-tew</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>Havana feat. Yaar &amp;amp; Kaiia - Last Night (Lyrics)</t>
+          <t>Shakira - Can`t Remember to Forget You (Lyrics) ft. Rihanna</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=i-Yuf5-zTec</t>
+          <t>https://www.youtube.com/watch?v=i_XM3u1_jZQ</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>Justin Bieber &amp; benny blanco - Lonely (Acoustic)</t>
+          <t>Havana feat. Yaar &amp;amp; Kaiia - Last Night (Lyrics)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=Cu5hhxP_prE</t>
+          <t>https://www.youtube.com/watch?v=i-Yuf5-zTec</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>Craig David - Rise &amp; Fall ft. Sting (Official Video)</t>
+          <t>Justin Bieber &amp; benny blanco - Lonely (Acoustic)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=pU2ukeS2JTE</t>
+          <t>https://www.youtube.com/watch?v=Cu5hhxP_prE</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Maroon 5 - Girls Like You ft. Cardi B (Official Music Video)</t>
+          <t>Craig David - Rise &amp; Fall ft. Sting (Official Video)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=aJOTlE1K90k</t>
+          <t>https://www.youtube.com/watch?v=pU2ukeS2JTE</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Havana feat. Yaar &amp; Kaiia - Big Love (Official Video)</t>
+          <t>Maroon 5 - Girls Like You ft. Cardi B (Official Music Video)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=aVFNJBqj5vU</t>
+          <t>https://www.youtube.com/watch?v=aJOTlE1K90k</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>Edward Maya, Vika Jigulina - Stereo love (Radio Edit) (Lyrics)</t>
+          <t>Havana feat. Yaar &amp; Kaiia - Big Love (Official Video)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=y9Kqb2z9Lzs</t>
+          <t>https://www.youtube.com/watch?v=aVFNJBqj5vU</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>Gym Class Heroes: Stereo Hearts ft. Adam Levine</t>
+          <t>Edward Maya, Vika Jigulina - Stereo love (Radio Edit) (Lyrics)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=T3E9Wjbq44E</t>
+          <t>https://www.youtube.com/watch?v=y9Kqb2z9Lzs</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>Shawn Mendes - It'll Be Okay</t>
+          <t>Gym Class Heroes: Stereo Hearts ft. Adam Levine</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://youtu.be/KrgJp7Z1Hv8?si=MOyY5rZzP-7kcfhM</t>
+          <t>https://www.youtube.com/watch?v=T3E9Wjbq44E</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>somewhere only we know (Gustixa &amp;amp; Rhianne)</t>
+          <t>Shawn Mendes - It'll Be Okay</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=92izkAK5OA0</t>
+          <t>https://youtu.be/KrgJp7Z1Hv8?si=MOyY5rZzP-7kcfhM</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>Duncan Laurence feat. FLETCHER – Arcade</t>
+          <t>somewhere only we know (Gustixa &amp;amp; Rhianne)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=308v08mFWWc</t>
+          <t>https://www.youtube.com/watch?v=92izkAK5OA0</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>Bad Liar (cover)</t>
+          <t>Duncan Laurence feat. FLETCHER – Arcade</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://youtu.be/5jfz3q9Z0RY?si=OHvyb7AMtM_wtAXc</t>
+          <t>https://www.youtube.com/watch?v=308v08mFWWc</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>Lana Del Rey - Summertime Sadness (Official Music Video)</t>
+          <t>Bad Liar (cover)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=TdrL3QxjyVw</t>
+          <t>https://youtu.be/5jfz3q9Z0RY?si=OHvyb7AMtM_wtAXc</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>Linkin Park - In The End (Mellen Gi &amp;amp; Tommee Profitt Remix)</t>
+          <t>Lana Del Rey - Summertime Sadness (Official Music Video)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=WNeLUngb-Xg</t>
+          <t>https://www.youtube.com/watch?v=TdrL3QxjyVw</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>Enya - Only Time (Official 4K Music Video)</t>
+          <t>Linkin Park - In The End (Mellen Gi &amp;amp; Tommee Profitt Remix)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=7wfYIMyS_dI</t>
+          <t>https://www.youtube.com/watch?v=WNeLUngb-Xg</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Today is a Good Day</t>
+          <t>Enya - Only Time (Official 4K Music Video)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://youtu.be/9L4EjJqrz0c?si=x97RAvAA9IELRZPW</t>
+          <t>https://www.youtube.com/watch?v=7wfYIMyS_dI</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>Heroes Tonight</t>
+          <t>Today is a Good Day</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=074rfF4RJZc</t>
+          <t>https://youtu.be/9L4EjJqrz0c?si=x97RAvAA9IELRZPW</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>Shakira - Hips Dont Lie</t>
+          <t>Heroes Tonight</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://youtu.be/p3pEe6aAJ4k?si=bzrAEs7c-zSwqBUo</t>
+          <t>https://www.youtube.com/watch?v=074rfF4RJZc</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>Shakira - La La La World Cup 2014</t>
+          <t>Shakira - Hips Dont Lie</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://youtu.be/2igups6VdcA?si=N5uu5genirJuWXWC</t>
+          <t>https://youtu.be/p3pEe6aAJ4k?si=bzrAEs7c-zSwqBUo</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Something Just Like This</t>
+          <t>Shakira - La La La World Cup 2014</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://youtu.be/FM7MFYoylVs?si=TrbAGj-JAUeEJ4bd</t>
+          <t>https://youtu.be/2igups6VdcA?si=N5uu5genirJuWXWC</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>Shakira - Chantaje (letra)</t>
+          <t>Something Just Like This</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://youtu.be/J76eQJP3UIQ?si=juYKqG_UCEta8y19</t>
+          <t>https://youtu.be/FM7MFYoylVs?si=TrbAGj-JAUeEJ4bd</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>Zara Larsson – Dont Worry Bout Me</t>
+          <t>Shakira - Chantaje (letra)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://youtu.be/u_tzZd9kIWg?si=y-s2yCVh4U2JLsJJ</t>
+          <t>https://youtu.be/J76eQJP3UIQ?si=juYKqG_UCEta8y19</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>Selena Gomez - Buscando Amor</t>
+          <t>Zara Larsson – Dont Worry Bout Me</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://youtu.be/2P6EExu3H5s?si=f2hv9y52VqxnVOmL</t>
+          <t>https://youtu.be/u_tzZd9kIWg?si=y-s2yCVh4U2JLsJJ</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>Shawn Mendes - In My Blood</t>
+          <t>Selena Gomez - Buscando Amor</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://youtu.be/36tggrpRoTI?si=CiCfVdO8Oepjt4Rs</t>
+          <t>https://youtu.be/2P6EExu3H5s?si=f2hv9y52VqxnVOmL</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>Charlie Puth - We Dont Talk Anymore</t>
+          <t>Shawn Mendes - In My Blood</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://youtu.be/bpFVJJBgtXY?si=L2NuwOWGhmdKacwg</t>
+          <t>https://youtu.be/36tggrpRoTI?si=CiCfVdO8Oepjt4Rs</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>Selena Gomez - Adiós</t>
+          <t>Charlie Puth - We Dont Talk Anymore</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://youtu.be/9H_368c2Hzw?si=UOBGyTGbUe_fISFW</t>
+          <t>https://youtu.be/bpFVJJBgtXY?si=L2NuwOWGhmdKacwg</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>Charlie Puth - Attention</t>
+          <t>Selena Gomez - Adiós</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://youtu.be/Oz5JDtkf1as</t>
+          <t>https://youtu.be/9H_368c2Hzw?si=UOBGyTGbUe_fISFW</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>Bruno Mars - Grenade</t>
+          <t>Charlie Puth - Attention</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://youtu.be/4YrzJ9RZ9qY</t>
+          <t>https://youtu.be/Oz5JDtkf1as</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>Let Me Love You</t>
+          <t>Bruno Mars - Grenade</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://youtu.be/SMs0GnYze34?si=T-UORWGqJCoitcOM</t>
+          <t>https://youtu.be/4YrzJ9RZ9qY</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>Sweet But Psycho</t>
+          <t>Let Me Love You</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://youtu.be/2KBFD0aoZy8</t>
+          <t>https://youtu.be/SMs0GnYze34?si=T-UORWGqJCoitcOM</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>Whos laughing now</t>
+          <t>Sweet But Psycho</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://youtu.be/4JYSgIiSZSA?si=3v9kDuzvYJvWaOsO</t>
+          <t>https://youtu.be/2KBFD0aoZy8</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>Girls Like You</t>
+          <t>Whos laughing now</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://youtu.be/aJOTlE1K90k</t>
+          <t>https://youtu.be/4JYSgIiSZSA?si=3v9kDuzvYJvWaOsO</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>Camila Cabello - Havana</t>
+          <t>Girls Like You</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://youtu.be/HCjNJDNzw8Y?si=QjZAi7GPIc4ParOQ</t>
+          <t>https://youtu.be/aJOTlE1K90k</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>Maroon 5 - Memories</t>
+          <t>Camila Cabello - Havana</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=SlPhMPnQ58k&amp;pp=ygUPbWFyb29uIG1lbW9yaWVz</t>
+          <t>https://youtu.be/HCjNJDNzw8Y?si=QjZAi7GPIc4ParOQ</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>post malone - rockstar (feat. 21 savage)</t>
+          <t>Maroon 5 - Memories</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=9lQP9-F8kIQ</t>
+          <t>https://www.youtube.com/watch?v=SlPhMPnQ58k&amp;pp=ygUPbWFyb29uIG1lbW9yaWVz</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>Drake - Gods plan</t>
+          <t>post malone - rockstar (feat. 21 savage)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=ScfgOVJiu_I</t>
+          <t>https://www.youtube.com/watch?v=9lQP9-F8kIQ</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>Dua Lipa - Levitating</t>
+          <t>Drake - Gods plan</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=j2c3tR_qfiQ</t>
+          <t>https://www.youtube.com/watch?v=ScfgOVJiu_I</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>Justin Bieber - Baby</t>
+          <t>Dua Lipa - Levitating</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=khOFw2f4bQY</t>
+          <t>https://www.youtube.com/watch?v=j2c3tR_qfiQ</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>State of Grace</t>
+          <t>Justin Bieber - Baby</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=gr4cqcqnAN0</t>
+          <t>https://www.youtube.com/watch?v=khOFw2f4bQY</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>Taylor Swift - Back To December</t>
+          <t>State of Grace</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://youtu.be/QUwxKWT6m7U?si=LNPBWKl0DqXIfOP2</t>
+          <t>https://www.youtube.com/watch?v=gr4cqcqnAN0</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>As it was</t>
+          <t>Taylor Swift - Back To December</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://youtu.be/Qfm6nfz1QNQ?si=3mMjYFpALij7GELl</t>
+          <t>https://youtu.be/QUwxKWT6m7U?si=LNPBWKl0DqXIfOP2</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>Taylor Swift - Begin Again</t>
+          <t>As it was</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://youtu.be/cMPEd8m79Hw?si=9zE5-51p0xGyEgSO</t>
+          <t>https://youtu.be/Qfm6nfz1QNQ?si=3mMjYFpALij7GELl</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>Sofia</t>
+          <t>Taylor Swift - Begin Again</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://youtu.be/ftI_Lp7LAuU?si=aOFT5Ral2-A_2PxG</t>
+          <t>https://youtu.be/cMPEd8m79Hw?si=9zE5-51p0xGyEgSO</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>Numb (lyrics|rock)</t>
+          <t>Sofia</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://youtu.be/8P0vKLHbtMg?si=HhXMHjE8vD2yeC_B</t>
+          <t>https://youtu.be/ftI_Lp7LAuU?si=aOFT5Ral2-A_2PxG</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>For The Rest Of My Life</t>
+          <t>Numb (lyrics|rock)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://youtu.be/PHbZ9SXHJwA?si=_7a2Gaka2oPEWrCQ</t>
+          <t>https://youtu.be/8P0vKLHbtMg?si=HhXMHjE8vD2yeC_B</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>Insha Allah</t>
+          <t>For The Rest Of My Life</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://youtu.be/8xXJyFNfiy8?si=XkqgGm4hEyZoqJe1</t>
+          <t>https://youtu.be/PHbZ9SXHJwA?si=_7a2Gaka2oPEWrCQ</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>Hunger Games | Atlas</t>
+          <t>Insha Allah</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://youtu.be/Lh3TokLzzmw?si=I5CcdBNIEuwDZvVT</t>
+          <t>https://youtu.be/8xXJyFNfiy8?si=XkqgGm4hEyZoqJe1</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>Hard To Say Im Sorry</t>
+          <t>Hunger Games | Atlas</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://youtu.be/XCmOdVia9DE?si=60M6i15UUakuL7DH</t>
+          <t>https://youtu.be/Lh3TokLzzmw?si=I5CcdBNIEuwDZvVT</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>Sasha Sloan - Lie</t>
+          <t>Hard To Say Im Sorry</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://youtu.be/AzjTJpzfB8U?si=PHYxAGETm1P1opd0</t>
+          <t>https://youtu.be/XCmOdVia9DE?si=60M6i15UUakuL7DH</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>Solo Para Ti</t>
+          <t>Sasha Sloan - Lie</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://youtu.be/5D_A4IBWSv4?si=pgNinSqUyLBks6po</t>
+          <t>https://youtu.be/AzjTJpzfB8U?si=PHYxAGETm1P1opd0</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>Zara Larsson - This Ones For You</t>
+          <t>Solo Para Ti</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://youtu.be/MoHnffhBwqs?si=_FGX4ucMtOTcD2to</t>
+          <t>https://youtu.be/5D_A4IBWSv4?si=pgNinSqUyLBks6po</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>La Cintura</t>
+          <t>Zara Larsson - This Ones For You</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://youtu.be/Eg4LUvUjUWI?si=YqeuNfTh_iTuj-dP</t>
+          <t>https://youtu.be/MoHnffhBwqs?si=_FGX4ucMtOTcD2to</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>Diamond Heart</t>
+          <t>La Cintura</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://youtu.be/bcHoBDw4G10?si=auASu-G_c9NkS48Z</t>
+          <t>https://youtu.be/Eg4LUvUjUWI?si=YqeuNfTh_iTuj-dP</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>Halsey - Sorry</t>
+          <t>Diamond Heart</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://youtu.be/CPAoMCo7tNw?si=2rEiXXCn6UcySUVZ</t>
+          <t>https://youtu.be/bcHoBDw4G10?si=auASu-G_c9NkS48Z</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>Relax, Take it Easy</t>
+          <t>Halsey - Sorry</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://youtu.be/EVDYmBrl02Q?si=ODB07HFZCtTtg4F4</t>
+          <t>https://youtu.be/CPAoMCo7tNw?si=2rEiXXCn6UcySUVZ</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>Thank you Allah</t>
+          <t>Relax, Take it Easy</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://youtu.be/RBrdl0v_anc?si=cu3qNsVyUIIzZGvv</t>
+          <t>https://youtu.be/EVDYmBrl02Q?si=ODB07HFZCtTtg4F4</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>Let me down slowly</t>
+          <t>Thank you Allah</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://youtu.be/50VNCymT-Cs?si=sEwBTlJCeuqL9LTD</t>
+          <t>https://youtu.be/RBrdl0v_anc?si=cu3qNsVyUIIzZGvv</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>Lonely (acoustic)</t>
+          <t>Let me down slowly</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://youtu.be/Cu5hhxP_prE?si=VRZVlVcLWqk8Dasg</t>
+          <t>https://youtu.be/50VNCymT-Cs?si=sEwBTlJCeuqL9LTD</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>Selfish love</t>
+          <t>Lonely (acoustic)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://youtu.be/9gqAq6kq5Ek?si=Gro32XWDuPLWzyIv</t>
+          <t>https://youtu.be/Cu5hhxP_prE?si=VRZVlVcLWqk8Dasg</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>twenty one pilots: Heathens</t>
+          <t>Selfish love</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://youtu.be/UprcpdwuwCg?si=O6_fwxx8TOkfjIXi</t>
+          <t>https://youtu.be/9gqAq6kq5Ek?si=Gro32XWDuPLWzyIv</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>Dont Let Me Down</t>
+          <t>twenty one pilots: Heathens</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://youtu.be/Io0fBr1XBUA?si=SUp9MdCXlOU_Vf5s</t>
+          <t>https://youtu.be/UprcpdwuwCg?si=O6_fwxx8TOkfjIXi</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>Someone you loved</t>
+          <t>Dont Let Me Down</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://youtu.be/zABLecsR5UE?si=k3rryaA0P3O8JBhY</t>
+          <t>https://youtu.be/Io0fBr1XBUA?si=SUp9MdCXlOU_Vf5s</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>Fed up with us</t>
+          <t>Someone you loved</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://youtu.be/n1NTv6Y4pxs?si=76WA3JI0TGILBHm7</t>
+          <t>https://youtu.be/zABLecsR5UE?si=k3rryaA0P3O8JBhY</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>Skyfall</t>
+          <t>Fed up with us</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://youtu.be/DeumyOzKqgI?si=Cok0dR7byK6pN682</t>
+          <t>https://youtu.be/n1NTv6Y4pxs?si=76WA3JI0TGILBHm7</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>Story of my life</t>
+          <t>Skyfall</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://youtu.be/W-TE_Ys4iwM?si=RViOxRuaXxdz3pmm</t>
+          <t>https://youtu.be/DeumyOzKqgI?si=Cok0dR7byK6pN682</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>Reamonn - Tonight</t>
+          <t>Story of my life</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://youtu.be/jtoncUzV6nA?si=yULSO1-MxnAVV13i</t>
+          <t>https://youtu.be/W-TE_Ys4iwM?si=RViOxRuaXxdz3pmm</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>Hymn For The Weekend</t>
+          <t>Reamonn - Tonight</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=YykjpeuMNEk</t>
+          <t>https://youtu.be/jtoncUzV6nA?si=yULSO1-MxnAVV13i</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>Hell Or High Water</t>
+          <t>Hymn For The Weekend</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://youtu.be/zgDbp5C74sU?si=R8Q5HZq2vzhGL57g</t>
+          <t>https://www.youtube.com/watch?v=YykjpeuMNEk</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="B95" t="inlineStr">
         <is>
-          <t>Lonely</t>
+          <t>Hell Or High Water</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://youtu.be/M4hvSgnsnog?si=TtDhe_NUHM1NZaY9</t>
+          <t>https://youtu.be/zgDbp5C74sU?si=R8Q5HZq2vzhGL57g</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>Everything I Need</t>
+          <t>Lonely</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=9bCp7j3nC30</t>
+          <t>https://youtu.be/M4hvSgnsnog?si=TtDhe_NUHM1NZaY9</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="B97" t="inlineStr">
         <is>
-          <t>Love the way you lie</t>
+          <t>Everything I Need</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://youtu.be/h_-JFUci0BM?si=SHiuHs1NdIjpN0WP</t>
+          <t>https://www.youtube.com/watch?v=9bCp7j3nC30</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>Moving Mountains</t>
+          <t>Love the way you lie</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://youtu.be/S_0r3hYg78o?si=Be6GShy7mgRcl9Ha</t>
+          <t>https://youtu.be/h_-JFUci0BM?si=SHiuHs1NdIjpN0WP</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="B99" t="inlineStr">
         <is>
-          <t>Numb (cover)</t>
+          <t>Moving Mountains</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://youtu.be/gHp-OjLOG5A?si=0abUDswbKz6rhQeX</t>
+          <t>https://youtu.be/S_0r3hYg78o?si=Be6GShy7mgRcl9Ha</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="B100" t="inlineStr">
         <is>
-          <t>Until I found you</t>
+          <t>Numb (cover)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://youtu.be/oIKuyj2GQtY</t>
+          <t>https://youtu.be/gHp-OjLOG5A?si=0abUDswbKz6rhQeX</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>Heart is on fire</t>
+          <t>Until I found you</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://youtu.be/kBqqlW6-99M?si=kXaaJTqhA4PaY6Gd</t>
+          <t>https://youtu.be/oIKuyj2GQtY</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="B102" t="inlineStr">
         <is>
-          <t>Holes</t>
+          <t>Heart is on fire</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>https://youtu.be/DeFWClW7skQ?si=hkIGl-CTTw-FbnLz</t>
+          <t>https://youtu.be/kBqqlW6-99M?si=kXaaJTqhA4PaY6Gd</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>Survivors</t>
+          <t>Holes</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=vN0gaXS8dQE</t>
+          <t>https://youtu.be/DeFWClW7skQ?si=hkIGl-CTTw-FbnLz</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>Irakliy - Ya s toboy(cover)</t>
+          <t>Survivors</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>https://youtu.be/3WmdZOF5bKk?si=LcXY8Gohxxx4cZSA</t>
+          <t>https://www.youtube.com/watch?v=vN0gaXS8dQE</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
-          <t>Vetrom stat (cover)</t>
+          <t>Irakliy - Ya s toboy(cover)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>https://youtu.be/kkzEs0gdvZI?si=Z456wgKuJd0aE_PA</t>
+          <t>https://youtu.be/3WmdZOF5bKk?si=LcXY8Gohxxx4cZSA</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="B106" t="inlineStr">
         <is>
-          <t>Reamonn - Supergirl</t>
+          <t>Vetrom stat (cover)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>https://youtu.be/ctmS5XX67Ek?si=NGZGPw0bcpfZciyi</t>
+          <t>https://youtu.be/kkzEs0gdvZI?si=Z456wgKuJd0aE_PA</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="B107" t="inlineStr">
         <is>
-          <t>Another Love</t>
+          <t>Reamonn - Supergirl</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>https://youtu.be/Jkj36B1YuDU?si=Yku5tRPe7avRNr2R</t>
+          <t>https://youtu.be/ctmS5XX67Ek?si=NGZGPw0bcpfZciyi</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="B108" t="inlineStr">
         <is>
-          <t>All the little lights</t>
+          <t>Another Love</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>https://youtu.be/OkxVxox--Io?si=AE4wj_c_uqTWGrbB</t>
+          <t>https://youtu.be/Jkj36B1YuDU?si=Yku5tRPe7avRNr2R</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>Arcade</t>
+          <t>All the little lights</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>https://youtu.be/Qau6mObfSGM?si=RsrcZ0VUCOHaEwE4</t>
+          <t>https://youtu.be/OkxVxox--Io?si=AE4wj_c_uqTWGrbB</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>Burito - Po volnam</t>
+          <t>Arcade</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>https://youtu.be/jqyJ4xW2gb0?si=VgrA4JKMWkeWDIA5</t>
+          <t>https://youtu.be/Qau6mObfSGM?si=RsrcZ0VUCOHaEwE4</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="B111" t="inlineStr">
         <is>
-          <t>To Be Free</t>
+          <t>Burito - Po volnam</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>https://youtu.be/hNd5pILkpSw?si=qiwZxiuS0yeiuOPs</t>
+          <t>https://youtu.be/jqyJ4xW2gb0?si=VgrA4JKMWkeWDIA5</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>Castle of Glass</t>
+          <t>To Be Free</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=PPkJeWPP2nM</t>
+          <t>https://youtu.be/hNd5pILkpSw?si=qiwZxiuS0yeiuOPs</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="B113" t="inlineStr">
         <is>
-          <t>Ava Max - Alone</t>
+          <t>Castle of Glass</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>https://youtu.be/omvW1cI-3xg?si=zHiFadZaUUpddcgu</t>
+          <t>https://www.youtube.com/watch?v=PPkJeWPP2nM</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="B114" t="inlineStr">
         <is>
-          <t>Let Her Go (ft Ed Sheeran)</t>
+          <t>Ava Max - Alone</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>https://youtu.be/HTcL9WkB_wg?si=ILXw9EaPM4GJyx29</t>
+          <t>https://youtu.be/omvW1cI-3xg?si=zHiFadZaUUpddcgu</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="B115" t="inlineStr">
         <is>
-          <t>In the end (rmx)</t>
+          <t>Let Her Go (ft Ed Sheeran)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>https://youtu.be/WNeLUngb-Xg?si=V95nGOt0sMvhQG7c</t>
+          <t>https://youtu.be/HTcL9WkB_wg?si=ILXw9EaPM4GJyx29</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="B116" t="inlineStr">
         <is>
-          <t>No Time To Die</t>
+          <t>In the end (rmx)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>https://youtu.be/GB_S2qFh5lU?si=XDH6CdXhqJq-g321</t>
+          <t>https://youtu.be/WNeLUngb-Xg?si=V95nGOt0sMvhQG7c</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="B117" t="inlineStr">
         <is>
-          <t>Tired Of Being Sorry</t>
+          <t>No Time To Die</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>https://youtu.be/gzFmctgW0s8?si=JfvG_0Sj-IdPWoBY</t>
+          <t>https://youtu.be/GB_S2qFh5lU?si=XDH6CdXhqJq-g321</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="B118" t="inlineStr">
         <is>
-          <t>The Cup Of Life - Ricky Martin</t>
+          <t>Tired Of Being Sorry</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>https://youtu.be/CBfSeqfeggI?si=A2RRcM0PSvAsvpHF</t>
+          <t>https://youtu.be/gzFmctgW0s8?si=JfvG_0Sj-IdPWoBY</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="B119" t="inlineStr">
         <is>
-          <t>Баста - Выпускной</t>
+          <t>The Cup Of Life - Ricky Martin</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>https://youtu.be/t1-yL-xvklc?si=YZ1rS5hZtleOFOy1</t>
+          <t>https://youtu.be/CBfSeqfeggI?si=A2RRcM0PSvAsvpHF</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="B120" t="inlineStr">
         <is>
-          <t>Wonderful Life</t>
+          <t>Баста - Выпускной</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>https://youtu.be/qzn_6bXdgeE?si=BgnimyD5Frnn_-o-</t>
+          <t>https://youtu.be/t1-yL-xvklc?si=YZ1rS5hZtleOFOy1</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="B121" t="inlineStr">
         <is>
+          <t>Wonderful Life</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>https://youtu.be/qzn_6bXdgeE?si=BgnimyD5Frnn_-o-</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="B122" t="inlineStr">
+        <is>
           <t>Shape of My Heart</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="C122" t="inlineStr">
         <is>
           <t>https://youtu.be/pm3rDbXbZRI?si=7TxDuViBxhHGeZoU</t>
         </is>

--- a/songs.xlsx
+++ b/songs.xlsx
@@ -1062,7 +1062,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F122"/>
+  <dimension ref="A1:F123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
@@ -1096,1450 +1096,1462 @@
     <row r="2">
       <c r="B2" t="inlineStr">
         <is>
-          <t>I Got Summer On My Mind (Still Dre Remix)</t>
+          <t>Cody Francis - Rose In The Garden</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=89LOsf8pDhY</t>
+          <t>https://www.youtube.com/watch?v=JO4-j1LfoQQ</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lady Gaga, Bruno Mars - Die With A Smile</t>
+          <t>I Got Summer On My Mind (Still Dre Remix)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=zgaCZOQCpp8</t>
+          <t>https://www.youtube.com/watch?v=89LOsf8pDhY</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>Maxim Fadeev - Googoosha</t>
+          <t>Lady Gaga, Bruno Mars - Die With A Smile</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=gqOoJXttEec</t>
+          <t>https://www.youtube.com/watch?v=zgaCZOQCpp8</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Elley Duhe - Middle Of The Night</t>
+          <t>Maxim Fadeev - Googoosha</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=KLTMCPzRO64</t>
+          <t>https://www.youtube.com/watch?v=gqOoJXttEec</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Broken Angel (Albert Vishi ft. Taulant Sllamniku Cover)</t>
+          <t>Elley Duhe - Middle Of The Night</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=5miHGQVFJm0</t>
+          <t>https://www.youtube.com/watch?v=KLTMCPzRO64</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Laura Pausini - It’s Not Goodbye</t>
+          <t>Broken Angel (Albert Vishi ft. Taulant Sllamniku Cover)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=onYQkI8S1UY</t>
+          <t>https://www.youtube.com/watch?v=5miHGQVFJm0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Juice Wrld - Lucid Dreams </t>
+          <t>Laura Pausini - It’s Not Goodbye</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=_fh64GbFSw4</t>
+          <t>https://www.youtube.com/watch?v=onYQkI8S1UY</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ramz - Barking</t>
+          <t xml:space="preserve">Juice Wrld - Lucid Dreams </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=Q0QKUU95bVc</t>
+          <t>https://www.youtube.com/watch?v=_fh64GbFSw4</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>falling in love with someone you can't have (a playlist)</t>
+          <t>Ramz - Barking</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=_K57AlI62V4</t>
+          <t>https://www.youtube.com/watch?v=Q0QKUU95bVc</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>Feeling Good 🌱 A playlist to lift your mood</t>
+          <t>falling in love with someone you can't have (a playlist)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=VYtBO_cDJCU</t>
+          <t>https://www.youtube.com/watch?v=_K57AlI62V4</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>Best classical music: Beethoven, Mozart, Schubert,Bach...🎶</t>
+          <t>Feeling Good 🌱 A playlist to lift your mood</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=DxnDcH2NS5c</t>
+          <t>https://www.youtube.com/watch?v=VYtBO_cDJCU</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>Selena Gomez - Bad Liar</t>
+          <t>Best classical music: Beethoven, Mozart, Schubert,Bach...🎶</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=NZKXkD6EgBk</t>
+          <t>https://www.youtube.com/watch?v=DxnDcH2NS5c</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>Florida Georgia Line - Simple (Lyrics)</t>
+          <t>Selena Gomez - Bad Liar</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=TuTDc9d_9yI</t>
+          <t>https://www.youtube.com/watch?v=NZKXkD6EgBk</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>Tones and I: Dance Monkey (US TV Debut)</t>
+          <t>Florida Georgia Line - Simple (Lyrics)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=4iQxG8ZjYO8</t>
+          <t>https://www.youtube.com/watch?v=TuTDc9d_9yI</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>the luka state - bring this all together</t>
+          <t>Tones and I: Dance Monkey (US TV Debut)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=OcJ5EgxsWBg</t>
+          <t>https://www.youtube.com/watch?v=4iQxG8ZjYO8</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sunset Sons - I Can`t Wait (Official Audio)</t>
+          <t>the luka state - bring this all together</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=JuiegvRQ8dI</t>
+          <t>https://www.youtube.com/watch?v=OcJ5EgxsWBg</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sunset Sons - Somewhere Maybe (Official Audio)</t>
+          <t>Sunset Sons - I Can`t Wait (Official Audio)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=SHapfmLyBp0</t>
+          <t>https://www.youtube.com/watch?v=JuiegvRQ8dI</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sunset Sons - Know My Name (Official Audio)</t>
+          <t>Sunset Sons - Somewhere Maybe (Official Audio)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=orMwK0veDVQ</t>
+          <t>https://www.youtube.com/watch?v=SHapfmLyBp0</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sunset Sons - The River</t>
+          <t>Sunset Sons - Know My Name (Official Audio)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=MCyEm1fViZQ</t>
+          <t>https://www.youtube.com/watch?v=orMwK0veDVQ</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>Sunset Sons - Loa (Official Audio)</t>
+          <t>Sunset Sons - The River</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=9tXWQy7mMsM</t>
+          <t>https://www.youtube.com/watch?v=MCyEm1fViZQ</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>Sunset Song - On The Road (Lyrics)</t>
+          <t>Sunset Sons - Loa (Official Audio)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=NsKZ-5EDqPA</t>
+          <t>https://www.youtube.com/watch?v=9tXWQy7mMsM</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>Sunset Sons - Remember</t>
+          <t>Sunset Song - On The Road (Lyrics)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=PH_P12XqY9Y</t>
+          <t>https://www.youtube.com/watch?v=NsKZ-5EDqPA</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>Craig David - Walking Away [Lyrics] 🎵</t>
+          <t>Sunset Sons - Remember</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=8AwamgSDpdA</t>
+          <t>https://www.youtube.com/watch?v=PH_P12XqY9Y</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>Escape (Rosaline OST)</t>
+          <t>Craig David - Walking Away [Lyrics] 🎵</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=M9b_z-LKE14</t>
+          <t>https://www.youtube.com/watch?v=8AwamgSDpdA</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>JEON SOMI DUMB DUMB Lyrics (전소미 DUMB DUMB 가사)</t>
+          <t>Escape (Rosaline OST)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=TfAzTYzBvTo</t>
+          <t>https://www.youtube.com/watch?v=M9b_z-LKE14</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>Zara Larsson - Lush Life</t>
+          <t>JEON SOMI DUMB DUMB Lyrics (전소미 DUMB DUMB 가사)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=tD4HCZe-tew</t>
+          <t>https://www.youtube.com/watch?v=TfAzTYzBvTo</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>Shakira - Can`t Remember to Forget You (Lyrics) ft. Rihanna</t>
+          <t>Zara Larsson - Lush Life</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=i_XM3u1_jZQ</t>
+          <t>https://www.youtube.com/watch?v=tD4HCZe-tew</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>Havana feat. Yaar &amp;amp; Kaiia - Last Night (Lyrics)</t>
+          <t>Shakira - Can`t Remember to Forget You (Lyrics) ft. Rihanna</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=i-Yuf5-zTec</t>
+          <t>https://www.youtube.com/watch?v=i_XM3u1_jZQ</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>Justin Bieber &amp; benny blanco - Lonely (Acoustic)</t>
+          <t>Havana feat. Yaar &amp;amp; Kaiia - Last Night (Lyrics)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=Cu5hhxP_prE</t>
+          <t>https://www.youtube.com/watch?v=i-Yuf5-zTec</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Craig David - Rise &amp; Fall ft. Sting (Official Video)</t>
+          <t>Justin Bieber &amp; benny blanco - Lonely (Acoustic)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=pU2ukeS2JTE</t>
+          <t>https://www.youtube.com/watch?v=Cu5hhxP_prE</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Maroon 5 - Girls Like You ft. Cardi B (Official Music Video)</t>
+          <t>Craig David - Rise &amp; Fall ft. Sting (Official Video)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=aJOTlE1K90k</t>
+          <t>https://www.youtube.com/watch?v=pU2ukeS2JTE</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>Havana feat. Yaar &amp; Kaiia - Big Love (Official Video)</t>
+          <t>Maroon 5 - Girls Like You ft. Cardi B (Official Music Video)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=aVFNJBqj5vU</t>
+          <t>https://www.youtube.com/watch?v=aJOTlE1K90k</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>Edward Maya, Vika Jigulina - Stereo love (Radio Edit) (Lyrics)</t>
+          <t>Havana feat. Yaar &amp; Kaiia - Big Love (Official Video)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=y9Kqb2z9Lzs</t>
+          <t>https://www.youtube.com/watch?v=aVFNJBqj5vU</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>Gym Class Heroes: Stereo Hearts ft. Adam Levine</t>
+          <t>Edward Maya, Vika Jigulina - Stereo love (Radio Edit) (Lyrics)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=T3E9Wjbq44E</t>
+          <t>https://www.youtube.com/watch?v=y9Kqb2z9Lzs</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>Shawn Mendes - It'll Be Okay</t>
+          <t>Gym Class Heroes: Stereo Hearts ft. Adam Levine</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://youtu.be/KrgJp7Z1Hv8?si=MOyY5rZzP-7kcfhM</t>
+          <t>https://www.youtube.com/watch?v=T3E9Wjbq44E</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>somewhere only we know (Gustixa &amp;amp; Rhianne)</t>
+          <t>Shawn Mendes - It'll Be Okay</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=92izkAK5OA0</t>
+          <t>https://youtu.be/KrgJp7Z1Hv8?si=MOyY5rZzP-7kcfhM</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>Duncan Laurence feat. FLETCHER – Arcade</t>
+          <t>somewhere only we know (Gustixa &amp;amp; Rhianne)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=308v08mFWWc</t>
+          <t>https://www.youtube.com/watch?v=92izkAK5OA0</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>Bad Liar (cover)</t>
+          <t>Duncan Laurence feat. FLETCHER – Arcade</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://youtu.be/5jfz3q9Z0RY?si=OHvyb7AMtM_wtAXc</t>
+          <t>https://www.youtube.com/watch?v=308v08mFWWc</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>Lana Del Rey - Summertime Sadness (Official Music Video)</t>
+          <t>Bad Liar (cover)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=TdrL3QxjyVw</t>
+          <t>https://youtu.be/5jfz3q9Z0RY?si=OHvyb7AMtM_wtAXc</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>Linkin Park - In The End (Mellen Gi &amp;amp; Tommee Profitt Remix)</t>
+          <t>Lana Del Rey - Summertime Sadness (Official Music Video)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=WNeLUngb-Xg</t>
+          <t>https://www.youtube.com/watch?v=TdrL3QxjyVw</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Enya - Only Time (Official 4K Music Video)</t>
+          <t>Linkin Park - In The End (Mellen Gi &amp;amp; Tommee Profitt Remix)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=7wfYIMyS_dI</t>
+          <t>https://www.youtube.com/watch?v=WNeLUngb-Xg</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>Today is a Good Day</t>
+          <t>Enya - Only Time (Official 4K Music Video)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://youtu.be/9L4EjJqrz0c?si=x97RAvAA9IELRZPW</t>
+          <t>https://www.youtube.com/watch?v=7wfYIMyS_dI</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>Heroes Tonight</t>
+          <t>Today is a Good Day</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=074rfF4RJZc</t>
+          <t>https://youtu.be/9L4EjJqrz0c?si=x97RAvAA9IELRZPW</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>Shakira - Hips Dont Lie</t>
+          <t>Heroes Tonight</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://youtu.be/p3pEe6aAJ4k?si=bzrAEs7c-zSwqBUo</t>
+          <t>https://www.youtube.com/watch?v=074rfF4RJZc</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Shakira - La La La World Cup 2014</t>
+          <t>Shakira - Hips Dont Lie</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://youtu.be/2igups6VdcA?si=N5uu5genirJuWXWC</t>
+          <t>https://youtu.be/p3pEe6aAJ4k?si=bzrAEs7c-zSwqBUo</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>Something Just Like This</t>
+          <t>Shakira - La La La World Cup 2014</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://youtu.be/FM7MFYoylVs?si=TrbAGj-JAUeEJ4bd</t>
+          <t>https://youtu.be/2igups6VdcA?si=N5uu5genirJuWXWC</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>Shakira - Chantaje (letra)</t>
+          <t>Something Just Like This</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://youtu.be/J76eQJP3UIQ?si=juYKqG_UCEta8y19</t>
+          <t>https://youtu.be/FM7MFYoylVs?si=TrbAGj-JAUeEJ4bd</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>Zara Larsson – Dont Worry Bout Me</t>
+          <t>Shakira - Chantaje (letra)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://youtu.be/u_tzZd9kIWg?si=y-s2yCVh4U2JLsJJ</t>
+          <t>https://youtu.be/J76eQJP3UIQ?si=juYKqG_UCEta8y19</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>Selena Gomez - Buscando Amor</t>
+          <t>Zara Larsson – Dont Worry Bout Me</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://youtu.be/2P6EExu3H5s?si=f2hv9y52VqxnVOmL</t>
+          <t>https://youtu.be/u_tzZd9kIWg?si=y-s2yCVh4U2JLsJJ</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>Shawn Mendes - In My Blood</t>
+          <t>Selena Gomez - Buscando Amor</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://youtu.be/36tggrpRoTI?si=CiCfVdO8Oepjt4Rs</t>
+          <t>https://youtu.be/2P6EExu3H5s?si=f2hv9y52VqxnVOmL</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>Charlie Puth - We Dont Talk Anymore</t>
+          <t>Shawn Mendes - In My Blood</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://youtu.be/bpFVJJBgtXY?si=L2NuwOWGhmdKacwg</t>
+          <t>https://youtu.be/36tggrpRoTI?si=CiCfVdO8Oepjt4Rs</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>Selena Gomez - Adiós</t>
+          <t>Charlie Puth - We Dont Talk Anymore</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://youtu.be/9H_368c2Hzw?si=UOBGyTGbUe_fISFW</t>
+          <t>https://youtu.be/bpFVJJBgtXY?si=L2NuwOWGhmdKacwg</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>Charlie Puth - Attention</t>
+          <t>Selena Gomez - Adiós</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://youtu.be/Oz5JDtkf1as</t>
+          <t>https://youtu.be/9H_368c2Hzw?si=UOBGyTGbUe_fISFW</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>Bruno Mars - Grenade</t>
+          <t>Charlie Puth - Attention</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://youtu.be/4YrzJ9RZ9qY</t>
+          <t>https://youtu.be/Oz5JDtkf1as</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>Let Me Love You</t>
+          <t>Bruno Mars - Grenade</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://youtu.be/SMs0GnYze34?si=T-UORWGqJCoitcOM</t>
+          <t>https://youtu.be/4YrzJ9RZ9qY</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>Sweet But Psycho</t>
+          <t>Let Me Love You</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://youtu.be/2KBFD0aoZy8</t>
+          <t>https://youtu.be/SMs0GnYze34?si=T-UORWGqJCoitcOM</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>Whos laughing now</t>
+          <t>Sweet But Psycho</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://youtu.be/4JYSgIiSZSA?si=3v9kDuzvYJvWaOsO</t>
+          <t>https://youtu.be/2KBFD0aoZy8</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>Girls Like You</t>
+          <t>Whos laughing now</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://youtu.be/aJOTlE1K90k</t>
+          <t>https://youtu.be/4JYSgIiSZSA?si=3v9kDuzvYJvWaOsO</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>Camila Cabello - Havana</t>
+          <t>Girls Like You</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://youtu.be/HCjNJDNzw8Y?si=QjZAi7GPIc4ParOQ</t>
+          <t>https://youtu.be/aJOTlE1K90k</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>Maroon 5 - Memories</t>
+          <t>Camila Cabello - Havana</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=SlPhMPnQ58k&amp;pp=ygUPbWFyb29uIG1lbW9yaWVz</t>
+          <t>https://youtu.be/HCjNJDNzw8Y?si=QjZAi7GPIc4ParOQ</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>post malone - rockstar (feat. 21 savage)</t>
+          <t>Maroon 5 - Memories</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=9lQP9-F8kIQ</t>
+          <t>https://www.youtube.com/watch?v=SlPhMPnQ58k&amp;pp=ygUPbWFyb29uIG1lbW9yaWVz</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>Drake - Gods plan</t>
+          <t>post malone - rockstar (feat. 21 savage)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=ScfgOVJiu_I</t>
+          <t>https://www.youtube.com/watch?v=9lQP9-F8kIQ</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>Dua Lipa - Levitating</t>
+          <t>Drake - Gods plan</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=j2c3tR_qfiQ</t>
+          <t>https://www.youtube.com/watch?v=ScfgOVJiu_I</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>Justin Bieber - Baby</t>
+          <t>Dua Lipa - Levitating</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=khOFw2f4bQY</t>
+          <t>https://www.youtube.com/watch?v=j2c3tR_qfiQ</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>State of Grace</t>
+          <t>Justin Bieber - Baby</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=gr4cqcqnAN0</t>
+          <t>https://www.youtube.com/watch?v=khOFw2f4bQY</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>Taylor Swift - Back To December</t>
+          <t>State of Grace</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://youtu.be/QUwxKWT6m7U?si=LNPBWKl0DqXIfOP2</t>
+          <t>https://www.youtube.com/watch?v=gr4cqcqnAN0</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>As it was</t>
+          <t>Taylor Swift - Back To December</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://youtu.be/Qfm6nfz1QNQ?si=3mMjYFpALij7GELl</t>
+          <t>https://youtu.be/QUwxKWT6m7U?si=LNPBWKl0DqXIfOP2</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>Taylor Swift - Begin Again</t>
+          <t>As it was</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://youtu.be/cMPEd8m79Hw?si=9zE5-51p0xGyEgSO</t>
+          <t>https://youtu.be/Qfm6nfz1QNQ?si=3mMjYFpALij7GELl</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>Sofia</t>
+          <t>Taylor Swift - Begin Again</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://youtu.be/ftI_Lp7LAuU?si=aOFT5Ral2-A_2PxG</t>
+          <t>https://youtu.be/cMPEd8m79Hw?si=9zE5-51p0xGyEgSO</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>Numb (lyrics|rock)</t>
+          <t>Sofia</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://youtu.be/8P0vKLHbtMg?si=HhXMHjE8vD2yeC_B</t>
+          <t>https://youtu.be/ftI_Lp7LAuU?si=aOFT5Ral2-A_2PxG</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>For The Rest Of My Life</t>
+          <t>Numb (lyrics|rock)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://youtu.be/PHbZ9SXHJwA?si=_7a2Gaka2oPEWrCQ</t>
+          <t>https://youtu.be/8P0vKLHbtMg?si=HhXMHjE8vD2yeC_B</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>Insha Allah</t>
+          <t>For The Rest Of My Life</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://youtu.be/8xXJyFNfiy8?si=XkqgGm4hEyZoqJe1</t>
+          <t>https://youtu.be/PHbZ9SXHJwA?si=_7a2Gaka2oPEWrCQ</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>Hunger Games | Atlas</t>
+          <t>Insha Allah</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://youtu.be/Lh3TokLzzmw?si=I5CcdBNIEuwDZvVT</t>
+          <t>https://youtu.be/8xXJyFNfiy8?si=XkqgGm4hEyZoqJe1</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>Hard To Say Im Sorry</t>
+          <t>Hunger Games | Atlas</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://youtu.be/XCmOdVia9DE?si=60M6i15UUakuL7DH</t>
+          <t>https://youtu.be/Lh3TokLzzmw?si=I5CcdBNIEuwDZvVT</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>Sasha Sloan - Lie</t>
+          <t>Hard To Say Im Sorry</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://youtu.be/AzjTJpzfB8U?si=PHYxAGETm1P1opd0</t>
+          <t>https://youtu.be/XCmOdVia9DE?si=60M6i15UUakuL7DH</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>Solo Para Ti</t>
+          <t>Sasha Sloan - Lie</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://youtu.be/5D_A4IBWSv4?si=pgNinSqUyLBks6po</t>
+          <t>https://youtu.be/AzjTJpzfB8U?si=PHYxAGETm1P1opd0</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>Zara Larsson - This Ones For You</t>
+          <t>Solo Para Ti</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://youtu.be/MoHnffhBwqs?si=_FGX4ucMtOTcD2to</t>
+          <t>https://youtu.be/5D_A4IBWSv4?si=pgNinSqUyLBks6po</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>La Cintura</t>
+          <t>Zara Larsson - This Ones For You</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://youtu.be/Eg4LUvUjUWI?si=YqeuNfTh_iTuj-dP</t>
+          <t>https://youtu.be/MoHnffhBwqs?si=_FGX4ucMtOTcD2to</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>Diamond Heart</t>
+          <t>La Cintura</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://youtu.be/bcHoBDw4G10?si=auASu-G_c9NkS48Z</t>
+          <t>https://youtu.be/Eg4LUvUjUWI?si=YqeuNfTh_iTuj-dP</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>Halsey - Sorry</t>
+          <t>Diamond Heart</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://youtu.be/CPAoMCo7tNw?si=2rEiXXCn6UcySUVZ</t>
+          <t>https://youtu.be/bcHoBDw4G10?si=auASu-G_c9NkS48Z</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>Relax, Take it Easy</t>
+          <t>Halsey - Sorry</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://youtu.be/EVDYmBrl02Q?si=ODB07HFZCtTtg4F4</t>
+          <t>https://youtu.be/CPAoMCo7tNw?si=2rEiXXCn6UcySUVZ</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>Thank you Allah</t>
+          <t>Relax, Take it Easy</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://youtu.be/RBrdl0v_anc?si=cu3qNsVyUIIzZGvv</t>
+          <t>https://youtu.be/EVDYmBrl02Q?si=ODB07HFZCtTtg4F4</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>Let me down slowly</t>
+          <t>Thank you Allah</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://youtu.be/50VNCymT-Cs?si=sEwBTlJCeuqL9LTD</t>
+          <t>https://youtu.be/RBrdl0v_anc?si=cu3qNsVyUIIzZGvv</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>Lonely (acoustic)</t>
+          <t>Let me down slowly</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://youtu.be/Cu5hhxP_prE?si=VRZVlVcLWqk8Dasg</t>
+          <t>https://youtu.be/50VNCymT-Cs?si=sEwBTlJCeuqL9LTD</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>Selfish love</t>
+          <t>Lonely (acoustic)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://youtu.be/9gqAq6kq5Ek?si=Gro32XWDuPLWzyIv</t>
+          <t>https://youtu.be/Cu5hhxP_prE?si=VRZVlVcLWqk8Dasg</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>twenty one pilots: Heathens</t>
+          <t>Selfish love</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://youtu.be/UprcpdwuwCg?si=O6_fwxx8TOkfjIXi</t>
+          <t>https://youtu.be/9gqAq6kq5Ek?si=Gro32XWDuPLWzyIv</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>Dont Let Me Down</t>
+          <t>twenty one pilots: Heathens</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://youtu.be/Io0fBr1XBUA?si=SUp9MdCXlOU_Vf5s</t>
+          <t>https://youtu.be/UprcpdwuwCg?si=O6_fwxx8TOkfjIXi</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>Someone you loved</t>
+          <t>Dont Let Me Down</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://youtu.be/zABLecsR5UE?si=k3rryaA0P3O8JBhY</t>
+          <t>https://youtu.be/Io0fBr1XBUA?si=SUp9MdCXlOU_Vf5s</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>Fed up with us</t>
+          <t>Someone you loved</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://youtu.be/n1NTv6Y4pxs?si=76WA3JI0TGILBHm7</t>
+          <t>https://youtu.be/zABLecsR5UE?si=k3rryaA0P3O8JBhY</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>Skyfall</t>
+          <t>Fed up with us</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://youtu.be/DeumyOzKqgI?si=Cok0dR7byK6pN682</t>
+          <t>https://youtu.be/n1NTv6Y4pxs?si=76WA3JI0TGILBHm7</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>Story of my life</t>
+          <t>Skyfall</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://youtu.be/W-TE_Ys4iwM?si=RViOxRuaXxdz3pmm</t>
+          <t>https://youtu.be/DeumyOzKqgI?si=Cok0dR7byK6pN682</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>Reamonn - Tonight</t>
+          <t>Story of my life</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://youtu.be/jtoncUzV6nA?si=yULSO1-MxnAVV13i</t>
+          <t>https://youtu.be/W-TE_Ys4iwM?si=RViOxRuaXxdz3pmm</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>Hymn For The Weekend</t>
+          <t>Reamonn - Tonight</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=YykjpeuMNEk</t>
+          <t>https://youtu.be/jtoncUzV6nA?si=yULSO1-MxnAVV13i</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="B95" t="inlineStr">
         <is>
-          <t>Hell Or High Water</t>
+          <t>Hymn For The Weekend</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://youtu.be/zgDbp5C74sU?si=R8Q5HZq2vzhGL57g</t>
+          <t>https://www.youtube.com/watch?v=YykjpeuMNEk</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>Lonely</t>
+          <t>Hell Or High Water</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://youtu.be/M4hvSgnsnog?si=TtDhe_NUHM1NZaY9</t>
+          <t>https://youtu.be/zgDbp5C74sU?si=R8Q5HZq2vzhGL57g</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="B97" t="inlineStr">
         <is>
-          <t>Everything I Need</t>
+          <t>Lonely</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=9bCp7j3nC30</t>
+          <t>https://youtu.be/M4hvSgnsnog?si=TtDhe_NUHM1NZaY9</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>Love the way you lie</t>
+          <t>Everything I Need</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://youtu.be/h_-JFUci0BM?si=SHiuHs1NdIjpN0WP</t>
+          <t>https://www.youtube.com/watch?v=9bCp7j3nC30</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="B99" t="inlineStr">
         <is>
-          <t>Moving Mountains</t>
+          <t>Love the way you lie</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://youtu.be/S_0r3hYg78o?si=Be6GShy7mgRcl9Ha</t>
+          <t>https://youtu.be/h_-JFUci0BM?si=SHiuHs1NdIjpN0WP</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="B100" t="inlineStr">
         <is>
-          <t>Numb (cover)</t>
+          <t>Moving Mountains</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://youtu.be/gHp-OjLOG5A?si=0abUDswbKz6rhQeX</t>
+          <t>https://youtu.be/S_0r3hYg78o?si=Be6GShy7mgRcl9Ha</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>Until I found you</t>
+          <t>Numb (cover)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://youtu.be/oIKuyj2GQtY</t>
+          <t>https://youtu.be/gHp-OjLOG5A?si=0abUDswbKz6rhQeX</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="B102" t="inlineStr">
         <is>
-          <t>Heart is on fire</t>
+          <t>Until I found you</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>https://youtu.be/kBqqlW6-99M?si=kXaaJTqhA4PaY6Gd</t>
+          <t>https://youtu.be/oIKuyj2GQtY</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>Holes</t>
+          <t>Heart is on fire</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>https://youtu.be/DeFWClW7skQ?si=hkIGl-CTTw-FbnLz</t>
+          <t>https://youtu.be/kBqqlW6-99M?si=kXaaJTqhA4PaY6Gd</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>Survivors</t>
+          <t>Holes</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=vN0gaXS8dQE</t>
+          <t>https://youtu.be/DeFWClW7skQ?si=hkIGl-CTTw-FbnLz</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
-          <t>Irakliy - Ya s toboy(cover)</t>
+          <t>Survivors</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>https://youtu.be/3WmdZOF5bKk?si=LcXY8Gohxxx4cZSA</t>
+          <t>https://www.youtube.com/watch?v=vN0gaXS8dQE</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="B106" t="inlineStr">
         <is>
-          <t>Vetrom stat (cover)</t>
+          <t>Irakliy - Ya s toboy(cover)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>https://youtu.be/kkzEs0gdvZI?si=Z456wgKuJd0aE_PA</t>
+          <t>https://youtu.be/3WmdZOF5bKk?si=LcXY8Gohxxx4cZSA</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="B107" t="inlineStr">
         <is>
-          <t>Reamonn - Supergirl</t>
+          <t>Vetrom stat (cover)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>https://youtu.be/ctmS5XX67Ek?si=NGZGPw0bcpfZciyi</t>
+          <t>https://youtu.be/kkzEs0gdvZI?si=Z456wgKuJd0aE_PA</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="B108" t="inlineStr">
         <is>
-          <t>Another Love</t>
+          <t>Reamonn - Supergirl</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>https://youtu.be/Jkj36B1YuDU?si=Yku5tRPe7avRNr2R</t>
+          <t>https://youtu.be/ctmS5XX67Ek?si=NGZGPw0bcpfZciyi</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>All the little lights</t>
+          <t>Another Love</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>https://youtu.be/OkxVxox--Io?si=AE4wj_c_uqTWGrbB</t>
+          <t>https://youtu.be/Jkj36B1YuDU?si=Yku5tRPe7avRNr2R</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>Arcade</t>
+          <t>All the little lights</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>https://youtu.be/Qau6mObfSGM?si=RsrcZ0VUCOHaEwE4</t>
+          <t>https://youtu.be/OkxVxox--Io?si=AE4wj_c_uqTWGrbB</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="B111" t="inlineStr">
         <is>
-          <t>Burito - Po volnam</t>
+          <t>Arcade</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>https://youtu.be/jqyJ4xW2gb0?si=VgrA4JKMWkeWDIA5</t>
+          <t>https://youtu.be/Qau6mObfSGM?si=RsrcZ0VUCOHaEwE4</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>To Be Free</t>
+          <t>Burito - Po volnam</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>https://youtu.be/hNd5pILkpSw?si=qiwZxiuS0yeiuOPs</t>
+          <t>https://youtu.be/jqyJ4xW2gb0?si=VgrA4JKMWkeWDIA5</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="B113" t="inlineStr">
         <is>
-          <t>Castle of Glass</t>
+          <t>To Be Free</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=PPkJeWPP2nM</t>
+          <t>https://youtu.be/hNd5pILkpSw?si=qiwZxiuS0yeiuOPs</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="B114" t="inlineStr">
         <is>
-          <t>Ava Max - Alone</t>
+          <t>Castle of Glass</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>https://youtu.be/omvW1cI-3xg?si=zHiFadZaUUpddcgu</t>
+          <t>https://www.youtube.com/watch?v=PPkJeWPP2nM</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="B115" t="inlineStr">
         <is>
-          <t>Let Her Go (ft Ed Sheeran)</t>
+          <t>Ava Max - Alone</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>https://youtu.be/HTcL9WkB_wg?si=ILXw9EaPM4GJyx29</t>
+          <t>https://youtu.be/omvW1cI-3xg?si=zHiFadZaUUpddcgu</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="B116" t="inlineStr">
         <is>
-          <t>In the end (rmx)</t>
+          <t>Let Her Go (ft Ed Sheeran)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>https://youtu.be/WNeLUngb-Xg?si=V95nGOt0sMvhQG7c</t>
+          <t>https://youtu.be/HTcL9WkB_wg?si=ILXw9EaPM4GJyx29</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="B117" t="inlineStr">
         <is>
-          <t>No Time To Die</t>
+          <t>In the end (rmx)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>https://youtu.be/GB_S2qFh5lU?si=XDH6CdXhqJq-g321</t>
+          <t>https://youtu.be/WNeLUngb-Xg?si=V95nGOt0sMvhQG7c</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="B118" t="inlineStr">
         <is>
-          <t>Tired Of Being Sorry</t>
+          <t>No Time To Die</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>https://youtu.be/gzFmctgW0s8?si=JfvG_0Sj-IdPWoBY</t>
+          <t>https://youtu.be/GB_S2qFh5lU?si=XDH6CdXhqJq-g321</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="B119" t="inlineStr">
         <is>
-          <t>The Cup Of Life - Ricky Martin</t>
+          <t>Tired Of Being Sorry</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>https://youtu.be/CBfSeqfeggI?si=A2RRcM0PSvAsvpHF</t>
+          <t>https://youtu.be/gzFmctgW0s8?si=JfvG_0Sj-IdPWoBY</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="B120" t="inlineStr">
         <is>
-          <t>Баста - Выпускной</t>
+          <t>The Cup Of Life - Ricky Martin</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>https://youtu.be/t1-yL-xvklc?si=YZ1rS5hZtleOFOy1</t>
+          <t>https://youtu.be/CBfSeqfeggI?si=A2RRcM0PSvAsvpHF</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="B121" t="inlineStr">
         <is>
-          <t>Wonderful Life</t>
+          <t>Баста - Выпускной</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>https://youtu.be/qzn_6bXdgeE?si=BgnimyD5Frnn_-o-</t>
+          <t>https://youtu.be/t1-yL-xvklc?si=YZ1rS5hZtleOFOy1</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="B122" t="inlineStr">
         <is>
+          <t>Wonderful Life</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>https://youtu.be/qzn_6bXdgeE?si=BgnimyD5Frnn_-o-</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="B123" t="inlineStr">
+        <is>
           <t>Shape of My Heart</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="C123" t="inlineStr">
         <is>
           <t>https://youtu.be/pm3rDbXbZRI?si=7TxDuViBxhHGeZoU</t>
         </is>

--- a/songs.xlsx
+++ b/songs.xlsx
@@ -1062,7 +1062,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F123"/>
+  <dimension ref="A1:F124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
@@ -1096,1462 +1096,1474 @@
     <row r="2">
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cody Francis - Rose In The Garden</t>
+          <t>Lana Del Rey - Video Games</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=JO4-j1LfoQQ</t>
+          <t>https://www.youtube.com/watch?v=cE6wxDqdOV0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>I Got Summer On My Mind (Still Dre Remix)</t>
+          <t>Cody Francis - Rose In The Garden</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=89LOsf8pDhY</t>
+          <t>https://www.youtube.com/watch?v=JO4-j1LfoQQ</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lady Gaga, Bruno Mars - Die With A Smile</t>
+          <t>I Got Summer On My Mind (Still Dre Remix)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=zgaCZOQCpp8</t>
+          <t>https://www.youtube.com/watch?v=89LOsf8pDhY</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Maxim Fadeev - Googoosha</t>
+          <t>Lady Gaga, Bruno Mars - Die With A Smile</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=gqOoJXttEec</t>
+          <t>https://www.youtube.com/watch?v=zgaCZOQCpp8</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Elley Duhe - Middle Of The Night</t>
+          <t>Maxim Fadeev - Googoosha</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=KLTMCPzRO64</t>
+          <t>https://www.youtube.com/watch?v=gqOoJXttEec</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Broken Angel (Albert Vishi ft. Taulant Sllamniku Cover)</t>
+          <t>Elley Duhe - Middle Of The Night</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=5miHGQVFJm0</t>
+          <t>https://www.youtube.com/watch?v=KLTMCPzRO64</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Laura Pausini - It’s Not Goodbye</t>
+          <t>Broken Angel (Albert Vishi ft. Taulant Sllamniku Cover)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=onYQkI8S1UY</t>
+          <t>https://www.youtube.com/watch?v=5miHGQVFJm0</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Juice Wrld - Lucid Dreams </t>
+          <t>Laura Pausini - It’s Not Goodbye</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=_fh64GbFSw4</t>
+          <t>https://www.youtube.com/watch?v=onYQkI8S1UY</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ramz - Barking</t>
+          <t xml:space="preserve">Juice Wrld - Lucid Dreams </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=Q0QKUU95bVc</t>
+          <t>https://www.youtube.com/watch?v=_fh64GbFSw4</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>falling in love with someone you can't have (a playlist)</t>
+          <t>Ramz - Barking</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=_K57AlI62V4</t>
+          <t>https://www.youtube.com/watch?v=Q0QKUU95bVc</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>Feeling Good 🌱 A playlist to lift your mood</t>
+          <t>falling in love with someone you can't have (a playlist)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=VYtBO_cDJCU</t>
+          <t>https://www.youtube.com/watch?v=_K57AlI62V4</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>Best classical music: Beethoven, Mozart, Schubert,Bach...🎶</t>
+          <t>Feeling Good 🌱 A playlist to lift your mood</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=DxnDcH2NS5c</t>
+          <t>https://www.youtube.com/watch?v=VYtBO_cDJCU</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>Selena Gomez - Bad Liar</t>
+          <t>Best classical music: Beethoven, Mozart, Schubert,Bach...🎶</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=NZKXkD6EgBk</t>
+          <t>https://www.youtube.com/watch?v=DxnDcH2NS5c</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>Florida Georgia Line - Simple (Lyrics)</t>
+          <t>Selena Gomez - Bad Liar</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=TuTDc9d_9yI</t>
+          <t>https://www.youtube.com/watch?v=NZKXkD6EgBk</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>Tones and I: Dance Monkey (US TV Debut)</t>
+          <t>Florida Georgia Line - Simple (Lyrics)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=4iQxG8ZjYO8</t>
+          <t>https://www.youtube.com/watch?v=TuTDc9d_9yI</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>the luka state - bring this all together</t>
+          <t>Tones and I: Dance Monkey (US TV Debut)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=OcJ5EgxsWBg</t>
+          <t>https://www.youtube.com/watch?v=4iQxG8ZjYO8</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sunset Sons - I Can`t Wait (Official Audio)</t>
+          <t>the luka state - bring this all together</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=JuiegvRQ8dI</t>
+          <t>https://www.youtube.com/watch?v=OcJ5EgxsWBg</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sunset Sons - Somewhere Maybe (Official Audio)</t>
+          <t>Sunset Sons - I Can`t Wait (Official Audio)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=SHapfmLyBp0</t>
+          <t>https://www.youtube.com/watch?v=JuiegvRQ8dI</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sunset Sons - Know My Name (Official Audio)</t>
+          <t>Sunset Sons - Somewhere Maybe (Official Audio)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=orMwK0veDVQ</t>
+          <t>https://www.youtube.com/watch?v=SHapfmLyBp0</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>Sunset Sons - The River</t>
+          <t>Sunset Sons - Know My Name (Official Audio)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=MCyEm1fViZQ</t>
+          <t>https://www.youtube.com/watch?v=orMwK0veDVQ</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>Sunset Sons - Loa (Official Audio)</t>
+          <t>Sunset Sons - The River</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=9tXWQy7mMsM</t>
+          <t>https://www.youtube.com/watch?v=MCyEm1fViZQ</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>Sunset Song - On The Road (Lyrics)</t>
+          <t>Sunset Sons - Loa (Official Audio)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=NsKZ-5EDqPA</t>
+          <t>https://www.youtube.com/watch?v=9tXWQy7mMsM</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>Sunset Sons - Remember</t>
+          <t>Sunset Song - On The Road (Lyrics)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=PH_P12XqY9Y</t>
+          <t>https://www.youtube.com/watch?v=NsKZ-5EDqPA</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>Craig David - Walking Away [Lyrics] 🎵</t>
+          <t>Sunset Sons - Remember</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=8AwamgSDpdA</t>
+          <t>https://www.youtube.com/watch?v=PH_P12XqY9Y</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>Escape (Rosaline OST)</t>
+          <t>Craig David - Walking Away [Lyrics] 🎵</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=M9b_z-LKE14</t>
+          <t>https://www.youtube.com/watch?v=8AwamgSDpdA</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>JEON SOMI DUMB DUMB Lyrics (전소미 DUMB DUMB 가사)</t>
+          <t>Escape (Rosaline OST)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=TfAzTYzBvTo</t>
+          <t>https://www.youtube.com/watch?v=M9b_z-LKE14</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>Zara Larsson - Lush Life</t>
+          <t>JEON SOMI DUMB DUMB Lyrics (전소미 DUMB DUMB 가사)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=tD4HCZe-tew</t>
+          <t>https://www.youtube.com/watch?v=TfAzTYzBvTo</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>Shakira - Can`t Remember to Forget You (Lyrics) ft. Rihanna</t>
+          <t>Zara Larsson - Lush Life</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=i_XM3u1_jZQ</t>
+          <t>https://www.youtube.com/watch?v=tD4HCZe-tew</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>Havana feat. Yaar &amp;amp; Kaiia - Last Night (Lyrics)</t>
+          <t>Shakira - Can`t Remember to Forget You (Lyrics) ft. Rihanna</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=i-Yuf5-zTec</t>
+          <t>https://www.youtube.com/watch?v=i_XM3u1_jZQ</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Justin Bieber &amp; benny blanco - Lonely (Acoustic)</t>
+          <t>Havana feat. Yaar &amp;amp; Kaiia - Last Night (Lyrics)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=Cu5hhxP_prE</t>
+          <t>https://www.youtube.com/watch?v=i-Yuf5-zTec</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Craig David - Rise &amp; Fall ft. Sting (Official Video)</t>
+          <t>Justin Bieber &amp; benny blanco - Lonely (Acoustic)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=pU2ukeS2JTE</t>
+          <t>https://www.youtube.com/watch?v=Cu5hhxP_prE</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>Maroon 5 - Girls Like You ft. Cardi B (Official Music Video)</t>
+          <t>Craig David - Rise &amp; Fall ft. Sting (Official Video)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=aJOTlE1K90k</t>
+          <t>https://www.youtube.com/watch?v=pU2ukeS2JTE</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>Havana feat. Yaar &amp; Kaiia - Big Love (Official Video)</t>
+          <t>Maroon 5 - Girls Like You ft. Cardi B (Official Music Video)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=aVFNJBqj5vU</t>
+          <t>https://www.youtube.com/watch?v=aJOTlE1K90k</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>Edward Maya, Vika Jigulina - Stereo love (Radio Edit) (Lyrics)</t>
+          <t>Havana feat. Yaar &amp; Kaiia - Big Love (Official Video)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=y9Kqb2z9Lzs</t>
+          <t>https://www.youtube.com/watch?v=aVFNJBqj5vU</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>Gym Class Heroes: Stereo Hearts ft. Adam Levine</t>
+          <t>Edward Maya, Vika Jigulina - Stereo love (Radio Edit) (Lyrics)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=T3E9Wjbq44E</t>
+          <t>https://www.youtube.com/watch?v=y9Kqb2z9Lzs</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>Shawn Mendes - It'll Be Okay</t>
+          <t>Gym Class Heroes: Stereo Hearts ft. Adam Levine</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://youtu.be/KrgJp7Z1Hv8?si=MOyY5rZzP-7kcfhM</t>
+          <t>https://www.youtube.com/watch?v=T3E9Wjbq44E</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>somewhere only we know (Gustixa &amp;amp; Rhianne)</t>
+          <t>Shawn Mendes - It'll Be Okay</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=92izkAK5OA0</t>
+          <t>https://youtu.be/KrgJp7Z1Hv8?si=MOyY5rZzP-7kcfhM</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>Duncan Laurence feat. FLETCHER – Arcade</t>
+          <t>somewhere only we know (Gustixa &amp;amp; Rhianne)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=308v08mFWWc</t>
+          <t>https://www.youtube.com/watch?v=92izkAK5OA0</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>Bad Liar (cover)</t>
+          <t>Duncan Laurence feat. FLETCHER – Arcade</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://youtu.be/5jfz3q9Z0RY?si=OHvyb7AMtM_wtAXc</t>
+          <t>https://www.youtube.com/watch?v=308v08mFWWc</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>Lana Del Rey - Summertime Sadness (Official Music Video)</t>
+          <t>Bad Liar (cover)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=TdrL3QxjyVw</t>
+          <t>https://youtu.be/5jfz3q9Z0RY?si=OHvyb7AMtM_wtAXc</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Linkin Park - In The End (Mellen Gi &amp;amp; Tommee Profitt Remix)</t>
+          <t>Lana Del Rey - Summertime Sadness (Official Music Video)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=WNeLUngb-Xg</t>
+          <t>https://www.youtube.com/watch?v=TdrL3QxjyVw</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>Enya - Only Time (Official 4K Music Video)</t>
+          <t>Linkin Park - In The End (Mellen Gi &amp;amp; Tommee Profitt Remix)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=7wfYIMyS_dI</t>
+          <t>https://www.youtube.com/watch?v=WNeLUngb-Xg</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>Today is a Good Day</t>
+          <t>Enya - Only Time (Official 4K Music Video)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://youtu.be/9L4EjJqrz0c?si=x97RAvAA9IELRZPW</t>
+          <t>https://www.youtube.com/watch?v=7wfYIMyS_dI</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>Heroes Tonight</t>
+          <t>Today is a Good Day</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=074rfF4RJZc</t>
+          <t>https://youtu.be/9L4EjJqrz0c?si=x97RAvAA9IELRZPW</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Shakira - Hips Dont Lie</t>
+          <t>Heroes Tonight</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://youtu.be/p3pEe6aAJ4k?si=bzrAEs7c-zSwqBUo</t>
+          <t>https://www.youtube.com/watch?v=074rfF4RJZc</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>Shakira - La La La World Cup 2014</t>
+          <t>Shakira - Hips Dont Lie</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://youtu.be/2igups6VdcA?si=N5uu5genirJuWXWC</t>
+          <t>https://youtu.be/p3pEe6aAJ4k?si=bzrAEs7c-zSwqBUo</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>Something Just Like This</t>
+          <t>Shakira - La La La World Cup 2014</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://youtu.be/FM7MFYoylVs?si=TrbAGj-JAUeEJ4bd</t>
+          <t>https://youtu.be/2igups6VdcA?si=N5uu5genirJuWXWC</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>Shakira - Chantaje (letra)</t>
+          <t>Something Just Like This</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://youtu.be/J76eQJP3UIQ?si=juYKqG_UCEta8y19</t>
+          <t>https://youtu.be/FM7MFYoylVs?si=TrbAGj-JAUeEJ4bd</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>Zara Larsson – Dont Worry Bout Me</t>
+          <t>Shakira - Chantaje (letra)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://youtu.be/u_tzZd9kIWg?si=y-s2yCVh4U2JLsJJ</t>
+          <t>https://youtu.be/J76eQJP3UIQ?si=juYKqG_UCEta8y19</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>Selena Gomez - Buscando Amor</t>
+          <t>Zara Larsson – Dont Worry Bout Me</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://youtu.be/2P6EExu3H5s?si=f2hv9y52VqxnVOmL</t>
+          <t>https://youtu.be/u_tzZd9kIWg?si=y-s2yCVh4U2JLsJJ</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>Shawn Mendes - In My Blood</t>
+          <t>Selena Gomez - Buscando Amor</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://youtu.be/36tggrpRoTI?si=CiCfVdO8Oepjt4Rs</t>
+          <t>https://youtu.be/2P6EExu3H5s?si=f2hv9y52VqxnVOmL</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>Charlie Puth - We Dont Talk Anymore</t>
+          <t>Shawn Mendes - In My Blood</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://youtu.be/bpFVJJBgtXY?si=L2NuwOWGhmdKacwg</t>
+          <t>https://youtu.be/36tggrpRoTI?si=CiCfVdO8Oepjt4Rs</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>Selena Gomez - Adiós</t>
+          <t>Charlie Puth - We Dont Talk Anymore</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://youtu.be/9H_368c2Hzw?si=UOBGyTGbUe_fISFW</t>
+          <t>https://youtu.be/bpFVJJBgtXY?si=L2NuwOWGhmdKacwg</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>Charlie Puth - Attention</t>
+          <t>Selena Gomez - Adiós</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://youtu.be/Oz5JDtkf1as</t>
+          <t>https://youtu.be/9H_368c2Hzw?si=UOBGyTGbUe_fISFW</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>Bruno Mars - Grenade</t>
+          <t>Charlie Puth - Attention</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://youtu.be/4YrzJ9RZ9qY</t>
+          <t>https://youtu.be/Oz5JDtkf1as</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>Let Me Love You</t>
+          <t>Bruno Mars - Grenade</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://youtu.be/SMs0GnYze34?si=T-UORWGqJCoitcOM</t>
+          <t>https://youtu.be/4YrzJ9RZ9qY</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>Sweet But Psycho</t>
+          <t>Let Me Love You</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://youtu.be/2KBFD0aoZy8</t>
+          <t>https://youtu.be/SMs0GnYze34?si=T-UORWGqJCoitcOM</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>Whos laughing now</t>
+          <t>Sweet But Psycho</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://youtu.be/4JYSgIiSZSA?si=3v9kDuzvYJvWaOsO</t>
+          <t>https://youtu.be/2KBFD0aoZy8</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>Girls Like You</t>
+          <t>Whos laughing now</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://youtu.be/aJOTlE1K90k</t>
+          <t>https://youtu.be/4JYSgIiSZSA?si=3v9kDuzvYJvWaOsO</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>Camila Cabello - Havana</t>
+          <t>Girls Like You</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://youtu.be/HCjNJDNzw8Y?si=QjZAi7GPIc4ParOQ</t>
+          <t>https://youtu.be/aJOTlE1K90k</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>Maroon 5 - Memories</t>
+          <t>Camila Cabello - Havana</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=SlPhMPnQ58k&amp;pp=ygUPbWFyb29uIG1lbW9yaWVz</t>
+          <t>https://youtu.be/HCjNJDNzw8Y?si=QjZAi7GPIc4ParOQ</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>post malone - rockstar (feat. 21 savage)</t>
+          <t>Maroon 5 - Memories</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=9lQP9-F8kIQ</t>
+          <t>https://www.youtube.com/watch?v=SlPhMPnQ58k&amp;pp=ygUPbWFyb29uIG1lbW9yaWVz</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>Drake - Gods plan</t>
+          <t>post malone - rockstar (feat. 21 savage)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=ScfgOVJiu_I</t>
+          <t>https://www.youtube.com/watch?v=9lQP9-F8kIQ</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>Dua Lipa - Levitating</t>
+          <t>Drake - Gods plan</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=j2c3tR_qfiQ</t>
+          <t>https://www.youtube.com/watch?v=ScfgOVJiu_I</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>Justin Bieber - Baby</t>
+          <t>Dua Lipa - Levitating</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=khOFw2f4bQY</t>
+          <t>https://www.youtube.com/watch?v=j2c3tR_qfiQ</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>State of Grace</t>
+          <t>Justin Bieber - Baby</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=gr4cqcqnAN0</t>
+          <t>https://www.youtube.com/watch?v=khOFw2f4bQY</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>Taylor Swift - Back To December</t>
+          <t>State of Grace</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://youtu.be/QUwxKWT6m7U?si=LNPBWKl0DqXIfOP2</t>
+          <t>https://www.youtube.com/watch?v=gr4cqcqnAN0</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>As it was</t>
+          <t>Taylor Swift - Back To December</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://youtu.be/Qfm6nfz1QNQ?si=3mMjYFpALij7GELl</t>
+          <t>https://youtu.be/QUwxKWT6m7U?si=LNPBWKl0DqXIfOP2</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>Taylor Swift - Begin Again</t>
+          <t>As it was</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://youtu.be/cMPEd8m79Hw?si=9zE5-51p0xGyEgSO</t>
+          <t>https://youtu.be/Qfm6nfz1QNQ?si=3mMjYFpALij7GELl</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>Sofia</t>
+          <t>Taylor Swift - Begin Again</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://youtu.be/ftI_Lp7LAuU?si=aOFT5Ral2-A_2PxG</t>
+          <t>https://youtu.be/cMPEd8m79Hw?si=9zE5-51p0xGyEgSO</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>Numb (lyrics|rock)</t>
+          <t>Sofia</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://youtu.be/8P0vKLHbtMg?si=HhXMHjE8vD2yeC_B</t>
+          <t>https://youtu.be/ftI_Lp7LAuU?si=aOFT5Ral2-A_2PxG</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>For The Rest Of My Life</t>
+          <t>Numb (lyrics|rock)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://youtu.be/PHbZ9SXHJwA?si=_7a2Gaka2oPEWrCQ</t>
+          <t>https://youtu.be/8P0vKLHbtMg?si=HhXMHjE8vD2yeC_B</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>Insha Allah</t>
+          <t>For The Rest Of My Life</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://youtu.be/8xXJyFNfiy8?si=XkqgGm4hEyZoqJe1</t>
+          <t>https://youtu.be/PHbZ9SXHJwA?si=_7a2Gaka2oPEWrCQ</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>Hunger Games | Atlas</t>
+          <t>Insha Allah</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://youtu.be/Lh3TokLzzmw?si=I5CcdBNIEuwDZvVT</t>
+          <t>https://youtu.be/8xXJyFNfiy8?si=XkqgGm4hEyZoqJe1</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>Hard To Say Im Sorry</t>
+          <t>Hunger Games | Atlas</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://youtu.be/XCmOdVia9DE?si=60M6i15UUakuL7DH</t>
+          <t>https://youtu.be/Lh3TokLzzmw?si=I5CcdBNIEuwDZvVT</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>Sasha Sloan - Lie</t>
+          <t>Hard To Say Im Sorry</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://youtu.be/AzjTJpzfB8U?si=PHYxAGETm1P1opd0</t>
+          <t>https://youtu.be/XCmOdVia9DE?si=60M6i15UUakuL7DH</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>Solo Para Ti</t>
+          <t>Sasha Sloan - Lie</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://youtu.be/5D_A4IBWSv4?si=pgNinSqUyLBks6po</t>
+          <t>https://youtu.be/AzjTJpzfB8U?si=PHYxAGETm1P1opd0</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>Zara Larsson - This Ones For You</t>
+          <t>Solo Para Ti</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://youtu.be/MoHnffhBwqs?si=_FGX4ucMtOTcD2to</t>
+          <t>https://youtu.be/5D_A4IBWSv4?si=pgNinSqUyLBks6po</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>La Cintura</t>
+          <t>Zara Larsson - This Ones For You</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://youtu.be/Eg4LUvUjUWI?si=YqeuNfTh_iTuj-dP</t>
+          <t>https://youtu.be/MoHnffhBwqs?si=_FGX4ucMtOTcD2to</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>Diamond Heart</t>
+          <t>La Cintura</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://youtu.be/bcHoBDw4G10?si=auASu-G_c9NkS48Z</t>
+          <t>https://youtu.be/Eg4LUvUjUWI?si=YqeuNfTh_iTuj-dP</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>Halsey - Sorry</t>
+          <t>Diamond Heart</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://youtu.be/CPAoMCo7tNw?si=2rEiXXCn6UcySUVZ</t>
+          <t>https://youtu.be/bcHoBDw4G10?si=auASu-G_c9NkS48Z</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>Relax, Take it Easy</t>
+          <t>Halsey - Sorry</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://youtu.be/EVDYmBrl02Q?si=ODB07HFZCtTtg4F4</t>
+          <t>https://youtu.be/CPAoMCo7tNw?si=2rEiXXCn6UcySUVZ</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>Thank you Allah</t>
+          <t>Relax, Take it Easy</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://youtu.be/RBrdl0v_anc?si=cu3qNsVyUIIzZGvv</t>
+          <t>https://youtu.be/EVDYmBrl02Q?si=ODB07HFZCtTtg4F4</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>Let me down slowly</t>
+          <t>Thank you Allah</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://youtu.be/50VNCymT-Cs?si=sEwBTlJCeuqL9LTD</t>
+          <t>https://youtu.be/RBrdl0v_anc?si=cu3qNsVyUIIzZGvv</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>Lonely (acoustic)</t>
+          <t>Let me down slowly</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://youtu.be/Cu5hhxP_prE?si=VRZVlVcLWqk8Dasg</t>
+          <t>https://youtu.be/50VNCymT-Cs?si=sEwBTlJCeuqL9LTD</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>Selfish love</t>
+          <t>Lonely (acoustic)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://youtu.be/9gqAq6kq5Ek?si=Gro32XWDuPLWzyIv</t>
+          <t>https://youtu.be/Cu5hhxP_prE?si=VRZVlVcLWqk8Dasg</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>twenty one pilots: Heathens</t>
+          <t>Selfish love</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://youtu.be/UprcpdwuwCg?si=O6_fwxx8TOkfjIXi</t>
+          <t>https://youtu.be/9gqAq6kq5Ek?si=Gro32XWDuPLWzyIv</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>Dont Let Me Down</t>
+          <t>twenty one pilots: Heathens</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://youtu.be/Io0fBr1XBUA?si=SUp9MdCXlOU_Vf5s</t>
+          <t>https://youtu.be/UprcpdwuwCg?si=O6_fwxx8TOkfjIXi</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>Someone you loved</t>
+          <t>Dont Let Me Down</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://youtu.be/zABLecsR5UE?si=k3rryaA0P3O8JBhY</t>
+          <t>https://youtu.be/Io0fBr1XBUA?si=SUp9MdCXlOU_Vf5s</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>Fed up with us</t>
+          <t>Someone you loved</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://youtu.be/n1NTv6Y4pxs?si=76WA3JI0TGILBHm7</t>
+          <t>https://youtu.be/zABLecsR5UE?si=k3rryaA0P3O8JBhY</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>Skyfall</t>
+          <t>Fed up with us</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://youtu.be/DeumyOzKqgI?si=Cok0dR7byK6pN682</t>
+          <t>https://youtu.be/n1NTv6Y4pxs?si=76WA3JI0TGILBHm7</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>Story of my life</t>
+          <t>Skyfall</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://youtu.be/W-TE_Ys4iwM?si=RViOxRuaXxdz3pmm</t>
+          <t>https://youtu.be/DeumyOzKqgI?si=Cok0dR7byK6pN682</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>Reamonn - Tonight</t>
+          <t>Story of my life</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://youtu.be/jtoncUzV6nA?si=yULSO1-MxnAVV13i</t>
+          <t>https://youtu.be/W-TE_Ys4iwM?si=RViOxRuaXxdz3pmm</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="B95" t="inlineStr">
         <is>
-          <t>Hymn For The Weekend</t>
+          <t>Reamonn - Tonight</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=YykjpeuMNEk</t>
+          <t>https://youtu.be/jtoncUzV6nA?si=yULSO1-MxnAVV13i</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>Hell Or High Water</t>
+          <t>Hymn For The Weekend</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://youtu.be/zgDbp5C74sU?si=R8Q5HZq2vzhGL57g</t>
+          <t>https://www.youtube.com/watch?v=YykjpeuMNEk</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="B97" t="inlineStr">
         <is>
-          <t>Lonely</t>
+          <t>Hell Or High Water</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://youtu.be/M4hvSgnsnog?si=TtDhe_NUHM1NZaY9</t>
+          <t>https://youtu.be/zgDbp5C74sU?si=R8Q5HZq2vzhGL57g</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>Everything I Need</t>
+          <t>Lonely</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=9bCp7j3nC30</t>
+          <t>https://youtu.be/M4hvSgnsnog?si=TtDhe_NUHM1NZaY9</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="B99" t="inlineStr">
         <is>
-          <t>Love the way you lie</t>
+          <t>Everything I Need</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://youtu.be/h_-JFUci0BM?si=SHiuHs1NdIjpN0WP</t>
+          <t>https://www.youtube.com/watch?v=9bCp7j3nC30</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="B100" t="inlineStr">
         <is>
-          <t>Moving Mountains</t>
+          <t>Love the way you lie</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://youtu.be/S_0r3hYg78o?si=Be6GShy7mgRcl9Ha</t>
+          <t>https://youtu.be/h_-JFUci0BM?si=SHiuHs1NdIjpN0WP</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>Numb (cover)</t>
+          <t>Moving Mountains</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://youtu.be/gHp-OjLOG5A?si=0abUDswbKz6rhQeX</t>
+          <t>https://youtu.be/S_0r3hYg78o?si=Be6GShy7mgRcl9Ha</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="B102" t="inlineStr">
         <is>
-          <t>Until I found you</t>
+          <t>Numb (cover)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>https://youtu.be/oIKuyj2GQtY</t>
+          <t>https://youtu.be/gHp-OjLOG5A?si=0abUDswbKz6rhQeX</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>Heart is on fire</t>
+          <t>Until I found you</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>https://youtu.be/kBqqlW6-99M?si=kXaaJTqhA4PaY6Gd</t>
+          <t>https://youtu.be/oIKuyj2GQtY</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>Holes</t>
+          <t>Heart is on fire</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>https://youtu.be/DeFWClW7skQ?si=hkIGl-CTTw-FbnLz</t>
+          <t>https://youtu.be/kBqqlW6-99M?si=kXaaJTqhA4PaY6Gd</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
-          <t>Survivors</t>
+          <t>Holes</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=vN0gaXS8dQE</t>
+          <t>https://youtu.be/DeFWClW7skQ?si=hkIGl-CTTw-FbnLz</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="B106" t="inlineStr">
         <is>
-          <t>Irakliy - Ya s toboy(cover)</t>
+          <t>Survivors</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>https://youtu.be/3WmdZOF5bKk?si=LcXY8Gohxxx4cZSA</t>
+          <t>https://www.youtube.com/watch?v=vN0gaXS8dQE</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="B107" t="inlineStr">
         <is>
-          <t>Vetrom stat (cover)</t>
+          <t>Irakliy - Ya s toboy(cover)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>https://youtu.be/kkzEs0gdvZI?si=Z456wgKuJd0aE_PA</t>
+          <t>https://youtu.be/3WmdZOF5bKk?si=LcXY8Gohxxx4cZSA</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="B108" t="inlineStr">
         <is>
-          <t>Reamonn - Supergirl</t>
+          <t>Vetrom stat (cover)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>https://youtu.be/ctmS5XX67Ek?si=NGZGPw0bcpfZciyi</t>
+          <t>https://youtu.be/kkzEs0gdvZI?si=Z456wgKuJd0aE_PA</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>Another Love</t>
+          <t>Reamonn - Supergirl</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>https://youtu.be/Jkj36B1YuDU?si=Yku5tRPe7avRNr2R</t>
+          <t>https://youtu.be/ctmS5XX67Ek?si=NGZGPw0bcpfZciyi</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>All the little lights</t>
+          <t>Another Love</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>https://youtu.be/OkxVxox--Io?si=AE4wj_c_uqTWGrbB</t>
+          <t>https://youtu.be/Jkj36B1YuDU?si=Yku5tRPe7avRNr2R</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="B111" t="inlineStr">
         <is>
-          <t>Arcade</t>
+          <t>All the little lights</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>https://youtu.be/Qau6mObfSGM?si=RsrcZ0VUCOHaEwE4</t>
+          <t>https://youtu.be/OkxVxox--Io?si=AE4wj_c_uqTWGrbB</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>Burito - Po volnam</t>
+          <t>Arcade</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>https://youtu.be/jqyJ4xW2gb0?si=VgrA4JKMWkeWDIA5</t>
+          <t>https://youtu.be/Qau6mObfSGM?si=RsrcZ0VUCOHaEwE4</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="B113" t="inlineStr">
         <is>
-          <t>To Be Free</t>
+          <t>Burito - Po volnam</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>https://youtu.be/hNd5pILkpSw?si=qiwZxiuS0yeiuOPs</t>
+          <t>https://youtu.be/jqyJ4xW2gb0?si=VgrA4JKMWkeWDIA5</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="B114" t="inlineStr">
         <is>
-          <t>Castle of Glass</t>
+          <t>To Be Free</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=PPkJeWPP2nM</t>
+          <t>https://youtu.be/hNd5pILkpSw?si=qiwZxiuS0yeiuOPs</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="B115" t="inlineStr">
         <is>
-          <t>Ava Max - Alone</t>
+          <t>Castle of Glass</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>https://youtu.be/omvW1cI-3xg?si=zHiFadZaUUpddcgu</t>
+          <t>https://www.youtube.com/watch?v=PPkJeWPP2nM</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="B116" t="inlineStr">
         <is>
-          <t>Let Her Go (ft Ed Sheeran)</t>
+          <t>Ava Max - Alone</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>https://youtu.be/HTcL9WkB_wg?si=ILXw9EaPM4GJyx29</t>
+          <t>https://youtu.be/omvW1cI-3xg?si=zHiFadZaUUpddcgu</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="B117" t="inlineStr">
         <is>
-          <t>In the end (rmx)</t>
+          <t>Let Her Go (ft Ed Sheeran)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>https://youtu.be/WNeLUngb-Xg?si=V95nGOt0sMvhQG7c</t>
+          <t>https://youtu.be/HTcL9WkB_wg?si=ILXw9EaPM4GJyx29</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="B118" t="inlineStr">
         <is>
-          <t>No Time To Die</t>
+          <t>In the end (rmx)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>https://youtu.be/GB_S2qFh5lU?si=XDH6CdXhqJq-g321</t>
+          <t>https://youtu.be/WNeLUngb-Xg?si=V95nGOt0sMvhQG7c</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="B119" t="inlineStr">
         <is>
-          <t>Tired Of Being Sorry</t>
+          <t>No Time To Die</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>https://youtu.be/gzFmctgW0s8?si=JfvG_0Sj-IdPWoBY</t>
+          <t>https://youtu.be/GB_S2qFh5lU?si=XDH6CdXhqJq-g321</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="B120" t="inlineStr">
         <is>
-          <t>The Cup Of Life - Ricky Martin</t>
+          <t>Tired Of Being Sorry</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>https://youtu.be/CBfSeqfeggI?si=A2RRcM0PSvAsvpHF</t>
+          <t>https://youtu.be/gzFmctgW0s8?si=JfvG_0Sj-IdPWoBY</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="B121" t="inlineStr">
         <is>
-          <t>Баста - Выпускной</t>
+          <t>The Cup Of Life - Ricky Martin</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>https://youtu.be/t1-yL-xvklc?si=YZ1rS5hZtleOFOy1</t>
+          <t>https://youtu.be/CBfSeqfeggI?si=A2RRcM0PSvAsvpHF</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="B122" t="inlineStr">
         <is>
-          <t>Wonderful Life</t>
+          <t>Баста - Выпускной</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>https://youtu.be/qzn_6bXdgeE?si=BgnimyD5Frnn_-o-</t>
+          <t>https://youtu.be/t1-yL-xvklc?si=YZ1rS5hZtleOFOy1</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="B123" t="inlineStr">
         <is>
+          <t>Wonderful Life</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>https://youtu.be/qzn_6bXdgeE?si=BgnimyD5Frnn_-o-</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="B124" t="inlineStr">
+        <is>
           <t>Shape of My Heart</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="C124" t="inlineStr">
         <is>
           <t>https://youtu.be/pm3rDbXbZRI?si=7TxDuViBxhHGeZoU</t>
         </is>

--- a/songs.xlsx
+++ b/songs.xlsx
@@ -1062,7 +1062,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F124"/>
+  <dimension ref="A1:F127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
@@ -1108,1462 +1108,1498 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cody Francis - Rose In The Garden</t>
+          <t>2CELLOS - Fragile [LIVE at Arena Pula]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=JO4-j1LfoQQ</t>
+          <t>https://www.youtube.com/watch?v=q_ymIjOyzRQ</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>I Got Summer On My Mind (Still Dre Remix)</t>
+          <t>Justin Bieber &amp; benny blanco - Lonely (Official Acoustic Video)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=89LOsf8pDhY</t>
+          <t>https://www.youtube.com/watch?v=Cu5hhxP_prE</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lady Gaga, Bruno Mars - Die With A Smile</t>
+          <t>서태지와 아이들   이 밤이 깊어가지만 (가사 첨부)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=zgaCZOQCpp8</t>
+          <t>https://www.youtube.com/watch?v=__SXVP2GmvM</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Maxim Fadeev - Googoosha</t>
+          <t>Cody Francis - Rose In The Garden</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=gqOoJXttEec</t>
+          <t>https://www.youtube.com/watch?v=JO4-j1LfoQQ</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Elley Duhe - Middle Of The Night</t>
+          <t>I Got Summer On My Mind (Still Dre Remix)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=KLTMCPzRO64</t>
+          <t>https://www.youtube.com/watch?v=89LOsf8pDhY</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Broken Angel (Albert Vishi ft. Taulant Sllamniku Cover)</t>
+          <t>Lady Gaga, Bruno Mars - Die With A Smile</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=5miHGQVFJm0</t>
+          <t>https://www.youtube.com/watch?v=zgaCZOQCpp8</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Laura Pausini - It’s Not Goodbye</t>
+          <t>Maxim Fadeev - Googoosha</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=onYQkI8S1UY</t>
+          <t>https://www.youtube.com/watch?v=gqOoJXttEec</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Juice Wrld - Lucid Dreams </t>
+          <t>Elley Duhe - Middle Of The Night</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=_fh64GbFSw4</t>
+          <t>https://www.youtube.com/watch?v=KLTMCPzRO64</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ramz - Barking</t>
+          <t>Broken Angel (Albert Vishi ft. Taulant Sllamniku Cover)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=Q0QKUU95bVc</t>
+          <t>https://www.youtube.com/watch?v=5miHGQVFJm0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>falling in love with someone you can't have (a playlist)</t>
+          <t>Laura Pausini - It’s Not Goodbye</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=_K57AlI62V4</t>
+          <t>https://www.youtube.com/watch?v=onYQkI8S1UY</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>Feeling Good 🌱 A playlist to lift your mood</t>
+          <t xml:space="preserve">Juice Wrld - Lucid Dreams </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=VYtBO_cDJCU</t>
+          <t>https://www.youtube.com/watch?v=_fh64GbFSw4</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>Best classical music: Beethoven, Mozart, Schubert,Bach...🎶</t>
+          <t>Ramz - Barking</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=DxnDcH2NS5c</t>
+          <t>https://www.youtube.com/watch?v=Q0QKUU95bVc</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>Selena Gomez - Bad Liar</t>
+          <t>falling in love with someone you can't have (a playlist)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=NZKXkD6EgBk</t>
+          <t>https://www.youtube.com/watch?v=_K57AlI62V4</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>Florida Georgia Line - Simple (Lyrics)</t>
+          <t>Feeling Good 🌱 A playlist to lift your mood</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=TuTDc9d_9yI</t>
+          <t>https://www.youtube.com/watch?v=VYtBO_cDJCU</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>Tones and I: Dance Monkey (US TV Debut)</t>
+          <t>Best classical music: Beethoven, Mozart, Schubert,Bach...🎶</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=4iQxG8ZjYO8</t>
+          <t>https://www.youtube.com/watch?v=DxnDcH2NS5c</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>the luka state - bring this all together</t>
+          <t>Selena Gomez - Bad Liar</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=OcJ5EgxsWBg</t>
+          <t>https://www.youtube.com/watch?v=NZKXkD6EgBk</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sunset Sons - I Can`t Wait (Official Audio)</t>
+          <t>Florida Georgia Line - Simple (Lyrics)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=JuiegvRQ8dI</t>
+          <t>https://www.youtube.com/watch?v=TuTDc9d_9yI</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sunset Sons - Somewhere Maybe (Official Audio)</t>
+          <t>Tones and I: Dance Monkey (US TV Debut)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=SHapfmLyBp0</t>
+          <t>https://www.youtube.com/watch?v=4iQxG8ZjYO8</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>Sunset Sons - Know My Name (Official Audio)</t>
+          <t>the luka state - bring this all together</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=orMwK0veDVQ</t>
+          <t>https://www.youtube.com/watch?v=OcJ5EgxsWBg</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>Sunset Sons - The River</t>
+          <t>Sunset Sons - I Can`t Wait (Official Audio)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=MCyEm1fViZQ</t>
+          <t>https://www.youtube.com/watch?v=JuiegvRQ8dI</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>Sunset Sons - Loa (Official Audio)</t>
+          <t>Sunset Sons - Somewhere Maybe (Official Audio)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=9tXWQy7mMsM</t>
+          <t>https://www.youtube.com/watch?v=SHapfmLyBp0</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>Sunset Song - On The Road (Lyrics)</t>
+          <t>Sunset Sons - Know My Name (Official Audio)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=NsKZ-5EDqPA</t>
+          <t>https://www.youtube.com/watch?v=orMwK0veDVQ</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>Sunset Sons - Remember</t>
+          <t>Sunset Sons - The River</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=PH_P12XqY9Y</t>
+          <t>https://www.youtube.com/watch?v=MCyEm1fViZQ</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>Craig David - Walking Away [Lyrics] 🎵</t>
+          <t>Sunset Sons - Loa (Official Audio)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=8AwamgSDpdA</t>
+          <t>https://www.youtube.com/watch?v=9tXWQy7mMsM</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>Escape (Rosaline OST)</t>
+          <t>Sunset Song - On The Road (Lyrics)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=M9b_z-LKE14</t>
+          <t>https://www.youtube.com/watch?v=NsKZ-5EDqPA</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>JEON SOMI DUMB DUMB Lyrics (전소미 DUMB DUMB 가사)</t>
+          <t>Sunset Sons - Remember</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=TfAzTYzBvTo</t>
+          <t>https://www.youtube.com/watch?v=PH_P12XqY9Y</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>Zara Larsson - Lush Life</t>
+          <t>Craig David - Walking Away [Lyrics] 🎵</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=tD4HCZe-tew</t>
+          <t>https://www.youtube.com/watch?v=8AwamgSDpdA</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>Shakira - Can`t Remember to Forget You (Lyrics) ft. Rihanna</t>
+          <t>Escape (Rosaline OST)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=i_XM3u1_jZQ</t>
+          <t>https://www.youtube.com/watch?v=M9b_z-LKE14</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Havana feat. Yaar &amp;amp; Kaiia - Last Night (Lyrics)</t>
+          <t>JEON SOMI DUMB DUMB Lyrics (전소미 DUMB DUMB 가사)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=i-Yuf5-zTec</t>
+          <t>https://www.youtube.com/watch?v=TfAzTYzBvTo</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Justin Bieber &amp; benny blanco - Lonely (Acoustic)</t>
+          <t>Zara Larsson - Lush Life</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=Cu5hhxP_prE</t>
+          <t>https://www.youtube.com/watch?v=tD4HCZe-tew</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>Craig David - Rise &amp; Fall ft. Sting (Official Video)</t>
+          <t>Shakira - Can`t Remember to Forget You (Lyrics) ft. Rihanna</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=pU2ukeS2JTE</t>
+          <t>https://www.youtube.com/watch?v=i_XM3u1_jZQ</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>Maroon 5 - Girls Like You ft. Cardi B (Official Music Video)</t>
+          <t>Havana feat. Yaar &amp;amp; Kaiia - Last Night (Lyrics)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=aJOTlE1K90k</t>
+          <t>https://www.youtube.com/watch?v=i-Yuf5-zTec</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>Havana feat. Yaar &amp; Kaiia - Big Love (Official Video)</t>
+          <t>Craig David - Rise &amp; Fall ft. Sting (Official Video)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=aVFNJBqj5vU</t>
+          <t>https://www.youtube.com/watch?v=pU2ukeS2JTE</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>Edward Maya, Vika Jigulina - Stereo love (Radio Edit) (Lyrics)</t>
+          <t>Maroon 5 - Girls Like You ft. Cardi B (Official Music Video)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=y9Kqb2z9Lzs</t>
+          <t>https://www.youtube.com/watch?v=aJOTlE1K90k</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>Gym Class Heroes: Stereo Hearts ft. Adam Levine</t>
+          <t>Havana feat. Yaar &amp; Kaiia - Big Love (Official Video)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=T3E9Wjbq44E</t>
+          <t>https://www.youtube.com/watch?v=aVFNJBqj5vU</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>Shawn Mendes - It'll Be Okay</t>
+          <t>Edward Maya, Vika Jigulina - Stereo love (Radio Edit) (Lyrics)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://youtu.be/KrgJp7Z1Hv8?si=MOyY5rZzP-7kcfhM</t>
+          <t>https://www.youtube.com/watch?v=y9Kqb2z9Lzs</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>somewhere only we know (Gustixa &amp;amp; Rhianne)</t>
+          <t>Gym Class Heroes: Stereo Hearts ft. Adam Levine</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=92izkAK5OA0</t>
+          <t>https://www.youtube.com/watch?v=T3E9Wjbq44E</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>Duncan Laurence feat. FLETCHER – Arcade</t>
+          <t>Shawn Mendes - It'll Be Okay</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=308v08mFWWc</t>
+          <t>https://youtu.be/KrgJp7Z1Hv8?si=MOyY5rZzP-7kcfhM</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>Bad Liar (cover)</t>
+          <t>somewhere only we know (Gustixa &amp;amp; Rhianne)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://youtu.be/5jfz3q9Z0RY?si=OHvyb7AMtM_wtAXc</t>
+          <t>https://www.youtube.com/watch?v=92izkAK5OA0</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Lana Del Rey - Summertime Sadness (Official Music Video)</t>
+          <t>Duncan Laurence feat. FLETCHER – Arcade</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=TdrL3QxjyVw</t>
+          <t>https://www.youtube.com/watch?v=308v08mFWWc</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>Linkin Park - In The End (Mellen Gi &amp;amp; Tommee Profitt Remix)</t>
+          <t>Bad Liar (cover)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=WNeLUngb-Xg</t>
+          <t>https://youtu.be/5jfz3q9Z0RY?si=OHvyb7AMtM_wtAXc</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>Enya - Only Time (Official 4K Music Video)</t>
+          <t>Lana Del Rey - Summertime Sadness (Official Music Video)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=7wfYIMyS_dI</t>
+          <t>https://www.youtube.com/watch?v=TdrL3QxjyVw</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>Today is a Good Day</t>
+          <t>Linkin Park - In The End (Mellen Gi &amp;amp; Tommee Profitt Remix)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://youtu.be/9L4EjJqrz0c?si=x97RAvAA9IELRZPW</t>
+          <t>https://www.youtube.com/watch?v=WNeLUngb-Xg</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Heroes Tonight</t>
+          <t>Enya - Only Time (Official 4K Music Video)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=074rfF4RJZc</t>
+          <t>https://www.youtube.com/watch?v=7wfYIMyS_dI</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>Shakira - Hips Dont Lie</t>
+          <t>Today is a Good Day</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://youtu.be/p3pEe6aAJ4k?si=bzrAEs7c-zSwqBUo</t>
+          <t>https://youtu.be/9L4EjJqrz0c?si=x97RAvAA9IELRZPW</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>Shakira - La La La World Cup 2014</t>
+          <t>Heroes Tonight</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://youtu.be/2igups6VdcA?si=N5uu5genirJuWXWC</t>
+          <t>https://www.youtube.com/watch?v=074rfF4RJZc</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>Something Just Like This</t>
+          <t>Shakira - Hips Dont Lie</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://youtu.be/FM7MFYoylVs?si=TrbAGj-JAUeEJ4bd</t>
+          <t>https://youtu.be/p3pEe6aAJ4k?si=bzrAEs7c-zSwqBUo</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>Shakira - Chantaje (letra)</t>
+          <t>Shakira - La La La World Cup 2014</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://youtu.be/J76eQJP3UIQ?si=juYKqG_UCEta8y19</t>
+          <t>https://youtu.be/2igups6VdcA?si=N5uu5genirJuWXWC</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>Zara Larsson – Dont Worry Bout Me</t>
+          <t>Something Just Like This</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://youtu.be/u_tzZd9kIWg?si=y-s2yCVh4U2JLsJJ</t>
+          <t>https://youtu.be/FM7MFYoylVs?si=TrbAGj-JAUeEJ4bd</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>Selena Gomez - Buscando Amor</t>
+          <t>Shakira - Chantaje (letra)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://youtu.be/2P6EExu3H5s?si=f2hv9y52VqxnVOmL</t>
+          <t>https://youtu.be/J76eQJP3UIQ?si=juYKqG_UCEta8y19</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>Shawn Mendes - In My Blood</t>
+          <t>Zara Larsson – Dont Worry Bout Me</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://youtu.be/36tggrpRoTI?si=CiCfVdO8Oepjt4Rs</t>
+          <t>https://youtu.be/u_tzZd9kIWg?si=y-s2yCVh4U2JLsJJ</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>Charlie Puth - We Dont Talk Anymore</t>
+          <t>Selena Gomez - Buscando Amor</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://youtu.be/bpFVJJBgtXY?si=L2NuwOWGhmdKacwg</t>
+          <t>https://youtu.be/2P6EExu3H5s?si=f2hv9y52VqxnVOmL</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>Selena Gomez - Adiós</t>
+          <t>Shawn Mendes - In My Blood</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://youtu.be/9H_368c2Hzw?si=UOBGyTGbUe_fISFW</t>
+          <t>https://youtu.be/36tggrpRoTI?si=CiCfVdO8Oepjt4Rs</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>Charlie Puth - Attention</t>
+          <t>Charlie Puth - We Dont Talk Anymore</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://youtu.be/Oz5JDtkf1as</t>
+          <t>https://youtu.be/bpFVJJBgtXY?si=L2NuwOWGhmdKacwg</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>Bruno Mars - Grenade</t>
+          <t>Selena Gomez - Adiós</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://youtu.be/4YrzJ9RZ9qY</t>
+          <t>https://youtu.be/9H_368c2Hzw?si=UOBGyTGbUe_fISFW</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>Let Me Love You</t>
+          <t>Charlie Puth - Attention</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://youtu.be/SMs0GnYze34?si=T-UORWGqJCoitcOM</t>
+          <t>https://youtu.be/Oz5JDtkf1as</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>Sweet But Psycho</t>
+          <t>Bruno Mars - Grenade</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://youtu.be/2KBFD0aoZy8</t>
+          <t>https://youtu.be/4YrzJ9RZ9qY</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>Whos laughing now</t>
+          <t>Let Me Love You</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://youtu.be/4JYSgIiSZSA?si=3v9kDuzvYJvWaOsO</t>
+          <t>https://youtu.be/SMs0GnYze34?si=T-UORWGqJCoitcOM</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>Girls Like You</t>
+          <t>Sweet But Psycho</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://youtu.be/aJOTlE1K90k</t>
+          <t>https://youtu.be/2KBFD0aoZy8</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>Camila Cabello - Havana</t>
+          <t>Whos laughing now</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://youtu.be/HCjNJDNzw8Y?si=QjZAi7GPIc4ParOQ</t>
+          <t>https://youtu.be/4JYSgIiSZSA?si=3v9kDuzvYJvWaOsO</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>Maroon 5 - Memories</t>
+          <t>Girls Like You</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=SlPhMPnQ58k&amp;pp=ygUPbWFyb29uIG1lbW9yaWVz</t>
+          <t>https://youtu.be/aJOTlE1K90k</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>post malone - rockstar (feat. 21 savage)</t>
+          <t>Camila Cabello - Havana</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=9lQP9-F8kIQ</t>
+          <t>https://youtu.be/HCjNJDNzw8Y?si=QjZAi7GPIc4ParOQ</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>Drake - Gods plan</t>
+          <t>Maroon 5 - Memories</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=ScfgOVJiu_I</t>
+          <t>https://www.youtube.com/watch?v=SlPhMPnQ58k&amp;pp=ygUPbWFyb29uIG1lbW9yaWVz</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>Dua Lipa - Levitating</t>
+          <t>post malone - rockstar (feat. 21 savage)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=j2c3tR_qfiQ</t>
+          <t>https://www.youtube.com/watch?v=9lQP9-F8kIQ</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>Justin Bieber - Baby</t>
+          <t>Drake - Gods plan</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=khOFw2f4bQY</t>
+          <t>https://www.youtube.com/watch?v=ScfgOVJiu_I</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>State of Grace</t>
+          <t>Dua Lipa - Levitating</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=gr4cqcqnAN0</t>
+          <t>https://www.youtube.com/watch?v=j2c3tR_qfiQ</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>Taylor Swift - Back To December</t>
+          <t>Justin Bieber - Baby</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://youtu.be/QUwxKWT6m7U?si=LNPBWKl0DqXIfOP2</t>
+          <t>https://www.youtube.com/watch?v=khOFw2f4bQY</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>As it was</t>
+          <t>State of Grace</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://youtu.be/Qfm6nfz1QNQ?si=3mMjYFpALij7GELl</t>
+          <t>https://www.youtube.com/watch?v=gr4cqcqnAN0</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>Taylor Swift - Begin Again</t>
+          <t>Taylor Swift - Back To December</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://youtu.be/cMPEd8m79Hw?si=9zE5-51p0xGyEgSO</t>
+          <t>https://youtu.be/QUwxKWT6m7U?si=LNPBWKl0DqXIfOP2</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>Sofia</t>
+          <t>As it was</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://youtu.be/ftI_Lp7LAuU?si=aOFT5Ral2-A_2PxG</t>
+          <t>https://youtu.be/Qfm6nfz1QNQ?si=3mMjYFpALij7GELl</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>Numb (lyrics|rock)</t>
+          <t>Taylor Swift - Begin Again</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://youtu.be/8P0vKLHbtMg?si=HhXMHjE8vD2yeC_B</t>
+          <t>https://youtu.be/cMPEd8m79Hw?si=9zE5-51p0xGyEgSO</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>For The Rest Of My Life</t>
+          <t>Sofia</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://youtu.be/PHbZ9SXHJwA?si=_7a2Gaka2oPEWrCQ</t>
+          <t>https://youtu.be/ftI_Lp7LAuU?si=aOFT5Ral2-A_2PxG</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>Insha Allah</t>
+          <t>Numb (lyrics|rock)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://youtu.be/8xXJyFNfiy8?si=XkqgGm4hEyZoqJe1</t>
+          <t>https://youtu.be/8P0vKLHbtMg?si=HhXMHjE8vD2yeC_B</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>Hunger Games | Atlas</t>
+          <t>For The Rest Of My Life</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://youtu.be/Lh3TokLzzmw?si=I5CcdBNIEuwDZvVT</t>
+          <t>https://youtu.be/PHbZ9SXHJwA?si=_7a2Gaka2oPEWrCQ</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>Hard To Say Im Sorry</t>
+          <t>Insha Allah</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://youtu.be/XCmOdVia9DE?si=60M6i15UUakuL7DH</t>
+          <t>https://youtu.be/8xXJyFNfiy8?si=XkqgGm4hEyZoqJe1</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>Sasha Sloan - Lie</t>
+          <t>Hunger Games | Atlas</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://youtu.be/AzjTJpzfB8U?si=PHYxAGETm1P1opd0</t>
+          <t>https://youtu.be/Lh3TokLzzmw?si=I5CcdBNIEuwDZvVT</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>Solo Para Ti</t>
+          <t>Hard To Say Im Sorry</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://youtu.be/5D_A4IBWSv4?si=pgNinSqUyLBks6po</t>
+          <t>https://youtu.be/XCmOdVia9DE?si=60M6i15UUakuL7DH</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>Zara Larsson - This Ones For You</t>
+          <t>Sasha Sloan - Lie</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://youtu.be/MoHnffhBwqs?si=_FGX4ucMtOTcD2to</t>
+          <t>https://youtu.be/AzjTJpzfB8U?si=PHYxAGETm1P1opd0</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>La Cintura</t>
+          <t>Solo Para Ti</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://youtu.be/Eg4LUvUjUWI?si=YqeuNfTh_iTuj-dP</t>
+          <t>https://youtu.be/5D_A4IBWSv4?si=pgNinSqUyLBks6po</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>Diamond Heart</t>
+          <t>Zara Larsson - This Ones For You</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://youtu.be/bcHoBDw4G10?si=auASu-G_c9NkS48Z</t>
+          <t>https://youtu.be/MoHnffhBwqs?si=_FGX4ucMtOTcD2to</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>Halsey - Sorry</t>
+          <t>La Cintura</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://youtu.be/CPAoMCo7tNw?si=2rEiXXCn6UcySUVZ</t>
+          <t>https://youtu.be/Eg4LUvUjUWI?si=YqeuNfTh_iTuj-dP</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>Relax, Take it Easy</t>
+          <t>Diamond Heart</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://youtu.be/EVDYmBrl02Q?si=ODB07HFZCtTtg4F4</t>
+          <t>https://youtu.be/bcHoBDw4G10?si=auASu-G_c9NkS48Z</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>Thank you Allah</t>
+          <t>Halsey - Sorry</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://youtu.be/RBrdl0v_anc?si=cu3qNsVyUIIzZGvv</t>
+          <t>https://youtu.be/CPAoMCo7tNw?si=2rEiXXCn6UcySUVZ</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>Let me down slowly</t>
+          <t>Relax, Take it Easy</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://youtu.be/50VNCymT-Cs?si=sEwBTlJCeuqL9LTD</t>
+          <t>https://youtu.be/EVDYmBrl02Q?si=ODB07HFZCtTtg4F4</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>Lonely (acoustic)</t>
+          <t>Thank you Allah</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://youtu.be/Cu5hhxP_prE?si=VRZVlVcLWqk8Dasg</t>
+          <t>https://youtu.be/RBrdl0v_anc?si=cu3qNsVyUIIzZGvv</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>Selfish love</t>
+          <t>Let me down slowly</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://youtu.be/9gqAq6kq5Ek?si=Gro32XWDuPLWzyIv</t>
+          <t>https://youtu.be/50VNCymT-Cs?si=sEwBTlJCeuqL9LTD</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>twenty one pilots: Heathens</t>
+          <t>Lonely (acoustic)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://youtu.be/UprcpdwuwCg?si=O6_fwxx8TOkfjIXi</t>
+          <t>https://youtu.be/Cu5hhxP_prE?si=VRZVlVcLWqk8Dasg</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>Dont Let Me Down</t>
+          <t>Selfish love</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://youtu.be/Io0fBr1XBUA?si=SUp9MdCXlOU_Vf5s</t>
+          <t>https://youtu.be/9gqAq6kq5Ek?si=Gro32XWDuPLWzyIv</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>Someone you loved</t>
+          <t>twenty one pilots: Heathens</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://youtu.be/zABLecsR5UE?si=k3rryaA0P3O8JBhY</t>
+          <t>https://youtu.be/UprcpdwuwCg?si=O6_fwxx8TOkfjIXi</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>Fed up with us</t>
+          <t>Dont Let Me Down</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://youtu.be/n1NTv6Y4pxs?si=76WA3JI0TGILBHm7</t>
+          <t>https://youtu.be/Io0fBr1XBUA?si=SUp9MdCXlOU_Vf5s</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>Skyfall</t>
+          <t>Someone you loved</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://youtu.be/DeumyOzKqgI?si=Cok0dR7byK6pN682</t>
+          <t>https://youtu.be/zABLecsR5UE?si=k3rryaA0P3O8JBhY</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>Story of my life</t>
+          <t>Fed up with us</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://youtu.be/W-TE_Ys4iwM?si=RViOxRuaXxdz3pmm</t>
+          <t>https://youtu.be/n1NTv6Y4pxs?si=76WA3JI0TGILBHm7</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="B95" t="inlineStr">
         <is>
-          <t>Reamonn - Tonight</t>
+          <t>Skyfall</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://youtu.be/jtoncUzV6nA?si=yULSO1-MxnAVV13i</t>
+          <t>https://youtu.be/DeumyOzKqgI?si=Cok0dR7byK6pN682</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>Hymn For The Weekend</t>
+          <t>Story of my life</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=YykjpeuMNEk</t>
+          <t>https://youtu.be/W-TE_Ys4iwM?si=RViOxRuaXxdz3pmm</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="B97" t="inlineStr">
         <is>
-          <t>Hell Or High Water</t>
+          <t>Reamonn - Tonight</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://youtu.be/zgDbp5C74sU?si=R8Q5HZq2vzhGL57g</t>
+          <t>https://youtu.be/jtoncUzV6nA?si=yULSO1-MxnAVV13i</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>Lonely</t>
+          <t>Hymn For The Weekend</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://youtu.be/M4hvSgnsnog?si=TtDhe_NUHM1NZaY9</t>
+          <t>https://www.youtube.com/watch?v=YykjpeuMNEk</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="B99" t="inlineStr">
         <is>
-          <t>Everything I Need</t>
+          <t>Hell Or High Water</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=9bCp7j3nC30</t>
+          <t>https://youtu.be/zgDbp5C74sU?si=R8Q5HZq2vzhGL57g</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="B100" t="inlineStr">
         <is>
-          <t>Love the way you lie</t>
+          <t>Everything I Need</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://youtu.be/h_-JFUci0BM?si=SHiuHs1NdIjpN0WP</t>
+          <t>https://www.youtube.com/watch?v=9bCp7j3nC30</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>Moving Mountains</t>
+          <t>Love the way you lie</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://youtu.be/S_0r3hYg78o?si=Be6GShy7mgRcl9Ha</t>
+          <t>https://youtu.be/h_-JFUci0BM?si=SHiuHs1NdIjpN0WP</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="B102" t="inlineStr">
         <is>
-          <t>Numb (cover)</t>
+          <t>Moving Mountains</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>https://youtu.be/gHp-OjLOG5A?si=0abUDswbKz6rhQeX</t>
+          <t>https://youtu.be/S_0r3hYg78o?si=Be6GShy7mgRcl9Ha</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>Until I found you</t>
+          <t>Numb (cover)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>https://youtu.be/oIKuyj2GQtY</t>
+          <t>https://youtu.be/gHp-OjLOG5A?si=0abUDswbKz6rhQeX</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>Heart is on fire</t>
+          <t>Until I found you</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>https://youtu.be/kBqqlW6-99M?si=kXaaJTqhA4PaY6Gd</t>
+          <t>https://youtu.be/oIKuyj2GQtY</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
-          <t>Holes</t>
+          <t>Heart is on fire</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>https://youtu.be/DeFWClW7skQ?si=hkIGl-CTTw-FbnLz</t>
+          <t>https://youtu.be/kBqqlW6-99M?si=kXaaJTqhA4PaY6Gd</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="B106" t="inlineStr">
         <is>
-          <t>Survivors</t>
+          <t>Holes</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=vN0gaXS8dQE</t>
+          <t>https://youtu.be/DeFWClW7skQ?si=hkIGl-CTTw-FbnLz</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="B107" t="inlineStr">
         <is>
-          <t>Irakliy - Ya s toboy(cover)</t>
+          <t>Survivors</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>https://youtu.be/3WmdZOF5bKk?si=LcXY8Gohxxx4cZSA</t>
+          <t>https://www.youtube.com/watch?v=vN0gaXS8dQE</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="B108" t="inlineStr">
         <is>
-          <t>Vetrom stat (cover)</t>
+          <t>Irakliy - Ya s toboy(cover)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>https://youtu.be/kkzEs0gdvZI?si=Z456wgKuJd0aE_PA</t>
+          <t>https://youtu.be/3WmdZOF5bKk?si=LcXY8Gohxxx4cZSA</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>Reamonn - Supergirl</t>
+          <t>Vetrom stat (cover)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>https://youtu.be/ctmS5XX67Ek?si=NGZGPw0bcpfZciyi</t>
+          <t>https://youtu.be/kkzEs0gdvZI?si=Z456wgKuJd0aE_PA</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>Another Love</t>
+          <t>Reamonn - Supergirl</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>https://youtu.be/Jkj36B1YuDU?si=Yku5tRPe7avRNr2R</t>
+          <t>https://youtu.be/ctmS5XX67Ek?si=NGZGPw0bcpfZciyi</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="B111" t="inlineStr">
         <is>
-          <t>All the little lights</t>
+          <t>Another Love</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>https://youtu.be/OkxVxox--Io?si=AE4wj_c_uqTWGrbB</t>
+          <t>https://youtu.be/Jkj36B1YuDU?si=Yku5tRPe7avRNr2R</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>Arcade</t>
+          <t>All the little lights</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>https://youtu.be/Qau6mObfSGM?si=RsrcZ0VUCOHaEwE4</t>
+          <t>https://youtu.be/OkxVxox--Io?si=AE4wj_c_uqTWGrbB</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="B113" t="inlineStr">
         <is>
-          <t>Burito - Po volnam</t>
+          <t>Arcade</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>https://youtu.be/jqyJ4xW2gb0?si=VgrA4JKMWkeWDIA5</t>
+          <t>https://youtu.be/Qau6mObfSGM?si=RsrcZ0VUCOHaEwE4</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="B114" t="inlineStr">
         <is>
-          <t>To Be Free</t>
+          <t>Burito - Po volnam</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>https://youtu.be/hNd5pILkpSw?si=qiwZxiuS0yeiuOPs</t>
+          <t>https://youtu.be/jqyJ4xW2gb0?si=VgrA4JKMWkeWDIA5</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="B115" t="inlineStr">
         <is>
-          <t>Castle of Glass</t>
+          <t>To Be Free</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=PPkJeWPP2nM</t>
+          <t>https://youtu.be/hNd5pILkpSw?si=qiwZxiuS0yeiuOPs</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="B116" t="inlineStr">
         <is>
-          <t>Ava Max - Alone</t>
+          <t>Castle of Glass</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>https://youtu.be/omvW1cI-3xg?si=zHiFadZaUUpddcgu</t>
+          <t>https://www.youtube.com/watch?v=PPkJeWPP2nM</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="B117" t="inlineStr">
         <is>
-          <t>Let Her Go (ft Ed Sheeran)</t>
+          <t>Ava Max - Alone</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>https://youtu.be/HTcL9WkB_wg?si=ILXw9EaPM4GJyx29</t>
+          <t>https://youtu.be/omvW1cI-3xg?si=zHiFadZaUUpddcgu</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="B118" t="inlineStr">
         <is>
-          <t>In the end (rmx)</t>
+          <t>Let Her Go (ft Ed Sheeran)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>https://youtu.be/WNeLUngb-Xg?si=V95nGOt0sMvhQG7c</t>
+          <t>https://youtu.be/HTcL9WkB_wg?si=ILXw9EaPM4GJyx29</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="B119" t="inlineStr">
         <is>
-          <t>No Time To Die</t>
+          <t>In the end (rmx)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>https://youtu.be/GB_S2qFh5lU?si=XDH6CdXhqJq-g321</t>
+          <t>https://youtu.be/WNeLUngb-Xg?si=V95nGOt0sMvhQG7c</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="B120" t="inlineStr">
         <is>
-          <t>Tired Of Being Sorry</t>
+          <t>No Time To Die</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>https://youtu.be/gzFmctgW0s8?si=JfvG_0Sj-IdPWoBY</t>
+          <t>https://youtu.be/GB_S2qFh5lU?si=XDH6CdXhqJq-g321</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="B121" t="inlineStr">
         <is>
-          <t>The Cup Of Life - Ricky Martin</t>
+          <t>Tired Of Being Sorry</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>https://youtu.be/CBfSeqfeggI?si=A2RRcM0PSvAsvpHF</t>
+          <t>https://youtu.be/gzFmctgW0s8?si=JfvG_0Sj-IdPWoBY</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="B122" t="inlineStr">
         <is>
-          <t>Баста - Выпускной</t>
+          <t>The Cup Of Life - Ricky Martin</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>https://youtu.be/t1-yL-xvklc?si=YZ1rS5hZtleOFOy1</t>
+          <t>https://youtu.be/CBfSeqfeggI?si=A2RRcM0PSvAsvpHF</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="B123" t="inlineStr">
         <is>
-          <t>Wonderful Life</t>
+          <t>Баста - Выпускной</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>https://youtu.be/qzn_6bXdgeE?si=BgnimyD5Frnn_-o-</t>
+          <t>https://youtu.be/t1-yL-xvklc?si=YZ1rS5hZtleOFOy1</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="B124" t="inlineStr">
         <is>
+          <t>Wonderful Life</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>https://youtu.be/qzn_6bXdgeE?si=BgnimyD5Frnn_-o-</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="B125" t="inlineStr">
+        <is>
           <t>Shape of My Heart</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>https://youtu.be/pm3rDbXbZRI?si=7TxDuViBxhHGeZoU</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Shape of My Heart</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>https://youtu.be/pm3rDbXbZRI?si=7TxDuViBxhHGeZoU</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Shape of My Heart</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
         <is>
           <t>https://youtu.be/pm3rDbXbZRI?si=7TxDuViBxhHGeZoU</t>
         </is>

--- a/songs.xlsx
+++ b/songs.xlsx
@@ -1062,7 +1062,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F127"/>
+  <dimension ref="A1:F125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
@@ -2581,30 +2581,6 @@
         </is>
       </c>
     </row>
-    <row r="126">
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>Shape of My Heart</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>https://youtu.be/pm3rDbXbZRI?si=7TxDuViBxhHGeZoU</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>Shape of My Heart</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>https://youtu.be/pm3rDbXbZRI?si=7TxDuViBxhHGeZoU</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/songs.xlsx
+++ b/songs.xlsx
@@ -1444,24 +1444,24 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>JEON SOMI DUMB DUMB Lyrics (전소미 DUMB DUMB 가사)</t>
+          <t>Zara Larsson - Lush Life</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=TfAzTYzBvTo</t>
+          <t>https://www.youtube.com/watch?v=tD4HCZe-tew</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>Zara Larsson - Lush Life</t>
+          <t>JEON SOMI DUMB DUMB Lyrics (전소미 DUMB DUMB 가사)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=tD4HCZe-tew</t>
+          <t>https://www.youtube.com/watch?v=TfAzTYzBvTo</t>
         </is>
       </c>
     </row>

--- a/songs.xlsx
+++ b/songs.xlsx
@@ -1816,7 +1816,7 @@
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>Whos laughing now</t>
+          <t>Who`s laughing now - Ava Max</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2524,60 +2524,60 @@
     <row r="121">
       <c r="B121" t="inlineStr">
         <is>
-          <t>Tired Of Being Sorry</t>
+          <t>The Cup Of Life - Ricky Martin</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>https://youtu.be/gzFmctgW0s8?si=JfvG_0Sj-IdPWoBY</t>
+          <t>https://youtu.be/CBfSeqfeggI?si=A2RRcM0PSvAsvpHF</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="B122" t="inlineStr">
         <is>
-          <t>The Cup Of Life - Ricky Martin</t>
+          <t>Баста - Выпускной</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>https://youtu.be/CBfSeqfeggI?si=A2RRcM0PSvAsvpHF</t>
+          <t>https://youtu.be/t1-yL-xvklc?si=YZ1rS5hZtleOFOy1</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="B123" t="inlineStr">
         <is>
-          <t>Баста - Выпускной</t>
+          <t>Wonderful Life</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>https://youtu.be/t1-yL-xvklc?si=YZ1rS5hZtleOFOy1</t>
+          <t>https://youtu.be/qzn_6bXdgeE?si=BgnimyD5Frnn_-o-</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="B124" t="inlineStr">
         <is>
-          <t>Wonderful Life</t>
+          <t>Shape of My Heart</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>https://youtu.be/qzn_6bXdgeE?si=BgnimyD5Frnn_-o-</t>
+          <t>https://youtu.be/pm3rDbXbZRI?si=7TxDuViBxhHGeZoU</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="B125" t="inlineStr">
         <is>
-          <t>Shape of My Heart</t>
+          <t>Tired Of Being Sorry</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>https://youtu.be/pm3rDbXbZRI?si=7TxDuViBxhHGeZoU</t>
+          <t>https://youtu.be/gzFmctgW0s8?si=JfvG_0Sj-IdPWoBY</t>
         </is>
       </c>
     </row>

--- a/songs.xlsx
+++ b/songs.xlsx
@@ -1062,7 +1062,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F125"/>
+  <dimension ref="A1:F128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
@@ -1096,1486 +1096,1522 @@
     <row r="2">
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lana Del Rey - Video Games</t>
+          <t>2CELLOS - Shape Of My Heart [Live at Arena di Verona]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=cE6wxDqdOV0</t>
+          <t>https://www.youtube.com/watch?v=jx1-NP9_YIA</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>2CELLOS - Fragile [LIVE at Arena Pula]</t>
+          <t>Enrique Iglesias - EL BAÑO (Letra) ft. Bad Bunny</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=q_ymIjOyzRQ</t>
+          <t>https://www.youtube.com/watch?v=8BbtBnnnvCM</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>Justin Bieber &amp; benny blanco - Lonely (Official Acoustic Video)</t>
+          <t>2CELLOS - Love Story</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=Cu5hhxP_prE</t>
+          <t>https://www.youtube.com/watch?v=UdHopftQD3A</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>서태지와 아이들   이 밤이 깊어가지만 (가사 첨부)</t>
+          <t>Lana Del Rey - Video Games</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=__SXVP2GmvM</t>
+          <t>https://www.youtube.com/watch?v=cE6wxDqdOV0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cody Francis - Rose In The Garden</t>
+          <t>2CELLOS - Fragile [LIVE at Arena Pula]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=JO4-j1LfoQQ</t>
+          <t>https://www.youtube.com/watch?v=q_ymIjOyzRQ</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>I Got Summer On My Mind (Still Dre Remix)</t>
+          <t>Justin Bieber &amp; benny blanco - Lonely (Official Acoustic Video)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=89LOsf8pDhY</t>
+          <t>https://www.youtube.com/watch?v=Cu5hhxP_prE</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Lady Gaga, Bruno Mars - Die With A Smile</t>
+          <t>서태지와 아이들   이 밤이 깊어가지만 (가사 첨부)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=zgaCZOQCpp8</t>
+          <t>https://www.youtube.com/watch?v=__SXVP2GmvM</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Maxim Fadeev - Googoosha</t>
+          <t>Cody Francis - Rose In The Garden</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=gqOoJXttEec</t>
+          <t>https://www.youtube.com/watch?v=JO4-j1LfoQQ</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>Elley Duhe - Middle Of The Night</t>
+          <t>I Got Summer On My Mind (Still Dre Remix)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=KLTMCPzRO64</t>
+          <t>https://www.youtube.com/watch?v=89LOsf8pDhY</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>Broken Angel (Albert Vishi ft. Taulant Sllamniku Cover)</t>
+          <t>Lady Gaga, Bruno Mars - Die With A Smile</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=5miHGQVFJm0</t>
+          <t>https://www.youtube.com/watch?v=zgaCZOQCpp8</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>Laura Pausini - It’s Not Goodbye</t>
+          <t>Maxim Fadeev - Googoosha</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=onYQkI8S1UY</t>
+          <t>https://www.youtube.com/watch?v=gqOoJXttEec</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Juice Wrld - Lucid Dreams </t>
+          <t>Elley Duhe - Middle Of The Night</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=_fh64GbFSw4</t>
+          <t>https://www.youtube.com/watch?v=KLTMCPzRO64</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>Ramz - Barking</t>
+          <t>Broken Angel (Albert Vishi ft. Taulant Sllamniku Cover)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=Q0QKUU95bVc</t>
+          <t>https://www.youtube.com/watch?v=5miHGQVFJm0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>falling in love with someone you can't have (a playlist)</t>
+          <t>Laura Pausini - It’s Not Goodbye</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=_K57AlI62V4</t>
+          <t>https://www.youtube.com/watch?v=onYQkI8S1UY</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>Feeling Good 🌱 A playlist to lift your mood</t>
+          <t xml:space="preserve">Juice Wrld - Lucid Dreams </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=VYtBO_cDJCU</t>
+          <t>https://www.youtube.com/watch?v=_fh64GbFSw4</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>Best classical music: Beethoven, Mozart, Schubert,Bach...🎶</t>
+          <t>Ramz - Barking</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=DxnDcH2NS5c</t>
+          <t>https://www.youtube.com/watch?v=Q0QKUU95bVc</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>Selena Gomez - Bad Liar</t>
+          <t>falling in love with someone you can't have (a playlist)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=NZKXkD6EgBk</t>
+          <t>https://www.youtube.com/watch?v=_K57AlI62V4</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>Florida Georgia Line - Simple (Lyrics)</t>
+          <t>Feeling Good 🌱 A playlist to lift your mood</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=TuTDc9d_9yI</t>
+          <t>https://www.youtube.com/watch?v=VYtBO_cDJCU</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>Tones and I: Dance Monkey (US TV Debut)</t>
+          <t>Best classical music: Beethoven, Mozart, Schubert,Bach...🎶</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=4iQxG8ZjYO8</t>
+          <t>https://www.youtube.com/watch?v=DxnDcH2NS5c</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>the luka state - bring this all together</t>
+          <t>Selena Gomez - Bad Liar</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=OcJ5EgxsWBg</t>
+          <t>https://www.youtube.com/watch?v=NZKXkD6EgBk</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>Sunset Sons - I Can`t Wait (Official Audio)</t>
+          <t>Florida Georgia Line - Simple (Lyrics)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=JuiegvRQ8dI</t>
+          <t>https://www.youtube.com/watch?v=TuTDc9d_9yI</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>Sunset Sons - Somewhere Maybe (Official Audio)</t>
+          <t>Tones and I: Dance Monkey (US TV Debut)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=SHapfmLyBp0</t>
+          <t>https://www.youtube.com/watch?v=4iQxG8ZjYO8</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>Sunset Sons - Know My Name (Official Audio)</t>
+          <t>the luka state - bring this all together</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=orMwK0veDVQ</t>
+          <t>https://www.youtube.com/watch?v=OcJ5EgxsWBg</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>Sunset Sons - The River</t>
+          <t>Sunset Sons - I Can`t Wait (Official Audio)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=MCyEm1fViZQ</t>
+          <t>https://www.youtube.com/watch?v=JuiegvRQ8dI</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>Sunset Sons - Loa (Official Audio)</t>
+          <t>Sunset Sons - Somewhere Maybe (Official Audio)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=9tXWQy7mMsM</t>
+          <t>https://www.youtube.com/watch?v=SHapfmLyBp0</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>Sunset Song - On The Road (Lyrics)</t>
+          <t>Sunset Sons - Know My Name (Official Audio)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=NsKZ-5EDqPA</t>
+          <t>https://www.youtube.com/watch?v=orMwK0veDVQ</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>Sunset Sons - Remember</t>
+          <t>Sunset Sons - The River</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=PH_P12XqY9Y</t>
+          <t>https://www.youtube.com/watch?v=MCyEm1fViZQ</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>Craig David - Walking Away [Lyrics] 🎵</t>
+          <t>Sunset Sons - Loa (Official Audio)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=8AwamgSDpdA</t>
+          <t>https://www.youtube.com/watch?v=9tXWQy7mMsM</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>Escape (Rosaline OST)</t>
+          <t>Sunset Song - On The Road (Lyrics)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=M9b_z-LKE14</t>
+          <t>https://www.youtube.com/watch?v=NsKZ-5EDqPA</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Zara Larsson - Lush Life</t>
+          <t>Sunset Sons - Remember</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=tD4HCZe-tew</t>
+          <t>https://www.youtube.com/watch?v=PH_P12XqY9Y</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>JEON SOMI DUMB DUMB Lyrics (전소미 DUMB DUMB 가사)</t>
+          <t>Craig David - Walking Away [Lyrics] 🎵</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=TfAzTYzBvTo</t>
+          <t>https://www.youtube.com/watch?v=8AwamgSDpdA</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>Shakira - Can`t Remember to Forget You (Lyrics) ft. Rihanna</t>
+          <t>Escape (Rosaline OST)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=i_XM3u1_jZQ</t>
+          <t>https://www.youtube.com/watch?v=M9b_z-LKE14</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>Havana feat. Yaar &amp;amp; Kaiia - Last Night (Lyrics)</t>
+          <t>Zara Larsson - Lush Life</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=i-Yuf5-zTec</t>
+          <t>https://www.youtube.com/watch?v=tD4HCZe-tew</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>Craig David - Rise &amp; Fall ft. Sting (Official Video)</t>
+          <t>JEON SOMI DUMB DUMB Lyrics (전소미 DUMB DUMB 가사)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=pU2ukeS2JTE</t>
+          <t>https://www.youtube.com/watch?v=TfAzTYzBvTo</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>Maroon 5 - Girls Like You ft. Cardi B (Official Music Video)</t>
+          <t>Shakira - Can`t Remember to Forget You (Lyrics) ft. Rihanna</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=aJOTlE1K90k</t>
+          <t>https://www.youtube.com/watch?v=i_XM3u1_jZQ</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>Havana feat. Yaar &amp; Kaiia - Big Love (Official Video)</t>
+          <t>Havana feat. Yaar &amp;amp; Kaiia - Last Night (Lyrics)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=aVFNJBqj5vU</t>
+          <t>https://www.youtube.com/watch?v=i-Yuf5-zTec</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>Edward Maya, Vika Jigulina - Stereo love (Radio Edit) (Lyrics)</t>
+          <t>Craig David - Rise &amp; Fall ft. Sting (Official Video)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=y9Kqb2z9Lzs</t>
+          <t>https://www.youtube.com/watch?v=pU2ukeS2JTE</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>Gym Class Heroes: Stereo Hearts ft. Adam Levine</t>
+          <t>Maroon 5 - Girls Like You ft. Cardi B (Official Music Video)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=T3E9Wjbq44E</t>
+          <t>https://www.youtube.com/watch?v=aJOTlE1K90k</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>Shawn Mendes - It'll Be Okay</t>
+          <t>Havana feat. Yaar &amp; Kaiia - Big Love (Official Video)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://youtu.be/KrgJp7Z1Hv8?si=MOyY5rZzP-7kcfhM</t>
+          <t>https://www.youtube.com/watch?v=aVFNJBqj5vU</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>somewhere only we know (Gustixa &amp;amp; Rhianne)</t>
+          <t>Edward Maya, Vika Jigulina - Stereo love (Radio Edit) (Lyrics)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=92izkAK5OA0</t>
+          <t>https://www.youtube.com/watch?v=y9Kqb2z9Lzs</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Duncan Laurence feat. FLETCHER – Arcade</t>
+          <t>Gym Class Heroes: Stereo Hearts ft. Adam Levine</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=308v08mFWWc</t>
+          <t>https://www.youtube.com/watch?v=T3E9Wjbq44E</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>Bad Liar (cover)</t>
+          <t>Shawn Mendes - It'll Be Okay</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://youtu.be/5jfz3q9Z0RY?si=OHvyb7AMtM_wtAXc</t>
+          <t>https://youtu.be/KrgJp7Z1Hv8?si=MOyY5rZzP-7kcfhM</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>Lana Del Rey - Summertime Sadness (Official Music Video)</t>
+          <t>somewhere only we know (Gustixa &amp;amp; Rhianne)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=TdrL3QxjyVw</t>
+          <t>https://www.youtube.com/watch?v=92izkAK5OA0</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>Linkin Park - In The End (Mellen Gi &amp;amp; Tommee Profitt Remix)</t>
+          <t>Duncan Laurence feat. FLETCHER – Arcade</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=WNeLUngb-Xg</t>
+          <t>https://www.youtube.com/watch?v=308v08mFWWc</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Enya - Only Time (Official 4K Music Video)</t>
+          <t>Bad Liar (cover)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=7wfYIMyS_dI</t>
+          <t>https://youtu.be/5jfz3q9Z0RY?si=OHvyb7AMtM_wtAXc</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>Today is a Good Day</t>
+          <t>Lana Del Rey - Summertime Sadness (Official Music Video)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://youtu.be/9L4EjJqrz0c?si=x97RAvAA9IELRZPW</t>
+          <t>https://www.youtube.com/watch?v=TdrL3QxjyVw</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>Heroes Tonight</t>
+          <t>Linkin Park - In The End (Mellen Gi &amp;amp; Tommee Profitt Remix)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=074rfF4RJZc</t>
+          <t>https://www.youtube.com/watch?v=WNeLUngb-Xg</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>Shakira - Hips Dont Lie</t>
+          <t>Enya - Only Time (Official 4K Music Video)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://youtu.be/p3pEe6aAJ4k?si=bzrAEs7c-zSwqBUo</t>
+          <t>https://www.youtube.com/watch?v=7wfYIMyS_dI</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>Shakira - La La La World Cup 2014</t>
+          <t>Today is a Good Day</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://youtu.be/2igups6VdcA?si=N5uu5genirJuWXWC</t>
+          <t>https://youtu.be/9L4EjJqrz0c?si=x97RAvAA9IELRZPW</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>Something Just Like This</t>
+          <t>Heroes Tonight</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://youtu.be/FM7MFYoylVs?si=TrbAGj-JAUeEJ4bd</t>
+          <t>https://www.youtube.com/watch?v=074rfF4RJZc</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>Shakira - Chantaje (letra)</t>
+          <t>Shakira - Hips Dont Lie</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://youtu.be/J76eQJP3UIQ?si=juYKqG_UCEta8y19</t>
+          <t>https://youtu.be/p3pEe6aAJ4k?si=bzrAEs7c-zSwqBUo</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>Zara Larsson – Dont Worry Bout Me</t>
+          <t>Shakira - La La La World Cup 2014</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://youtu.be/u_tzZd9kIWg?si=y-s2yCVh4U2JLsJJ</t>
+          <t>https://youtu.be/2igups6VdcA?si=N5uu5genirJuWXWC</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>Selena Gomez - Buscando Amor</t>
+          <t>Something Just Like This</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://youtu.be/2P6EExu3H5s?si=f2hv9y52VqxnVOmL</t>
+          <t>https://youtu.be/FM7MFYoylVs?si=TrbAGj-JAUeEJ4bd</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>Shawn Mendes - In My Blood</t>
+          <t>Shakira - Chantaje (letra)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://youtu.be/36tggrpRoTI?si=CiCfVdO8Oepjt4Rs</t>
+          <t>https://youtu.be/J76eQJP3UIQ?si=juYKqG_UCEta8y19</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>Charlie Puth - We Dont Talk Anymore</t>
+          <t>Zara Larsson – Dont Worry Bout Me</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://youtu.be/bpFVJJBgtXY?si=L2NuwOWGhmdKacwg</t>
+          <t>https://youtu.be/u_tzZd9kIWg?si=y-s2yCVh4U2JLsJJ</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>Selena Gomez - Adiós</t>
+          <t>Selena Gomez - Buscando Amor</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://youtu.be/9H_368c2Hzw?si=UOBGyTGbUe_fISFW</t>
+          <t>https://youtu.be/2P6EExu3H5s?si=f2hv9y52VqxnVOmL</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>Charlie Puth - Attention</t>
+          <t>Shawn Mendes - In My Blood</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://youtu.be/Oz5JDtkf1as</t>
+          <t>https://youtu.be/36tggrpRoTI?si=CiCfVdO8Oepjt4Rs</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>Bruno Mars - Grenade</t>
+          <t>Charlie Puth - We Dont Talk Anymore</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://youtu.be/4YrzJ9RZ9qY</t>
+          <t>https://youtu.be/bpFVJJBgtXY?si=L2NuwOWGhmdKacwg</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>Let Me Love You</t>
+          <t>Selena Gomez - Adiós</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://youtu.be/SMs0GnYze34?si=T-UORWGqJCoitcOM</t>
+          <t>https://youtu.be/9H_368c2Hzw?si=UOBGyTGbUe_fISFW</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>Sweet But Psycho</t>
+          <t>Charlie Puth - Attention</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://youtu.be/2KBFD0aoZy8</t>
+          <t>https://youtu.be/Oz5JDtkf1as</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>Who`s laughing now - Ava Max</t>
+          <t>Bruno Mars - Grenade</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://youtu.be/4JYSgIiSZSA?si=3v9kDuzvYJvWaOsO</t>
+          <t>https://youtu.be/4YrzJ9RZ9qY</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>Girls Like You</t>
+          <t>Let Me Love You</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://youtu.be/aJOTlE1K90k</t>
+          <t>https://youtu.be/SMs0GnYze34?si=T-UORWGqJCoitcOM</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>Camila Cabello - Havana</t>
+          <t>Sweet But Psycho</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://youtu.be/HCjNJDNzw8Y?si=QjZAi7GPIc4ParOQ</t>
+          <t>https://youtu.be/2KBFD0aoZy8</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>Maroon 5 - Memories</t>
+          <t>Who`s laughing now - Ava Max</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=SlPhMPnQ58k&amp;pp=ygUPbWFyb29uIG1lbW9yaWVz</t>
+          <t>https://youtu.be/4JYSgIiSZSA?si=3v9kDuzvYJvWaOsO</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>post malone - rockstar (feat. 21 savage)</t>
+          <t>Girls Like You</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=9lQP9-F8kIQ</t>
+          <t>https://youtu.be/aJOTlE1K90k</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>Drake - Gods plan</t>
+          <t>Camila Cabello - Havana</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=ScfgOVJiu_I</t>
+          <t>https://youtu.be/HCjNJDNzw8Y?si=QjZAi7GPIc4ParOQ</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>Dua Lipa - Levitating</t>
+          <t>Maroon 5 - Memories</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=j2c3tR_qfiQ</t>
+          <t>https://www.youtube.com/watch?v=SlPhMPnQ58k&amp;pp=ygUPbWFyb29uIG1lbW9yaWVz</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>Justin Bieber - Baby</t>
+          <t>post malone - rockstar (feat. 21 savage)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=khOFw2f4bQY</t>
+          <t>https://www.youtube.com/watch?v=9lQP9-F8kIQ</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>State of Grace</t>
+          <t>Drake - Gods plan</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=gr4cqcqnAN0</t>
+          <t>https://www.youtube.com/watch?v=ScfgOVJiu_I</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>Taylor Swift - Back To December</t>
+          <t>Dua Lipa - Levitating</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://youtu.be/QUwxKWT6m7U?si=LNPBWKl0DqXIfOP2</t>
+          <t>https://www.youtube.com/watch?v=j2c3tR_qfiQ</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>As it was</t>
+          <t>Justin Bieber - Baby</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://youtu.be/Qfm6nfz1QNQ?si=3mMjYFpALij7GELl</t>
+          <t>https://www.youtube.com/watch?v=khOFw2f4bQY</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>Taylor Swift - Begin Again</t>
+          <t>State of Grace</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://youtu.be/cMPEd8m79Hw?si=9zE5-51p0xGyEgSO</t>
+          <t>https://www.youtube.com/watch?v=gr4cqcqnAN0</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>Sofia</t>
+          <t>Taylor Swift - Back To December</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://youtu.be/ftI_Lp7LAuU?si=aOFT5Ral2-A_2PxG</t>
+          <t>https://youtu.be/QUwxKWT6m7U?si=LNPBWKl0DqXIfOP2</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>Numb (lyrics|rock)</t>
+          <t>As it was</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://youtu.be/8P0vKLHbtMg?si=HhXMHjE8vD2yeC_B</t>
+          <t>https://youtu.be/Qfm6nfz1QNQ?si=3mMjYFpALij7GELl</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>For The Rest Of My Life</t>
+          <t>Taylor Swift - Begin Again</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://youtu.be/PHbZ9SXHJwA?si=_7a2Gaka2oPEWrCQ</t>
+          <t>https://youtu.be/cMPEd8m79Hw?si=9zE5-51p0xGyEgSO</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>Insha Allah</t>
+          <t>Sofia</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://youtu.be/8xXJyFNfiy8?si=XkqgGm4hEyZoqJe1</t>
+          <t>https://youtu.be/ftI_Lp7LAuU?si=aOFT5Ral2-A_2PxG</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>Hunger Games | Atlas</t>
+          <t>Numb (lyrics|rock)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://youtu.be/Lh3TokLzzmw?si=I5CcdBNIEuwDZvVT</t>
+          <t>https://youtu.be/8P0vKLHbtMg?si=HhXMHjE8vD2yeC_B</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>Hard To Say Im Sorry</t>
+          <t>For The Rest Of My Life</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://youtu.be/XCmOdVia9DE?si=60M6i15UUakuL7DH</t>
+          <t>https://youtu.be/PHbZ9SXHJwA?si=_7a2Gaka2oPEWrCQ</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>Sasha Sloan - Lie</t>
+          <t>Insha Allah</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://youtu.be/AzjTJpzfB8U?si=PHYxAGETm1P1opd0</t>
+          <t>https://youtu.be/8xXJyFNfiy8?si=XkqgGm4hEyZoqJe1</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>Solo Para Ti</t>
+          <t>Hunger Games | Atlas</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://youtu.be/5D_A4IBWSv4?si=pgNinSqUyLBks6po</t>
+          <t>https://youtu.be/Lh3TokLzzmw?si=I5CcdBNIEuwDZvVT</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>Zara Larsson - This Ones For You</t>
+          <t>Hard To Say Im Sorry</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://youtu.be/MoHnffhBwqs?si=_FGX4ucMtOTcD2to</t>
+          <t>https://youtu.be/XCmOdVia9DE?si=60M6i15UUakuL7DH</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>La Cintura</t>
+          <t>Sasha Sloan - Lie</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://youtu.be/Eg4LUvUjUWI?si=YqeuNfTh_iTuj-dP</t>
+          <t>https://youtu.be/AzjTJpzfB8U?si=PHYxAGETm1P1opd0</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>Diamond Heart</t>
+          <t>Solo Para Ti</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://youtu.be/bcHoBDw4G10?si=auASu-G_c9NkS48Z</t>
+          <t>https://youtu.be/5D_A4IBWSv4?si=pgNinSqUyLBks6po</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>Halsey - Sorry</t>
+          <t>Zara Larsson - This Ones For You</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://youtu.be/CPAoMCo7tNw?si=2rEiXXCn6UcySUVZ</t>
+          <t>https://youtu.be/MoHnffhBwqs?si=_FGX4ucMtOTcD2to</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>Relax, Take it Easy</t>
+          <t>La Cintura</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://youtu.be/EVDYmBrl02Q?si=ODB07HFZCtTtg4F4</t>
+          <t>https://youtu.be/Eg4LUvUjUWI?si=YqeuNfTh_iTuj-dP</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>Thank you Allah</t>
+          <t>Diamond Heart</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://youtu.be/RBrdl0v_anc?si=cu3qNsVyUIIzZGvv</t>
+          <t>https://youtu.be/bcHoBDw4G10?si=auASu-G_c9NkS48Z</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>Let me down slowly</t>
+          <t>Halsey - Sorry</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://youtu.be/50VNCymT-Cs?si=sEwBTlJCeuqL9LTD</t>
+          <t>https://youtu.be/CPAoMCo7tNw?si=2rEiXXCn6UcySUVZ</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>Lonely (acoustic)</t>
+          <t>Relax, Take it Easy</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://youtu.be/Cu5hhxP_prE?si=VRZVlVcLWqk8Dasg</t>
+          <t>https://youtu.be/EVDYmBrl02Q?si=ODB07HFZCtTtg4F4</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>Selfish love</t>
+          <t>Thank you Allah</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://youtu.be/9gqAq6kq5Ek?si=Gro32XWDuPLWzyIv</t>
+          <t>https://youtu.be/RBrdl0v_anc?si=cu3qNsVyUIIzZGvv</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>twenty one pilots: Heathens</t>
+          <t>Let me down slowly</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://youtu.be/UprcpdwuwCg?si=O6_fwxx8TOkfjIXi</t>
+          <t>https://youtu.be/50VNCymT-Cs?si=sEwBTlJCeuqL9LTD</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>Dont Let Me Down</t>
+          <t>Lonely (acoustic)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://youtu.be/Io0fBr1XBUA?si=SUp9MdCXlOU_Vf5s</t>
+          <t>https://youtu.be/Cu5hhxP_prE?si=VRZVlVcLWqk8Dasg</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>Someone you loved</t>
+          <t>Selfish love</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://youtu.be/zABLecsR5UE?si=k3rryaA0P3O8JBhY</t>
+          <t>https://youtu.be/9gqAq6kq5Ek?si=Gro32XWDuPLWzyIv</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>Fed up with us</t>
+          <t>twenty one pilots: Heathens</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://youtu.be/n1NTv6Y4pxs?si=76WA3JI0TGILBHm7</t>
+          <t>https://youtu.be/UprcpdwuwCg?si=O6_fwxx8TOkfjIXi</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="B95" t="inlineStr">
         <is>
-          <t>Skyfall</t>
+          <t>Dont Let Me Down</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://youtu.be/DeumyOzKqgI?si=Cok0dR7byK6pN682</t>
+          <t>https://youtu.be/Io0fBr1XBUA?si=SUp9MdCXlOU_Vf5s</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>Story of my life</t>
+          <t>Someone you loved</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://youtu.be/W-TE_Ys4iwM?si=RViOxRuaXxdz3pmm</t>
+          <t>https://youtu.be/zABLecsR5UE?si=k3rryaA0P3O8JBhY</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="B97" t="inlineStr">
         <is>
-          <t>Reamonn - Tonight</t>
+          <t>Fed up with us</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://youtu.be/jtoncUzV6nA?si=yULSO1-MxnAVV13i</t>
+          <t>https://youtu.be/n1NTv6Y4pxs?si=76WA3JI0TGILBHm7</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>Hymn For The Weekend</t>
+          <t>Skyfall</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=YykjpeuMNEk</t>
+          <t>https://youtu.be/DeumyOzKqgI?si=Cok0dR7byK6pN682</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="B99" t="inlineStr">
         <is>
-          <t>Hell Or High Water</t>
+          <t>Story of my life</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://youtu.be/zgDbp5C74sU?si=R8Q5HZq2vzhGL57g</t>
+          <t>https://youtu.be/W-TE_Ys4iwM?si=RViOxRuaXxdz3pmm</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="B100" t="inlineStr">
         <is>
-          <t>Everything I Need</t>
+          <t>Reamonn - Tonight</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=9bCp7j3nC30</t>
+          <t>https://youtu.be/jtoncUzV6nA?si=yULSO1-MxnAVV13i</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>Love the way you lie</t>
+          <t>Hymn For The Weekend</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://youtu.be/h_-JFUci0BM?si=SHiuHs1NdIjpN0WP</t>
+          <t>https://www.youtube.com/watch?v=YykjpeuMNEk</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="B102" t="inlineStr">
         <is>
-          <t>Moving Mountains</t>
+          <t>Hell Or High Water</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>https://youtu.be/S_0r3hYg78o?si=Be6GShy7mgRcl9Ha</t>
+          <t>https://youtu.be/zgDbp5C74sU?si=R8Q5HZq2vzhGL57g</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>Numb (cover)</t>
+          <t>Everything I Need</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>https://youtu.be/gHp-OjLOG5A?si=0abUDswbKz6rhQeX</t>
+          <t>https://www.youtube.com/watch?v=9bCp7j3nC30</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>Until I found you</t>
+          <t>Love the way you lie</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>https://youtu.be/oIKuyj2GQtY</t>
+          <t>https://youtu.be/h_-JFUci0BM?si=SHiuHs1NdIjpN0WP</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
-          <t>Heart is on fire</t>
+          <t>Moving Mountains</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>https://youtu.be/kBqqlW6-99M?si=kXaaJTqhA4PaY6Gd</t>
+          <t>https://youtu.be/S_0r3hYg78o?si=Be6GShy7mgRcl9Ha</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="B106" t="inlineStr">
         <is>
-          <t>Holes</t>
+          <t>Numb (cover)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>https://youtu.be/DeFWClW7skQ?si=hkIGl-CTTw-FbnLz</t>
+          <t>https://youtu.be/gHp-OjLOG5A?si=0abUDswbKz6rhQeX</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="B107" t="inlineStr">
         <is>
-          <t>Survivors</t>
+          <t>Until I found you</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=vN0gaXS8dQE</t>
+          <t>https://youtu.be/oIKuyj2GQtY</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="B108" t="inlineStr">
         <is>
-          <t>Irakliy - Ya s toboy(cover)</t>
+          <t>Heart is on fire</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>https://youtu.be/3WmdZOF5bKk?si=LcXY8Gohxxx4cZSA</t>
+          <t>https://youtu.be/kBqqlW6-99M?si=kXaaJTqhA4PaY6Gd</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>Vetrom stat (cover)</t>
+          <t>Holes</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>https://youtu.be/kkzEs0gdvZI?si=Z456wgKuJd0aE_PA</t>
+          <t>https://youtu.be/DeFWClW7skQ?si=hkIGl-CTTw-FbnLz</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>Reamonn - Supergirl</t>
+          <t>Survivors</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>https://youtu.be/ctmS5XX67Ek?si=NGZGPw0bcpfZciyi</t>
+          <t>https://www.youtube.com/watch?v=vN0gaXS8dQE</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="B111" t="inlineStr">
         <is>
-          <t>Another Love</t>
+          <t>Irakliy - Ya s toboy(cover)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>https://youtu.be/Jkj36B1YuDU?si=Yku5tRPe7avRNr2R</t>
+          <t>https://youtu.be/3WmdZOF5bKk?si=LcXY8Gohxxx4cZSA</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>All the little lights</t>
+          <t>Vetrom stat (cover)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>https://youtu.be/OkxVxox--Io?si=AE4wj_c_uqTWGrbB</t>
+          <t>https://youtu.be/kkzEs0gdvZI?si=Z456wgKuJd0aE_PA</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="B113" t="inlineStr">
         <is>
-          <t>Arcade</t>
+          <t>Reamonn - Supergirl</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>https://youtu.be/Qau6mObfSGM?si=RsrcZ0VUCOHaEwE4</t>
+          <t>https://youtu.be/ctmS5XX67Ek?si=NGZGPw0bcpfZciyi</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="B114" t="inlineStr">
         <is>
-          <t>Burito - Po volnam</t>
+          <t>Another Love</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>https://youtu.be/jqyJ4xW2gb0?si=VgrA4JKMWkeWDIA5</t>
+          <t>https://youtu.be/Jkj36B1YuDU?si=Yku5tRPe7avRNr2R</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="B115" t="inlineStr">
         <is>
-          <t>To Be Free</t>
+          <t>All the little lights</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>https://youtu.be/hNd5pILkpSw?si=qiwZxiuS0yeiuOPs</t>
+          <t>https://youtu.be/OkxVxox--Io?si=AE4wj_c_uqTWGrbB</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="B116" t="inlineStr">
         <is>
-          <t>Castle of Glass</t>
+          <t>Arcade</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=PPkJeWPP2nM</t>
+          <t>https://youtu.be/Qau6mObfSGM?si=RsrcZ0VUCOHaEwE4</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="B117" t="inlineStr">
         <is>
-          <t>Ava Max - Alone</t>
+          <t>Burito - Po volnam</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>https://youtu.be/omvW1cI-3xg?si=zHiFadZaUUpddcgu</t>
+          <t>https://youtu.be/jqyJ4xW2gb0?si=VgrA4JKMWkeWDIA5</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="B118" t="inlineStr">
         <is>
-          <t>Let Her Go (ft Ed Sheeran)</t>
+          <t>To Be Free</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>https://youtu.be/HTcL9WkB_wg?si=ILXw9EaPM4GJyx29</t>
+          <t>https://youtu.be/hNd5pILkpSw?si=qiwZxiuS0yeiuOPs</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="B119" t="inlineStr">
         <is>
-          <t>In the end (rmx)</t>
+          <t>Castle of Glass</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>https://youtu.be/WNeLUngb-Xg?si=V95nGOt0sMvhQG7c</t>
+          <t>https://www.youtube.com/watch?v=PPkJeWPP2nM</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="B120" t="inlineStr">
         <is>
-          <t>No Time To Die</t>
+          <t>Ava Max - Alone</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>https://youtu.be/GB_S2qFh5lU?si=XDH6CdXhqJq-g321</t>
+          <t>https://youtu.be/omvW1cI-3xg?si=zHiFadZaUUpddcgu</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="B121" t="inlineStr">
         <is>
-          <t>The Cup Of Life - Ricky Martin</t>
+          <t>Let Her Go (ft Ed Sheeran)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>https://youtu.be/CBfSeqfeggI?si=A2RRcM0PSvAsvpHF</t>
+          <t>https://youtu.be/HTcL9WkB_wg?si=ILXw9EaPM4GJyx29</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="B122" t="inlineStr">
         <is>
-          <t>Баста - Выпускной</t>
+          <t>In the end (rmx)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>https://youtu.be/t1-yL-xvklc?si=YZ1rS5hZtleOFOy1</t>
+          <t>https://youtu.be/WNeLUngb-Xg?si=V95nGOt0sMvhQG7c</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="B123" t="inlineStr">
         <is>
-          <t>Wonderful Life</t>
+          <t>No Time To Die</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>https://youtu.be/qzn_6bXdgeE?si=BgnimyD5Frnn_-o-</t>
+          <t>https://youtu.be/GB_S2qFh5lU?si=XDH6CdXhqJq-g321</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="B124" t="inlineStr">
         <is>
-          <t>Shape of My Heart</t>
+          <t>The Cup Of Life - Ricky Martin</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>https://youtu.be/pm3rDbXbZRI?si=7TxDuViBxhHGeZoU</t>
+          <t>https://youtu.be/CBfSeqfeggI?si=A2RRcM0PSvAsvpHF</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="B125" t="inlineStr">
         <is>
+          <t>Баста - Выпускной</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>https://youtu.be/t1-yL-xvklc?si=YZ1rS5hZtleOFOy1</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Wonderful Life</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>https://youtu.be/qzn_6bXdgeE?si=BgnimyD5Frnn_-o-</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Shape of My Heart</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>https://youtu.be/pm3rDbXbZRI?si=7TxDuViBxhHGeZoU</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="B128" t="inlineStr">
+        <is>
           <t>Tired Of Being Sorry</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="C128" t="inlineStr">
         <is>
           <t>https://youtu.be/gzFmctgW0s8?si=JfvG_0Sj-IdPWoBY</t>
         </is>
